--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
+    <sheet name="交屋後明細" sheetId="6" r:id="rId2"/>
+    <sheet name="交屋前支出" sheetId="7" r:id="rId3"/>
+    <sheet name="借款" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$G$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>頭期款2成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,7 +54,322 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手續費</t>
+    <t>吳媽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇媽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地印花稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物印花稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸款差額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯款手續費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登記費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影印費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謄本費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代刻印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地轉移登記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物轉移登記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押權設定登記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>履保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳管費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火地險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間1月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間1月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間預收租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大門感應器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費12/1~1/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費1月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費1/5~1/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間2月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸(銀行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遷戶口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸(自付)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸(自付)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間2月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費12~2月</t>
+  </si>
+  <si>
+    <t>管理費12~2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費12~2月(剩錢)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各出2千5剩餘的錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3747，機清費300，垃圾費150，寬頻費300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間3月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間3月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費2~3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費4~5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間4月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間4月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間5月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間5月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費2~3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車遙控器電池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間預收租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/1/5~ 2012/6/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/1/5~ 2012/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/1/5~ 2012/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/6/9~2013/6/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3~5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費6~7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間6月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電磁爐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理浴室水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車車位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,8 +377,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -109,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -123,6 +440,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,37 +813,1328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" customHeight="1">
+      <c r="B1" s="6"/>
+      <c r="C1" s="2">
+        <f>SUBTOTAL(9,C3:C304)</f>
+        <v>158507</v>
+      </c>
+      <c r="D1" s="6">
+        <f>SUBTOTAL(9,D3:D304)</f>
+        <v>276591</v>
+      </c>
+      <c r="E1" s="6">
+        <f>D1-C1</f>
+        <v>118084</v>
+      </c>
+      <c r="F1" s="6">
+        <f>SUBTOTAL(9,F3:F304)</f>
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6">
+        <v>41533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6">
+        <v>11000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6">
+        <v>11000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6">
+        <v>13000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>40914</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>40922</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>40928</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>40938</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>40942</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>40943</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>40945</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>40947</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>40973</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>40982</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>40998</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>41004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>41009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>41012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>41032</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>41037</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>41040</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>41048</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>41051</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="6">
+        <v>11600</v>
+      </c>
+      <c r="F37" s="6">
+        <v>11600</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>41051</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="6">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>41053</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2">
+        <v>11000</v>
+      </c>
+      <c r="F44" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E1" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" s="2">
+        <f>SUBTOTAL(9,C3:C306)</f>
+        <v>148010</v>
+      </c>
+      <c r="D1" s="6">
+        <f>SUBTOTAL(9,D3:D306)</f>
+        <v>174991</v>
+      </c>
+      <c r="E1" s="6">
+        <f>D1-C1</f>
+        <v>26981</v>
+      </c>
+      <c r="F1" s="6">
+        <f>SUBTOTAL(9,F3:F306)</f>
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6">
+        <v>41533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>40913</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>40914</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>40922</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>40928</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>40938</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>40942</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>40943</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>40945</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>40947</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2">
+        <v>503</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>40973</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>40974</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>40982</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>40998</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>41004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>41009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>41012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>41032</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>41037</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>41040</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>41048</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>41051</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="6">
+        <v>11600</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>41051</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="6">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>41053</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E1" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C16)</f>
-        <v>1376060</v>
+        <f>SUBTOTAL(9,C3:C300)</f>
+        <v>1937798</v>
       </c>
       <c r="D1" s="2">
-        <f>SUBTOTAL(9,D3:D16)</f>
-        <v>840060</v>
+        <f>SUBTOTAL(9,D3:D300)</f>
+        <v>971798</v>
       </c>
       <c r="E1" s="2">
-        <f>SUBTOTAL(9,E3:E15)</f>
-        <v>536000</v>
+        <f>SUBTOTAL(9,E3:E300)</f>
+        <v>591000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -528,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -556,7 +2173,7 @@
         <v>40881</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>1250000</v>
@@ -581,7 +2198,7 @@
         <v>40883</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
@@ -606,7 +2223,7 @@
         <v>40886</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>30</v>
@@ -617,16 +2234,249 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>40892</v>
+        <v>40901</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>125000</v>
       </c>
       <c r="D9" s="2">
-        <v>125000</v>
+        <v>105000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>40904</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>40904</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>40904</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2339</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32334</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22334</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>626</v>
+      </c>
+      <c r="D14" s="2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>538</v>
+      </c>
+      <c r="D15" s="2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6383</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>500</v>
+      </c>
+      <c r="D18" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1858</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>40905</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -636,28 +2486,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1">
+        <f>SUBTOTAL(9,D3:D300)</f>
+        <v>-300000</v>
+      </c>
+      <c r="E1">
+        <f>SUBTOTAL(9,E3:E300)</f>
+        <v>-75000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40900</v>
+      </c>
+      <c r="D3">
+        <v>-400000</v>
+      </c>
+      <c r="E3">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40926</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40945</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40969</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40979</v>
+      </c>
+      <c r="E7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41033</v>
+      </c>
+      <c r="E8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41033</v>
+      </c>
+      <c r="D9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>41061</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="借款" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$G$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,18 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2012/1/5~ 2012/9/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租約 2012/1/5~ 2012/7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租約 2012/6/9~2013/6/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電費3月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,11 +353,299 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修理浴室水龍頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機車車位</t>
+    <t>第1間修理浴室水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間修理浴室水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間機車車位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間電視遙控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4號電池4顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間冷氣遙控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔布2條</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間7月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間燈泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間8月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費8~9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間9月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費6~8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3.5.7.9月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/9/6~ 2013/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間10月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間11月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費10~11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費9~11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地價稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費12~1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間12月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打掃器具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗戶249，掃把349，畚斗999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/1/5~ 2013/2/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3.5.7.9.11.1~2/5電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床墊2個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/2/18~2013/6/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>353號15樓第四台費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付2012、2013年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3.5~6/7電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口罩20，小蘇打粉279，藍藍香99，白醋82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間3月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間4月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3~5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間5月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/2/18~2013/6/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費6~7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2012/9/6~ 2013/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/6/9~2014/6/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/6/9~2014/6/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間預收租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付7.9.11.1.3.5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3.5~6/19電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間預收租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間預收租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間機車車位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/7/1~2014/6/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白醋81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打第3間臥房鑰匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四台線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費8~9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費8月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +657,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,8 +673,22 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +698,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +746,21 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,41 +1124,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
-      <c r="B1" s="6"/>
+      <c r="B1" s="6">
+        <f>C1-11000-13000+503-13000</f>
+        <v>538441</v>
+      </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C304)</f>
-        <v>158507</v>
+        <f>SUBTOTAL(9,C3:C345)</f>
+        <v>574938</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D304)</f>
-        <v>276591</v>
+        <f>SUBTOTAL(9,D3:D345)</f>
+        <v>752098</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>118084</v>
+        <v>177160</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F304)</f>
-        <v>35600</v>
+        <f>SUBTOTAL(9,F3:F345)</f>
+        <v>36200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -914,8 +1228,8 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" t="s">
-        <v>70</v>
+      <c r="G5" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -931,8 +1245,8 @@
       <c r="F6" s="6">
         <v>13000</v>
       </c>
-      <c r="G6" t="s">
-        <v>71</v>
+      <c r="G6" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1130,7 +1444,7 @@
         <v>40982</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2">
         <v>2657</v>
@@ -1196,7 +1510,7 @@
         <v>41012</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2">
         <v>256</v>
@@ -1251,7 +1565,7 @@
         <v>41040</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
         <v>2902</v>
@@ -1281,8 +1595,8 @@
       <c r="F37" s="6">
         <v>11600</v>
       </c>
-      <c r="G37" t="s">
-        <v>72</v>
+      <c r="G37" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1301,7 +1615,7 @@
         <v>41053</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2">
         <v>3493</v>
@@ -1312,7 +1626,7 @@
         <v>41060</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2">
         <v>4497</v>
@@ -1345,7 +1659,7 @@
         <v>41065</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D43" s="6">
         <v>6000</v>
@@ -1365,7 +1679,7 @@
         <v>-11000</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1373,7 +1687,7 @@
         <v>41067</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D45" s="6">
         <v>750</v>
@@ -1384,7 +1698,7 @@
         <v>41067</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D46" s="6">
         <v>2750</v>
@@ -1395,60 +1709,1155 @@
         <v>41067</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2">
         <v>1600</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1"/>
+      <c r="A48" s="1">
+        <v>41068</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>41069</v>
+      </c>
       <c r="B51" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="6">
+      <c r="C51" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="2">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>41073</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="B53" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="10">
+        <v>110</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B59" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C59" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>41101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>41103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="B54" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>41124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>41134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>41170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3436</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="6">
+        <v>62300</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="2">
+        <v>22173</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>41218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>41221</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>41225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>41231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>41242</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>41247</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>41256</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>41257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>41278</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>41281</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>41281</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>41282</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>41285</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="2">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>41286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="2">
+        <v>13000</v>
+      </c>
+      <c r="F98" s="6">
+        <v>-13000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" s="6">
+        <v>7433</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>41318</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>41318</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>41320</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="6">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="2">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>41323</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="6">
+        <v>13000</v>
+      </c>
+      <c r="F107" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>41323</v>
+      </c>
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>41345</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>41346</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>41353</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>41370</v>
+      </c>
+      <c r="B114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A117" s="1">
+        <v>41377</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>41386</v>
+      </c>
+      <c r="B118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>41401</v>
+      </c>
+      <c r="B119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>41401</v>
+      </c>
+      <c r="B120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>41408</v>
+      </c>
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>41418</v>
+      </c>
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" s="2">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B125" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>41435</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>41440</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="6">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="6">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="2">
+        <v>13000</v>
+      </c>
+      <c r="F133" s="6">
+        <v>-13000</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B134" t="s">
+        <v>118</v>
+      </c>
+      <c r="D134" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B135" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135" s="6">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="2">
         <v>81</v>
       </c>
-      <c r="C54" s="2">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="2">
-        <v>7500</v>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" s="6">
+        <v>13600</v>
+      </c>
+      <c r="F139" s="6">
+        <v>13600</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B140" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="6">
+        <v>74800</v>
+      </c>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>41460</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="D142" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>41460</v>
+      </c>
+      <c r="B143" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>41466</v>
+      </c>
+      <c r="B144" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="2">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B145" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B147" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="2">
+        <v>22173</v>
       </c>
     </row>
   </sheetData>
@@ -1463,11 +2872,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1477,25 +2886,25 @@
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C306)</f>
-        <v>148010</v>
+        <f>SUBTOTAL(9,C3:C350)</f>
+        <v>538441</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D306)</f>
-        <v>174991</v>
+        <f>SUBTOTAL(9,D3:D350)</f>
+        <v>483898</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>26981</v>
+        <v>-54543</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F306)</f>
-        <v>35600</v>
+        <f>SUBTOTAL(9,F3:F350)</f>
+        <v>36200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1556,8 +2965,8 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" t="s">
-        <v>70</v>
+      <c r="G5" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1570,8 +2979,8 @@
       <c r="F6" s="6">
         <v>13000</v>
       </c>
-      <c r="G6" t="s">
-        <v>71</v>
+      <c r="G6" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1772,7 +3181,7 @@
         <v>40982</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2">
         <v>2657</v>
@@ -1839,7 +3248,7 @@
         <v>41012</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2">
         <v>256</v>
@@ -1895,7 +3304,7 @@
         <v>41040</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
         <v>2902</v>
@@ -1922,8 +3331,8 @@
       <c r="F37" s="6">
         <v>11600</v>
       </c>
-      <c r="G37" t="s">
-        <v>72</v>
+      <c r="G37" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1942,7 +3351,7 @@
         <v>41053</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2">
         <v>3493</v>
@@ -1953,7 +3362,7 @@
         <v>41060</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2">
         <v>4497</v>
@@ -1990,7 +3399,7 @@
         <v>41065</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D43" s="6">
         <v>6000</v>
@@ -2007,7 +3416,7 @@
         <v>-11000</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2015,7 +3424,7 @@
         <v>41067</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D45" s="6">
         <v>750</v>
@@ -2026,10 +3435,13 @@
         <v>41067</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D46" s="6">
         <v>2750</v>
+      </c>
+      <c r="G46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2037,59 +3449,1181 @@
         <v>41067</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2">
         <v>1600</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="A48" s="1">
+        <v>41068</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>41069</v>
+      </c>
       <c r="B51" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="6">
+      <c r="C51" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="6">
         <v>1200</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="2">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>41073</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="B53" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="10">
+        <v>110</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B59" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C59" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>41101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>41103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="B54" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>41124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>41134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>41170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3436</v>
+      </c>
+      <c r="G72" t="s">
+        <v>100</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="6">
+        <v>62300</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="2">
+        <v>12173</v>
+      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>41218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>41221</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>41225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>41231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>41242</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>41247</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>41256</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>41257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>41278</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>41281</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>41281</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>41282</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>41285</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="2">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>41286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1597</v>
+      </c>
+      <c r="G94" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="F98" s="6">
+        <v>-13000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" s="6">
+        <v>7433</v>
+      </c>
+      <c r="G100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>41318</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>41318</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="12">
+        <v>480</v>
+      </c>
+      <c r="G103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>41320</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="6">
+        <v>13200</v>
+      </c>
+      <c r="G104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="2">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>41323</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>41323</v>
+      </c>
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>41338</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>41345</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>41346</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>41353</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>41370</v>
+      </c>
+      <c r="B114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>41377</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>41386</v>
+      </c>
+      <c r="B118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>41401</v>
+      </c>
+      <c r="B119" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>41401</v>
+      </c>
+      <c r="B120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>41408</v>
+      </c>
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>41418</v>
+      </c>
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" s="2">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B125" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>41435</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>41440</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G128" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="6">
+        <v>6230</v>
+      </c>
+      <c r="G129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="6">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="F133" s="6">
+        <v>-13000</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B134" t="s">
+        <v>118</v>
+      </c>
+      <c r="D134" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B135" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135" s="6">
+        <v>4158</v>
+      </c>
+      <c r="G135" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="2">
         <v>81</v>
       </c>
-      <c r="C54" s="2">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="2">
-        <v>7500</v>
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="F139" s="6">
+        <v>13600</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B140" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="6">
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>41451</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>41460</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>41460</v>
+      </c>
+      <c r="B143" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>41466</v>
+      </c>
+      <c r="B144" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="2">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B145" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B147" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="2">
+        <v>12173</v>
       </c>
     </row>
   </sheetData>
@@ -2107,8 +4641,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2130,11 +4664,11 @@
       </c>
       <c r="D1" s="2">
         <f>SUBTOTAL(9,D3:D300)</f>
-        <v>971798</v>
+        <v>1221798</v>
       </c>
       <c r="E1" s="2">
         <f>SUBTOTAL(9,E3:E300)</f>
-        <v>591000</v>
+        <v>661000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2473,10 +5007,10 @@
         <v>500000</v>
       </c>
       <c r="D25" s="2">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="E25" s="2">
-        <v>25000</v>
+        <v>95000</v>
       </c>
     </row>
   </sheetData>
@@ -2488,10 +5022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2503,12 +5037,12 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="D1">
-        <f>SUBTOTAL(9,D3:D300)</f>
-        <v>-300000</v>
+        <f>SUBTOTAL(9,D3:D302)</f>
+        <v>-50000</v>
       </c>
       <c r="E1">
-        <f>SUBTOTAL(9,E3:E300)</f>
-        <v>-75000</v>
+        <f>SUBTOTAL(9,E3:E302)</f>
+        <v>-5000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2614,6 +5148,215 @@
       </c>
       <c r="E10">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>41093</v>
+      </c>
+      <c r="E11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>41127</v>
+      </c>
+      <c r="E12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>41138</v>
+      </c>
+      <c r="D13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41158</v>
+      </c>
+      <c r="E14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>41184</v>
+      </c>
+      <c r="E15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>41214</v>
+      </c>
+      <c r="E16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41218</v>
+      </c>
+      <c r="D17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41248</v>
+      </c>
+      <c r="E18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>41284</v>
+      </c>
+      <c r="E19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>41306</v>
+      </c>
+      <c r="E20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>41311</v>
+      </c>
+      <c r="D21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41338</v>
+      </c>
+      <c r="E22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41365</v>
+      </c>
+      <c r="E23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41396</v>
+      </c>
+      <c r="E24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41397</v>
+      </c>
+      <c r="D25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41428</v>
+      </c>
+      <c r="E26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>41463</v>
+      </c>
+      <c r="E27">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>41487</v>
+      </c>
+      <c r="E28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41487</v>
+      </c>
+      <c r="D29">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="163">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,10 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2012/9/6~ 2013/9/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水費10月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2012/9/6~ 2013/9/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租約 2013/6/9~2014/6/8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,6 +638,38 @@
   </si>
   <si>
     <t>水費8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2013/9/6~ 2014/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付11.1.3.5.7月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間電費+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付7.9月電費，7.8.9月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地價稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付11月電費，10.11月水費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,11 +1148,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
+      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1145,22 +1169,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000</f>
-        <v>538441</v>
+        <v>648314</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C345)</f>
-        <v>574938</v>
+        <f>SUBTOTAL(9,C3:C350)</f>
+        <v>684811</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D345)</f>
-        <v>752098</v>
+        <f>SUBTOTAL(9,D3:D350)</f>
+        <v>865337</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>177160</v>
+        <v>180526</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F345)</f>
+        <f>SUBTOTAL(9,F3:F350)</f>
         <v>36200</v>
       </c>
     </row>
@@ -1229,7 +1253,7 @@
         <v>11000</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1246,7 +1270,7 @@
         <v>13000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1596,7 +1620,7 @@
         <v>11600</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2037,7 +2061,7 @@
         <v>41187</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D76" s="6">
         <v>6000</v>
@@ -2048,7 +2072,7 @@
         <v>41218</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" s="6">
         <v>6000</v>
@@ -2081,7 +2105,7 @@
         <v>41221</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2">
         <v>2200</v>
@@ -2092,7 +2116,7 @@
         <v>41225</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2">
         <v>2869</v>
@@ -2103,7 +2127,7 @@
         <v>41231</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>361</v>
@@ -2114,7 +2138,7 @@
         <v>41242</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2">
         <v>250</v>
@@ -2125,7 +2149,7 @@
         <v>41247</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" s="6">
         <v>6000</v>
@@ -2158,7 +2182,7 @@
         <v>41256</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2">
         <v>440</v>
@@ -2169,7 +2193,7 @@
         <v>41257</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2">
         <v>4497</v>
@@ -2213,7 +2237,7 @@
         <v>41282</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2">
         <v>2200</v>
@@ -2224,7 +2248,7 @@
         <v>41285</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2">
         <v>4062</v>
@@ -2235,7 +2259,7 @@
         <v>41286</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2">
         <v>1597</v>
@@ -2279,7 +2303,7 @@
         <v>41310</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2">
         <v>13000</v>
@@ -2296,7 +2320,7 @@
         <v>41310</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D99" s="6">
         <v>1950</v>
@@ -2307,7 +2331,7 @@
         <v>41310</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D100" s="6">
         <v>7433</v>
@@ -2329,7 +2353,7 @@
         <v>41318</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2">
         <v>539</v>
@@ -2340,7 +2364,7 @@
         <v>41318</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="2">
         <v>480</v>
@@ -2351,7 +2375,7 @@
         <v>41320</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D104" s="6">
         <v>13200</v>
@@ -2362,7 +2386,7 @@
         <v>41322</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" s="2">
         <v>5380</v>
@@ -2373,7 +2397,7 @@
         <v>41322</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2">
         <v>1279</v>
@@ -2393,7 +2417,7 @@
         <v>13000</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2434,7 +2458,7 @@
         <v>41345</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2">
         <v>2722</v>
@@ -2456,7 +2480,7 @@
         <v>41353</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D113" s="6">
         <v>6500</v>
@@ -2500,7 +2524,7 @@
         <v>41377</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2">
         <v>370</v>
@@ -2511,7 +2535,7 @@
         <v>41386</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="6">
         <v>6500</v>
@@ -2544,7 +2568,7 @@
         <v>41408</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="2">
         <v>4392</v>
@@ -2555,7 +2579,7 @@
         <v>41418</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="6">
         <v>6500</v>
@@ -2577,7 +2601,7 @@
         <v>41426</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2">
         <v>568</v>
@@ -2610,7 +2634,7 @@
         <v>41435</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="2">
         <v>2200</v>
@@ -2621,7 +2645,7 @@
         <v>41440</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2">
         <v>4497</v>
@@ -2632,7 +2656,7 @@
         <v>41441</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D129" s="6">
         <v>6230</v>
@@ -2643,7 +2667,7 @@
         <v>41441</v>
       </c>
       <c r="B130" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D130" s="6">
         <v>1800</v>
@@ -2654,7 +2678,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D131" s="6">
         <v>63800</v>
@@ -2676,7 +2700,7 @@
         <v>41444</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C133" s="2">
         <v>13000</v>
@@ -2693,7 +2717,7 @@
         <v>41444</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D134" s="6">
         <v>600</v>
@@ -2704,7 +2728,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D135" s="6">
         <v>4158</v>
@@ -2715,7 +2739,7 @@
         <v>41450</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2">
         <v>81</v>
@@ -2726,7 +2750,7 @@
         <v>41450</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C137" s="2">
         <v>124</v>
@@ -2737,7 +2761,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -2748,7 +2772,7 @@
         <v>41451</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D139" s="6">
         <v>13600</v>
@@ -2757,7 +2781,7 @@
         <v>13600</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2765,7 +2789,7 @@
         <v>41451</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D140" s="6">
         <v>74800</v>
@@ -2777,7 +2801,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D141" s="6">
         <v>1200</v>
@@ -2810,7 +2834,7 @@
         <v>41466</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C144" s="2">
         <v>4526</v>
@@ -2821,7 +2845,7 @@
         <v>41486</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C145" s="2">
         <v>2200</v>
@@ -2832,7 +2856,7 @@
         <v>41487</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C146" s="2">
         <v>489</v>
@@ -2858,6 +2882,227 @@
       </c>
       <c r="C148" s="2">
         <v>22173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B150" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>41528</v>
+      </c>
+      <c r="B151" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="2">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B152" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B153" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" s="2">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B154" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6">
+        <v>62300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="6">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>41549</v>
+      </c>
+      <c r="B157" t="s">
+        <v>104</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>41552</v>
+      </c>
+      <c r="B158" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>41552</v>
+      </c>
+      <c r="B159" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B160" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B161" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>41590</v>
+      </c>
+      <c r="B162" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="2">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>41607</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B165" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B166" t="s">
+        <v>157</v>
+      </c>
+      <c r="D166" s="6">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B167" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>41623</v>
+      </c>
+      <c r="B168" t="s">
+        <v>106</v>
+      </c>
+      <c r="C168" s="2">
+        <v>4497</v>
       </c>
     </row>
   </sheetData>
@@ -2872,11 +3117,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2891,19 +3136,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C350)</f>
-        <v>538441</v>
+        <f>SUBTOTAL(9,C3:C355)</f>
+        <v>648314</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D350)</f>
-        <v>483898</v>
+        <f>SUBTOTAL(9,D3:D355)</f>
+        <v>557137</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-54543</v>
+        <v>-91177</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F350)</f>
+        <f>SUBTOTAL(9,F3:F355)</f>
         <v>36200</v>
       </c>
     </row>
@@ -2966,7 +3211,7 @@
         <v>11000</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2980,7 +3225,7 @@
         <v>13000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3332,7 +3577,7 @@
         <v>11600</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3441,7 +3686,7 @@
         <v>2750</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3747,7 +3992,7 @@
         <v>41172</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D73" s="6">
         <v>62300</v>
@@ -3786,7 +4031,7 @@
         <v>41187</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D76" s="6">
         <v>6000</v>
@@ -3797,7 +4042,7 @@
         <v>41218</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" s="6">
         <v>6000</v>
@@ -3830,7 +4075,7 @@
         <v>41221</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2">
         <v>2200</v>
@@ -3841,7 +4086,7 @@
         <v>41225</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2">
         <v>2869</v>
@@ -3852,7 +4097,7 @@
         <v>41231</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>361</v>
@@ -3863,7 +4108,7 @@
         <v>41242</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2">
         <v>250</v>
@@ -3874,7 +4119,7 @@
         <v>41247</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" s="6">
         <v>6000</v>
@@ -3907,7 +4152,7 @@
         <v>41256</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2">
         <v>440</v>
@@ -3918,7 +4163,7 @@
         <v>41257</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2">
         <v>4497</v>
@@ -3965,7 +4210,7 @@
         <v>41282</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2">
         <v>2200</v>
@@ -3976,7 +4221,7 @@
         <v>41285</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2">
         <v>4062</v>
@@ -3987,13 +4232,13 @@
         <v>41286</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2">
         <v>1597</v>
       </c>
       <c r="G94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4034,7 +4279,7 @@
         <v>41310</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F98" s="6">
         <v>-13000</v>
@@ -4048,7 +4293,7 @@
         <v>41310</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D99" s="6">
         <v>1950</v>
@@ -4059,13 +4304,13 @@
         <v>41310</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D100" s="6">
         <v>7433</v>
       </c>
       <c r="G100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4084,7 +4329,7 @@
         <v>41318</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2">
         <v>539</v>
@@ -4095,13 +4340,13 @@
         <v>41318</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="12">
         <v>480</v>
       </c>
       <c r="G103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4109,13 +4354,13 @@
         <v>41320</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D104" s="6">
         <v>13200</v>
       </c>
       <c r="G104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4123,7 +4368,7 @@
         <v>41322</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" s="2">
         <v>5380</v>
@@ -4134,7 +4379,7 @@
         <v>41322</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2">
         <v>1279</v>
@@ -4151,7 +4396,7 @@
         <v>13000</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4192,7 +4437,7 @@
         <v>41345</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2">
         <v>2722</v>
@@ -4217,7 +4462,7 @@
         <v>41353</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D113" s="6">
         <v>6500</v>
@@ -4261,7 +4506,7 @@
         <v>41377</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2">
         <v>370</v>
@@ -4272,7 +4517,7 @@
         <v>41386</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="6">
         <v>6500</v>
@@ -4305,7 +4550,7 @@
         <v>41408</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="2">
         <v>4392</v>
@@ -4316,7 +4561,7 @@
         <v>41418</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="6">
         <v>6500</v>
@@ -4338,7 +4583,7 @@
         <v>41426</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2">
         <v>568</v>
@@ -4371,7 +4616,7 @@
         <v>41435</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="2">
         <v>2200</v>
@@ -4382,7 +4627,7 @@
         <v>41440</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2">
         <v>4497</v>
@@ -4396,13 +4641,13 @@
         <v>41441</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D129" s="6">
         <v>6230</v>
       </c>
       <c r="G129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4410,7 +4655,7 @@
         <v>41441</v>
       </c>
       <c r="B130" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D130" s="6">
         <v>1800</v>
@@ -4421,7 +4666,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D131" s="6">
         <v>63800</v>
@@ -4443,7 +4688,7 @@
         <v>41444</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F133" s="6">
         <v>-13000</v>
@@ -4457,7 +4702,7 @@
         <v>41444</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D134" s="6">
         <v>600</v>
@@ -4468,13 +4713,13 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D135" s="6">
         <v>4158</v>
       </c>
       <c r="G135" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4482,13 +4727,13 @@
         <v>41450</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2">
         <v>81</v>
       </c>
       <c r="G136" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4496,7 +4741,7 @@
         <v>41450</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C137" s="2">
         <v>124</v>
@@ -4507,7 +4752,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -4518,13 +4763,13 @@
         <v>41451</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F139" s="6">
         <v>13600</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4532,7 +4777,7 @@
         <v>41451</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D140" s="6">
         <v>74800</v>
@@ -4543,7 +4788,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D141" s="6">
         <v>1200</v>
@@ -4576,35 +4821,35 @@
         <v>41466</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C144" s="2">
         <v>4526</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>41486</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C145" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>41487</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C146" s="2">
         <v>489</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>41491</v>
       </c>
@@ -4615,7 +4860,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>41491</v>
       </c>
@@ -4624,6 +4869,242 @@
       </c>
       <c r="C148" s="2">
         <v>12173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B149" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>41522</v>
+      </c>
+      <c r="B150" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>41528</v>
+      </c>
+      <c r="B151" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="2">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B152" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G152" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B153" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" s="2">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B154" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6">
+        <v>62300</v>
+      </c>
+      <c r="G154" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>41542</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="6">
+        <v>3324</v>
+      </c>
+      <c r="G155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>41549</v>
+      </c>
+      <c r="B157" t="s">
+        <v>104</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>41552</v>
+      </c>
+      <c r="B158" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>41552</v>
+      </c>
+      <c r="B159" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B160" t="s">
+        <v>49</v>
+      </c>
+      <c r="C160" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B161" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>41590</v>
+      </c>
+      <c r="B162" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="2">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>41607</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B165" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B166" t="s">
+        <v>157</v>
+      </c>
+      <c r="D166" s="6">
+        <v>2698</v>
+      </c>
+      <c r="G166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B167" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>41623</v>
+      </c>
+      <c r="B168" t="s">
+        <v>106</v>
+      </c>
+      <c r="C168" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G168" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4641,8 +5122,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4664,11 +5145,11 @@
       </c>
       <c r="D1" s="2">
         <f>SUBTOTAL(9,D3:D300)</f>
-        <v>1221798</v>
+        <v>1271798</v>
       </c>
       <c r="E1" s="2">
         <f>SUBTOTAL(9,E3:E300)</f>
-        <v>661000</v>
+        <v>666000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5007,10 +5488,10 @@
         <v>500000</v>
       </c>
       <c r="D25" s="2">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="E25" s="2">
-        <v>95000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -5022,10 +5503,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5038,11 +5519,11 @@
     <row r="1" spans="1:5">
       <c r="D1">
         <f>SUBTOTAL(9,D3:D302)</f>
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E302)</f>
-        <v>-5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5356,6 +5837,28 @@
         <v>41487</v>
       </c>
       <c r="D29">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41518</v>
+      </c>
+      <c r="E30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>41583</v>
+      </c>
+      <c r="D31">
         <v>50000</v>
       </c>
     </row>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="199">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,150 @@
   </si>
   <si>
     <t>付11月電費，10.11月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費12~1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付2014年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付1月電費，12.1月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費12~2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費2~3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付3月電費，2.3月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間燈泡插座鐵絲氧化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間分享器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間熱水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間冷氣壓縮機電容線斷掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付5.6月電費，4.5.6月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗床套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗40，烘50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/8/6~ 2015/8/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間8月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間8月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費8~9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費6~8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間電費+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付9.11.1.3.5.7.9/6電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間浴室燈泡蓮蓬頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/9/6~ 2015/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間蓮蓬頭整組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間床墊2個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打第2間信箱鑰匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間床墊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費150，機車費150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燈泡110，蓮蓬頭200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水桶129，白醋82，手套45，地板刷 79，流理台刷39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流理台刷39</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,17 +1292,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B171" sqref="B171"/>
+      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
@@ -1168,23 +1312,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
-        <f>C1-11000-13000+503-13000</f>
-        <v>648314</v>
+        <f>C1-11000-13000+503-13000-13600-11000</f>
+        <v>909259</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C350)</f>
-        <v>684811</v>
+        <f>SUBTOTAL(9,C3:C391)</f>
+        <v>970356</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D350)</f>
-        <v>865337</v>
+        <f>SUBTOTAL(9,D3:D391)</f>
+        <v>1136362</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>180526</v>
+        <v>166006</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F350)</f>
+        <f>SUBTOTAL(9,F3:F391)</f>
         <v>36200</v>
       </c>
     </row>
@@ -1252,7 +1396,7 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2780,7 +2924,7 @@
       <c r="F139" s="6">
         <v>13600</v>
       </c>
-      <c r="G139" s="8" t="s">
+      <c r="G139" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3074,34 +3218,749 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>41619</v>
+        <v>41614</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
-      </c>
-      <c r="D166" s="6">
-        <v>2698</v>
+        <v>163</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="B167" t="s">
-        <v>110</v>
-      </c>
-      <c r="C167" s="2">
-        <v>529</v>
+        <v>157</v>
+      </c>
+      <c r="D167" s="6">
+        <v>2698</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B168" t="s">
+        <v>110</v>
+      </c>
+      <c r="C168" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>41623</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>106</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C169" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B170" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B171" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B172" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172" s="2">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B173" t="s">
+        <v>123</v>
+      </c>
+      <c r="D173" s="6">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B176" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B177" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>41683</v>
+      </c>
+      <c r="B178" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B179" t="s">
+        <v>157</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B180" t="s">
+        <v>49</v>
+      </c>
+      <c r="D180" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B181" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B182" t="s">
+        <v>127</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>41713</v>
+      </c>
+      <c r="B183" t="s">
+        <v>167</v>
+      </c>
+      <c r="C183" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B184" t="s">
+        <v>157</v>
+      </c>
+      <c r="D184" s="6">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B185" t="s">
+        <v>49</v>
+      </c>
+      <c r="D185" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B186" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B187" t="s">
+        <v>60</v>
+      </c>
+      <c r="C187" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>41742</v>
+      </c>
+      <c r="B188" t="s">
+        <v>71</v>
+      </c>
+      <c r="C188" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B189" t="s">
+        <v>49</v>
+      </c>
+      <c r="D189" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B190" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>41772</v>
+      </c>
+      <c r="B191" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B192" t="s">
+        <v>139</v>
+      </c>
+      <c r="D192" s="2">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B193" t="s">
+        <v>141</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B194" t="s">
+        <v>140</v>
+      </c>
+      <c r="D194" s="2">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B195" t="s">
+        <v>170</v>
+      </c>
+      <c r="C195" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B196" t="s">
+        <v>171</v>
+      </c>
+      <c r="C196" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>41792</v>
+      </c>
+      <c r="B197" t="s">
+        <v>172</v>
+      </c>
+      <c r="C197" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>41795</v>
+      </c>
+      <c r="B198" t="s">
+        <v>49</v>
+      </c>
+      <c r="D198" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>41795</v>
+      </c>
+      <c r="B199" t="s">
+        <v>45</v>
+      </c>
+      <c r="C199" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>41796</v>
+      </c>
+      <c r="B200" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>41799</v>
+      </c>
+      <c r="B201" t="s">
+        <v>132</v>
+      </c>
+      <c r="C201" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B202" t="s">
+        <v>173</v>
+      </c>
+      <c r="C202" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>41803</v>
+      </c>
+      <c r="B203" t="s">
+        <v>74</v>
+      </c>
+      <c r="C203" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B204" t="s">
+        <v>115</v>
+      </c>
+      <c r="C204" s="2">
+        <v>13600</v>
+      </c>
+      <c r="F204" s="6">
+        <v>-13600</v>
+      </c>
+      <c r="G204" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B205" t="s">
+        <v>157</v>
+      </c>
+      <c r="D205" s="6">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B206" t="s">
+        <v>49</v>
+      </c>
+      <c r="D206" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B207" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>41830</v>
+      </c>
+      <c r="B208" t="s">
+        <v>92</v>
+      </c>
+      <c r="C208" s="2">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B209" t="s">
+        <v>175</v>
+      </c>
+      <c r="C209" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B210" t="s">
+        <v>112</v>
+      </c>
+      <c r="C210" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>41842</v>
+      </c>
+      <c r="B211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" s="2">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B212" t="s">
+        <v>49</v>
+      </c>
+      <c r="D212" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B213" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B214" t="s">
+        <v>178</v>
+      </c>
+      <c r="D214" s="6">
+        <v>11000</v>
+      </c>
+      <c r="F214" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B215" t="s">
+        <v>177</v>
+      </c>
+      <c r="D215" s="2">
+        <v>13600</v>
+      </c>
+      <c r="F215" s="6">
+        <v>13600</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B216" t="s">
+        <v>180</v>
+      </c>
+      <c r="D216" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B217" t="s">
+        <v>181</v>
+      </c>
+      <c r="D217" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>41859</v>
+      </c>
+      <c r="B218" t="s">
+        <v>182</v>
+      </c>
+      <c r="C218" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>41864</v>
+      </c>
+      <c r="B219" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>41887</v>
+      </c>
+      <c r="B220" t="s">
+        <v>49</v>
+      </c>
+      <c r="D220" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>41887</v>
+      </c>
+      <c r="B221" t="s">
+        <v>45</v>
+      </c>
+      <c r="C221" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B222" t="s">
+        <v>184</v>
+      </c>
+      <c r="C222" s="2">
+        <v>11000</v>
+      </c>
+      <c r="F222" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G222" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B223" t="s">
+        <v>96</v>
+      </c>
+      <c r="D223" s="6">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B224" t="s">
+        <v>188</v>
+      </c>
+      <c r="C224" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B225" t="s">
+        <v>32</v>
+      </c>
+      <c r="D225" s="6">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B226" t="s">
+        <v>190</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B227" t="s">
+        <v>193</v>
+      </c>
+      <c r="C227" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B228" t="s">
+        <v>112</v>
+      </c>
+      <c r="C228" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B229" t="s">
+        <v>194</v>
+      </c>
+      <c r="C229" s="2">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B233" t="s">
+        <v>183</v>
+      </c>
+      <c r="C233" s="2">
         <v>4497</v>
       </c>
     </row>
@@ -3117,38 +3976,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210:C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C355)</f>
-        <v>648314</v>
+        <f>SUBTOTAL(9,C3:C396)</f>
+        <v>909259</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D355)</f>
-        <v>557137</v>
+        <f>SUBTOTAL(9,D3:D396)</f>
+        <v>713562</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-91177</v>
+        <v>-195697</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F355)</f>
+        <f>SUBTOTAL(9,F3:F396)</f>
         <v>36200</v>
       </c>
     </row>
@@ -3210,7 +4069,7 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4368,7 +5227,7 @@
         <v>41322</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="C105" s="2">
         <v>5380</v>
@@ -4379,7 +5238,7 @@
         <v>41322</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="C106" s="2">
         <v>1279</v>
@@ -4768,7 +5627,7 @@
       <c r="F139" s="6">
         <v>13600</v>
       </c>
-      <c r="G139" s="8" t="s">
+      <c r="G139" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4928,6 +5787,9 @@
       <c r="D153" s="2">
         <v>4917</v>
       </c>
+      <c r="G153" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
@@ -4940,9 +5802,6 @@
       <c r="D154" s="6">
         <v>62300</v>
       </c>
-      <c r="G154" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
@@ -5070,40 +5929,778 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>41619</v>
+        <v>41614</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
-      </c>
-      <c r="D166" s="6">
-        <v>2698</v>
-      </c>
-      <c r="G166" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="B167" t="s">
-        <v>110</v>
-      </c>
-      <c r="C167" s="2">
-        <v>529</v>
+        <v>157</v>
+      </c>
+      <c r="D167" s="6">
+        <v>2698</v>
+      </c>
+      <c r="G167" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B168" t="s">
+        <v>110</v>
+      </c>
+      <c r="C168" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
         <v>41623</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>106</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C169" s="2">
         <v>4497</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G169" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B170" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B171" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="2">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B172" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172" s="2">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B173" t="s">
+        <v>123</v>
+      </c>
+      <c r="D173" s="6">
+        <v>6600</v>
+      </c>
+      <c r="G173" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B176" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B177" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>41683</v>
+      </c>
+      <c r="B178" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B179" t="s">
+        <v>157</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1636</v>
+      </c>
+      <c r="G179" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B180" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B181" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B182" t="s">
+        <v>127</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>41713</v>
+      </c>
+      <c r="B183" t="s">
+        <v>167</v>
+      </c>
+      <c r="C183" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G183" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B184" t="s">
+        <v>157</v>
+      </c>
+      <c r="D184" s="6">
+        <v>1723</v>
+      </c>
+      <c r="G184" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B185" t="s">
+        <v>49</v>
+      </c>
+      <c r="C185" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B186" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B187" t="s">
+        <v>60</v>
+      </c>
+      <c r="C187" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>41742</v>
+      </c>
+      <c r="B188" t="s">
+        <v>71</v>
+      </c>
+      <c r="C188" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B189" t="s">
+        <v>49</v>
+      </c>
+      <c r="C189" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B190" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>41772</v>
+      </c>
+      <c r="B191" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B192" t="s">
+        <v>139</v>
+      </c>
+      <c r="D192" s="2">
+        <v>7734</v>
+      </c>
+      <c r="G192" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B193" t="s">
+        <v>141</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B194" t="s">
+        <v>140</v>
+      </c>
+      <c r="D194" s="2">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B195" t="s">
+        <v>170</v>
+      </c>
+      <c r="C195" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B196" t="s">
+        <v>171</v>
+      </c>
+      <c r="C196" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>41792</v>
+      </c>
+      <c r="B197" t="s">
+        <v>172</v>
+      </c>
+      <c r="C197" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>41795</v>
+      </c>
+      <c r="B198" t="s">
+        <v>49</v>
+      </c>
+      <c r="C198" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>41795</v>
+      </c>
+      <c r="B199" t="s">
+        <v>45</v>
+      </c>
+      <c r="C199" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>41796</v>
+      </c>
+      <c r="B200" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>41799</v>
+      </c>
+      <c r="B201" t="s">
+        <v>132</v>
+      </c>
+      <c r="C201" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G201" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B202" t="s">
+        <v>173</v>
+      </c>
+      <c r="C202" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>41803</v>
+      </c>
+      <c r="B203" t="s">
+        <v>74</v>
+      </c>
+      <c r="C203" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B204" t="s">
+        <v>115</v>
+      </c>
+      <c r="F204" s="6">
+        <v>-13600</v>
+      </c>
+      <c r="G204" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B205" t="s">
+        <v>185</v>
+      </c>
+      <c r="D205" s="6">
+        <v>4708</v>
+      </c>
+      <c r="G205" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B206" t="s">
+        <v>49</v>
+      </c>
+      <c r="C206" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B207" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>41830</v>
+      </c>
+      <c r="B208" t="s">
+        <v>92</v>
+      </c>
+      <c r="C208" s="2">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B209" t="s">
+        <v>175</v>
+      </c>
+      <c r="C209" s="2">
+        <v>90</v>
+      </c>
+      <c r="G209" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B210" t="s">
+        <v>112</v>
+      </c>
+      <c r="C210" s="2">
+        <v>39</v>
+      </c>
+      <c r="G210" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>41842</v>
+      </c>
+      <c r="B211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" s="2">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B212" t="s">
+        <v>49</v>
+      </c>
+      <c r="C212" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B213" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B214" t="s">
+        <v>178</v>
+      </c>
+      <c r="F214" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B215" t="s">
+        <v>177</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="F215" s="2">
+        <v>13600</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B216" t="s">
+        <v>180</v>
+      </c>
+      <c r="D216" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B217" t="s">
+        <v>181</v>
+      </c>
+      <c r="D217" s="6">
+        <v>300</v>
+      </c>
+      <c r="G217" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>41859</v>
+      </c>
+      <c r="B218" t="s">
+        <v>182</v>
+      </c>
+      <c r="C218" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>41864</v>
+      </c>
+      <c r="B219" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>41887</v>
+      </c>
+      <c r="B220" t="s">
+        <v>49</v>
+      </c>
+      <c r="C220" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>41887</v>
+      </c>
+      <c r="B221" t="s">
+        <v>45</v>
+      </c>
+      <c r="C221" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B222" t="s">
+        <v>186</v>
+      </c>
+      <c r="F222" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G222" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B223" t="s">
+        <v>96</v>
+      </c>
+      <c r="D223" s="6">
+        <v>4824</v>
+      </c>
+      <c r="G223" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B224" t="s">
+        <v>188</v>
+      </c>
+      <c r="C224" s="2">
+        <v>310</v>
+      </c>
+      <c r="G224" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B225" t="s">
+        <v>32</v>
+      </c>
+      <c r="D225" s="6">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B226" t="s">
+        <v>190</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B227" t="s">
+        <v>193</v>
+      </c>
+      <c r="C227" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B228" t="s">
+        <v>112</v>
+      </c>
+      <c r="C228" s="2">
+        <v>374</v>
+      </c>
+      <c r="G228" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B229" t="s">
+        <v>194</v>
+      </c>
+      <c r="C229" s="2">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B232" t="s">
+        <v>183</v>
+      </c>
+      <c r="C232" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G232" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5122,8 +6719,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5505,8 +7102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="221">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,10 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2013/6/9~2014/6/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,11 +805,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>流理台刷39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間網路線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/6/9~2015/6/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間預繳退費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間床墊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間電費+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付7.9月，6~9水費(550)，冷氣遙控器500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>水桶129，白醋82，手套45，地板刷 79，流理台刷39</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流理台刷39</t>
+    <t>水桶149，地板刷 38，流理台刷39，馬桶刷38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/10/5~2015/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間網路線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門栓75，電鑽100，鑽頭50，門磁扣100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間10月租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間修門費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間9月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間10月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間10月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間9月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間11月租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間9月水費+機車費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1292,11 +1380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
+      <pane ySplit="2" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1312,24 +1400,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
-        <f>C1-11000-13000+503-13000-13600-11000</f>
-        <v>909259</v>
+        <f>C1-11000-13000+503-13000-13600-11000-11600</f>
+        <v>1004363</v>
       </c>
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C391)</f>
-        <v>970356</v>
+        <v>1077060</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D391)</f>
-        <v>1136362</v>
+        <v>1203725</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>166006</v>
+        <v>126665</v>
       </c>
       <c r="F1" s="6">
         <f>SUBTOTAL(9,F3:F391)</f>
-        <v>36200</v>
+        <v>36600</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1397,7 +1485,7 @@
         <v>11000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1763,8 +1851,8 @@
       <c r="F37" s="6">
         <v>11600</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>138</v>
+      <c r="G37" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2800,7 +2888,7 @@
         <v>41441</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D129" s="6">
         <v>6230</v>
@@ -2811,7 +2899,7 @@
         <v>41441</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D130" s="6">
         <v>1800</v>
@@ -2822,7 +2910,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131" s="6">
         <v>63800</v>
@@ -2844,7 +2932,7 @@
         <v>41444</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2">
         <v>13000</v>
@@ -2894,7 +2982,7 @@
         <v>41450</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2">
         <v>124</v>
@@ -2905,7 +2993,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -2916,7 +3004,7 @@
         <v>41451</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D139" s="6">
         <v>13600</v>
@@ -2925,7 +3013,7 @@
         <v>13600</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2933,7 +3021,7 @@
         <v>41451</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D140" s="6">
         <v>74800</v>
@@ -2945,7 +3033,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D141" s="6">
         <v>1200</v>
@@ -2978,7 +3066,7 @@
         <v>41466</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C144" s="2">
         <v>4526</v>
@@ -2989,7 +3077,7 @@
         <v>41486</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C145" s="2">
         <v>2200</v>
@@ -3000,7 +3088,7 @@
         <v>41487</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146" s="2">
         <v>489</v>
@@ -3100,7 +3188,7 @@
         <v>41542</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D155" s="6">
         <v>3324</v>
@@ -3111,7 +3199,7 @@
         <v>41548</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" s="2">
         <v>370</v>
@@ -3177,7 +3265,7 @@
         <v>41590</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" s="2">
         <v>4187</v>
@@ -3188,7 +3276,7 @@
         <v>41607</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="2">
         <v>254</v>
@@ -3221,7 +3309,7 @@
         <v>41614</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2">
         <v>2200</v>
@@ -3232,7 +3320,7 @@
         <v>41619</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D167" s="6">
         <v>2698</v>
@@ -3287,7 +3375,7 @@
         <v>41652</v>
       </c>
       <c r="B172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2">
         <v>2933</v>
@@ -3342,7 +3430,7 @@
         <v>41677</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" s="2">
         <v>2200</v>
@@ -3364,7 +3452,7 @@
         <v>41694</v>
       </c>
       <c r="B179" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D179" s="6">
         <v>1636</v>
@@ -3408,7 +3496,7 @@
         <v>41713</v>
       </c>
       <c r="B183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C183" s="2">
         <v>4497</v>
@@ -3419,7 +3507,7 @@
         <v>41726</v>
       </c>
       <c r="B184" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D184" s="6">
         <v>1723</v>
@@ -3507,7 +3595,7 @@
         <v>41787</v>
       </c>
       <c r="B192" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D192" s="2">
         <v>7734</v>
@@ -3518,7 +3606,7 @@
         <v>41787</v>
       </c>
       <c r="B193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D193" s="2">
         <v>1800</v>
@@ -3529,7 +3617,7 @@
         <v>41787</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D194" s="2">
         <v>63800</v>
@@ -3540,7 +3628,7 @@
         <v>41787</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C195" s="2">
         <v>350</v>
@@ -3551,7 +3639,7 @@
         <v>41787</v>
       </c>
       <c r="B196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="2">
         <v>519</v>
@@ -3562,7 +3650,7 @@
         <v>41792</v>
       </c>
       <c r="B197" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C197" s="2">
         <v>2000</v>
@@ -3617,7 +3705,7 @@
         <v>41802</v>
       </c>
       <c r="B202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C202" s="2">
         <v>800</v>
@@ -3656,7 +3744,7 @@
         <v>41821</v>
       </c>
       <c r="B205" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D205" s="6">
         <v>4708</v>
@@ -3700,7 +3788,7 @@
         <v>41832</v>
       </c>
       <c r="B209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C209" s="2">
         <v>90</v>
@@ -3755,7 +3843,7 @@
         <v>41856</v>
       </c>
       <c r="B214" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D214" s="6">
         <v>11000</v>
@@ -3764,7 +3852,7 @@
         <v>11000</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -3772,7 +3860,7 @@
         <v>41857</v>
       </c>
       <c r="B215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D215" s="2">
         <v>13600</v>
@@ -3781,7 +3869,7 @@
         <v>13600</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -3789,7 +3877,7 @@
         <v>41857</v>
       </c>
       <c r="B216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D216" s="6">
         <v>6800</v>
@@ -3800,7 +3888,7 @@
         <v>41857</v>
       </c>
       <c r="B217" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D217" s="6">
         <v>300</v>
@@ -3811,7 +3899,7 @@
         <v>41859</v>
       </c>
       <c r="B218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C218" s="2">
         <v>2200</v>
@@ -3855,7 +3943,7 @@
         <v>41888</v>
       </c>
       <c r="B222" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C222" s="2">
         <v>11000</v>
@@ -3883,13 +3971,13 @@
         <v>41888</v>
       </c>
       <c r="B224" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C224" s="2">
         <v>310</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>41888</v>
       </c>
@@ -3900,29 +3988,29 @@
         <v>56500</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>41888</v>
       </c>
       <c r="B226" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C226" s="2">
         <v>1600</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>41888</v>
       </c>
       <c r="B227" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C227" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>41888</v>
       </c>
@@ -3933,35 +4021,303 @@
         <v>374</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>41888</v>
       </c>
       <c r="B229" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C229" s="2">
         <v>4131</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:4">
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B230" t="s">
+        <v>197</v>
+      </c>
+      <c r="C230" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>41893</v>
+      </c>
+      <c r="B231" t="s">
+        <v>213</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B232" t="s">
+        <v>182</v>
+      </c>
+      <c r="C232" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>41897</v>
       </c>
       <c r="B233" t="s">
-        <v>183</v>
-      </c>
-      <c r="C233" s="2">
-        <v>4497</v>
+        <v>97</v>
+      </c>
+      <c r="D233" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B234" t="s">
+        <v>215</v>
+      </c>
+      <c r="D234" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B235" t="s">
+        <v>199</v>
+      </c>
+      <c r="C235" s="2">
+        <v>11600</v>
+      </c>
+      <c r="F235" s="6">
+        <f>-11600</f>
+        <v>-11600</v>
+      </c>
+      <c r="G235" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B236" t="s">
+        <v>203</v>
+      </c>
+      <c r="D236" s="6">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B237" t="s">
+        <v>200</v>
+      </c>
+      <c r="C237" s="2">
+        <v>36733</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B238" t="s">
+        <v>112</v>
+      </c>
+      <c r="C238" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B239" t="s">
+        <v>201</v>
+      </c>
+      <c r="C239" s="2">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B240" t="s">
+        <v>207</v>
+      </c>
+      <c r="C240" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>41911</v>
+      </c>
+      <c r="B241" t="s">
+        <v>177</v>
+      </c>
+      <c r="D241" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F241" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>41914</v>
+      </c>
+      <c r="B242" t="s">
+        <v>212</v>
+      </c>
+      <c r="C242" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B243" t="s">
+        <v>209</v>
+      </c>
+      <c r="C243" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B244" t="s">
+        <v>211</v>
+      </c>
+      <c r="D244" s="6">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>41918</v>
+      </c>
+      <c r="B245" t="s">
+        <v>49</v>
+      </c>
+      <c r="D245" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>41918</v>
+      </c>
+      <c r="B246" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>41920</v>
+      </c>
+      <c r="B247" t="s">
+        <v>104</v>
+      </c>
+      <c r="C247" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>41925</v>
+      </c>
+      <c r="B248" t="s">
+        <v>214</v>
+      </c>
+      <c r="C248" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B249" t="s">
+        <v>216</v>
+      </c>
+      <c r="D249" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B250" t="s">
+        <v>217</v>
+      </c>
+      <c r="D250" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B251" t="s">
+        <v>218</v>
+      </c>
+      <c r="D251" s="6">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B252" t="s">
+        <v>49</v>
+      </c>
+      <c r="D252" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B253" t="s">
+        <v>45</v>
+      </c>
+      <c r="C253" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>41949</v>
+      </c>
+      <c r="B254" t="s">
+        <v>219</v>
+      </c>
+      <c r="D254" s="6">
+        <v>6150</v>
       </c>
     </row>
   </sheetData>
@@ -3976,11 +4332,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K232"/>
+  <dimension ref="A1:K254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210:C210"/>
+      <pane ySplit="2" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A233" sqref="A233:XFD234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3995,20 +4351,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C396)</f>
-        <v>909259</v>
+        <f>SUBTOTAL(9,C3:C397)</f>
+        <v>1004363</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D396)</f>
-        <v>713562</v>
+        <f>SUBTOTAL(9,D3:D397)</f>
+        <v>748925</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-195697</v>
+        <v>-255438</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F396)</f>
-        <v>36200</v>
+        <f>SUBTOTAL(9,F3:F397)</f>
+        <v>36600</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4070,7 +4426,7 @@
         <v>11000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4435,8 +4791,8 @@
       <c r="F37" s="6">
         <v>11600</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>137</v>
+      <c r="G37" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4851,7 +5207,7 @@
         <v>41172</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="6">
         <v>62300</v>
@@ -5227,7 +5583,7 @@
         <v>41322</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C105" s="2">
         <v>5380</v>
@@ -5238,7 +5594,7 @@
         <v>41322</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C106" s="2">
         <v>1279</v>
@@ -5500,13 +5856,13 @@
         <v>41441</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D129" s="6">
         <v>6230</v>
       </c>
       <c r="G129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5514,7 +5870,7 @@
         <v>41441</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D130" s="6">
         <v>1800</v>
@@ -5525,7 +5881,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131" s="6">
         <v>63800</v>
@@ -5547,7 +5903,7 @@
         <v>41444</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F133" s="6">
         <v>-13000</v>
@@ -5578,7 +5934,7 @@
         <v>4158</v>
       </c>
       <c r="G135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5592,7 +5948,7 @@
         <v>81</v>
       </c>
       <c r="G136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5600,7 +5956,7 @@
         <v>41450</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2">
         <v>124</v>
@@ -5611,7 +5967,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -5622,13 +5978,13 @@
         <v>41451</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F139" s="6">
         <v>13600</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5636,7 +5992,7 @@
         <v>41451</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D140" s="6">
         <v>74800</v>
@@ -5647,7 +6003,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D141" s="6">
         <v>1200</v>
@@ -5680,7 +6036,7 @@
         <v>41466</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C144" s="2">
         <v>4526</v>
@@ -5691,7 +6047,7 @@
         <v>41486</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C145" s="2">
         <v>2200</v>
@@ -5702,7 +6058,7 @@
         <v>41487</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146" s="2">
         <v>489</v>
@@ -5788,7 +6144,7 @@
         <v>4917</v>
       </c>
       <c r="G153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5808,13 +6164,13 @@
         <v>41542</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D155" s="6">
         <v>3324</v>
       </c>
       <c r="G155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5822,7 +6178,7 @@
         <v>41548</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" s="2">
         <v>370</v>
@@ -5888,7 +6244,7 @@
         <v>41590</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" s="2">
         <v>4187</v>
@@ -5899,7 +6255,7 @@
         <v>41607</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="2">
         <v>254</v>
@@ -5932,7 +6288,7 @@
         <v>41614</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2">
         <v>2200</v>
@@ -5943,13 +6299,13 @@
         <v>41619</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D167" s="6">
         <v>2698</v>
       </c>
       <c r="G167" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6004,7 +6360,7 @@
         <v>41652</v>
       </c>
       <c r="B172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2">
         <v>2933</v>
@@ -6021,7 +6377,7 @@
         <v>6600</v>
       </c>
       <c r="G173" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6063,7 +6419,7 @@
         <v>41677</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" s="2">
         <v>2200</v>
@@ -6085,13 +6441,13 @@
         <v>41694</v>
       </c>
       <c r="B179" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D179" s="6">
         <v>1636</v>
       </c>
       <c r="G179" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6132,7 +6488,7 @@
         <v>41713</v>
       </c>
       <c r="B183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C183" s="2">
         <v>4497</v>
@@ -6146,13 +6502,13 @@
         <v>41726</v>
       </c>
       <c r="B184" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D184" s="6">
         <v>1723</v>
       </c>
       <c r="G184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6237,13 +6593,13 @@
         <v>41787</v>
       </c>
       <c r="B192" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D192" s="2">
         <v>7734</v>
       </c>
       <c r="G192" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6251,7 +6607,7 @@
         <v>41787</v>
       </c>
       <c r="B193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D193" s="2">
         <v>1800</v>
@@ -6262,7 +6618,7 @@
         <v>41787</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D194" s="2">
         <v>63800</v>
@@ -6273,7 +6629,7 @@
         <v>41787</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C195" s="2">
         <v>350</v>
@@ -6284,7 +6640,7 @@
         <v>41787</v>
       </c>
       <c r="B196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="2">
         <v>519</v>
@@ -6295,7 +6651,7 @@
         <v>41792</v>
       </c>
       <c r="B197" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C197" s="2">
         <v>2000</v>
@@ -6353,7 +6709,7 @@
         <v>41802</v>
       </c>
       <c r="B202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C202" s="2">
         <v>800</v>
@@ -6389,13 +6745,13 @@
         <v>41821</v>
       </c>
       <c r="B205" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D205" s="6">
         <v>4708</v>
       </c>
       <c r="G205" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6436,13 +6792,13 @@
         <v>41832</v>
       </c>
       <c r="B209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C209" s="2">
         <v>90</v>
       </c>
       <c r="G209" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6456,7 +6812,7 @@
         <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6497,13 +6853,13 @@
         <v>41856</v>
       </c>
       <c r="B214" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F214" s="6">
         <v>11000</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6511,14 +6867,14 @@
         <v>41857</v>
       </c>
       <c r="B215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D215" s="2"/>
       <c r="F215" s="2">
         <v>13600</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6526,7 +6882,7 @@
         <v>41857</v>
       </c>
       <c r="B216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D216" s="6">
         <v>6800</v>
@@ -6537,13 +6893,13 @@
         <v>41857</v>
       </c>
       <c r="B217" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D217" s="6">
         <v>300</v>
       </c>
       <c r="G217" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6551,7 +6907,7 @@
         <v>41859</v>
       </c>
       <c r="B218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C218" s="2">
         <v>2200</v>
@@ -6595,7 +6951,7 @@
         <v>41888</v>
       </c>
       <c r="B222" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F222" s="6">
         <v>-11000</v>
@@ -6615,7 +6971,7 @@
         <v>4824</v>
       </c>
       <c r="G223" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6623,13 +6979,13 @@
         <v>41888</v>
       </c>
       <c r="B224" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C224" s="2">
         <v>310</v>
       </c>
       <c r="G224" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6648,7 +7004,7 @@
         <v>41888</v>
       </c>
       <c r="B226" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C226" s="2">
         <v>1600</v>
@@ -6659,7 +7015,7 @@
         <v>41888</v>
       </c>
       <c r="B227" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C227" s="2">
         <v>20</v>
@@ -6676,7 +7032,7 @@
         <v>374</v>
       </c>
       <c r="G228" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6684,10 +7040,32 @@
         <v>41888</v>
       </c>
       <c r="B229" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C229" s="2">
         <v>4131</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B230" t="s">
+        <v>197</v>
+      </c>
+      <c r="C230" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>41893</v>
+      </c>
+      <c r="B231" t="s">
+        <v>213</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5665</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6695,7 +7073,7 @@
         <v>41897</v>
       </c>
       <c r="B232" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C232" s="2">
         <v>4497</v>
@@ -6704,7 +7082,266 @@
         <v>56</v>
       </c>
     </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B233" t="s">
+        <v>97</v>
+      </c>
+      <c r="D233" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B234" t="s">
+        <v>220</v>
+      </c>
+      <c r="D234" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B235" t="s">
+        <v>199</v>
+      </c>
+      <c r="F235" s="6">
+        <f>-11600</f>
+        <v>-11600</v>
+      </c>
+      <c r="G235" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B236" t="s">
+        <v>203</v>
+      </c>
+      <c r="D236" s="6">
+        <v>6920</v>
+      </c>
+      <c r="G236" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B237" t="s">
+        <v>200</v>
+      </c>
+      <c r="C237" s="2">
+        <v>36733</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B238" t="s">
+        <v>112</v>
+      </c>
+      <c r="C238" s="2">
+        <v>264</v>
+      </c>
+      <c r="G238" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B239" t="s">
+        <v>201</v>
+      </c>
+      <c r="C239" s="2">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B240" t="s">
+        <v>207</v>
+      </c>
+      <c r="C240" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>41911</v>
+      </c>
+      <c r="B241" t="s">
+        <v>177</v>
+      </c>
+      <c r="F241" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>41914</v>
+      </c>
+      <c r="B242" t="s">
+        <v>212</v>
+      </c>
+      <c r="C242" s="2">
+        <v>325</v>
+      </c>
+      <c r="G242" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B243" t="s">
+        <v>209</v>
+      </c>
+      <c r="C243" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B244" t="s">
+        <v>211</v>
+      </c>
+      <c r="D244" s="6">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>41918</v>
+      </c>
+      <c r="B245" t="s">
+        <v>49</v>
+      </c>
+      <c r="C245" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>41918</v>
+      </c>
+      <c r="B246" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>41920</v>
+      </c>
+      <c r="B247" t="s">
+        <v>104</v>
+      </c>
+      <c r="C247" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>41925</v>
+      </c>
+      <c r="B248" t="s">
+        <v>214</v>
+      </c>
+      <c r="C248" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B249" t="s">
+        <v>216</v>
+      </c>
+      <c r="D249" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B250" t="s">
+        <v>217</v>
+      </c>
+      <c r="D250" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B251" t="s">
+        <v>218</v>
+      </c>
+      <c r="D251" s="6">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B252" t="s">
+        <v>49</v>
+      </c>
+      <c r="C252" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B253" t="s">
+        <v>45</v>
+      </c>
+      <c r="C253" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>41949</v>
+      </c>
+      <c r="B254" t="s">
+        <v>219</v>
+      </c>
+      <c r="D254" s="6">
+        <v>6150</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6719,7 +7356,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -7102,7 +7739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="232">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -902,6 +902,49 @@
   </si>
   <si>
     <t>第3間9月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間11月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間修浴室洗手槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間11月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間12月水費+機車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間11月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間12月租金+水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間11月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>353號15樓第四台費</t>
+  </si>
+  <si>
+    <t>353號15樓第四台費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,11 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:J270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
+      <pane ySplit="2" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D268" sqref="A268:D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1401,22 +1444,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600</f>
-        <v>1004363</v>
+        <v>1037318</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C391)</f>
-        <v>1077060</v>
+        <f>SUBTOTAL(9,C3:C397)</f>
+        <v>1110015</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D391)</f>
-        <v>1203725</v>
+        <f>SUBTOTAL(9,D3:D397)</f>
+        <v>1243777</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>126665</v>
+        <v>133762</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F391)</f>
+        <f>SUBTOTAL(9,F3:F397)</f>
         <v>36600</v>
       </c>
     </row>
@@ -2607,7 +2650,7 @@
         <v>41320</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="D104" s="6">
         <v>13200</v>
@@ -4318,6 +4361,182 @@
       </c>
       <c r="D254" s="6">
         <v>6150</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>41953</v>
+      </c>
+      <c r="B255" t="s">
+        <v>107</v>
+      </c>
+      <c r="C255" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>41955</v>
+      </c>
+      <c r="B256" t="s">
+        <v>221</v>
+      </c>
+      <c r="C256" s="2">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="D257" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B258" t="s">
+        <v>222</v>
+      </c>
+      <c r="D258" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>41959</v>
+      </c>
+      <c r="B259" t="s">
+        <v>223</v>
+      </c>
+      <c r="C259" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B260" t="s">
+        <v>224</v>
+      </c>
+      <c r="D260" s="6">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B261" t="s">
+        <v>49</v>
+      </c>
+      <c r="D261" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B262" t="s">
+        <v>45</v>
+      </c>
+      <c r="C262" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B263" t="s">
+        <v>109</v>
+      </c>
+      <c r="D263" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B264" t="s">
+        <v>226</v>
+      </c>
+      <c r="D264" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B265" t="s">
+        <v>227</v>
+      </c>
+      <c r="D265" s="6">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B266" t="s">
+        <v>228</v>
+      </c>
+      <c r="D266" s="6">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B267" t="s">
+        <v>229</v>
+      </c>
+      <c r="D267" s="6">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>41985</v>
+      </c>
+      <c r="B268" t="s">
+        <v>230</v>
+      </c>
+      <c r="D268" s="6">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B269" t="s">
+        <v>225</v>
+      </c>
+      <c r="C269" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B270" t="s">
+        <v>106</v>
+      </c>
+      <c r="C270" s="2">
+        <v>4497</v>
       </c>
     </row>
   </sheetData>
@@ -4332,11 +4551,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K254"/>
+  <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A233" sqref="A233:XFD234"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4351,19 +4570,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C397)</f>
-        <v>1004363</v>
+        <f>SUBTOTAL(9,C3:C404)</f>
+        <v>1037318</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D397)</f>
-        <v>748925</v>
+        <f>SUBTOTAL(9,D3:D404)</f>
+        <v>778977</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-255438</v>
+        <v>-258341</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F397)</f>
+        <f>SUBTOTAL(9,F3:F404)</f>
         <v>36600</v>
       </c>
     </row>
@@ -7338,6 +7557,185 @@
       </c>
       <c r="D254" s="6">
         <v>6150</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>41953</v>
+      </c>
+      <c r="B255" t="s">
+        <v>107</v>
+      </c>
+      <c r="C255" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>41955</v>
+      </c>
+      <c r="B256" t="s">
+        <v>221</v>
+      </c>
+      <c r="C256" s="2">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="D257" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B258" t="s">
+        <v>222</v>
+      </c>
+      <c r="D258" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>41959</v>
+      </c>
+      <c r="B259" t="s">
+        <v>223</v>
+      </c>
+      <c r="C259" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B260" t="s">
+        <v>224</v>
+      </c>
+      <c r="D260" s="6">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B261" t="s">
+        <v>49</v>
+      </c>
+      <c r="C261" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B262" t="s">
+        <v>45</v>
+      </c>
+      <c r="C262" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B263" t="s">
+        <v>109</v>
+      </c>
+      <c r="D263" s="6">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B264" t="s">
+        <v>226</v>
+      </c>
+      <c r="D264" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B265" t="s">
+        <v>227</v>
+      </c>
+      <c r="D265" s="6">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B266" t="s">
+        <v>228</v>
+      </c>
+      <c r="D266" s="6">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B267" t="s">
+        <v>229</v>
+      </c>
+      <c r="D267" s="6">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>41985</v>
+      </c>
+      <c r="B268" t="s">
+        <v>230</v>
+      </c>
+      <c r="D268" s="6">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B269" t="s">
+        <v>225</v>
+      </c>
+      <c r="C269" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B270" t="s">
+        <v>106</v>
+      </c>
+      <c r="C270" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G270" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7739,7 +8137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="269">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,6 +1085,14 @@
   </si>
   <si>
     <t>第3間2月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間3月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間3月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,6 +1225,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,10 +1598,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J320"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1605,22 +1619,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600</f>
-        <v>1120507</v>
+        <v>1146701</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C427)</f>
-        <v>1206804</v>
+        <f>SUBTOTAL(9,C3:C431)</f>
+        <v>1232998</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D427)</f>
-        <v>1337543</v>
+        <f>SUBTOTAL(9,D3:D431)</f>
+        <v>1361555</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>130739</v>
+        <v>128557</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F427)</f>
+        <f>SUBTOTAL(9,F3:F431)</f>
         <v>36200</v>
       </c>
     </row>
@@ -5259,16 +5273,126 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B320" t="s">
+        <v>50</v>
+      </c>
+      <c r="D320" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B321" t="s">
+        <v>258</v>
+      </c>
+      <c r="D321" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>42075</v>
+      </c>
+      <c r="B322" t="s">
+        <v>69</v>
+      </c>
+      <c r="C322" s="2">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
         <v>42078</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B323" t="s">
         <v>265</v>
       </c>
-      <c r="C320" s="2">
+      <c r="C323" s="2">
         <v>4497</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G323" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>42087</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D324" s="6">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B325" t="s">
+        <v>48</v>
+      </c>
+      <c r="D325" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B326" t="s">
+        <v>44</v>
+      </c>
+      <c r="C326" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B327" t="s">
+        <v>50</v>
+      </c>
+      <c r="D327" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B328" t="s">
+        <v>258</v>
+      </c>
+      <c r="D328" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B329" t="s">
+        <v>267</v>
+      </c>
+      <c r="D329" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>42107</v>
+      </c>
+      <c r="B330" t="s">
+        <v>70</v>
+      </c>
+      <c r="C330" s="2">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5284,11 +5408,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5303,19 +5427,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C434)</f>
-        <v>1120507</v>
+        <f>SUBTOTAL(9,C3:C436)</f>
+        <v>1146701</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D434)</f>
-        <v>843243</v>
+        <f>SUBTOTAL(9,D3:D436)</f>
+        <v>857255</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-277264</v>
+        <v>-289446</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F434)</f>
+        <f>SUBTOTAL(9,F3:F436)</f>
         <v>36200</v>
       </c>
     </row>
@@ -8797,22 +8921,19 @@
         <v>150</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="14">
+    <row r="299" spans="1:7" s="5" customFormat="1">
+      <c r="A299" s="17">
         <v>42031</v>
       </c>
-      <c r="B299" s="13" t="s">
+      <c r="B299" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C299" s="15"/>
-      <c r="D299" s="16">
+      <c r="C299" s="18"/>
+      <c r="D299" s="11">
         <v>936</v>
       </c>
-      <c r="E299" s="16"/>
-      <c r="F299" s="16"/>
-      <c r="G299" s="13" t="s">
-        <v>215</v>
-      </c>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="1">
@@ -9056,16 +9177,126 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B321" t="s">
+        <v>50</v>
+      </c>
+      <c r="D321" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B322" t="s">
+        <v>258</v>
+      </c>
+      <c r="D322" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>42075</v>
+      </c>
+      <c r="B323" t="s">
+        <v>69</v>
+      </c>
+      <c r="C323" s="2">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
         <v>42078</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B324" t="s">
         <v>265</v>
       </c>
-      <c r="C321" s="2">
+      <c r="C324" s="2">
         <v>4497</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G324" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>42087</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D325" s="6">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B326" t="s">
+        <v>48</v>
+      </c>
+      <c r="C326" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B327" t="s">
+        <v>44</v>
+      </c>
+      <c r="C327" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B328" t="s">
+        <v>50</v>
+      </c>
+      <c r="D328" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B329" t="s">
+        <v>258</v>
+      </c>
+      <c r="D329" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B330" t="s">
+        <v>267</v>
+      </c>
+      <c r="D330" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>42107</v>
+      </c>
+      <c r="B331" t="s">
+        <v>70</v>
+      </c>
+      <c r="C331" s="2">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="借款" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$337</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="270">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2013/2/18~2013/6/18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水費6月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2013/6/9~2014/6/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2014/8/6~ 2015/8/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第3間8月租金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,10 +789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2014/10/5~2015/9/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間網路線</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -880,10 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>付成858少付78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間1月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1093,6 +1073,30 @@
   </si>
   <si>
     <t>第2間3月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間3月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間4月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間4月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/10/5~2015/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/7/6~2016/7/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,12 +1158,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1175,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,18 +1212,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1598,11 +1584,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J330"/>
+  <dimension ref="A1:J343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1619,23 +1605,23 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600</f>
-        <v>1146701</v>
+        <v>1184141</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C431)</f>
-        <v>1232998</v>
+        <f>SUBTOTAL(9,C3:C432)</f>
+        <v>1270438</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D431)</f>
-        <v>1361555</v>
+        <f>SUBTOTAL(9,D3:D432)</f>
+        <v>1389705</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>128557</v>
+        <v>119267</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F431)</f>
-        <v>36200</v>
+        <f>SUBTOTAL(9,F3:F432)</f>
+        <v>48200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1666,7 +1652,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -1677,7 +1663,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -1696,9 +1682,6 @@
       <c r="F5" s="6">
         <v>11000</v>
       </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -1713,9 +1696,7 @@
       <c r="F6" s="6">
         <v>11000</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -1730,9 +1711,7 @@
       <c r="F7" s="6">
         <v>13000</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -2080,9 +2059,7 @@
       <c r="F38" s="6">
         <v>11600</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
@@ -2483,7 +2460,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -2496,7 +2473,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -2849,7 +2826,7 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
@@ -2890,9 +2867,7 @@
       <c r="F109" s="6">
         <v>13000</v>
       </c>
-      <c r="G109" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
@@ -3075,7 +3050,7 @@
         <v>41426</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2">
         <v>568</v>
@@ -3108,7 +3083,7 @@
         <v>41435</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2">
         <v>2200</v>
@@ -3130,7 +3105,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D131" s="6">
         <v>6230</v>
@@ -3141,7 +3116,7 @@
         <v>41441</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D132" s="6">
         <v>1800</v>
@@ -3152,7 +3127,7 @@
         <v>41441</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D133" s="6">
         <v>63800</v>
@@ -3174,7 +3149,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C135" s="2">
         <v>13000</v>
@@ -3224,7 +3199,7 @@
         <v>41450</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2">
         <v>124</v>
@@ -3235,7 +3210,7 @@
         <v>41450</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
@@ -3246,7 +3221,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D141" s="6">
         <v>13600</v>
@@ -3254,16 +3229,14 @@
       <c r="F141" s="6">
         <v>13600</v>
       </c>
-      <c r="G141" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>41451</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D142" s="6">
         <v>74800</v>
@@ -3275,7 +3248,7 @@
         <v>41451</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D143" s="6">
         <v>1200</v>
@@ -3308,7 +3281,7 @@
         <v>41466</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C146" s="2">
         <v>4526</v>
@@ -3319,7 +3292,7 @@
         <v>41486</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C147" s="2">
         <v>2200</v>
@@ -3330,7 +3303,7 @@
         <v>41487</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C148" s="2">
         <v>489</v>
@@ -3418,7 +3391,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -3430,7 +3403,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -3453,7 +3426,7 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
@@ -3464,7 +3437,7 @@
         <v>41548</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2">
         <v>370</v>
@@ -3530,7 +3503,7 @@
         <v>41590</v>
       </c>
       <c r="B166" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C166" s="2">
         <v>4187</v>
@@ -3541,7 +3514,7 @@
         <v>41607</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C167" s="2">
         <v>254</v>
@@ -3574,7 +3547,7 @@
         <v>41614</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C170" s="2">
         <v>2200</v>
@@ -3596,7 +3569,7 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
@@ -3651,7 +3624,7 @@
         <v>41652</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C177" s="2">
         <v>2933</v>
@@ -3706,7 +3679,7 @@
         <v>41677</v>
       </c>
       <c r="B182" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C182" s="2">
         <v>2200</v>
@@ -3739,7 +3712,7 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
@@ -3783,7 +3756,7 @@
         <v>41713</v>
       </c>
       <c r="B189" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C189" s="2">
         <v>4497</v>
@@ -3805,7 +3778,7 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
@@ -3893,7 +3866,7 @@
         <v>41787</v>
       </c>
       <c r="B199" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D199" s="2">
         <v>7734</v>
@@ -3904,7 +3877,7 @@
         <v>41787</v>
       </c>
       <c r="B200" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D200" s="2">
         <v>1800</v>
@@ -3915,7 +3888,7 @@
         <v>41787</v>
       </c>
       <c r="B201" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D201" s="2">
         <v>63800</v>
@@ -3926,7 +3899,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -3937,7 +3910,7 @@
         <v>41787</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C203" s="2">
         <v>519</v>
@@ -3948,7 +3921,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -3981,7 +3954,7 @@
         <v>41796</v>
       </c>
       <c r="B207" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C207" s="2">
         <v>2200</v>
@@ -4003,7 +3976,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -4053,7 +4026,7 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
@@ -4097,7 +4070,7 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
@@ -4152,7 +4125,7 @@
         <v>41856</v>
       </c>
       <c r="B222" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D222" s="6">
         <v>11000</v>
@@ -4160,16 +4133,14 @@
       <c r="F222" s="6">
         <v>11000</v>
       </c>
-      <c r="G222" s="8" t="s">
-        <v>178</v>
-      </c>
+      <c r="G222" s="5"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>41857</v>
       </c>
       <c r="B223" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D223" s="2">
         <v>13600</v>
@@ -4177,16 +4148,14 @@
       <c r="F223" s="6">
         <v>13600</v>
       </c>
-      <c r="G223" s="8" t="s">
-        <v>170</v>
-      </c>
+      <c r="G223" s="5"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>41857</v>
       </c>
       <c r="B224" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D224" s="6">
         <v>6800</v>
@@ -4197,7 +4166,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -4208,7 +4177,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -4219,7 +4188,7 @@
         <v>41859</v>
       </c>
       <c r="B227" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C227" s="2">
         <v>2200</v>
@@ -4263,7 +4232,7 @@
         <v>41888</v>
       </c>
       <c r="B231" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C231" s="2">
         <v>11000</v>
@@ -4291,7 +4260,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -4302,7 +4271,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -4313,7 +4282,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -4324,7 +4293,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -4335,7 +4304,7 @@
         <v>41888</v>
       </c>
       <c r="B237" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C237" s="2">
         <v>20</v>
@@ -4357,7 +4326,7 @@
         <v>41888</v>
       </c>
       <c r="B239" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C239" s="2">
         <v>4131</v>
@@ -4368,7 +4337,7 @@
         <v>41888</v>
       </c>
       <c r="B240" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C240" s="2">
         <v>79</v>
@@ -4379,7 +4348,7 @@
         <v>41893</v>
       </c>
       <c r="B241" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C241" s="2">
         <v>5665</v>
@@ -4390,7 +4359,7 @@
         <v>41897</v>
       </c>
       <c r="B242" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C242" s="2">
         <v>4497</v>
@@ -4412,7 +4381,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -4423,7 +4392,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -4434,7 +4403,7 @@
         <v>41910</v>
       </c>
       <c r="B246" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C246" s="2">
         <v>11600</v>
@@ -4474,7 +4443,7 @@
         <v>41910</v>
       </c>
       <c r="B249" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C249" s="2">
         <v>36733</v>
@@ -4496,7 +4465,7 @@
         <v>41910</v>
       </c>
       <c r="B251" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C251" s="2">
         <v>3690</v>
@@ -4507,7 +4476,7 @@
         <v>41910</v>
       </c>
       <c r="B252" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C252" s="2">
         <v>95</v>
@@ -4518,7 +4487,7 @@
         <v>41911</v>
       </c>
       <c r="B253" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D253" s="6">
         <v>12000</v>
@@ -4526,16 +4495,14 @@
       <c r="F253" s="6">
         <v>12000</v>
       </c>
-      <c r="G253" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="G253" s="5"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>41914</v>
       </c>
       <c r="B254" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C254" s="2">
         <v>325</v>
@@ -4546,7 +4513,7 @@
         <v>41917</v>
       </c>
       <c r="B255" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C255" s="2">
         <v>129</v>
@@ -4557,7 +4524,7 @@
         <v>41917</v>
       </c>
       <c r="B256" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D256" s="6">
         <v>6000</v>
@@ -4568,7 +4535,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D257" s="6">
         <v>150</v>
@@ -4612,7 +4579,7 @@
         <v>41925</v>
       </c>
       <c r="B261" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C261" s="2">
         <v>430</v>
@@ -4623,7 +4590,7 @@
         <v>41932</v>
       </c>
       <c r="B262" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D262" s="6">
         <v>6800</v>
@@ -4634,7 +4601,7 @@
         <v>41932</v>
       </c>
       <c r="B263" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D263" s="6">
         <v>150</v>
@@ -4645,7 +4612,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -4656,7 +4623,7 @@
         <v>41932</v>
       </c>
       <c r="B265" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D265" s="6">
         <v>1943</v>
@@ -4689,7 +4656,7 @@
         <v>41949</v>
       </c>
       <c r="B268" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D268" s="6">
         <v>6000</v>
@@ -4700,7 +4667,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D269" s="6">
         <v>150</v>
@@ -4722,7 +4689,7 @@
         <v>41955</v>
       </c>
       <c r="B271" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C271" s="2">
         <v>4767</v>
@@ -4744,7 +4711,7 @@
         <v>41957</v>
       </c>
       <c r="B273" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D273" s="6">
         <v>150</v>
@@ -4755,7 +4722,7 @@
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
@@ -4766,7 +4733,7 @@
         <v>41959</v>
       </c>
       <c r="B275" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C275" s="2">
         <v>300</v>
@@ -4777,7 +4744,7 @@
         <v>41967</v>
       </c>
       <c r="B276" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D276" s="6">
         <v>858</v>
@@ -4810,7 +4777,7 @@
         <v>41981</v>
       </c>
       <c r="B279" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C279" s="2">
         <v>2200</v>
@@ -4832,7 +4799,7 @@
         <v>41982</v>
       </c>
       <c r="B281" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D281" s="6">
         <v>150</v>
@@ -4843,7 +4810,7 @@
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
@@ -4854,7 +4821,7 @@
         <v>41982</v>
       </c>
       <c r="B283" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D283" s="6">
         <v>1277</v>
@@ -4865,7 +4832,7 @@
         <v>41983</v>
       </c>
       <c r="B284" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D284" s="6">
         <v>6000</v>
@@ -4876,7 +4843,7 @@
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D285" s="6">
         <v>150</v>
@@ -4887,7 +4854,7 @@
         <v>41983</v>
       </c>
       <c r="B286" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D286" s="6">
         <v>967</v>
@@ -4898,7 +4865,7 @@
         <v>41985</v>
       </c>
       <c r="B287" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D287" s="6">
         <v>6600</v>
@@ -4909,13 +4876,13 @@
         <v>41986</v>
       </c>
       <c r="B288" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C288" s="2">
         <v>390</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>41988</v>
       </c>
@@ -4926,7 +4893,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>42010</v>
       </c>
@@ -4937,7 +4904,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>42010</v>
       </c>
@@ -4948,29 +4915,29 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>42014</v>
       </c>
       <c r="B292" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D292" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D293" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>42017</v>
       </c>
@@ -4981,7 +4948,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>42018</v>
       </c>
@@ -4992,46 +4959,43 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="14">
+    <row r="298" spans="1:6" s="5" customFormat="1">
+      <c r="A298" s="13">
         <v>42031</v>
       </c>
-      <c r="B298" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C298" s="15"/>
-      <c r="D298" s="16">
+      <c r="B298" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C298" s="14"/>
+      <c r="D298" s="11">
         <v>936</v>
       </c>
-      <c r="E298" s="16"/>
-      <c r="F298" s="16"/>
-      <c r="G298" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="E298" s="11"/>
+      <c r="F298" s="11"/>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>42036</v>
       </c>
@@ -5042,7 +5006,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>42040</v>
       </c>
@@ -5053,7 +5017,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>42040</v>
       </c>
@@ -5064,34 +5028,34 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>42043</v>
       </c>
       <c r="B302" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C302" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>42045</v>
       </c>
       <c r="B303" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D303" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D304" s="6">
         <v>150</v>
@@ -5102,7 +5066,7 @@
         <v>42045</v>
       </c>
       <c r="B305" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D305" s="6">
         <v>1424</v>
@@ -5124,7 +5088,7 @@
         <v>42062</v>
       </c>
       <c r="B307" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D307" s="6">
         <v>13200</v>
@@ -5138,7 +5102,7 @@
         <v>42062</v>
       </c>
       <c r="B308" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D308" s="6">
         <v>16800</v>
@@ -5149,7 +5113,7 @@
         <v>42063</v>
       </c>
       <c r="B309" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C309" s="2">
         <v>13600</v>
@@ -5166,7 +5130,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D310" s="6">
         <v>5587</v>
@@ -5177,7 +5141,7 @@
         <v>42063</v>
       </c>
       <c r="B311" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D311" s="6">
         <v>123</v>
@@ -5188,7 +5152,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -5199,7 +5163,7 @@
         <v>42063</v>
       </c>
       <c r="B313" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D313" s="6">
         <v>940</v>
@@ -5210,7 +5174,7 @@
         <v>42063</v>
       </c>
       <c r="B314" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D314" s="6">
         <v>683</v>
@@ -5243,7 +5207,7 @@
         <v>42070</v>
       </c>
       <c r="B317" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C317" s="2">
         <v>140</v>
@@ -5254,7 +5218,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D318" s="6">
         <v>3000</v>
@@ -5265,7 +5229,7 @@
         <v>42070</v>
       </c>
       <c r="B319" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D319" s="6">
         <v>1000</v>
@@ -5276,24 +5240,24 @@
         <v>42074</v>
       </c>
       <c r="B320" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D320" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:4">
       <c r="A321" s="1">
         <v>42074</v>
       </c>
       <c r="B321" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D321" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>42075</v>
       </c>
@@ -5304,32 +5268,29 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:4">
       <c r="A323" s="1">
         <v>42078</v>
       </c>
       <c r="B323" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C323" s="2">
         <v>4497</v>
       </c>
-      <c r="G323" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="1">
         <v>42087</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D324" s="6">
         <v>612</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:4">
       <c r="A325" s="1">
         <v>42102</v>
       </c>
@@ -5340,7 +5301,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:4">
       <c r="A326" s="1">
         <v>42102</v>
       </c>
@@ -5351,52 +5312,153 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:4">
       <c r="A327" s="1">
-        <v>42105</v>
+        <v>42102</v>
       </c>
       <c r="B327" t="s">
-        <v>50</v>
-      </c>
-      <c r="D327" s="6">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="C327" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="1">
         <v>42105</v>
       </c>
       <c r="B328" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D328" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="1">
         <v>42105</v>
       </c>
       <c r="B329" t="s">
+        <v>266</v>
+      </c>
+      <c r="D329" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B330" t="s">
+        <v>262</v>
+      </c>
+      <c r="D330" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>42107</v>
+      </c>
+      <c r="B331" t="s">
+        <v>70</v>
+      </c>
+      <c r="C331" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>42129</v>
+      </c>
+      <c r="B332" t="s">
+        <v>48</v>
+      </c>
+      <c r="D332" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>42129</v>
+      </c>
+      <c r="B333" t="s">
+        <v>44</v>
+      </c>
+      <c r="C333" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>42135</v>
+      </c>
+      <c r="B334" t="s">
+        <v>57</v>
+      </c>
+      <c r="D334" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>42135</v>
+      </c>
+      <c r="B335" t="s">
+        <v>264</v>
+      </c>
+      <c r="D335" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B336" t="s">
+        <v>71</v>
+      </c>
+      <c r="C336" s="2">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1">
+        <v>42140</v>
+      </c>
+      <c r="B337" t="s">
+        <v>34</v>
+      </c>
+      <c r="D337" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F337" s="6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B342" t="s">
         <v>267</v>
       </c>
-      <c r="D329" s="6">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
-      <c r="A330" s="1">
-        <v>42107</v>
-      </c>
-      <c r="B330" t="s">
-        <v>70</v>
-      </c>
-      <c r="C330" s="2">
-        <v>301</v>
+      <c r="C342" s="2">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B343" t="s">
+        <v>131</v>
+      </c>
+      <c r="C343" s="2">
+        <v>4497</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5408,11 +5470,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K331"/>
+  <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5427,20 +5489,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C436)</f>
-        <v>1146701</v>
+        <f>SUBTOTAL(9,C3:C437)</f>
+        <v>1184141</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D436)</f>
-        <v>857255</v>
+        <f>SUBTOTAL(9,D3:D437)</f>
+        <v>850205</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-289446</v>
+        <v>-333936</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F436)</f>
-        <v>36200</v>
+        <f>SUBTOTAL(9,F3:F437)</f>
+        <v>48200</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5471,7 +5533,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -5482,7 +5544,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -5513,7 +5575,7 @@
         <v>11000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5879,7 +5941,7 @@
         <v>11600</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6294,7 +6356,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -6307,7 +6369,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -6683,7 +6745,7 @@
         <v>41322</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C107" s="2">
         <v>5380</v>
@@ -6694,7 +6756,7 @@
         <v>41322</v>
       </c>
       <c r="B108" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C108" s="2">
         <v>1279</v>
@@ -6898,7 +6960,7 @@
         <v>41426</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2">
         <v>568</v>
@@ -6931,7 +6993,7 @@
         <v>41435</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2">
         <v>2200</v>
@@ -6956,13 +7018,13 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D131" s="6">
         <v>6230</v>
       </c>
       <c r="G131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6970,7 +7032,7 @@
         <v>41441</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D132" s="6">
         <v>1800</v>
@@ -6981,7 +7043,7 @@
         <v>41441</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D133" s="6">
         <v>63800</v>
@@ -7003,7 +7065,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F135" s="6">
         <v>-13000</v>
@@ -7034,7 +7096,7 @@
         <v>4158</v>
       </c>
       <c r="G137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7048,7 +7110,7 @@
         <v>81</v>
       </c>
       <c r="G138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7056,7 +7118,7 @@
         <v>41450</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2">
         <v>124</v>
@@ -7067,7 +7129,7 @@
         <v>41450</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
@@ -7078,13 +7140,13 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F141" s="6">
         <v>13600</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -7092,7 +7154,7 @@
         <v>41451</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D142" s="6">
         <v>74800</v>
@@ -7103,7 +7165,7 @@
         <v>41451</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D143" s="6">
         <v>1200</v>
@@ -7136,7 +7198,7 @@
         <v>41466</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C146" s="2">
         <v>4526</v>
@@ -7147,7 +7209,7 @@
         <v>41486</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C147" s="2">
         <v>2200</v>
@@ -7158,7 +7220,7 @@
         <v>41487</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C148" s="2">
         <v>489</v>
@@ -7244,7 +7306,7 @@
         <v>4917</v>
       </c>
       <c r="G155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7252,7 +7314,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -7264,7 +7326,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -7282,7 +7344,7 @@
         <v>2874</v>
       </c>
       <c r="G158" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7290,13 +7352,13 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
       </c>
       <c r="G159" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7304,7 +7366,7 @@
         <v>41548</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2">
         <v>370</v>
@@ -7370,7 +7432,7 @@
         <v>41590</v>
       </c>
       <c r="B166" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C166" s="2">
         <v>4187</v>
@@ -7381,7 +7443,7 @@
         <v>41607</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C167" s="2">
         <v>254</v>
@@ -7414,7 +7476,7 @@
         <v>41614</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C170" s="2">
         <v>2200</v>
@@ -7431,7 +7493,7 @@
         <v>2398</v>
       </c>
       <c r="G171" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7439,13 +7501,13 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
       </c>
       <c r="G172" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7500,7 +7562,7 @@
         <v>41652</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C177" s="2">
         <v>2933</v>
@@ -7517,7 +7579,7 @@
         <v>6600</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7559,7 +7621,7 @@
         <v>41677</v>
       </c>
       <c r="B182" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C182" s="2">
         <v>2200</v>
@@ -7587,7 +7649,7 @@
         <v>1336</v>
       </c>
       <c r="G184" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -7595,13 +7657,13 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
       </c>
       <c r="G185" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -7642,7 +7704,7 @@
         <v>41713</v>
       </c>
       <c r="B189" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C189" s="2">
         <v>4497</v>
@@ -7662,7 +7724,7 @@
         <v>1423</v>
       </c>
       <c r="G190" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7670,13 +7732,13 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
       </c>
       <c r="G191" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7761,13 +7823,13 @@
         <v>41787</v>
       </c>
       <c r="B199" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D199" s="2">
         <v>7734</v>
       </c>
       <c r="G199" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -7775,7 +7837,7 @@
         <v>41787</v>
       </c>
       <c r="B200" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D200" s="2">
         <v>1800</v>
@@ -7786,7 +7848,7 @@
         <v>41787</v>
       </c>
       <c r="B201" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D201" s="2">
         <v>63800</v>
@@ -7797,7 +7859,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -7808,7 +7870,7 @@
         <v>41787</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C203" s="2">
         <v>519</v>
@@ -7819,7 +7881,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -7852,7 +7914,7 @@
         <v>41796</v>
       </c>
       <c r="B207" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C207" s="2">
         <v>2200</v>
@@ -7877,7 +7939,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -7919,7 +7981,7 @@
         <v>4258</v>
       </c>
       <c r="G212" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -7927,13 +7989,13 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
       </c>
       <c r="G213" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -7974,13 +8036,13 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
       </c>
       <c r="G217" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7994,7 +8056,7 @@
         <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -8035,13 +8097,13 @@
         <v>41856</v>
       </c>
       <c r="B222" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F222" s="6">
         <v>11000</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -8049,14 +8111,14 @@
         <v>41857</v>
       </c>
       <c r="B223" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D223" s="2"/>
       <c r="F223" s="2">
         <v>13600</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -8064,7 +8126,7 @@
         <v>41857</v>
       </c>
       <c r="B224" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D224" s="6">
         <v>6800</v>
@@ -8075,7 +8137,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -8086,7 +8148,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -8097,7 +8159,7 @@
         <v>41859</v>
       </c>
       <c r="B227" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C227" s="2">
         <v>2200</v>
@@ -8141,7 +8203,7 @@
         <v>41888</v>
       </c>
       <c r="B231" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F231" s="6">
         <v>-11000</v>
@@ -8161,7 +8223,7 @@
         <v>4824</v>
       </c>
       <c r="G232" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -8169,13 +8231,13 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
       </c>
       <c r="G233" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -8183,7 +8245,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -8194,7 +8256,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -8205,7 +8267,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -8216,7 +8278,7 @@
         <v>41888</v>
       </c>
       <c r="B237" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C237" s="2">
         <v>20</v>
@@ -8233,7 +8295,7 @@
         <v>374</v>
       </c>
       <c r="G238" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -8241,7 +8303,7 @@
         <v>41888</v>
       </c>
       <c r="B239" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C239" s="2">
         <v>4131</v>
@@ -8252,7 +8314,7 @@
         <v>41888</v>
       </c>
       <c r="B240" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C240" s="2">
         <v>79</v>
@@ -8263,7 +8325,7 @@
         <v>41893</v>
       </c>
       <c r="B241" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C241" s="2">
         <v>5665</v>
@@ -8274,7 +8336,7 @@
         <v>41897</v>
       </c>
       <c r="B242" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C242" s="2">
         <v>4497</v>
@@ -8299,7 +8361,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -8310,7 +8372,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -8321,7 +8383,7 @@
         <v>41910</v>
       </c>
       <c r="B246" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F246" s="6">
         <f>-11600</f>
@@ -8336,13 +8398,13 @@
         <v>41910</v>
       </c>
       <c r="B247" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D247" s="6">
         <v>6920</v>
       </c>
       <c r="G247" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -8350,13 +8412,13 @@
         <v>41910</v>
       </c>
       <c r="B248" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D248" s="6">
         <v>550</v>
       </c>
       <c r="G248" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -8364,7 +8426,7 @@
         <v>41910</v>
       </c>
       <c r="B249" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D249" s="6">
         <v>500</v>
@@ -8375,7 +8437,7 @@
         <v>41910</v>
       </c>
       <c r="B250" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C250" s="2">
         <v>36733</v>
@@ -8392,7 +8454,7 @@
         <v>264</v>
       </c>
       <c r="G251" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -8400,7 +8462,7 @@
         <v>41910</v>
       </c>
       <c r="B252" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C252" s="2">
         <v>3690</v>
@@ -8411,7 +8473,7 @@
         <v>41910</v>
       </c>
       <c r="B253" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C253" s="2">
         <v>95</v>
@@ -8422,13 +8484,13 @@
         <v>41911</v>
       </c>
       <c r="B254" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F254" s="6">
         <v>12000</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8436,13 +8498,13 @@
         <v>41914</v>
       </c>
       <c r="B255" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C255" s="2">
         <v>325</v>
       </c>
       <c r="G255" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -8450,7 +8512,7 @@
         <v>41917</v>
       </c>
       <c r="B256" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C256" s="2">
         <v>129</v>
@@ -8461,7 +8523,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D257" s="6">
         <v>6000</v>
@@ -8472,7 +8534,7 @@
         <v>41917</v>
       </c>
       <c r="B258" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D258" s="6">
         <v>150</v>
@@ -8516,7 +8578,7 @@
         <v>41925</v>
       </c>
       <c r="B262" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C262" s="2">
         <v>430</v>
@@ -8527,7 +8589,7 @@
         <v>41932</v>
       </c>
       <c r="B263" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D263" s="6">
         <v>6800</v>
@@ -8538,7 +8600,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -8549,7 +8611,7 @@
         <v>41932</v>
       </c>
       <c r="B265" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D265" s="6">
         <v>150</v>
@@ -8560,7 +8622,7 @@
         <v>41932</v>
       </c>
       <c r="B266" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D266" s="6">
         <v>1943</v>
@@ -8593,7 +8655,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D269" s="6">
         <v>6000</v>
@@ -8604,7 +8666,7 @@
         <v>41949</v>
       </c>
       <c r="B270" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D270" s="6">
         <v>150</v>
@@ -8626,7 +8688,7 @@
         <v>41955</v>
       </c>
       <c r="B272" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C272" s="2">
         <v>4767</v>
@@ -8648,7 +8710,7 @@
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
@@ -8659,7 +8721,7 @@
         <v>41957</v>
       </c>
       <c r="B275" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D275" s="6">
         <v>150</v>
@@ -8670,7 +8732,7 @@
         <v>41959</v>
       </c>
       <c r="B276" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C276" s="2">
         <v>300</v>
@@ -8681,7 +8743,7 @@
         <v>41967</v>
       </c>
       <c r="B277" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D277" s="6">
         <v>858</v>
@@ -8714,7 +8776,7 @@
         <v>41981</v>
       </c>
       <c r="B280" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C280" s="2">
         <v>2200</v>
@@ -8736,7 +8798,7 @@
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
@@ -8747,7 +8809,7 @@
         <v>41982</v>
       </c>
       <c r="B283" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D283" s="6">
         <v>150</v>
@@ -8758,7 +8820,7 @@
         <v>41982</v>
       </c>
       <c r="B284" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D284" s="6">
         <v>1277</v>
@@ -8769,7 +8831,7 @@
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D285" s="6">
         <v>6000</v>
@@ -8780,7 +8842,7 @@
         <v>41983</v>
       </c>
       <c r="B286" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D286" s="6">
         <v>150</v>
@@ -8791,7 +8853,7 @@
         <v>41983</v>
       </c>
       <c r="B287" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D287" s="6">
         <v>967</v>
@@ -8802,7 +8864,7 @@
         <v>41985</v>
       </c>
       <c r="B288" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D288" s="6">
         <v>6600</v>
@@ -8813,7 +8875,7 @@
         <v>41986</v>
       </c>
       <c r="B289" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C289" s="2">
         <v>390</v>
@@ -8860,7 +8922,7 @@
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D293" s="6">
         <v>6000</v>
@@ -8871,7 +8933,7 @@
         <v>42014</v>
       </c>
       <c r="B294" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D294" s="6">
         <v>150</v>
@@ -8904,7 +8966,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -8915,20 +8977,20 @@
         <v>42018</v>
       </c>
       <c r="B298" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D298" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="5" customFormat="1">
-      <c r="A299" s="17">
+      <c r="A299" s="13">
         <v>42031</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C299" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="C299" s="14"/>
       <c r="D299" s="11">
         <v>936</v>
       </c>
@@ -8973,7 +9035,7 @@
         <v>42043</v>
       </c>
       <c r="B303" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C303" s="2">
         <v>2200</v>
@@ -8984,7 +9046,7 @@
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D304" s="6">
         <v>6000</v>
@@ -8995,7 +9057,7 @@
         <v>42045</v>
       </c>
       <c r="B305" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D305" s="6">
         <v>150</v>
@@ -9006,7 +9068,7 @@
         <v>42045</v>
       </c>
       <c r="B306" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D306" s="6">
         <v>1424</v>
@@ -9028,16 +9090,13 @@
         <v>42062</v>
       </c>
       <c r="B308" t="s">
-        <v>218</v>
-      </c>
-      <c r="D308" s="6">
-        <v>13200</v>
+        <v>213</v>
       </c>
       <c r="F308" s="6">
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -9045,7 +9104,7 @@
         <v>42062</v>
       </c>
       <c r="B309" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D309" s="6">
         <v>16800</v>
@@ -9056,7 +9115,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F310" s="6">
         <v>-13600</v>
@@ -9081,7 +9140,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -9092,7 +9151,7 @@
         <v>42063</v>
       </c>
       <c r="B313" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D313" s="6">
         <v>123</v>
@@ -9103,7 +9162,7 @@
         <v>42063</v>
       </c>
       <c r="B314" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D314" s="6">
         <v>940</v>
@@ -9114,7 +9173,7 @@
         <v>42063</v>
       </c>
       <c r="B315" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D315" s="6">
         <v>683</v>
@@ -9147,7 +9206,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C318" s="2">
         <v>140</v>
@@ -9158,7 +9217,7 @@
         <v>42070</v>
       </c>
       <c r="B319" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D319" s="6">
         <v>3000</v>
@@ -9169,7 +9228,7 @@
         <v>42070</v>
       </c>
       <c r="B320" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D320" s="6">
         <v>1000</v>
@@ -9180,7 +9239,7 @@
         <v>42074</v>
       </c>
       <c r="B321" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D321" s="6">
         <v>6000</v>
@@ -9191,7 +9250,7 @@
         <v>42074</v>
       </c>
       <c r="B322" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D322" s="6">
         <v>150</v>
@@ -9213,7 +9272,7 @@
         <v>42078</v>
       </c>
       <c r="B324" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C324" s="2">
         <v>4497</v>
@@ -9227,7 +9286,7 @@
         <v>42087</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D325" s="6">
         <v>612</v>
@@ -9257,13 +9316,13 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="1">
-        <v>42105</v>
+        <v>42102</v>
       </c>
       <c r="B328" t="s">
-        <v>50</v>
-      </c>
-      <c r="D328" s="6">
-        <v>6000</v>
+        <v>59</v>
+      </c>
+      <c r="C328" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -9271,10 +9330,10 @@
         <v>42105</v>
       </c>
       <c r="B329" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D329" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9282,25 +9341,129 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D330" s="6">
-        <v>1100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="1">
+        <v>42105</v>
+      </c>
+      <c r="B331" t="s">
+        <v>262</v>
+      </c>
+      <c r="D331" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
         <v>42107</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>70</v>
       </c>
-      <c r="C331" s="2">
+      <c r="C332" s="2">
         <v>301</v>
       </c>
     </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>42129</v>
+      </c>
+      <c r="B333" t="s">
+        <v>48</v>
+      </c>
+      <c r="C333" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>42129</v>
+      </c>
+      <c r="B334" t="s">
+        <v>44</v>
+      </c>
+      <c r="C334" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>42135</v>
+      </c>
+      <c r="B335" t="s">
+        <v>57</v>
+      </c>
+      <c r="D335" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>42135</v>
+      </c>
+      <c r="B336" t="s">
+        <v>264</v>
+      </c>
+      <c r="D336" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B337" t="s">
+        <v>130</v>
+      </c>
+      <c r="C337" s="2">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>42140</v>
+      </c>
+      <c r="B338" t="s">
+        <v>34</v>
+      </c>
+      <c r="F338" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G338" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B344" t="s">
+        <v>267</v>
+      </c>
+      <c r="C344" s="2">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B345" t="s">
+        <v>131</v>
+      </c>
+      <c r="C345" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G345" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -9698,7 +9861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="借款" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$338</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="274">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,10 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第3間預繳水+電+費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租約 2014/8/6~ 2015/2/28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1097,6 +1093,26 @@
   </si>
   <si>
     <t>租約 2015/7/6~2016/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間預繳水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間預繳電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先付1000，目前3.4.5.6.7月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,6 +1174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1173,7 +1195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,6 +1239,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,9 +1611,9 @@
   </sheetPr>
   <dimension ref="A1:J343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1605,19 +1630,19 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600</f>
-        <v>1184141</v>
+        <v>1207121</v>
       </c>
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C432)</f>
-        <v>1270438</v>
+        <v>1293418</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D432)</f>
-        <v>1389705</v>
+        <v>1399625</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>119267</v>
+        <v>106207</v>
       </c>
       <c r="F1" s="6">
         <f>SUBTOTAL(9,F3:F432)</f>
@@ -5130,7 +5155,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D310" s="6">
         <v>5587</v>
@@ -5228,22 +5253,22 @@
       <c r="A319" s="1">
         <v>42070</v>
       </c>
-      <c r="B319" t="s">
-        <v>258</v>
+      <c r="B319" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="D319" s="6">
-        <v>1000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1">
-        <v>42074</v>
-      </c>
-      <c r="B320" t="s">
-        <v>57</v>
+        <v>42070</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="D320" s="6">
-        <v>6000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5251,54 +5276,54 @@
         <v>42074</v>
       </c>
       <c r="B321" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="D321" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1">
-        <v>42075</v>
+        <v>42074</v>
       </c>
       <c r="B322" t="s">
-        <v>69</v>
-      </c>
-      <c r="C322" s="2">
-        <v>3146</v>
+        <v>263</v>
+      </c>
+      <c r="D322" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1">
-        <v>42078</v>
+        <v>42075</v>
       </c>
       <c r="B323" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="C323" s="2">
-        <v>4497</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1">
-        <v>42087</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D324" s="6">
-        <v>612</v>
+        <v>42078</v>
+      </c>
+      <c r="B324" t="s">
+        <v>259</v>
+      </c>
+      <c r="C324" s="2">
+        <v>4497</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1">
-        <v>42102</v>
-      </c>
-      <c r="B325" t="s">
-        <v>48</v>
-      </c>
-      <c r="D325" s="2">
-        <v>10000</v>
+        <v>42087</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D325" s="6">
+        <v>612</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5306,10 +5331,10 @@
         <v>42102</v>
       </c>
       <c r="B326" t="s">
-        <v>44</v>
-      </c>
-      <c r="C326" s="2">
-        <v>22747</v>
+        <v>48</v>
+      </c>
+      <c r="D326" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5317,21 +5342,21 @@
         <v>42102</v>
       </c>
       <c r="B327" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C327" s="2">
-        <v>2200</v>
+        <v>22747</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1">
-        <v>42105</v>
+        <v>42102</v>
       </c>
       <c r="B328" t="s">
-        <v>265</v>
-      </c>
-      <c r="D328" s="6">
-        <v>6000</v>
+        <v>59</v>
+      </c>
+      <c r="C328" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5339,10 +5364,10 @@
         <v>42105</v>
       </c>
       <c r="B329" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D329" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5350,32 +5375,32 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D330" s="6">
-        <v>1100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1">
-        <v>42107</v>
+        <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>70</v>
-      </c>
-      <c r="C331" s="2">
-        <v>301</v>
+        <v>261</v>
+      </c>
+      <c r="D331" s="6">
+        <v>1100</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1">
-        <v>42129</v>
+        <v>42107</v>
       </c>
       <c r="B332" t="s">
-        <v>48</v>
-      </c>
-      <c r="D332" s="2">
-        <v>10000</v>
+        <v>70</v>
+      </c>
+      <c r="C332" s="2">
+        <v>301</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5383,21 +5408,21 @@
         <v>42129</v>
       </c>
       <c r="B333" t="s">
-        <v>44</v>
-      </c>
-      <c r="C333" s="2">
-        <v>22747</v>
+        <v>48</v>
+      </c>
+      <c r="D333" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1">
-        <v>42135</v>
+        <v>42129</v>
       </c>
       <c r="B334" t="s">
-        <v>57</v>
-      </c>
-      <c r="D334" s="6">
-        <v>6000</v>
+        <v>44</v>
+      </c>
+      <c r="C334" s="2">
+        <v>22747</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5405,46 +5430,90 @@
         <v>42135</v>
       </c>
       <c r="B335" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="D335" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1">
-        <v>42137</v>
+        <v>42135</v>
       </c>
       <c r="B336" t="s">
-        <v>71</v>
-      </c>
-      <c r="C336" s="2">
-        <v>2267</v>
+        <v>263</v>
+      </c>
+      <c r="D336" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B337" t="s">
+        <v>71</v>
+      </c>
+      <c r="C337" s="2">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1">
         <v>42140</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
         <v>34</v>
       </c>
-      <c r="D337" s="6">
+      <c r="D338" s="6">
         <v>12000</v>
       </c>
-      <c r="F337" s="6">
+      <c r="F338" s="6">
         <v>12000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B339" t="s">
+        <v>48</v>
+      </c>
+      <c r="D339" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B340" t="s">
+        <v>44</v>
+      </c>
+      <c r="C340" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B341" t="s">
+        <v>266</v>
+      </c>
+      <c r="C341" s="2">
+        <v>5729</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>42164</v>
+        <v>42168</v>
       </c>
       <c r="B342" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C342" s="2">
-        <v>5729</v>
+        <v>233</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -5459,6 +5528,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5470,10 +5540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:K344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5489,19 +5559,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C437)</f>
-        <v>1184141</v>
+        <f>SUBTOTAL(9,C3:C436)</f>
+        <v>1207121</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D437)</f>
-        <v>850205</v>
+        <f>SUBTOTAL(9,D3:D436)</f>
+        <v>850125</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-333936</v>
+        <v>-356996</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F437)</f>
+        <f>SUBTOTAL(9,F3:F436)</f>
         <v>48200</v>
       </c>
     </row>
@@ -8118,7 +8188,7 @@
         <v>13600</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -8490,7 +8560,7 @@
         <v>12000</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -9227,22 +9297,28 @@
       <c r="A320" s="1">
         <v>42070</v>
       </c>
-      <c r="B320" t="s">
-        <v>258</v>
+      <c r="B320" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="D320" s="6">
-        <v>1000</v>
+        <v>750</v>
+      </c>
+      <c r="G320" s="15" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1">
-        <v>42074</v>
-      </c>
-      <c r="B321" t="s">
-        <v>57</v>
+        <v>42070</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="D321" s="6">
-        <v>6000</v>
+        <v>170</v>
+      </c>
+      <c r="G321" s="15" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9250,57 +9326,57 @@
         <v>42074</v>
       </c>
       <c r="B322" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="D322" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1">
-        <v>42075</v>
+        <v>42074</v>
       </c>
       <c r="B323" t="s">
-        <v>69</v>
-      </c>
-      <c r="C323" s="2">
-        <v>3146</v>
+        <v>263</v>
+      </c>
+      <c r="D323" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1">
-        <v>42078</v>
+        <v>42075</v>
       </c>
       <c r="B324" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="C324" s="2">
-        <v>4497</v>
-      </c>
-      <c r="G324" t="s">
-        <v>55</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="1">
-        <v>42087</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D325" s="6">
-        <v>612</v>
+        <v>42078</v>
+      </c>
+      <c r="B325" t="s">
+        <v>259</v>
+      </c>
+      <c r="C325" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G325" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="1">
-        <v>42102</v>
-      </c>
-      <c r="B326" t="s">
-        <v>48</v>
-      </c>
-      <c r="C326" s="2">
-        <v>10000</v>
+        <v>42087</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D326" s="6">
+        <v>612</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -9308,10 +9384,10 @@
         <v>42102</v>
       </c>
       <c r="B327" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C327" s="2">
-        <v>12747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -9319,21 +9395,21 @@
         <v>42102</v>
       </c>
       <c r="B328" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C328" s="2">
-        <v>2200</v>
+        <v>12747</v>
       </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="1">
-        <v>42105</v>
+        <v>42102</v>
       </c>
       <c r="B329" t="s">
-        <v>265</v>
-      </c>
-      <c r="D329" s="6">
-        <v>6000</v>
+        <v>59</v>
+      </c>
+      <c r="C329" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9341,10 +9417,10 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D330" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9352,32 +9428,32 @@
         <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D331" s="6">
-        <v>1100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1">
-        <v>42107</v>
+        <v>42105</v>
       </c>
       <c r="B332" t="s">
-        <v>70</v>
-      </c>
-      <c r="C332" s="2">
-        <v>301</v>
+        <v>261</v>
+      </c>
+      <c r="D332" s="6">
+        <v>1100</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1">
-        <v>42129</v>
+        <v>42107</v>
       </c>
       <c r="B333" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C333" s="2">
-        <v>10000</v>
+        <v>301</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9385,21 +9461,21 @@
         <v>42129</v>
       </c>
       <c r="B334" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C334" s="2">
-        <v>12747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1">
-        <v>42135</v>
+        <v>42129</v>
       </c>
       <c r="B335" t="s">
-        <v>57</v>
-      </c>
-      <c r="D335" s="6">
-        <v>6000</v>
+        <v>44</v>
+      </c>
+      <c r="C335" s="2">
+        <v>12747</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -9407,63 +9483,108 @@
         <v>42135</v>
       </c>
       <c r="B336" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="D336" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="1">
-        <v>42137</v>
+        <v>42135</v>
       </c>
       <c r="B337" t="s">
-        <v>130</v>
-      </c>
-      <c r="C337" s="2">
-        <v>2267</v>
+        <v>263</v>
+      </c>
+      <c r="D337" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B338" t="s">
+        <v>130</v>
+      </c>
+      <c r="C338" s="2">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
         <v>42140</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>34</v>
       </c>
-      <c r="F338" s="6">
+      <c r="F339" s="6">
         <v>12000</v>
       </c>
-      <c r="G338" s="8" t="s">
+      <c r="G339" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B340" t="s">
+        <v>48</v>
+      </c>
+      <c r="C340" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B341" t="s">
+        <v>44</v>
+      </c>
+      <c r="C341" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B342" t="s">
+        <v>266</v>
+      </c>
+      <c r="C342" s="2">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>42168</v>
+      </c>
+      <c r="B343" t="s">
         <v>269</v>
+      </c>
+      <c r="C343" s="2">
+        <v>233</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1">
-        <v>42164</v>
+        <v>42170</v>
       </c>
       <c r="B344" t="s">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="C344" s="2">
-        <v>5729</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345" s="1">
-        <v>42170</v>
-      </c>
-      <c r="B345" t="s">
-        <v>131</v>
-      </c>
-      <c r="C345" s="2">
         <v>4497</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G344" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$366</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="303">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,14 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第1間修理浴室水龍頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1間修理浴室水龍頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間機車車位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,22 +653,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第1間燈泡插座鐵絲氧化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第3間分享器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第1間熱水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3間冷氣壓縮機電容線斷掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗床套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,18 +697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第2間浴室燈泡蓮蓬頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租約 2014/9/6~ 2015/7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3間蓮蓬頭整組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第3間床墊2個</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,10 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第1間修門費用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電費9月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,10 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第3間修浴室洗手槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第2間11月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1088,14 +1048,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2014/10/5~2015/7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租約 2015/7/6~2016/7/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水費6月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1113,6 +1065,170 @@
   </si>
   <si>
     <t>先付1000，目前3.4.5.6.7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間6.7.8.9月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間預繳1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間3.4.5.6.7月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間5月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間6月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間6月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費6~7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間6月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗30，烘50，洗衣粉10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗床套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/7/1~2016/6/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2014/10/5~2015/6/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間浴室水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間燈泡插座鐵絲氧化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間熱水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第3間冷氣壓縮機電容線斷掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第2間浴室燈泡蓮蓬頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間修門費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第3間修浴室洗手槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間修床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第3間蓮蓬頭整組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間蓮蓬頭整組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間冷氣-電容&amp;風扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付2015年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間7月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間7月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間7月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第2間浴室燈泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間預收租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間預收水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預收機車位租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車位押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/8/1~2016/7/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠2元要找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/7/6~ 2016/7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間8.9月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間7月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1609,17 +1725,17 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J343"/>
+  <dimension ref="A1:J367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D319" sqref="D319:D320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
@@ -1629,24 +1745,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
-        <f>C1-11000-13000+503-13000-13600-11000-11600-13600</f>
-        <v>1207121</v>
+        <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
+        <v>1244415</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C432)</f>
-        <v>1293418</v>
+        <f>SUBTOTAL(9,C3:C438)</f>
+        <v>1342712</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D432)</f>
-        <v>1399625</v>
+        <f>SUBTOTAL(9,D3:D438)</f>
+        <v>1517259</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>106207</v>
+        <v>174547</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F432)</f>
-        <v>48200</v>
+        <f>SUBTOTAL(9,F3:F438)</f>
+        <v>36700</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1677,7 +1793,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -1688,7 +1804,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -2196,7 +2312,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -2207,7 +2323,7 @@
         <v>41068</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2">
         <v>399</v>
@@ -2218,7 +2334,7 @@
         <v>41069</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2">
         <v>500</v>
@@ -2229,7 +2345,7 @@
         <v>41069</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="2">
         <v>399</v>
@@ -2240,7 +2356,7 @@
         <v>41069</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2">
         <v>65</v>
@@ -2251,7 +2367,7 @@
         <v>41069</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="6">
         <v>1200</v>
@@ -2295,7 +2411,7 @@
         <v>41095</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="6">
         <v>6000</v>
@@ -2306,7 +2422,7 @@
         <v>41095</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="10">
         <v>110</v>
@@ -2340,7 +2456,7 @@
         <v>41101</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2">
         <v>2472</v>
@@ -2362,7 +2478,7 @@
         <v>41124</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63" s="6">
         <v>6000</v>
@@ -2395,7 +2511,7 @@
         <v>41134</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2">
         <v>321</v>
@@ -2428,7 +2544,7 @@
         <v>41157</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D69" s="6">
         <v>6000</v>
@@ -2439,7 +2555,7 @@
         <v>41164</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2">
         <v>3166</v>
@@ -2450,7 +2566,7 @@
         <v>41164</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2">
         <v>4497</v>
@@ -2461,7 +2577,7 @@
         <v>41170</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2">
         <v>2200</v>
@@ -2472,7 +2588,7 @@
         <v>41172</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D73" s="6">
         <v>3436</v>
@@ -2485,7 +2601,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -2498,7 +2614,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -2537,7 +2653,7 @@
         <v>41187</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D78" s="6">
         <v>6000</v>
@@ -2548,7 +2664,7 @@
         <v>41218</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D79" s="6">
         <v>6000</v>
@@ -2581,7 +2697,7 @@
         <v>41221</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>2200</v>
@@ -2592,7 +2708,7 @@
         <v>41225</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2">
         <v>2869</v>
@@ -2603,7 +2719,7 @@
         <v>41231</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2">
         <v>361</v>
@@ -2614,7 +2730,7 @@
         <v>41242</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2">
         <v>250</v>
@@ -2625,7 +2741,7 @@
         <v>41247</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D86" s="6">
         <v>6000</v>
@@ -2658,7 +2774,7 @@
         <v>41256</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2">
         <v>440</v>
@@ -2669,7 +2785,7 @@
         <v>41257</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2">
         <v>4497</v>
@@ -2713,7 +2829,7 @@
         <v>41282</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2">
         <v>2200</v>
@@ -2724,7 +2840,7 @@
         <v>41285</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2">
         <v>4062</v>
@@ -2735,7 +2851,7 @@
         <v>41286</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2">
         <v>1597</v>
@@ -2779,7 +2895,7 @@
         <v>41310</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2">
         <v>13000</v>
@@ -2796,7 +2912,7 @@
         <v>41310</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D101" s="6">
         <v>1950</v>
@@ -2807,7 +2923,7 @@
         <v>41310</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D102" s="6">
         <v>7433</v>
@@ -2829,7 +2945,7 @@
         <v>41318</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2">
         <v>539</v>
@@ -2840,7 +2956,7 @@
         <v>41318</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2">
         <v>480</v>
@@ -2851,7 +2967,7 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
@@ -2862,7 +2978,7 @@
         <v>41322</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2">
         <v>5380</v>
@@ -2873,7 +2989,7 @@
         <v>41322</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2">
         <v>1279</v>
@@ -2932,7 +3048,7 @@
         <v>41345</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2">
         <v>2722</v>
@@ -2954,7 +3070,7 @@
         <v>41353</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D115" s="6">
         <v>6500</v>
@@ -2998,7 +3114,7 @@
         <v>41377</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2">
         <v>370</v>
@@ -3009,7 +3125,7 @@
         <v>41386</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D120" s="6">
         <v>6500</v>
@@ -3042,7 +3158,7 @@
         <v>41408</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2">
         <v>4392</v>
@@ -3053,7 +3169,7 @@
         <v>41418</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D124" s="6">
         <v>6500</v>
@@ -3075,7 +3191,7 @@
         <v>41426</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2">
         <v>568</v>
@@ -3108,7 +3224,7 @@
         <v>41435</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2">
         <v>2200</v>
@@ -3119,7 +3235,7 @@
         <v>41440</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2">
         <v>4497</v>
@@ -3130,7 +3246,7 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D131" s="6">
         <v>6230</v>
@@ -3141,7 +3257,7 @@
         <v>41441</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D132" s="6">
         <v>1800</v>
@@ -3152,7 +3268,7 @@
         <v>41441</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D133" s="6">
         <v>63800</v>
@@ -3163,7 +3279,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -3174,7 +3290,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2">
         <v>13000</v>
@@ -3191,7 +3307,7 @@
         <v>41444</v>
       </c>
       <c r="B136" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D136" s="6">
         <v>600</v>
@@ -3202,7 +3318,7 @@
         <v>41444</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D137" s="6">
         <v>4158</v>
@@ -3213,7 +3329,7 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2">
         <v>81</v>
@@ -3224,7 +3340,7 @@
         <v>41450</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C139" s="2">
         <v>124</v>
@@ -3235,7 +3351,7 @@
         <v>41450</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
@@ -3246,7 +3362,7 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D141" s="6">
         <v>13600</v>
@@ -3261,7 +3377,7 @@
         <v>41451</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D142" s="6">
         <v>74800</v>
@@ -3273,7 +3389,7 @@
         <v>41451</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D143" s="6">
         <v>1200</v>
@@ -3306,7 +3422,7 @@
         <v>41466</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2">
         <v>4526</v>
@@ -3317,7 +3433,7 @@
         <v>41486</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C147" s="2">
         <v>2200</v>
@@ -3328,7 +3444,7 @@
         <v>41487</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2">
         <v>489</v>
@@ -3383,7 +3499,7 @@
         <v>41528</v>
       </c>
       <c r="B153" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C153" s="2">
         <v>4647</v>
@@ -3394,7 +3510,7 @@
         <v>41532</v>
       </c>
       <c r="B154" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C154" s="2">
         <v>4497</v>
@@ -3405,7 +3521,7 @@
         <v>41534</v>
       </c>
       <c r="B155" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D155" s="2">
         <v>4917</v>
@@ -3416,7 +3532,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -3428,7 +3544,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -3440,7 +3556,7 @@
         <v>41542</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D158" s="6">
         <v>2874</v>
@@ -3451,7 +3567,7 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
@@ -3462,7 +3578,7 @@
         <v>41548</v>
       </c>
       <c r="B160" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C160" s="2">
         <v>370</v>
@@ -3473,7 +3589,7 @@
         <v>41549</v>
       </c>
       <c r="B161" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C161" s="2">
         <v>2200</v>
@@ -3528,7 +3644,7 @@
         <v>41590</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C166" s="2">
         <v>4187</v>
@@ -3539,7 +3655,7 @@
         <v>41607</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C167" s="2">
         <v>254</v>
@@ -3572,7 +3688,7 @@
         <v>41614</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C170" s="2">
         <v>2200</v>
@@ -3583,7 +3699,7 @@
         <v>41619</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D171" s="6">
         <v>2398</v>
@@ -3594,7 +3710,7 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
@@ -3605,7 +3721,7 @@
         <v>41621</v>
       </c>
       <c r="B173" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C173" s="2">
         <v>529</v>
@@ -3616,7 +3732,7 @@
         <v>41623</v>
       </c>
       <c r="B174" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C174" s="2">
         <v>4497</v>
@@ -3649,7 +3765,7 @@
         <v>41652</v>
       </c>
       <c r="B177" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C177" s="2">
         <v>2933</v>
@@ -3660,7 +3776,7 @@
         <v>41675</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D178" s="6">
         <v>6600</v>
@@ -3704,7 +3820,7 @@
         <v>41677</v>
       </c>
       <c r="B182" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C182" s="2">
         <v>2200</v>
@@ -3715,7 +3831,7 @@
         <v>41683</v>
       </c>
       <c r="B183" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C183" s="2">
         <v>410</v>
@@ -3726,7 +3842,7 @@
         <v>41694</v>
       </c>
       <c r="B184" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D184" s="6">
         <v>1336</v>
@@ -3737,7 +3853,7 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
@@ -3770,7 +3886,7 @@
         <v>41710</v>
       </c>
       <c r="B188" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C188" s="2">
         <v>2416</v>
@@ -3781,7 +3897,7 @@
         <v>41713</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C189" s="2">
         <v>4497</v>
@@ -3792,7 +3908,7 @@
         <v>41726</v>
       </c>
       <c r="B190" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D190" s="6">
         <v>1423</v>
@@ -3803,7 +3919,7 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
@@ -3891,7 +4007,7 @@
         <v>41787</v>
       </c>
       <c r="B199" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D199" s="2">
         <v>7734</v>
@@ -3902,7 +4018,7 @@
         <v>41787</v>
       </c>
       <c r="B200" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D200" s="2">
         <v>1800</v>
@@ -3913,7 +4029,7 @@
         <v>41787</v>
       </c>
       <c r="B201" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D201" s="2">
         <v>63800</v>
@@ -3924,7 +4040,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -3935,7 +4051,7 @@
         <v>41787</v>
       </c>
       <c r="B203" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C203" s="2">
         <v>519</v>
@@ -3946,7 +4062,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -3979,7 +4095,7 @@
         <v>41796</v>
       </c>
       <c r="B207" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C207" s="2">
         <v>2200</v>
@@ -3990,7 +4106,7 @@
         <v>41799</v>
       </c>
       <c r="B208" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C208" s="2">
         <v>4497</v>
@@ -4001,7 +4117,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -4023,7 +4139,7 @@
         <v>41821</v>
       </c>
       <c r="B211" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C211" s="2">
         <v>13600</v>
@@ -4040,7 +4156,7 @@
         <v>41821</v>
       </c>
       <c r="B212" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D212" s="6">
         <v>4258</v>
@@ -4051,7 +4167,7 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
@@ -4084,7 +4200,7 @@
         <v>41830</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C216" s="2">
         <v>4733</v>
@@ -4095,7 +4211,7 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
@@ -4106,7 +4222,7 @@
         <v>41832</v>
       </c>
       <c r="B218" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C218" s="2">
         <v>39</v>
@@ -4150,7 +4266,7 @@
         <v>41856</v>
       </c>
       <c r="B222" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D222" s="6">
         <v>11000</v>
@@ -4165,7 +4281,7 @@
         <v>41857</v>
       </c>
       <c r="B223" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D223" s="2">
         <v>13600</v>
@@ -4180,7 +4296,7 @@
         <v>41857</v>
       </c>
       <c r="B224" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D224" s="6">
         <v>6800</v>
@@ -4191,7 +4307,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -4202,7 +4318,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -4213,7 +4329,7 @@
         <v>41859</v>
       </c>
       <c r="B227" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C227" s="2">
         <v>2200</v>
@@ -4224,7 +4340,7 @@
         <v>41864</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C228" s="2">
         <v>400</v>
@@ -4257,7 +4373,7 @@
         <v>41888</v>
       </c>
       <c r="B231" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C231" s="2">
         <v>11000</v>
@@ -4274,7 +4390,7 @@
         <v>41888</v>
       </c>
       <c r="B232" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D232" s="6">
         <v>4824</v>
@@ -4285,7 +4401,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -4296,7 +4412,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -4307,7 +4423,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -4318,7 +4434,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -4329,7 +4445,7 @@
         <v>41888</v>
       </c>
       <c r="B237" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C237" s="2">
         <v>20</v>
@@ -4340,7 +4456,7 @@
         <v>41888</v>
       </c>
       <c r="B238" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C238" s="2">
         <v>374</v>
@@ -4351,7 +4467,7 @@
         <v>41888</v>
       </c>
       <c r="B239" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C239" s="2">
         <v>4131</v>
@@ -4362,7 +4478,7 @@
         <v>41888</v>
       </c>
       <c r="B240" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C240" s="2">
         <v>79</v>
@@ -4373,7 +4489,7 @@
         <v>41893</v>
       </c>
       <c r="B241" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C241" s="2">
         <v>5665</v>
@@ -4384,7 +4500,7 @@
         <v>41897</v>
       </c>
       <c r="B242" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C242" s="2">
         <v>4497</v>
@@ -4395,7 +4511,7 @@
         <v>41897</v>
       </c>
       <c r="B243" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D243" s="6">
         <v>6800</v>
@@ -4406,7 +4522,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -4417,7 +4533,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -4428,7 +4544,7 @@
         <v>41910</v>
       </c>
       <c r="B246" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C246" s="2">
         <v>11600</v>
@@ -4468,7 +4584,7 @@
         <v>41910</v>
       </c>
       <c r="B249" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C249" s="2">
         <v>36733</v>
@@ -4479,7 +4595,7 @@
         <v>41910</v>
       </c>
       <c r="B250" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C250" s="2">
         <v>264</v>
@@ -4490,7 +4606,7 @@
         <v>41910</v>
       </c>
       <c r="B251" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C251" s="2">
         <v>3690</v>
@@ -4501,7 +4617,7 @@
         <v>41910</v>
       </c>
       <c r="B252" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C252" s="2">
         <v>95</v>
@@ -4512,7 +4628,7 @@
         <v>41911</v>
       </c>
       <c r="B253" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D253" s="6">
         <v>12000</v>
@@ -4527,7 +4643,7 @@
         <v>41914</v>
       </c>
       <c r="B254" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="C254" s="2">
         <v>325</v>
@@ -4538,7 +4654,7 @@
         <v>41917</v>
       </c>
       <c r="B255" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C255" s="2">
         <v>129</v>
@@ -4549,7 +4665,7 @@
         <v>41917</v>
       </c>
       <c r="B256" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D256" s="6">
         <v>6000</v>
@@ -4560,7 +4676,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D257" s="6">
         <v>150</v>
@@ -4593,7 +4709,7 @@
         <v>41920</v>
       </c>
       <c r="B260" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C260" s="2">
         <v>2200</v>
@@ -4604,7 +4720,7 @@
         <v>41925</v>
       </c>
       <c r="B261" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C261" s="2">
         <v>430</v>
@@ -4615,7 +4731,7 @@
         <v>41932</v>
       </c>
       <c r="B262" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D262" s="6">
         <v>6800</v>
@@ -4626,7 +4742,7 @@
         <v>41932</v>
       </c>
       <c r="B263" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D263" s="6">
         <v>150</v>
@@ -4637,7 +4753,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -4648,7 +4764,7 @@
         <v>41932</v>
       </c>
       <c r="B265" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D265" s="6">
         <v>1943</v>
@@ -4681,7 +4797,7 @@
         <v>41949</v>
       </c>
       <c r="B268" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D268" s="6">
         <v>6000</v>
@@ -4692,7 +4808,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D269" s="6">
         <v>150</v>
@@ -4703,7 +4819,7 @@
         <v>41953</v>
       </c>
       <c r="B270" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C270" s="6">
         <v>254</v>
@@ -4714,7 +4830,7 @@
         <v>41955</v>
       </c>
       <c r="B271" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C271" s="2">
         <v>4767</v>
@@ -4725,7 +4841,7 @@
         <v>41957</v>
       </c>
       <c r="B272" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D272" s="6">
         <v>6800</v>
@@ -4736,7 +4852,7 @@
         <v>41957</v>
       </c>
       <c r="B273" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D273" s="6">
         <v>150</v>
@@ -4747,7 +4863,7 @@
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
@@ -4758,7 +4874,7 @@
         <v>41959</v>
       </c>
       <c r="B275" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="C275" s="2">
         <v>300</v>
@@ -4769,7 +4885,7 @@
         <v>41967</v>
       </c>
       <c r="B276" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D276" s="6">
         <v>858</v>
@@ -4802,7 +4918,7 @@
         <v>41981</v>
       </c>
       <c r="B279" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C279" s="2">
         <v>2200</v>
@@ -4813,7 +4929,7 @@
         <v>41982</v>
       </c>
       <c r="B280" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D280" s="6">
         <v>6800</v>
@@ -4824,7 +4940,7 @@
         <v>41982</v>
       </c>
       <c r="B281" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D281" s="6">
         <v>150</v>
@@ -4835,7 +4951,7 @@
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
@@ -4846,7 +4962,7 @@
         <v>41982</v>
       </c>
       <c r="B283" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D283" s="6">
         <v>1277</v>
@@ -4857,7 +4973,7 @@
         <v>41983</v>
       </c>
       <c r="B284" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D284" s="6">
         <v>6000</v>
@@ -4868,7 +4984,7 @@
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D285" s="6">
         <v>150</v>
@@ -4879,7 +4995,7 @@
         <v>41983</v>
       </c>
       <c r="B286" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D286" s="6">
         <v>967</v>
@@ -4890,7 +5006,7 @@
         <v>41985</v>
       </c>
       <c r="B287" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D287" s="6">
         <v>6600</v>
@@ -4901,7 +5017,7 @@
         <v>41986</v>
       </c>
       <c r="B288" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C288" s="2">
         <v>390</v>
@@ -4912,7 +5028,7 @@
         <v>41988</v>
       </c>
       <c r="B289" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C289" s="2">
         <v>4497</v>
@@ -4945,7 +5061,7 @@
         <v>42014</v>
       </c>
       <c r="B292" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D292" s="6">
         <v>6000</v>
@@ -4956,7 +5072,7 @@
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D293" s="6">
         <v>150</v>
@@ -4967,7 +5083,7 @@
         <v>42017</v>
       </c>
       <c r="B294" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C294" s="2">
         <v>3278</v>
@@ -4978,7 +5094,7 @@
         <v>42018</v>
       </c>
       <c r="B295" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D295" s="6">
         <v>6800</v>
@@ -4989,7 +5105,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
@@ -5000,7 +5116,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -5011,7 +5127,7 @@
         <v>42031</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C298" s="14"/>
       <c r="D298" s="11">
@@ -5058,7 +5174,7 @@
         <v>42043</v>
       </c>
       <c r="B302" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C302" s="2">
         <v>2200</v>
@@ -5069,7 +5185,7 @@
         <v>42045</v>
       </c>
       <c r="B303" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D303" s="6">
         <v>6000</v>
@@ -5080,7 +5196,7 @@
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D304" s="6">
         <v>150</v>
@@ -5091,7 +5207,7 @@
         <v>42045</v>
       </c>
       <c r="B305" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D305" s="6">
         <v>1424</v>
@@ -5102,7 +5218,7 @@
         <v>42048</v>
       </c>
       <c r="B306" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C306" s="2">
         <v>370</v>
@@ -5113,7 +5229,7 @@
         <v>42062</v>
       </c>
       <c r="B307" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D307" s="6">
         <v>13200</v>
@@ -5127,7 +5243,7 @@
         <v>42062</v>
       </c>
       <c r="B308" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D308" s="6">
         <v>16800</v>
@@ -5138,7 +5254,7 @@
         <v>42063</v>
       </c>
       <c r="B309" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C309" s="2">
         <v>13600</v>
@@ -5155,7 +5271,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D310" s="6">
         <v>5587</v>
@@ -5166,7 +5282,7 @@
         <v>42063</v>
       </c>
       <c r="B311" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D311" s="6">
         <v>123</v>
@@ -5177,7 +5293,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -5188,7 +5304,7 @@
         <v>42063</v>
       </c>
       <c r="B313" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D313" s="6">
         <v>940</v>
@@ -5199,7 +5315,7 @@
         <v>42063</v>
       </c>
       <c r="B314" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D314" s="6">
         <v>683</v>
@@ -5232,7 +5348,7 @@
         <v>42070</v>
       </c>
       <c r="B317" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C317" s="2">
         <v>140</v>
@@ -5243,7 +5359,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D318" s="6">
         <v>3000</v>
@@ -5254,7 +5370,7 @@
         <v>42070</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D319" s="6">
         <v>750</v>
@@ -5265,7 +5381,7 @@
         <v>42070</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D320" s="6">
         <v>170</v>
@@ -5287,7 +5403,7 @@
         <v>42074</v>
       </c>
       <c r="B322" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D322" s="6">
         <v>150</v>
@@ -5309,7 +5425,7 @@
         <v>42078</v>
       </c>
       <c r="B324" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C324" s="2">
         <v>4497</v>
@@ -5320,7 +5436,7 @@
         <v>42087</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D325" s="6">
         <v>612</v>
@@ -5364,7 +5480,7 @@
         <v>42105</v>
       </c>
       <c r="B329" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D329" s="6">
         <v>6000</v>
@@ -5375,7 +5491,7 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D330" s="6">
         <v>150</v>
@@ -5386,7 +5502,7 @@
         <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D331" s="6">
         <v>1100</v>
@@ -5430,7 +5546,7 @@
         <v>42135</v>
       </c>
       <c r="B335" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D335" s="6">
         <v>6000</v>
@@ -5441,13 +5557,13 @@
         <v>42135</v>
       </c>
       <c r="B336" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D336" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>42137</v>
       </c>
@@ -5458,7 +5574,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>42140</v>
       </c>
@@ -5472,63 +5588,324 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D339" s="6">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B340" t="s">
+        <v>263</v>
+      </c>
+      <c r="D340" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
         <v>42160</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B342" t="s">
         <v>48</v>
       </c>
-      <c r="D339" s="2">
+      <c r="D342" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="1">
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
         <v>42160</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B343" t="s">
         <v>44</v>
       </c>
-      <c r="C340" s="2">
+      <c r="C343" s="2">
         <v>22747</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="1">
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
         <v>42164</v>
       </c>
-      <c r="B341" t="s">
-        <v>266</v>
-      </c>
-      <c r="C341" s="2">
+      <c r="B344" t="s">
+        <v>256</v>
+      </c>
+      <c r="C344" s="2">
         <v>5729</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="1">
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
         <v>42168</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B345" t="s">
+        <v>257</v>
+      </c>
+      <c r="C345" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B346" t="s">
+        <v>129</v>
+      </c>
+      <c r="C346" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B347" t="s">
+        <v>268</v>
+      </c>
+      <c r="D347" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B348" t="s">
         <v>269</v>
       </c>
-      <c r="C342" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="1">
-        <v>42170</v>
-      </c>
-      <c r="B343" t="s">
-        <v>131</v>
-      </c>
-      <c r="C343" s="2">
-        <v>4497</v>
-      </c>
+      <c r="D348" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B349" t="s">
+        <v>270</v>
+      </c>
+      <c r="D349" s="6">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>42179</v>
+      </c>
+      <c r="B350" t="s">
+        <v>271</v>
+      </c>
+      <c r="C350" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B351" t="s">
+        <v>34</v>
+      </c>
+      <c r="C351" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F351" s="6">
+        <v>-12000</v>
+      </c>
+      <c r="G351" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B352" t="s">
+        <v>273</v>
+      </c>
+      <c r="D352" s="6">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B353" t="s">
+        <v>275</v>
+      </c>
+      <c r="C353" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B354" t="s">
+        <v>285</v>
+      </c>
+      <c r="C354" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1">
+        <v>42187</v>
+      </c>
+      <c r="B355" t="s">
+        <v>288</v>
+      </c>
+      <c r="C355" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B356" t="s">
+        <v>48</v>
+      </c>
+      <c r="D356" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B357" t="s">
+        <v>44</v>
+      </c>
+      <c r="C357" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B358" t="s">
+        <v>290</v>
+      </c>
+      <c r="C358" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B359" t="s">
+        <v>291</v>
+      </c>
+      <c r="C359" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1">
+        <v>42198</v>
+      </c>
+      <c r="B360" t="s">
+        <v>89</v>
+      </c>
+      <c r="C360" s="2">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B361" t="s">
+        <v>294</v>
+      </c>
+      <c r="D361" s="6">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B362" t="s">
+        <v>295</v>
+      </c>
+      <c r="D362" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B363" t="s">
+        <v>292</v>
+      </c>
+      <c r="D363" s="6">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B364" t="s">
+        <v>293</v>
+      </c>
+      <c r="C364" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B365" t="s">
+        <v>297</v>
+      </c>
+      <c r="D365" s="6">
+        <v>500</v>
+      </c>
+      <c r="F365" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B366" t="s">
+        <v>296</v>
+      </c>
+      <c r="D366" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5540,17 +5917,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K344"/>
+  <dimension ref="A1:K368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
@@ -5559,20 +5936,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C436)</f>
-        <v>1207121</v>
+        <f>SUBTOTAL(9,C3:C443)</f>
+        <v>1244415</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D436)</f>
-        <v>850125</v>
+        <f>SUBTOTAL(9,D3:D443)</f>
+        <v>957559</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-356996</v>
+        <v>-286856</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F436)</f>
-        <v>48200</v>
+        <f>SUBTOTAL(9,F3:F443)</f>
+        <v>36700</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5603,7 +5980,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -5614,7 +5991,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -5645,7 +6022,7 @@
         <v>11000</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5659,7 +6036,7 @@
         <v>13000</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6388,7 @@
         <v>11600</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6120,7 +6497,7 @@
         <v>2750</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6128,7 +6505,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -6139,7 +6516,7 @@
         <v>41068</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2">
         <v>399</v>
@@ -6150,7 +6527,7 @@
         <v>41069</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2">
         <v>500</v>
@@ -6161,7 +6538,7 @@
         <v>41069</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="2">
         <v>399</v>
@@ -6172,7 +6549,7 @@
         <v>41069</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2">
         <v>65</v>
@@ -6183,7 +6560,7 @@
         <v>41069</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="6">
         <v>1200</v>
@@ -6227,7 +6604,7 @@
         <v>41095</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="6">
         <v>6000</v>
@@ -6238,7 +6615,7 @@
         <v>41095</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="10">
         <v>110</v>
@@ -6275,7 +6652,7 @@
         <v>41101</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2">
         <v>2472</v>
@@ -6297,7 +6674,7 @@
         <v>41124</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63" s="6">
         <v>6000</v>
@@ -6330,7 +6707,7 @@
         <v>41134</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2">
         <v>321</v>
@@ -6363,7 +6740,7 @@
         <v>41157</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D69" s="6">
         <v>6000</v>
@@ -6374,7 +6751,7 @@
         <v>41164</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2">
         <v>3166</v>
@@ -6385,7 +6762,7 @@
         <v>41164</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2">
         <v>4497</v>
@@ -6399,7 +6776,7 @@
         <v>41170</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2">
         <v>2200</v>
@@ -6410,13 +6787,13 @@
         <v>41172</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D73" s="6">
         <v>3436</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="6"/>
@@ -6426,7 +6803,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -6439,7 +6816,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -6478,7 +6855,7 @@
         <v>41187</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D78" s="6">
         <v>6000</v>
@@ -6489,7 +6866,7 @@
         <v>41218</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D79" s="6">
         <v>6000</v>
@@ -6522,7 +6899,7 @@
         <v>41221</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>2200</v>
@@ -6533,7 +6910,7 @@
         <v>41225</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2">
         <v>2869</v>
@@ -6544,7 +6921,7 @@
         <v>41231</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2">
         <v>361</v>
@@ -6555,7 +6932,7 @@
         <v>41242</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2">
         <v>250</v>
@@ -6566,7 +6943,7 @@
         <v>41247</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D86" s="6">
         <v>6000</v>
@@ -6599,7 +6976,7 @@
         <v>41256</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2">
         <v>440</v>
@@ -6610,7 +6987,7 @@
         <v>41257</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2">
         <v>4497</v>
@@ -6657,7 +7034,7 @@
         <v>41282</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2">
         <v>2200</v>
@@ -6668,7 +7045,7 @@
         <v>41285</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2">
         <v>4062</v>
@@ -6679,13 +7056,13 @@
         <v>41286</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2">
         <v>1597</v>
       </c>
       <c r="G96" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -6726,7 +7103,7 @@
         <v>41310</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F100" s="6">
         <v>-13000</v>
@@ -6740,7 +7117,7 @@
         <v>41310</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D101" s="6">
         <v>1950</v>
@@ -6751,13 +7128,13 @@
         <v>41310</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D102" s="6">
         <v>7433</v>
       </c>
       <c r="G102" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -6776,7 +7153,7 @@
         <v>41318</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2">
         <v>539</v>
@@ -6787,13 +7164,13 @@
         <v>41318</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C105" s="12">
         <v>480</v>
       </c>
       <c r="G105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -6801,13 +7178,13 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
       </c>
       <c r="G106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -6815,7 +7192,7 @@
         <v>41322</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C107" s="2">
         <v>5380</v>
@@ -6826,7 +7203,7 @@
         <v>41322</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C108" s="2">
         <v>1279</v>
@@ -6843,7 +7220,7 @@
         <v>13000</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -6884,7 +7261,7 @@
         <v>41345</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2">
         <v>2722</v>
@@ -6909,7 +7286,7 @@
         <v>41353</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D115" s="6">
         <v>6500</v>
@@ -6953,7 +7330,7 @@
         <v>41377</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2">
         <v>370</v>
@@ -6964,7 +7341,7 @@
         <v>41386</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D120" s="6">
         <v>6500</v>
@@ -6997,7 +7374,7 @@
         <v>41408</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2">
         <v>4392</v>
@@ -7008,7 +7385,7 @@
         <v>41418</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D124" s="6">
         <v>6500</v>
@@ -7030,7 +7407,7 @@
         <v>41426</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2">
         <v>568</v>
@@ -7063,7 +7440,7 @@
         <v>41435</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2">
         <v>2200</v>
@@ -7074,7 +7451,7 @@
         <v>41440</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2">
         <v>4497</v>
@@ -7088,13 +7465,13 @@
         <v>41441</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D131" s="6">
         <v>6230</v>
       </c>
       <c r="G131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7102,7 +7479,7 @@
         <v>41441</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D132" s="6">
         <v>1800</v>
@@ -7113,7 +7490,7 @@
         <v>41441</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D133" s="6">
         <v>63800</v>
@@ -7124,7 +7501,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -7135,7 +7512,7 @@
         <v>41444</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F135" s="6">
         <v>-13000</v>
@@ -7149,7 +7526,7 @@
         <v>41444</v>
       </c>
       <c r="B136" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D136" s="6">
         <v>600</v>
@@ -7160,13 +7537,13 @@
         <v>41444</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D137" s="6">
         <v>4158</v>
       </c>
       <c r="G137" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7174,13 +7551,13 @@
         <v>41450</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2">
         <v>81</v>
       </c>
       <c r="G138" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7188,7 +7565,7 @@
         <v>41450</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C139" s="2">
         <v>124</v>
@@ -7199,7 +7576,7 @@
         <v>41450</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
@@ -7210,13 +7587,13 @@
         <v>41451</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F141" s="6">
         <v>13600</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -7224,7 +7601,7 @@
         <v>41451</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D142" s="6">
         <v>74800</v>
@@ -7235,7 +7612,7 @@
         <v>41451</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D143" s="6">
         <v>1200</v>
@@ -7268,7 +7645,7 @@
         <v>41466</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2">
         <v>4526</v>
@@ -7279,7 +7656,7 @@
         <v>41486</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C147" s="2">
         <v>2200</v>
@@ -7290,7 +7667,7 @@
         <v>41487</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2">
         <v>489</v>
@@ -7345,7 +7722,7 @@
         <v>41528</v>
       </c>
       <c r="B153" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C153" s="2">
         <v>4647</v>
@@ -7356,7 +7733,7 @@
         <v>41532</v>
       </c>
       <c r="B154" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C154" s="2">
         <v>4497</v>
@@ -7370,13 +7747,13 @@
         <v>41534</v>
       </c>
       <c r="B155" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D155" s="2">
         <v>4917</v>
       </c>
       <c r="G155" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7384,7 +7761,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -7396,7 +7773,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -7408,13 +7785,13 @@
         <v>41542</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D158" s="6">
         <v>2874</v>
       </c>
       <c r="G158" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7422,13 +7799,13 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
       </c>
       <c r="G159" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7436,7 +7813,7 @@
         <v>41548</v>
       </c>
       <c r="B160" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C160" s="2">
         <v>370</v>
@@ -7447,7 +7824,7 @@
         <v>41549</v>
       </c>
       <c r="B161" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C161" s="2">
         <v>2200</v>
@@ -7502,7 +7879,7 @@
         <v>41590</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C166" s="2">
         <v>4187</v>
@@ -7513,7 +7890,7 @@
         <v>41607</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C167" s="2">
         <v>254</v>
@@ -7546,7 +7923,7 @@
         <v>41614</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C170" s="2">
         <v>2200</v>
@@ -7557,13 +7934,13 @@
         <v>41619</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D171" s="6">
         <v>2398</v>
       </c>
       <c r="G171" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7571,13 +7948,13 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
       </c>
       <c r="G172" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7585,7 +7962,7 @@
         <v>41621</v>
       </c>
       <c r="B173" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C173" s="2">
         <v>529</v>
@@ -7596,7 +7973,7 @@
         <v>41623</v>
       </c>
       <c r="B174" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C174" s="2">
         <v>4497</v>
@@ -7632,7 +8009,7 @@
         <v>41652</v>
       </c>
       <c r="B177" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C177" s="2">
         <v>2933</v>
@@ -7643,13 +8020,13 @@
         <v>41675</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D178" s="6">
         <v>6600</v>
       </c>
       <c r="G178" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7691,7 +8068,7 @@
         <v>41677</v>
       </c>
       <c r="B182" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C182" s="2">
         <v>2200</v>
@@ -7702,7 +8079,7 @@
         <v>41683</v>
       </c>
       <c r="B183" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C183" s="2">
         <v>410</v>
@@ -7713,13 +8090,13 @@
         <v>41694</v>
       </c>
       <c r="B184" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D184" s="6">
         <v>1336</v>
       </c>
       <c r="G184" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -7727,13 +8104,13 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
       </c>
       <c r="G185" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -7763,7 +8140,7 @@
         <v>41710</v>
       </c>
       <c r="B188" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C188" s="2">
         <v>2416</v>
@@ -7774,7 +8151,7 @@
         <v>41713</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C189" s="2">
         <v>4497</v>
@@ -7788,13 +8165,13 @@
         <v>41726</v>
       </c>
       <c r="B190" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D190" s="6">
         <v>1423</v>
       </c>
       <c r="G190" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7802,13 +8179,13 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
       </c>
       <c r="G191" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7893,13 +8270,13 @@
         <v>41787</v>
       </c>
       <c r="B199" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D199" s="2">
         <v>7734</v>
       </c>
       <c r="G199" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -7907,7 +8284,7 @@
         <v>41787</v>
       </c>
       <c r="B200" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D200" s="2">
         <v>1800</v>
@@ -7918,7 +8295,7 @@
         <v>41787</v>
       </c>
       <c r="B201" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D201" s="2">
         <v>63800</v>
@@ -7929,7 +8306,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -7940,7 +8317,7 @@
         <v>41787</v>
       </c>
       <c r="B203" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C203" s="2">
         <v>519</v>
@@ -7951,7 +8328,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -7984,7 +8361,7 @@
         <v>41796</v>
       </c>
       <c r="B207" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C207" s="2">
         <v>2200</v>
@@ -7995,7 +8372,7 @@
         <v>41799</v>
       </c>
       <c r="B208" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C208" s="2">
         <v>4497</v>
@@ -8009,7 +8386,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -8031,7 +8408,7 @@
         <v>41821</v>
       </c>
       <c r="B211" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F211" s="6">
         <v>-13600</v>
@@ -8045,13 +8422,13 @@
         <v>41821</v>
       </c>
       <c r="B212" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D212" s="6">
         <v>4258</v>
       </c>
       <c r="G212" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -8059,13 +8436,13 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
       </c>
       <c r="G213" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -8095,7 +8472,7 @@
         <v>41830</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C216" s="2">
         <v>4733</v>
@@ -8106,13 +8483,13 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
       </c>
       <c r="G217" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -8120,13 +8497,13 @@
         <v>41832</v>
       </c>
       <c r="B218" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C218" s="2">
         <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -8167,13 +8544,13 @@
         <v>41856</v>
       </c>
       <c r="B222" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F222" s="6">
         <v>11000</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>175</v>
+        <v>300</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -8181,14 +8558,14 @@
         <v>41857</v>
       </c>
       <c r="B223" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D223" s="2"/>
       <c r="F223" s="2">
         <v>13600</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -8196,7 +8573,7 @@
         <v>41857</v>
       </c>
       <c r="B224" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D224" s="6">
         <v>6800</v>
@@ -8207,7 +8584,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -8218,7 +8595,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -8229,7 +8606,7 @@
         <v>41859</v>
       </c>
       <c r="B227" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C227" s="2">
         <v>2200</v>
@@ -8240,7 +8617,7 @@
         <v>41864</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C228" s="2">
         <v>400</v>
@@ -8273,7 +8650,7 @@
         <v>41888</v>
       </c>
       <c r="B231" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F231" s="6">
         <v>-11000</v>
@@ -8287,13 +8664,13 @@
         <v>41888</v>
       </c>
       <c r="B232" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D232" s="6">
         <v>4824</v>
       </c>
       <c r="G232" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -8301,13 +8678,13 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
       </c>
       <c r="G233" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -8315,7 +8692,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -8326,7 +8703,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -8337,7 +8714,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -8348,7 +8725,7 @@
         <v>41888</v>
       </c>
       <c r="B237" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C237" s="2">
         <v>20</v>
@@ -8359,13 +8736,13 @@
         <v>41888</v>
       </c>
       <c r="B238" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C238" s="2">
         <v>374</v>
       </c>
       <c r="G238" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -8373,7 +8750,7 @@
         <v>41888</v>
       </c>
       <c r="B239" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C239" s="2">
         <v>4131</v>
@@ -8384,7 +8761,7 @@
         <v>41888</v>
       </c>
       <c r="B240" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C240" s="2">
         <v>79</v>
@@ -8395,7 +8772,7 @@
         <v>41893</v>
       </c>
       <c r="B241" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C241" s="2">
         <v>5665</v>
@@ -8406,7 +8783,7 @@
         <v>41897</v>
       </c>
       <c r="B242" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C242" s="2">
         <v>4497</v>
@@ -8420,7 +8797,7 @@
         <v>41897</v>
       </c>
       <c r="B243" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D243" s="6">
         <v>6800</v>
@@ -8431,7 +8808,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -8442,7 +8819,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -8453,7 +8830,7 @@
         <v>41910</v>
       </c>
       <c r="B246" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F246" s="6">
         <f>-11600</f>
@@ -8468,13 +8845,13 @@
         <v>41910</v>
       </c>
       <c r="B247" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D247" s="6">
         <v>6920</v>
       </c>
       <c r="G247" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -8482,13 +8859,13 @@
         <v>41910</v>
       </c>
       <c r="B248" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D248" s="6">
         <v>550</v>
       </c>
       <c r="G248" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -8496,7 +8873,7 @@
         <v>41910</v>
       </c>
       <c r="B249" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D249" s="6">
         <v>500</v>
@@ -8507,7 +8884,7 @@
         <v>41910</v>
       </c>
       <c r="B250" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C250" s="2">
         <v>36733</v>
@@ -8518,13 +8895,13 @@
         <v>41910</v>
       </c>
       <c r="B251" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C251" s="2">
         <v>264</v>
       </c>
       <c r="G251" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -8532,7 +8909,7 @@
         <v>41910</v>
       </c>
       <c r="B252" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C252" s="2">
         <v>3690</v>
@@ -8543,7 +8920,7 @@
         <v>41910</v>
       </c>
       <c r="B253" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C253" s="2">
         <v>95</v>
@@ -8554,13 +8931,13 @@
         <v>41911</v>
       </c>
       <c r="B254" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F254" s="6">
         <v>12000</v>
       </c>
-      <c r="G254" s="8" t="s">
-        <v>267</v>
+      <c r="G254" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8568,13 +8945,13 @@
         <v>41914</v>
       </c>
       <c r="B255" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="C255" s="2">
         <v>325</v>
       </c>
       <c r="G255" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -8582,7 +8959,7 @@
         <v>41917</v>
       </c>
       <c r="B256" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C256" s="2">
         <v>129</v>
@@ -8593,7 +8970,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D257" s="6">
         <v>6000</v>
@@ -8604,7 +8981,7 @@
         <v>41917</v>
       </c>
       <c r="B258" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D258" s="6">
         <v>150</v>
@@ -8637,7 +9014,7 @@
         <v>41920</v>
       </c>
       <c r="B261" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C261" s="2">
         <v>2200</v>
@@ -8648,7 +9025,7 @@
         <v>41925</v>
       </c>
       <c r="B262" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C262" s="2">
         <v>430</v>
@@ -8659,7 +9036,7 @@
         <v>41932</v>
       </c>
       <c r="B263" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D263" s="6">
         <v>6800</v>
@@ -8670,7 +9047,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -8681,7 +9058,7 @@
         <v>41932</v>
       </c>
       <c r="B265" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D265" s="6">
         <v>150</v>
@@ -8692,7 +9069,7 @@
         <v>41932</v>
       </c>
       <c r="B266" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D266" s="6">
         <v>1943</v>
@@ -8725,7 +9102,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D269" s="6">
         <v>6000</v>
@@ -8736,7 +9113,7 @@
         <v>41949</v>
       </c>
       <c r="B270" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D270" s="6">
         <v>150</v>
@@ -8747,7 +9124,7 @@
         <v>41953</v>
       </c>
       <c r="B271" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C271" s="6">
         <v>254</v>
@@ -8758,68 +9135,68 @@
         <v>41955</v>
       </c>
       <c r="B272" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C272" s="2">
         <v>4767</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>41957</v>
       </c>
       <c r="B273" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D273" s="6">
         <v>6800</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>41957</v>
       </c>
       <c r="B275" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D275" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>41959</v>
       </c>
       <c r="B276" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="C276" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>41967</v>
       </c>
       <c r="B277" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D277" s="6">
         <v>858</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>41978</v>
       </c>
@@ -8830,7 +9207,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>41978</v>
       </c>
@@ -8841,103 +9218,106 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>41981</v>
       </c>
       <c r="B280" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C280" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>41982</v>
       </c>
       <c r="B281" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D281" s="6">
         <v>6800</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>41982</v>
       </c>
       <c r="B283" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D283" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>41982</v>
       </c>
       <c r="B284" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D284" s="6">
         <v>1277</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D285" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>41983</v>
       </c>
       <c r="B286" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D286" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>41983</v>
       </c>
       <c r="B287" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D287" s="6">
         <v>967</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>41985</v>
       </c>
       <c r="B288" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D288" s="6">
         <v>6600</v>
+      </c>
+      <c r="G288" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8945,7 +9325,7 @@
         <v>41986</v>
       </c>
       <c r="B289" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C289" s="2">
         <v>390</v>
@@ -8956,7 +9336,7 @@
         <v>41988</v>
       </c>
       <c r="B290" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C290" s="2">
         <v>4497</v>
@@ -8992,7 +9372,7 @@
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D293" s="6">
         <v>6000</v>
@@ -9003,7 +9383,7 @@
         <v>42014</v>
       </c>
       <c r="B294" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D294" s="6">
         <v>150</v>
@@ -9014,7 +9394,7 @@
         <v>42017</v>
       </c>
       <c r="B295" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C295" s="2">
         <v>3278</v>
@@ -9025,7 +9405,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D296" s="6">
         <v>6800</v>
@@ -9036,7 +9416,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -9047,7 +9427,7 @@
         <v>42018</v>
       </c>
       <c r="B298" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D298" s="6">
         <v>150</v>
@@ -9058,7 +9438,7 @@
         <v>42031</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C299" s="14"/>
       <c r="D299" s="11">
@@ -9105,7 +9485,7 @@
         <v>42043</v>
       </c>
       <c r="B303" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C303" s="2">
         <v>2200</v>
@@ -9116,7 +9496,7 @@
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D304" s="6">
         <v>6000</v>
@@ -9127,7 +9507,7 @@
         <v>42045</v>
       </c>
       <c r="B305" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D305" s="6">
         <v>150</v>
@@ -9138,7 +9518,7 @@
         <v>42045</v>
       </c>
       <c r="B306" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D306" s="6">
         <v>1424</v>
@@ -9149,7 +9529,7 @@
         <v>42048</v>
       </c>
       <c r="B307" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C307" s="2">
         <v>370</v>
@@ -9160,13 +9540,13 @@
         <v>42062</v>
       </c>
       <c r="B308" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F308" s="6">
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -9174,7 +9554,7 @@
         <v>42062</v>
       </c>
       <c r="B309" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D309" s="6">
         <v>16800</v>
@@ -9185,7 +9565,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F310" s="6">
         <v>-13600</v>
@@ -9210,7 +9590,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -9221,7 +9601,7 @@
         <v>42063</v>
       </c>
       <c r="B313" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D313" s="6">
         <v>123</v>
@@ -9232,7 +9612,7 @@
         <v>42063</v>
       </c>
       <c r="B314" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D314" s="6">
         <v>940</v>
@@ -9243,7 +9623,7 @@
         <v>42063</v>
       </c>
       <c r="B315" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D315" s="6">
         <v>683</v>
@@ -9276,7 +9656,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C318" s="2">
         <v>140</v>
@@ -9287,7 +9667,7 @@
         <v>42070</v>
       </c>
       <c r="B319" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D319" s="6">
         <v>3000</v>
@@ -9298,13 +9678,13 @@
         <v>42070</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D320" s="6">
         <v>750</v>
       </c>
       <c r="G320" s="15" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9312,13 +9692,13 @@
         <v>42070</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D321" s="6">
         <v>170</v>
       </c>
       <c r="G321" s="15" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9337,7 +9717,7 @@
         <v>42074</v>
       </c>
       <c r="B323" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D323" s="6">
         <v>150</v>
@@ -9359,7 +9739,7 @@
         <v>42078</v>
       </c>
       <c r="B325" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C325" s="2">
         <v>4497</v>
@@ -9373,7 +9753,7 @@
         <v>42087</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D326" s="6">
         <v>612</v>
@@ -9417,7 +9797,7 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D330" s="6">
         <v>6000</v>
@@ -9428,7 +9808,7 @@
         <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D331" s="6">
         <v>150</v>
@@ -9439,7 +9819,7 @@
         <v>42105</v>
       </c>
       <c r="B332" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D332" s="6">
         <v>1100</v>
@@ -9494,7 +9874,7 @@
         <v>42135</v>
       </c>
       <c r="B337" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D337" s="6">
         <v>150</v>
@@ -9505,7 +9885,7 @@
         <v>42137</v>
       </c>
       <c r="B338" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C338" s="2">
         <v>2267</v>
@@ -9522,65 +9902,345 @@
         <v>12000</v>
       </c>
       <c r="G339" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="1">
-        <v>42160</v>
-      </c>
-      <c r="B340" t="s">
-        <v>48</v>
-      </c>
-      <c r="C340" s="2">
-        <v>10000</v>
-      </c>
+        <v>42159</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D340" s="6">
+        <v>653</v>
+      </c>
+      <c r="G340" s="5"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="1">
-        <v>42160</v>
+        <v>42159</v>
       </c>
       <c r="B341" t="s">
-        <v>44</v>
-      </c>
-      <c r="C341" s="2">
-        <v>12747</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D341" s="6">
+        <v>26400</v>
+      </c>
+      <c r="G341" s="5"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="1">
-        <v>42164</v>
-      </c>
-      <c r="B342" t="s">
-        <v>266</v>
-      </c>
-      <c r="C342" s="2">
-        <v>5729</v>
+        <v>42159</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D342" s="6">
+        <v>300</v>
+      </c>
+      <c r="G342" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="1">
-        <v>42168</v>
-      </c>
-      <c r="B343" t="s">
-        <v>269</v>
-      </c>
-      <c r="C343" s="2">
-        <v>233</v>
-      </c>
+        <v>42159</v>
+      </c>
+      <c r="B343" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G343" s="5"/>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B344" t="s">
+        <v>48</v>
+      </c>
+      <c r="C344" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B345" t="s">
+        <v>44</v>
+      </c>
+      <c r="C345" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B346" t="s">
+        <v>256</v>
+      </c>
+      <c r="C346" s="2">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>42168</v>
+      </c>
+      <c r="B347" t="s">
+        <v>257</v>
+      </c>
+      <c r="C347" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
         <v>42170</v>
       </c>
-      <c r="B344" t="s">
-        <v>131</v>
-      </c>
-      <c r="C344" s="2">
+      <c r="B348" t="s">
+        <v>129</v>
+      </c>
+      <c r="C348" s="2">
         <v>4497</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G348" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B349" t="s">
+        <v>268</v>
+      </c>
+      <c r="D349" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B350" t="s">
+        <v>269</v>
+      </c>
+      <c r="D350" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B351" t="s">
+        <v>270</v>
+      </c>
+      <c r="D351" s="6">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>42179</v>
+      </c>
+      <c r="B352" t="s">
+        <v>271</v>
+      </c>
+      <c r="C352" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B353" t="s">
+        <v>272</v>
+      </c>
+      <c r="F353" s="6">
+        <v>-12000</v>
+      </c>
+      <c r="G353" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B354" t="s">
+        <v>273</v>
+      </c>
+      <c r="D354" s="6">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B355" t="s">
+        <v>275</v>
+      </c>
+      <c r="C355" s="2">
+        <v>90</v>
+      </c>
+      <c r="G355" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B356" t="s">
+        <v>285</v>
+      </c>
+      <c r="C356" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>42187</v>
+      </c>
+      <c r="B357" t="s">
+        <v>288</v>
+      </c>
+      <c r="C357" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B358" t="s">
+        <v>48</v>
+      </c>
+      <c r="C358" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B359" t="s">
+        <v>44</v>
+      </c>
+      <c r="C359" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B360" t="s">
+        <v>290</v>
+      </c>
+      <c r="C360" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B361" t="s">
+        <v>291</v>
+      </c>
+      <c r="C361" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
+        <v>42198</v>
+      </c>
+      <c r="B362" t="s">
+        <v>89</v>
+      </c>
+      <c r="C362" s="2">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B363" t="s">
+        <v>294</v>
+      </c>
+      <c r="D363" s="6">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B364" t="s">
+        <v>295</v>
+      </c>
+      <c r="D364" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B365" t="s">
+        <v>292</v>
+      </c>
+      <c r="D365" s="6">
+        <v>1172</v>
+      </c>
+      <c r="G365" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B366" t="s">
+        <v>293</v>
+      </c>
+      <c r="C366" s="2">
+        <v>110</v>
+      </c>
+      <c r="G366" s="5"/>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B367" t="s">
+        <v>297</v>
+      </c>
+      <c r="F367" s="6">
+        <v>500</v>
+      </c>
+      <c r="G367" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B368" t="s">
+        <v>296</v>
+      </c>
+      <c r="D368" s="6">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -9599,8 +10259,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9982,7 +10642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$397</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="315">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,22 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第3間預繳水費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3間預繳電費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前5月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先付1000，目前3.4.5.6.7月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第2間5月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1076,10 +1060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第3間預繳1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第3間5月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1216,19 +1196,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欠2元要找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租約 2015/7/6~ 2016/7/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第3間8.9月水費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第3間7月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先付1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間9月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打掃器具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蘇打粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間8月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間8月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間9月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間9月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間10.11.12.1月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間9月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間 9月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間8.9.10.11月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-走廊燈泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間11月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間11月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地價稅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1725,11 +1773,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J367"/>
+  <dimension ref="A1:J399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D319" sqref="D319:D320"/>
+      <pane ySplit="2" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B403" sqref="B403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1746,22 +1794,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
-        <v>1244415</v>
+        <v>1347612</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C438)</f>
-        <v>1342712</v>
+        <f>SUBTOTAL(9,C3:C998)</f>
+        <v>1445909</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D438)</f>
-        <v>1517259</v>
+        <f>SUBTOTAL(9,D3:D998)</f>
+        <v>1617844</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>174547</v>
+        <v>171935</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F438)</f>
+        <f>SUBTOTAL(9,F3:F998)</f>
         <v>36700</v>
       </c>
     </row>
@@ -2312,7 +2360,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -3279,7 +3327,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -4040,7 +4088,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -4062,7 +4110,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -4117,7 +4165,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -4401,7 +4449,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -4434,7 +4482,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -4643,7 +4691,7 @@
         <v>41914</v>
       </c>
       <c r="B254" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C254" s="2">
         <v>325</v>
@@ -4874,7 +4922,7 @@
         <v>41959</v>
       </c>
       <c r="B275" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C275" s="2">
         <v>300</v>
@@ -5370,7 +5418,7 @@
         <v>42070</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D319" s="6">
         <v>750</v>
@@ -5381,7 +5429,7 @@
         <v>42070</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D320" s="6">
         <v>170</v>
@@ -5557,13 +5605,13 @@
         <v>42135</v>
       </c>
       <c r="B336" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D336" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:6">
       <c r="A337" s="1">
         <v>42137</v>
       </c>
@@ -5574,7 +5622,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:6">
       <c r="A338" s="1">
         <v>42140</v>
       </c>
@@ -5588,322 +5636,682 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:6">
       <c r="A339" s="1">
         <v>42159</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D339" s="6">
         <v>653</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:6">
       <c r="A340" s="1">
         <v>42159</v>
       </c>
       <c r="B340" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D340" s="6">
         <v>26400</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:6">
       <c r="A341" s="1">
         <v>42159</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
+        <v>309</v>
+      </c>
+      <c r="D341" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D342" s="6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B343" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D343" s="6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1">
         <v>42160</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B344" t="s">
         <v>48</v>
       </c>
-      <c r="D342" s="2">
+      <c r="D344" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
-      <c r="A343" s="1">
+    <row r="345" spans="1:6">
+      <c r="A345" s="1">
         <v>42160</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B345" t="s">
         <v>44</v>
       </c>
-      <c r="C343" s="2">
+      <c r="C345" s="2">
         <v>22747</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
-      <c r="A344" s="1">
+    <row r="346" spans="1:6">
+      <c r="A346" s="1">
         <v>42164</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B346" t="s">
         <v>256</v>
       </c>
-      <c r="C344" s="2">
+      <c r="C346" s="2">
         <v>5729</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
-      <c r="A345" s="1">
+    <row r="347" spans="1:6">
+      <c r="A347" s="1">
         <v>42168</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B347" t="s">
         <v>257</v>
       </c>
-      <c r="C345" s="2">
+      <c r="C347" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
-      <c r="A346" s="1">
+    <row r="348" spans="1:6">
+      <c r="A348" s="1">
         <v>42170</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B348" t="s">
         <v>129</v>
       </c>
-      <c r="C346" s="2">
+      <c r="C348" s="2">
         <v>4497</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
-      <c r="A347" s="1">
-        <v>42171</v>
-      </c>
-      <c r="B347" t="s">
-        <v>268</v>
-      </c>
-      <c r="D347" s="6">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
-      <c r="A348" s="1">
-        <v>42171</v>
-      </c>
-      <c r="B348" t="s">
-        <v>269</v>
-      </c>
-      <c r="D348" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:6">
       <c r="A349" s="1">
         <v>42171</v>
       </c>
       <c r="B349" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D349" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B350" t="s">
+        <v>264</v>
+      </c>
+      <c r="D350" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B351" t="s">
+        <v>265</v>
+      </c>
+      <c r="D351" s="6">
         <v>1221</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
-      <c r="A350" s="1">
+    <row r="352" spans="1:6">
+      <c r="A352" s="1">
         <v>42179</v>
       </c>
-      <c r="B350" t="s">
-        <v>271</v>
-      </c>
-      <c r="C350" s="2">
+      <c r="B352" t="s">
+        <v>266</v>
+      </c>
+      <c r="C352" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
-      <c r="A351" s="1">
-        <v>42183</v>
-      </c>
-      <c r="B351" t="s">
-        <v>34</v>
-      </c>
-      <c r="C351" s="2">
-        <v>12000</v>
-      </c>
-      <c r="F351" s="6">
-        <v>-12000</v>
-      </c>
-      <c r="G351" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" s="1">
-        <v>42183</v>
-      </c>
-      <c r="B352" t="s">
-        <v>273</v>
-      </c>
-      <c r="D352" s="6">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:7">
       <c r="A353" s="1">
         <v>42183</v>
       </c>
       <c r="B353" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
       <c r="C353" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F353" s="6">
+        <v>-12000</v>
+      </c>
+      <c r="G353" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B354" t="s">
+        <v>268</v>
+      </c>
+      <c r="D354" s="6">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B355" t="s">
+        <v>270</v>
+      </c>
+      <c r="C355" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
-      <c r="A354" s="1">
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
         <v>42186</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B356" t="s">
+        <v>280</v>
+      </c>
+      <c r="C356" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>42187</v>
+      </c>
+      <c r="B357" t="s">
+        <v>283</v>
+      </c>
+      <c r="C357" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B358" t="s">
+        <v>48</v>
+      </c>
+      <c r="D358" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B359" t="s">
+        <v>44</v>
+      </c>
+      <c r="C359" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B360" t="s">
         <v>285</v>
       </c>
-      <c r="C354" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="A355" s="1">
-        <v>42187</v>
-      </c>
-      <c r="B355" t="s">
-        <v>288</v>
-      </c>
-      <c r="C355" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="1">
-        <v>42191</v>
-      </c>
-      <c r="B356" t="s">
-        <v>48</v>
-      </c>
-      <c r="D356" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="A357" s="1">
-        <v>42191</v>
-      </c>
-      <c r="B357" t="s">
-        <v>44</v>
-      </c>
-      <c r="C357" s="2">
-        <v>22747</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="1">
+      <c r="D360" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
         <v>42195</v>
       </c>
-      <c r="B358" t="s">
-        <v>290</v>
-      </c>
-      <c r="C358" s="2">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="A359" s="1">
-        <v>42195</v>
-      </c>
-      <c r="B359" t="s">
-        <v>291</v>
-      </c>
-      <c r="C359" s="2">
+      <c r="B361" t="s">
+        <v>286</v>
+      </c>
+      <c r="D361" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="1">
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
         <v>42198</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B362" t="s">
         <v>89</v>
       </c>
-      <c r="C360" s="2">
+      <c r="C362" s="2">
         <v>3497</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="1">
-        <v>42210</v>
-      </c>
-      <c r="B361" t="s">
-        <v>294</v>
-      </c>
-      <c r="D361" s="6">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="1">
-        <v>42210</v>
-      </c>
-      <c r="B362" t="s">
-        <v>295</v>
-      </c>
-      <c r="D362" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:7">
       <c r="A363" s="1">
         <v>42210</v>
       </c>
       <c r="B363" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D363" s="6">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364" s="1">
         <v>42210</v>
       </c>
       <c r="B364" t="s">
-        <v>293</v>
-      </c>
-      <c r="C364" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
+        <v>290</v>
+      </c>
+      <c r="D364" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365" s="1">
         <v>42210</v>
       </c>
       <c r="B365" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D365" s="6">
-        <v>500</v>
-      </c>
-      <c r="F365" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366" s="1">
         <v>42210</v>
       </c>
       <c r="B366" t="s">
-        <v>296</v>
-      </c>
-      <c r="D366" s="6">
+        <v>288</v>
+      </c>
+      <c r="C366" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B367" t="s">
+        <v>292</v>
+      </c>
+      <c r="D367" s="6">
+        <v>500</v>
+      </c>
+      <c r="F367" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B368" t="s">
+        <v>291</v>
+      </c>
+      <c r="D368" s="6">
         <v>1800</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="1"/>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B369" t="s">
+        <v>299</v>
+      </c>
+      <c r="C369" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>42221</v>
+      </c>
+      <c r="B370" t="s">
+        <v>48</v>
+      </c>
+      <c r="D370" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>42221</v>
+      </c>
+      <c r="B371" t="s">
+        <v>44</v>
+      </c>
+      <c r="C371" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>42223</v>
+      </c>
+      <c r="B372" t="s">
+        <v>92</v>
+      </c>
+      <c r="C372" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>42226</v>
+      </c>
+      <c r="B373" t="s">
+        <v>301</v>
+      </c>
+      <c r="D373" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>42226</v>
+      </c>
+      <c r="B374" t="s">
+        <v>302</v>
+      </c>
+      <c r="D374" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>42229</v>
+      </c>
+      <c r="B375" t="s">
+        <v>298</v>
+      </c>
+      <c r="C375" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B376" t="s">
+        <v>48</v>
+      </c>
+      <c r="D376" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B377" t="s">
+        <v>44</v>
+      </c>
+      <c r="C377" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B378" t="s">
+        <v>303</v>
+      </c>
+      <c r="D378" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B379" t="s">
+        <v>304</v>
+      </c>
+      <c r="D379" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B380" t="s">
+        <v>305</v>
+      </c>
+      <c r="C380" s="2">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B381" t="s">
+        <v>165</v>
+      </c>
+      <c r="C381" s="2">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B382" t="s">
+        <v>306</v>
+      </c>
+      <c r="D382" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B383" t="s">
+        <v>48</v>
+      </c>
+      <c r="D383" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B384" t="s">
+        <v>44</v>
+      </c>
+      <c r="C384" s="2">
+        <v>22747</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B385" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B386" t="s">
+        <v>310</v>
+      </c>
+      <c r="C386" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B387" t="s">
+        <v>307</v>
+      </c>
+      <c r="D387" s="6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B388" t="s">
+        <v>230</v>
+      </c>
+      <c r="D388" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B389" t="s">
+        <v>231</v>
+      </c>
+      <c r="D389" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B390" t="s">
+        <v>308</v>
+      </c>
+      <c r="D390" s="6">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>42290</v>
+      </c>
+      <c r="B391" t="s">
+        <v>98</v>
+      </c>
+      <c r="C391" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>42290</v>
+      </c>
+      <c r="B392" t="s">
+        <v>101</v>
+      </c>
+      <c r="C392" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>42313</v>
+      </c>
+      <c r="B393" t="s">
+        <v>48</v>
+      </c>
+      <c r="D393" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>42313</v>
+      </c>
+      <c r="B394" t="s">
+        <v>44</v>
+      </c>
+      <c r="C394" s="2">
+        <v>22624</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B395" t="s">
+        <v>311</v>
+      </c>
+      <c r="D395" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B396" t="s">
+        <v>312</v>
+      </c>
+      <c r="D396" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B397" t="s">
+        <v>313</v>
+      </c>
+      <c r="C397" s="2">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>42321</v>
+      </c>
+      <c r="B398" t="s">
+        <v>314</v>
+      </c>
+      <c r="C398" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>42353</v>
+      </c>
+      <c r="B399" t="s">
+        <v>165</v>
+      </c>
+      <c r="C399" s="2">
+        <v>4497</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5917,11 +6325,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K368"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K400"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F333" sqref="F333"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5936,19 +6347,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C443)</f>
-        <v>1244415</v>
+        <f>SUBTOTAL(9,C3:C998)</f>
+        <v>1347612</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D443)</f>
-        <v>957559</v>
+        <f>SUBTOTAL(9,D3:D998)</f>
+        <v>1017844</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-286856</v>
+        <v>-329768</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F443)</f>
+        <f>SUBTOTAL(9,F3:F998)</f>
         <v>36700</v>
       </c>
     </row>
@@ -6505,7 +6916,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -6646,6 +7057,9 @@
       <c r="C60" s="2">
         <v>7500</v>
       </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
@@ -7501,7 +7915,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -8306,7 +8720,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -8328,7 +8742,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -8386,7 +8800,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -8550,7 +8964,7 @@
         <v>11000</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -8678,7 +9092,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -8714,7 +9128,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -8937,7 +9351,7 @@
         <v>12000</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8945,7 +9359,7 @@
         <v>41914</v>
       </c>
       <c r="B255" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C255" s="2">
         <v>325</v>
@@ -9179,7 +9593,7 @@
         <v>41959</v>
       </c>
       <c r="B276" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C276" s="2">
         <v>300</v>
@@ -9317,7 +9731,7 @@
         <v>6600</v>
       </c>
       <c r="G288" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -9678,13 +10092,13 @@
         <v>42070</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D320" s="6">
         <v>750</v>
       </c>
       <c r="G320" s="15" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9692,14 +10106,12 @@
         <v>42070</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D321" s="6">
         <v>170</v>
       </c>
-      <c r="G321" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="G321" s="15"/>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="1">
@@ -9902,7 +10314,7 @@
         <v>12000</v>
       </c>
       <c r="G339" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -9910,7 +10322,7 @@
         <v>42159</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D340" s="6">
         <v>653</v>
@@ -9922,7 +10334,7 @@
         <v>42159</v>
       </c>
       <c r="B341" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D341" s="6">
         <v>26400</v>
@@ -9934,13 +10346,13 @@
         <v>42159</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D342" s="6">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G342" s="15" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -9948,77 +10360,81 @@
         <v>42159</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
+      </c>
+      <c r="D343" s="6">
+        <v>228</v>
       </c>
       <c r="G343" s="5"/>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1">
-        <v>42160</v>
-      </c>
-      <c r="B344" t="s">
-        <v>48</v>
-      </c>
-      <c r="C344" s="2">
-        <v>10000</v>
-      </c>
+        <v>42159</v>
+      </c>
+      <c r="B344" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D344" s="6">
+        <v>197</v>
+      </c>
+      <c r="G344" s="5"/>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="1">
         <v>42160</v>
       </c>
       <c r="B345" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C345" s="2">
-        <v>12747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="1">
-        <v>42164</v>
+        <v>42160</v>
       </c>
       <c r="B346" t="s">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="C346" s="2">
-        <v>5729</v>
+        <v>12747</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="1">
-        <v>42168</v>
+        <v>42164</v>
       </c>
       <c r="B347" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C347" s="2">
-        <v>233</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="1">
-        <v>42170</v>
+        <v>42168</v>
       </c>
       <c r="B348" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="C348" s="2">
-        <v>4497</v>
-      </c>
-      <c r="G348" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="1">
-        <v>42171</v>
+        <v>42170</v>
       </c>
       <c r="B349" t="s">
-        <v>268</v>
-      </c>
-      <c r="D349" s="6">
-        <v>6000</v>
+        <v>129</v>
+      </c>
+      <c r="C349" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G349" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -10026,10 +10442,10 @@
         <v>42171</v>
       </c>
       <c r="B350" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D350" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -10037,35 +10453,32 @@
         <v>42171</v>
       </c>
       <c r="B351" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D351" s="6">
-        <v>1221</v>
+        <v>150</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="1">
-        <v>42179</v>
+        <v>42171</v>
       </c>
       <c r="B352" t="s">
-        <v>271</v>
-      </c>
-      <c r="C352" s="2">
-        <v>2200</v>
+        <v>265</v>
+      </c>
+      <c r="D352" s="6">
+        <v>1221</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="1">
-        <v>42183</v>
+        <v>42179</v>
       </c>
       <c r="B353" t="s">
-        <v>272</v>
-      </c>
-      <c r="F353" s="6">
-        <v>-12000</v>
-      </c>
-      <c r="G353" t="s">
-        <v>79</v>
+        <v>266</v>
+      </c>
+      <c r="C353" s="2">
+        <v>2200</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -10073,10 +10486,13 @@
         <v>42183</v>
       </c>
       <c r="B354" t="s">
-        <v>273</v>
-      </c>
-      <c r="D354" s="6">
-        <v>1938</v>
+        <v>267</v>
+      </c>
+      <c r="F354" s="6">
+        <v>-12000</v>
+      </c>
+      <c r="G354" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -10084,46 +10500,46 @@
         <v>42183</v>
       </c>
       <c r="B355" t="s">
-        <v>275</v>
-      </c>
-      <c r="C355" s="2">
-        <v>90</v>
-      </c>
-      <c r="G355" t="s">
-        <v>274</v>
+        <v>268</v>
+      </c>
+      <c r="D355" s="6">
+        <v>1938</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="1">
-        <v>42186</v>
+        <v>42183</v>
       </c>
       <c r="B356" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C356" s="2">
-        <v>500</v>
+        <v>90</v>
+      </c>
+      <c r="G356" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="1">
-        <v>42187</v>
+        <v>42186</v>
       </c>
       <c r="B357" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C357" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="1">
-        <v>42191</v>
+        <v>42187</v>
       </c>
       <c r="B358" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="C358" s="2">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -10131,21 +10547,21 @@
         <v>42191</v>
       </c>
       <c r="B359" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C359" s="2">
-        <v>12747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="1">
-        <v>42195</v>
+        <v>42191</v>
       </c>
       <c r="B360" t="s">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="C360" s="2">
-        <v>6000</v>
+        <v>12747</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -10153,32 +10569,32 @@
         <v>42195</v>
       </c>
       <c r="B361" t="s">
-        <v>291</v>
-      </c>
-      <c r="C361" s="2">
-        <v>150</v>
+        <v>285</v>
+      </c>
+      <c r="D361" s="2">
+        <v>6000</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="1">
-        <v>42198</v>
+        <v>42195</v>
       </c>
       <c r="B362" t="s">
-        <v>89</v>
-      </c>
-      <c r="C362" s="2">
-        <v>3497</v>
+        <v>286</v>
+      </c>
+      <c r="D362" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="1">
-        <v>42210</v>
+        <v>42198</v>
       </c>
       <c r="B363" t="s">
-        <v>294</v>
-      </c>
-      <c r="D363" s="6">
-        <v>66000</v>
+        <v>89</v>
+      </c>
+      <c r="C363" s="2">
+        <v>3497</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -10186,10 +10602,10 @@
         <v>42210</v>
       </c>
       <c r="B364" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D364" s="6">
-        <v>1800</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -10197,13 +10613,10 @@
         <v>42210</v>
       </c>
       <c r="B365" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D365" s="6">
-        <v>1172</v>
-      </c>
-      <c r="G365" s="15" t="s">
-        <v>299</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -10211,10 +10624,10 @@
         <v>42210</v>
       </c>
       <c r="B366" t="s">
-        <v>293</v>
-      </c>
-      <c r="C366" s="2">
-        <v>110</v>
+        <v>287</v>
+      </c>
+      <c r="D366" s="6">
+        <v>1172</v>
       </c>
       <c r="G366" s="5"/>
     </row>
@@ -10223,24 +10636,386 @@
         <v>42210</v>
       </c>
       <c r="B367" t="s">
-        <v>297</v>
-      </c>
-      <c r="F367" s="6">
-        <v>500</v>
-      </c>
-      <c r="G367" s="8" t="s">
-        <v>298</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C367" s="2">
+        <v>110</v>
+      </c>
+      <c r="G367" s="5"/>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="1">
         <v>42210</v>
       </c>
       <c r="B368" t="s">
+        <v>292</v>
+      </c>
+      <c r="F368" s="6">
+        <v>500</v>
+      </c>
+      <c r="G368" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1">
+        <v>42210</v>
+      </c>
+      <c r="B369" t="s">
+        <v>291</v>
+      </c>
+      <c r="D369" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B370" t="s">
+        <v>299</v>
+      </c>
+      <c r="C370" s="2">
+        <v>229</v>
+      </c>
+      <c r="G370" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1">
+        <v>42221</v>
+      </c>
+      <c r="B371" t="s">
+        <v>48</v>
+      </c>
+      <c r="C371" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1">
+        <v>42221</v>
+      </c>
+      <c r="B372" t="s">
+        <v>44</v>
+      </c>
+      <c r="C372" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1">
+        <v>42223</v>
+      </c>
+      <c r="B373" t="s">
+        <v>92</v>
+      </c>
+      <c r="C373" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1">
+        <v>42226</v>
+      </c>
+      <c r="B374" t="s">
+        <v>301</v>
+      </c>
+      <c r="D374" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1">
+        <v>42226</v>
+      </c>
+      <c r="B375" t="s">
+        <v>302</v>
+      </c>
+      <c r="D375" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1">
+        <v>42229</v>
+      </c>
+      <c r="B376" t="s">
+        <v>298</v>
+      </c>
+      <c r="C376" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B377" t="s">
+        <v>48</v>
+      </c>
+      <c r="C377" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B378" t="s">
+        <v>44</v>
+      </c>
+      <c r="C378" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B379" t="s">
+        <v>303</v>
+      </c>
+      <c r="D379" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B380" t="s">
+        <v>304</v>
+      </c>
+      <c r="D380" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B381" t="s">
+        <v>305</v>
+      </c>
+      <c r="C381" s="2">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B382" t="s">
+        <v>165</v>
+      </c>
+      <c r="C382" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G382" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B383" t="s">
+        <v>306</v>
+      </c>
+      <c r="D383" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B384" t="s">
+        <v>48</v>
+      </c>
+      <c r="C384" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B385" t="s">
+        <v>44</v>
+      </c>
+      <c r="C385" s="2">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B386" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G386" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D368" s="6">
-        <v>1800</v>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B387" t="s">
+        <v>310</v>
+      </c>
+      <c r="C387" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B388" t="s">
+        <v>307</v>
+      </c>
+      <c r="D388" s="6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B389" t="s">
+        <v>230</v>
+      </c>
+      <c r="D389" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B390" t="s">
+        <v>231</v>
+      </c>
+      <c r="D390" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B391" t="s">
+        <v>308</v>
+      </c>
+      <c r="D391" s="6">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="1">
+        <v>42290</v>
+      </c>
+      <c r="B392" t="s">
+        <v>98</v>
+      </c>
+      <c r="C392" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="1">
+        <v>42290</v>
+      </c>
+      <c r="B393" t="s">
+        <v>101</v>
+      </c>
+      <c r="C393" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="1">
+        <v>42313</v>
+      </c>
+      <c r="B394" t="s">
+        <v>48</v>
+      </c>
+      <c r="C394" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="1">
+        <v>42313</v>
+      </c>
+      <c r="B395" t="s">
+        <v>44</v>
+      </c>
+      <c r="C395" s="2">
+        <v>12624</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B396" t="s">
+        <v>311</v>
+      </c>
+      <c r="D396" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B397" t="s">
+        <v>312</v>
+      </c>
+      <c r="D397" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B398" t="s">
+        <v>313</v>
+      </c>
+      <c r="C398" s="2">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="1">
+        <v>42321</v>
+      </c>
+      <c r="B399" t="s">
+        <v>314</v>
+      </c>
+      <c r="C399" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="1">
+        <v>42353</v>
+      </c>
+      <c r="B400" t="s">
+        <v>165</v>
+      </c>
+      <c r="C400" s="2">
+        <v>4497</v>
+      </c>
+      <c r="G400" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -10260,7 +11035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10277,15 +11052,15 @@
         <v>6</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C300)</f>
+        <f>SUBTOTAL(9,C3:C26)</f>
         <v>1937798</v>
       </c>
       <c r="D1" s="2">
-        <f>SUBTOTAL(9,D3:D300)</f>
+        <f>SUBTOTAL(9,D3:D26)</f>
         <v>1271798</v>
       </c>
       <c r="E1" s="2">
-        <f>SUBTOTAL(9,E3:E300)</f>
+        <f>SUBTOTAL(9,E3:E26)</f>
         <v>666000</v>
       </c>
     </row>
@@ -10642,8 +11417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10655,11 +11430,11 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="D1">
-        <f>SUBTOTAL(9,D3:D302)</f>
+        <f>SUBTOTAL(9,D3:D32)</f>
         <v>0</v>
       </c>
       <c r="E1">
-        <f>SUBTOTAL(9,E3:E302)</f>
+        <f>SUBTOTAL(9,E3:E32)</f>
         <v>0</v>
       </c>
     </row>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -11,17 +11,21 @@
     <sheet name="交屋後明細" sheetId="6" r:id="rId2"/>
     <sheet name="交屋前支出" sheetId="7" r:id="rId3"/>
     <sheet name="借款" sheetId="3" r:id="rId4"/>
+    <sheet name="財務報表" sheetId="9" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$397</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$411</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$410</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="361">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1277,6 +1281,190 @@
   </si>
   <si>
     <t>地價稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影印費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補103年稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費12~1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多繳1個月，到時要去退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>353號15樓有線電視費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>353號15樓有線電視費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結算損益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金股利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計盈餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初股東權益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末現金增資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資本公積</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>債務(最高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負債比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累積未分配盈餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票股利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初每股淨值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末每股淨值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未實現損益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年末預估現增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股利分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未扣除費用成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年末現金股利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳上現金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明年初預計股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前剩餘債務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估明年初每股淨值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前負債比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估明年長期負債比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估明年長期負債</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估明年最高負債比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估明年股東可轉債</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1288,7 +1476,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1315,6 +1503,14 @@
       <sz val="12"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1359,7 +1555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,81 +1604,435 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-TW"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>財務報表!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>結算損益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>財務報表!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>財務報表!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>財務報表!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累計盈餘</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>財務報表!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>財務報表!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>財務報表!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>租金收入</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>財務報表!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>財務報表!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>264733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171550</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="74666752"/>
+        <c:axId val="74668288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74666752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74668288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74668288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74666752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000001465" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001465" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="老婆合資(投資)"/>
+      <sheetName val="股票獲利曲線"/>
+      <sheetName val="股份統計"/>
+      <sheetName val="公司資金"/>
+      <sheetName val="專案收入"/>
+      <sheetName val="福利金"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>結算損益</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>現金股利</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>累計盈餘</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>2010</v>
+          </cell>
+          <cell r="B2">
+            <v>29983</v>
+          </cell>
+          <cell r="D2">
+            <v>29983</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>2011</v>
+          </cell>
+          <cell r="B3">
+            <v>20086</v>
+          </cell>
+          <cell r="D3">
+            <v>50069</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>2012</v>
+          </cell>
+          <cell r="B4">
+            <v>-17592</v>
+          </cell>
+          <cell r="D4">
+            <v>32477</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>2013</v>
+          </cell>
+          <cell r="B5">
+            <v>37434</v>
+          </cell>
+          <cell r="C5">
+            <v>9561</v>
+          </cell>
+          <cell r="D5">
+            <v>69911</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>2014</v>
+          </cell>
+          <cell r="B6">
+            <v>327767</v>
+          </cell>
+          <cell r="C6">
+            <v>78922</v>
+          </cell>
+          <cell r="D6">
+            <v>397678</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>2015</v>
+          </cell>
+          <cell r="B7">
+            <v>1892186</v>
+          </cell>
+          <cell r="C7">
+            <v>313669</v>
+          </cell>
+          <cell r="D7">
+            <v>2289864</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>2016</v>
+          </cell>
+          <cell r="C8">
+            <v>411500</v>
+          </cell>
+          <cell r="D8">
+            <v>2289864</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1493,7 +2043,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1770,14 +2320,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J399"/>
+  <dimension ref="A1:J410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B403" sqref="B403"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1794,23 +2344,23 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
-        <v>1347612</v>
+        <v>217994</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C998)</f>
-        <v>1445909</v>
+        <f>SUBTOTAL(9,C3:C1009)</f>
+        <v>316291</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D998)</f>
-        <v>1617844</v>
+        <f>SUBTOTAL(9,D3:D1009)</f>
+        <v>438327</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>171935</v>
+        <v>122036</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F998)</f>
-        <v>36700</v>
+        <f>SUBTOTAL(9,F3:F1009)</f>
+        <v>35600</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2839,7 +3389,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" s="1">
         <v>41278</v>
       </c>
@@ -2850,7 +3400,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" s="1">
         <v>41281</v>
       </c>
@@ -2861,7 +3411,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" s="1">
         <v>41281</v>
       </c>
@@ -2872,7 +3422,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" s="1">
         <v>41282</v>
       </c>
@@ -2883,7 +3433,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" s="1">
         <v>41285</v>
       </c>
@@ -2894,7 +3444,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" s="1">
         <v>41286</v>
       </c>
@@ -2905,7 +3455,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="1">
         <v>41306</v>
       </c>
@@ -2916,7 +3466,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" s="1">
         <v>41310</v>
       </c>
@@ -2927,7 +3477,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" s="1">
         <v>41310</v>
       </c>
@@ -2938,7 +3488,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" s="1">
         <v>41310</v>
       </c>
@@ -2955,7 +3505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" s="1">
         <v>41310</v>
       </c>
@@ -2966,7 +3516,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" s="1">
         <v>41310</v>
       </c>
@@ -2977,7 +3527,7 @@
         <v>7433</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" s="1">
         <v>41310</v>
       </c>
@@ -2988,7 +3538,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" s="1">
         <v>41318</v>
       </c>
@@ -2999,7 +3549,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" s="1">
         <v>41318</v>
       </c>
@@ -3010,7 +3560,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" s="1">
         <v>41320</v>
       </c>
@@ -3021,7 +3571,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="1">
         <v>41322</v>
       </c>
@@ -3032,7 +3582,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" s="1">
         <v>41322</v>
       </c>
@@ -3043,7 +3593,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" s="1">
         <v>41323</v>
       </c>
@@ -3058,7 +3608,7 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" s="1">
         <v>41323</v>
       </c>
@@ -3069,7 +3619,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" s="1">
         <v>41338</v>
       </c>
@@ -3080,7 +3630,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" s="1">
         <v>41338</v>
       </c>
@@ -3091,7 +3641,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" hidden="1">
       <c r="A113" s="1">
         <v>41345</v>
       </c>
@@ -3102,7 +3652,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" hidden="1">
       <c r="A114" s="1">
         <v>41346</v>
       </c>
@@ -3113,7 +3663,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" hidden="1">
       <c r="A115" s="1">
         <v>41353</v>
       </c>
@@ -3124,7 +3674,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" hidden="1">
       <c r="A116" s="1">
         <v>41370</v>
       </c>
@@ -3135,7 +3685,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" hidden="1">
       <c r="A117" s="1">
         <v>41373</v>
       </c>
@@ -3146,7 +3696,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" hidden="1">
       <c r="A118" s="1">
         <v>41373</v>
       </c>
@@ -3157,7 +3707,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1">
+    <row r="119" spans="1:4" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="1">
         <v>41377</v>
       </c>
@@ -3168,7 +3718,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" hidden="1">
       <c r="A120" s="1">
         <v>41386</v>
       </c>
@@ -3179,7 +3729,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" hidden="1">
       <c r="A121" s="1">
         <v>41401</v>
       </c>
@@ -3190,7 +3740,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" hidden="1">
       <c r="A122" s="1">
         <v>41401</v>
       </c>
@@ -3201,7 +3751,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" hidden="1">
       <c r="A123" s="1">
         <v>41408</v>
       </c>
@@ -3212,7 +3762,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" hidden="1">
       <c r="A124" s="1">
         <v>41418</v>
       </c>
@@ -3223,7 +3773,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" hidden="1">
       <c r="A125" s="1">
         <v>41425</v>
       </c>
@@ -3234,7 +3784,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" hidden="1">
       <c r="A126" s="1">
         <v>41426</v>
       </c>
@@ -3245,7 +3795,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" hidden="1">
       <c r="A127" s="1">
         <v>41430</v>
       </c>
@@ -3256,7 +3806,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" hidden="1">
       <c r="A128" s="1">
         <v>41430</v>
       </c>
@@ -3267,7 +3817,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" s="1">
         <v>41435</v>
       </c>
@@ -3278,7 +3828,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" s="1">
         <v>41440</v>
       </c>
@@ -3289,7 +3839,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" s="1">
         <v>41441</v>
       </c>
@@ -3300,7 +3850,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132" s="1">
         <v>41441</v>
       </c>
@@ -3311,7 +3861,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133" s="1">
         <v>41441</v>
       </c>
@@ -3322,7 +3872,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" s="1">
         <v>41441</v>
       </c>
@@ -3333,7 +3883,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" s="1">
         <v>41444</v>
       </c>
@@ -3350,7 +3900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" hidden="1">
       <c r="A136" s="1">
         <v>41444</v>
       </c>
@@ -3361,7 +3911,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137" s="1">
         <v>41444</v>
       </c>
@@ -3372,7 +3922,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" hidden="1">
       <c r="A138" s="1">
         <v>41450</v>
       </c>
@@ -3383,7 +3933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" hidden="1">
       <c r="A139" s="1">
         <v>41450</v>
       </c>
@@ -3394,7 +3944,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140" s="1">
         <v>41450</v>
       </c>
@@ -3405,7 +3955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" s="1">
         <v>41451</v>
       </c>
@@ -3420,7 +3970,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" s="1">
         <v>41451</v>
       </c>
@@ -3432,7 +3982,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" s="1">
         <v>41451</v>
       </c>
@@ -3443,7 +3993,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" s="1">
         <v>41460</v>
       </c>
@@ -3454,7 +4004,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" hidden="1">
       <c r="A145" s="1">
         <v>41460</v>
       </c>
@@ -3465,7 +4015,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" hidden="1">
       <c r="A146" s="1">
         <v>41466</v>
       </c>
@@ -3476,7 +4026,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" hidden="1">
       <c r="A147" s="1">
         <v>41486</v>
       </c>
@@ -3487,7 +4037,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" hidden="1">
       <c r="A148" s="1">
         <v>41487</v>
       </c>
@@ -3498,7 +4048,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" hidden="1">
       <c r="A149" s="1">
         <v>41491</v>
       </c>
@@ -3509,7 +4059,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" hidden="1">
       <c r="A150" s="1">
         <v>41491</v>
       </c>
@@ -3520,7 +4070,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" hidden="1">
       <c r="A151" s="1">
         <v>41522</v>
       </c>
@@ -3531,7 +4081,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" hidden="1">
       <c r="A152" s="1">
         <v>41522</v>
       </c>
@@ -3542,7 +4092,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" hidden="1">
       <c r="A153" s="1">
         <v>41528</v>
       </c>
@@ -3553,7 +4103,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" hidden="1">
       <c r="A154" s="1">
         <v>41532</v>
       </c>
@@ -3564,7 +4114,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" hidden="1">
       <c r="A155" s="1">
         <v>41534</v>
       </c>
@@ -3575,7 +4125,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" hidden="1">
       <c r="A156" s="1">
         <v>41534</v>
       </c>
@@ -3587,7 +4137,7 @@
         <v>60500</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" hidden="1">
       <c r="A157" s="1">
         <v>41534</v>
       </c>
@@ -3599,7 +4149,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" hidden="1">
       <c r="A158" s="1">
         <v>41542</v>
       </c>
@@ -3610,7 +4160,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" hidden="1">
       <c r="A159" s="1">
         <v>41542</v>
       </c>
@@ -3621,7 +4171,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" hidden="1">
       <c r="A160" s="1">
         <v>41548</v>
       </c>
@@ -3632,7 +4182,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1">
       <c r="A161" s="1">
         <v>41549</v>
       </c>
@@ -3643,7 +4193,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1">
       <c r="A162" s="1">
         <v>41552</v>
       </c>
@@ -3654,7 +4204,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1">
       <c r="A163" s="1">
         <v>41552</v>
       </c>
@@ -3665,7 +4215,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1">
       <c r="A164" s="1">
         <v>41583</v>
       </c>
@@ -3676,7 +4226,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1">
       <c r="A165" s="1">
         <v>41583</v>
       </c>
@@ -3687,7 +4237,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1">
       <c r="A166" s="1">
         <v>41590</v>
       </c>
@@ -3698,7 +4248,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1">
       <c r="A167" s="1">
         <v>41607</v>
       </c>
@@ -3709,7 +4259,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1">
       <c r="A168" s="1">
         <v>41613</v>
       </c>
@@ -3720,7 +4270,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1">
       <c r="A169" s="1">
         <v>41613</v>
       </c>
@@ -3731,7 +4281,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1">
       <c r="A170" s="1">
         <v>41614</v>
       </c>
@@ -3742,7 +4292,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1">
       <c r="A171" s="1">
         <v>41619</v>
       </c>
@@ -3753,7 +4303,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1">
       <c r="A172" s="1">
         <v>41619</v>
       </c>
@@ -3764,7 +4314,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1">
       <c r="A173" s="1">
         <v>41621</v>
       </c>
@@ -3775,7 +4325,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1">
       <c r="A174" s="1">
         <v>41623</v>
       </c>
@@ -3786,7 +4336,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1">
       <c r="A175" s="1">
         <v>41646</v>
       </c>
@@ -3797,7 +4347,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1">
       <c r="A176" s="1">
         <v>41646</v>
       </c>
@@ -3808,7 +4358,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1">
       <c r="A177" s="1">
         <v>41652</v>
       </c>
@@ -3819,7 +4369,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" hidden="1">
       <c r="A178" s="1">
         <v>41675</v>
       </c>
@@ -3830,7 +4380,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1">
       <c r="A179" s="1">
         <v>41675</v>
       </c>
@@ -3841,7 +4391,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1">
       <c r="A180" s="1">
         <v>41676</v>
       </c>
@@ -3852,7 +4402,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1">
       <c r="A181" s="1">
         <v>41676</v>
       </c>
@@ -3863,7 +4413,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1">
       <c r="A182" s="1">
         <v>41677</v>
       </c>
@@ -3874,7 +4424,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1">
       <c r="A183" s="1">
         <v>41683</v>
       </c>
@@ -3885,7 +4435,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1">
       <c r="A184" s="1">
         <v>41694</v>
       </c>
@@ -3896,7 +4446,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1">
       <c r="A185" s="1">
         <v>41694</v>
       </c>
@@ -3907,7 +4457,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1">
       <c r="A186" s="1">
         <v>41703</v>
       </c>
@@ -3918,7 +4468,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1">
       <c r="A187" s="1">
         <v>41703</v>
       </c>
@@ -3929,7 +4479,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1">
       <c r="A188" s="1">
         <v>41710</v>
       </c>
@@ -3940,7 +4490,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1">
       <c r="A189" s="1">
         <v>41713</v>
       </c>
@@ -3951,7 +4501,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1">
       <c r="A190" s="1">
         <v>41726</v>
       </c>
@@ -3962,7 +4512,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1">
       <c r="A191" s="1">
         <v>41726</v>
       </c>
@@ -3973,7 +4523,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1">
       <c r="A192" s="1">
         <v>41736</v>
       </c>
@@ -3984,7 +4534,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1">
       <c r="A193" s="1">
         <v>41736</v>
       </c>
@@ -3995,7 +4545,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1">
       <c r="A194" s="1">
         <v>41737</v>
       </c>
@@ -4006,7 +4556,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1">
       <c r="A195" s="1">
         <v>41742</v>
       </c>
@@ -4017,7 +4567,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1">
       <c r="A196" s="1">
         <v>41765</v>
       </c>
@@ -4028,7 +4578,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1">
       <c r="A197" s="1">
         <v>41765</v>
       </c>
@@ -4039,7 +4589,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1">
       <c r="A198" s="1">
         <v>41772</v>
       </c>
@@ -4050,7 +4600,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1">
       <c r="A199" s="1">
         <v>41787</v>
       </c>
@@ -4061,7 +4611,7 @@
         <v>7734</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1">
       <c r="A200" s="1">
         <v>41787</v>
       </c>
@@ -4072,7 +4622,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" hidden="1">
       <c r="A201" s="1">
         <v>41787</v>
       </c>
@@ -4083,7 +4633,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1">
       <c r="A202" s="1">
         <v>41787</v>
       </c>
@@ -4094,7 +4644,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1">
       <c r="A203" s="1">
         <v>41787</v>
       </c>
@@ -4105,7 +4655,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1">
       <c r="A204" s="1">
         <v>41792</v>
       </c>
@@ -4116,7 +4666,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1">
       <c r="A205" s="1">
         <v>41795</v>
       </c>
@@ -4127,7 +4677,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1">
       <c r="A206" s="1">
         <v>41795</v>
       </c>
@@ -4138,7 +4688,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" hidden="1">
       <c r="A207" s="1">
         <v>41796</v>
       </c>
@@ -4149,7 +4699,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" hidden="1">
       <c r="A208" s="1">
         <v>41799</v>
       </c>
@@ -4160,7 +4710,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="1">
         <v>41802</v>
       </c>
@@ -4171,7 +4721,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="1">
         <v>41803</v>
       </c>
@@ -4182,7 +4732,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211" s="1">
         <v>41821</v>
       </c>
@@ -4199,7 +4749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="1">
         <v>41821</v>
       </c>
@@ -4210,7 +4760,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213" s="1">
         <v>41821</v>
       </c>
@@ -4221,7 +4771,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="1">
         <v>41827</v>
       </c>
@@ -4232,7 +4782,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="1">
         <v>41827</v>
       </c>
@@ -4243,7 +4793,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="1">
         <v>41830</v>
       </c>
@@ -4254,7 +4804,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="1">
         <v>41832</v>
       </c>
@@ -4265,7 +4815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="1">
         <v>41832</v>
       </c>
@@ -4276,7 +4826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="1">
         <v>41842</v>
       </c>
@@ -4287,7 +4837,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="1">
         <v>41856</v>
       </c>
@@ -4298,7 +4848,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="1">
         <v>41856</v>
       </c>
@@ -4309,7 +4859,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222" s="1">
         <v>41856</v>
       </c>
@@ -4324,7 +4874,7 @@
       </c>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="1">
         <v>41857</v>
       </c>
@@ -4339,7 +4889,7 @@
       </c>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="1">
         <v>41857</v>
       </c>
@@ -4350,7 +4900,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="1">
         <v>41857</v>
       </c>
@@ -4361,7 +4911,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" hidden="1">
       <c r="A226" s="1">
         <v>41857</v>
       </c>
@@ -4372,7 +4922,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="1">
         <v>41859</v>
       </c>
@@ -4383,7 +4933,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="1">
         <v>41864</v>
       </c>
@@ -4394,7 +4944,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="1">
         <v>41887</v>
       </c>
@@ -4405,7 +4955,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="1">
         <v>41887</v>
       </c>
@@ -4416,7 +4966,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="1">
         <v>41888</v>
       </c>
@@ -4433,7 +4983,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="1">
         <v>41888</v>
       </c>
@@ -4444,7 +4994,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" hidden="1">
       <c r="A233" s="1">
         <v>41888</v>
       </c>
@@ -4455,7 +5005,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234" s="1">
         <v>41888</v>
       </c>
@@ -4466,7 +5016,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235" s="1">
         <v>41888</v>
       </c>
@@ -4477,7 +5027,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236" s="1">
         <v>41888</v>
       </c>
@@ -4488,7 +5038,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" hidden="1">
       <c r="A237" s="1">
         <v>41888</v>
       </c>
@@ -4499,7 +5049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" hidden="1">
       <c r="A238" s="1">
         <v>41888</v>
       </c>
@@ -4510,7 +5060,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239" s="1">
         <v>41888</v>
       </c>
@@ -4521,7 +5071,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" hidden="1">
       <c r="A240" s="1">
         <v>41888</v>
       </c>
@@ -4532,7 +5082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" hidden="1">
       <c r="A241" s="1">
         <v>41893</v>
       </c>
@@ -4543,7 +5093,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" hidden="1">
       <c r="A242" s="1">
         <v>41897</v>
       </c>
@@ -4554,7 +5104,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" hidden="1">
       <c r="A243" s="1">
         <v>41897</v>
       </c>
@@ -4565,7 +5115,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" hidden="1">
       <c r="A244" s="1">
         <v>41897</v>
       </c>
@@ -4576,7 +5126,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" hidden="1">
       <c r="A245" s="1">
         <v>41897</v>
       </c>
@@ -4587,7 +5137,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" hidden="1">
       <c r="A246" s="1">
         <v>41910</v>
       </c>
@@ -4605,7 +5155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" hidden="1">
       <c r="A247" s="1">
         <v>41910</v>
       </c>
@@ -4616,7 +5166,7 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" hidden="1">
       <c r="A248" s="1">
         <v>41910</v>
       </c>
@@ -4627,7 +5177,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" hidden="1">
       <c r="A249" s="1">
         <v>41910</v>
       </c>
@@ -4638,7 +5188,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" hidden="1">
       <c r="A250" s="1">
         <v>41910</v>
       </c>
@@ -4649,7 +5199,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1">
       <c r="A251" s="1">
         <v>41910</v>
       </c>
@@ -4660,7 +5210,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" hidden="1">
       <c r="A252" s="1">
         <v>41910</v>
       </c>
@@ -4671,7 +5221,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" hidden="1">
       <c r="A253" s="1">
         <v>41911</v>
       </c>
@@ -4686,7 +5236,7 @@
       </c>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" hidden="1">
       <c r="A254" s="1">
         <v>41914</v>
       </c>
@@ -4697,7 +5247,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" hidden="1">
       <c r="A255" s="1">
         <v>41917</v>
       </c>
@@ -4708,7 +5258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" hidden="1">
       <c r="A256" s="1">
         <v>41917</v>
       </c>
@@ -4719,7 +5269,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" hidden="1">
       <c r="A257" s="1">
         <v>41917</v>
       </c>
@@ -4730,7 +5280,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" hidden="1">
       <c r="A258" s="1">
         <v>41918</v>
       </c>
@@ -4741,7 +5291,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" hidden="1">
       <c r="A259" s="1">
         <v>41918</v>
       </c>
@@ -4752,7 +5302,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" hidden="1">
       <c r="A260" s="1">
         <v>41920</v>
       </c>
@@ -4763,7 +5313,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" hidden="1">
       <c r="A261" s="1">
         <v>41925</v>
       </c>
@@ -4774,7 +5324,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" hidden="1">
       <c r="A262" s="1">
         <v>41932</v>
       </c>
@@ -4785,7 +5335,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" hidden="1">
       <c r="A263" s="1">
         <v>41932</v>
       </c>
@@ -4796,7 +5346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" hidden="1">
       <c r="A264" s="1">
         <v>41932</v>
       </c>
@@ -4807,7 +5357,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" hidden="1">
       <c r="A265" s="1">
         <v>41932</v>
       </c>
@@ -4818,7 +5368,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" hidden="1">
       <c r="A266" s="1">
         <v>41948</v>
       </c>
@@ -4829,7 +5379,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" hidden="1">
       <c r="A267" s="1">
         <v>41948</v>
       </c>
@@ -4840,7 +5390,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" hidden="1">
       <c r="A268" s="1">
         <v>41949</v>
       </c>
@@ -4851,7 +5401,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" hidden="1">
       <c r="A269" s="1">
         <v>41949</v>
       </c>
@@ -4862,7 +5412,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" hidden="1">
       <c r="A270" s="1">
         <v>41953</v>
       </c>
@@ -4873,7 +5423,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" hidden="1">
       <c r="A271" s="1">
         <v>41955</v>
       </c>
@@ -4884,7 +5434,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" hidden="1">
       <c r="A272" s="1">
         <v>41957</v>
       </c>
@@ -4895,7 +5445,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" hidden="1">
       <c r="A273" s="1">
         <v>41957</v>
       </c>
@@ -4906,7 +5456,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1">
       <c r="A274" s="1">
         <v>41957</v>
       </c>
@@ -4917,7 +5467,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" hidden="1">
       <c r="A275" s="1">
         <v>41959</v>
       </c>
@@ -4928,7 +5478,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1">
       <c r="A276" s="1">
         <v>41967</v>
       </c>
@@ -4939,7 +5489,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1">
       <c r="A277" s="1">
         <v>41978</v>
       </c>
@@ -4950,7 +5500,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1">
       <c r="A278" s="1">
         <v>41978</v>
       </c>
@@ -4961,7 +5511,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" hidden="1">
       <c r="A279" s="1">
         <v>41981</v>
       </c>
@@ -4972,7 +5522,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" hidden="1">
       <c r="A280" s="1">
         <v>41982</v>
       </c>
@@ -4983,7 +5533,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" hidden="1">
       <c r="A281" s="1">
         <v>41982</v>
       </c>
@@ -4994,7 +5544,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1">
       <c r="A282" s="1">
         <v>41982</v>
       </c>
@@ -5005,7 +5555,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" hidden="1">
       <c r="A283" s="1">
         <v>41982</v>
       </c>
@@ -5016,7 +5566,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" hidden="1">
       <c r="A284" s="1">
         <v>41983</v>
       </c>
@@ -5027,7 +5577,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1">
       <c r="A285" s="1">
         <v>41983</v>
       </c>
@@ -5038,7 +5588,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" hidden="1">
       <c r="A286" s="1">
         <v>41983</v>
       </c>
@@ -5049,7 +5599,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" hidden="1">
       <c r="A287" s="1">
         <v>41985</v>
       </c>
@@ -5060,7 +5610,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" hidden="1">
       <c r="A288" s="1">
         <v>41986</v>
       </c>
@@ -5071,7 +5621,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" hidden="1">
       <c r="A289" s="1">
         <v>41988</v>
       </c>
@@ -5082,7 +5632,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" hidden="1">
       <c r="A290" s="1">
         <v>42010</v>
       </c>
@@ -5093,7 +5643,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" hidden="1">
       <c r="A291" s="1">
         <v>42010</v>
       </c>
@@ -5104,7 +5654,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" hidden="1">
       <c r="A292" s="1">
         <v>42014</v>
       </c>
@@ -5115,7 +5665,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" hidden="1">
       <c r="A293" s="1">
         <v>42014</v>
       </c>
@@ -5126,7 +5676,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" hidden="1">
       <c r="A294" s="1">
         <v>42017</v>
       </c>
@@ -5137,7 +5687,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" hidden="1">
       <c r="A295" s="1">
         <v>42018</v>
       </c>
@@ -5148,7 +5698,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" hidden="1">
       <c r="A296" s="1">
         <v>42018</v>
       </c>
@@ -5159,7 +5709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" hidden="1">
       <c r="A297" s="1">
         <v>42018</v>
       </c>
@@ -5170,7 +5720,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="5" customFormat="1">
+    <row r="298" spans="1:6" s="5" customFormat="1" hidden="1">
       <c r="A298" s="13">
         <v>42031</v>
       </c>
@@ -5184,7 +5734,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" hidden="1">
       <c r="A299" s="1">
         <v>42036</v>
       </c>
@@ -5195,7 +5745,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" hidden="1">
       <c r="A300" s="1">
         <v>42040</v>
       </c>
@@ -5206,7 +5756,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" hidden="1">
       <c r="A301" s="1">
         <v>42040</v>
       </c>
@@ -5217,7 +5767,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" hidden="1">
       <c r="A302" s="1">
         <v>42043</v>
       </c>
@@ -5228,7 +5778,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" hidden="1">
       <c r="A303" s="1">
         <v>42045</v>
       </c>
@@ -5239,7 +5789,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" hidden="1">
       <c r="A304" s="1">
         <v>42045</v>
       </c>
@@ -5250,7 +5800,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" hidden="1">
       <c r="A305" s="1">
         <v>42045</v>
       </c>
@@ -5261,7 +5811,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" hidden="1">
       <c r="A306" s="1">
         <v>42048</v>
       </c>
@@ -5272,7 +5822,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" hidden="1">
       <c r="A307" s="1">
         <v>42062</v>
       </c>
@@ -5286,7 +5836,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" hidden="1">
       <c r="A308" s="1">
         <v>42062</v>
       </c>
@@ -5297,7 +5847,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" hidden="1">
       <c r="A309" s="1">
         <v>42063</v>
       </c>
@@ -5314,7 +5864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" hidden="1">
       <c r="A310" s="1">
         <v>42063</v>
       </c>
@@ -5325,7 +5875,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311" s="1">
         <v>42063</v>
       </c>
@@ -5336,7 +5886,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" hidden="1">
       <c r="A312" s="1">
         <v>42063</v>
       </c>
@@ -5347,7 +5897,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" hidden="1">
       <c r="A313" s="1">
         <v>42063</v>
       </c>
@@ -5358,7 +5908,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" hidden="1">
       <c r="A314" s="1">
         <v>42063</v>
       </c>
@@ -5369,7 +5919,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" hidden="1">
       <c r="A315" s="1">
         <v>42068</v>
       </c>
@@ -5380,7 +5930,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" hidden="1">
       <c r="A316" s="1">
         <v>42068</v>
       </c>
@@ -5391,7 +5941,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" hidden="1">
       <c r="A317" s="1">
         <v>42070</v>
       </c>
@@ -5402,7 +5952,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" hidden="1">
       <c r="A318" s="1">
         <v>42070</v>
       </c>
@@ -5413,7 +5963,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" hidden="1">
       <c r="A319" s="1">
         <v>42070</v>
       </c>
@@ -5424,7 +5974,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" hidden="1">
       <c r="A320" s="1">
         <v>42070</v>
       </c>
@@ -5435,7 +5985,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" hidden="1">
       <c r="A321" s="1">
         <v>42074</v>
       </c>
@@ -5446,7 +5996,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" hidden="1">
       <c r="A322" s="1">
         <v>42074</v>
       </c>
@@ -5457,7 +6007,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" hidden="1">
       <c r="A323" s="1">
         <v>42075</v>
       </c>
@@ -5468,7 +6018,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" hidden="1">
       <c r="A324" s="1">
         <v>42078</v>
       </c>
@@ -5479,7 +6029,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" hidden="1">
       <c r="A325" s="1">
         <v>42087</v>
       </c>
@@ -5490,7 +6040,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" hidden="1">
       <c r="A326" s="1">
         <v>42102</v>
       </c>
@@ -5501,7 +6051,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" hidden="1">
       <c r="A327" s="1">
         <v>42102</v>
       </c>
@@ -5512,7 +6062,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" hidden="1">
       <c r="A328" s="1">
         <v>42102</v>
       </c>
@@ -5523,7 +6073,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" hidden="1">
       <c r="A329" s="1">
         <v>42105</v>
       </c>
@@ -5534,7 +6084,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" hidden="1">
       <c r="A330" s="1">
         <v>42105</v>
       </c>
@@ -5545,7 +6095,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" hidden="1">
       <c r="A331" s="1">
         <v>42105</v>
       </c>
@@ -5556,7 +6106,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" hidden="1">
       <c r="A332" s="1">
         <v>42107</v>
       </c>
@@ -5567,7 +6117,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" hidden="1">
       <c r="A333" s="1">
         <v>42129</v>
       </c>
@@ -5578,7 +6128,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" hidden="1">
       <c r="A334" s="1">
         <v>42129</v>
       </c>
@@ -5589,7 +6139,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" hidden="1">
       <c r="A335" s="1">
         <v>42135</v>
       </c>
@@ -5600,7 +6150,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" hidden="1">
       <c r="A336" s="1">
         <v>42135</v>
       </c>
@@ -5611,7 +6161,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" hidden="1">
       <c r="A337" s="1">
         <v>42137</v>
       </c>
@@ -5622,7 +6172,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" hidden="1">
       <c r="A338" s="1">
         <v>42140</v>
       </c>
@@ -5636,7 +6186,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" hidden="1">
       <c r="A339" s="1">
         <v>42159</v>
       </c>
@@ -5647,7 +6197,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" hidden="1">
       <c r="A340" s="1">
         <v>42159</v>
       </c>
@@ -5658,7 +6208,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" hidden="1">
       <c r="A341" s="1">
         <v>42159</v>
       </c>
@@ -5669,7 +6219,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" hidden="1">
       <c r="A342" s="1">
         <v>42159</v>
       </c>
@@ -5680,7 +6230,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" hidden="1">
       <c r="A343" s="1">
         <v>42159</v>
       </c>
@@ -5691,7 +6241,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" hidden="1">
       <c r="A344" s="1">
         <v>42160</v>
       </c>
@@ -5702,7 +6252,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" hidden="1">
       <c r="A345" s="1">
         <v>42160</v>
       </c>
@@ -5713,7 +6263,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" hidden="1">
       <c r="A346" s="1">
         <v>42164</v>
       </c>
@@ -5724,7 +6274,7 @@
         <v>5729</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" hidden="1">
       <c r="A347" s="1">
         <v>42168</v>
       </c>
@@ -5735,7 +6285,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" hidden="1">
       <c r="A348" s="1">
         <v>42170</v>
       </c>
@@ -5746,7 +6296,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" hidden="1">
       <c r="A349" s="1">
         <v>42171</v>
       </c>
@@ -5757,7 +6307,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" hidden="1">
       <c r="A350" s="1">
         <v>42171</v>
       </c>
@@ -5768,7 +6318,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" hidden="1">
       <c r="A351" s="1">
         <v>42171</v>
       </c>
@@ -5779,7 +6329,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" hidden="1">
       <c r="A352" s="1">
         <v>42179</v>
       </c>
@@ -5790,7 +6340,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" hidden="1">
       <c r="A353" s="1">
         <v>42183</v>
       </c>
@@ -5807,7 +6357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" hidden="1">
       <c r="A354" s="1">
         <v>42183</v>
       </c>
@@ -5818,7 +6368,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" hidden="1">
       <c r="A355" s="1">
         <v>42183</v>
       </c>
@@ -5829,7 +6379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" hidden="1">
       <c r="A356" s="1">
         <v>42186</v>
       </c>
@@ -5840,7 +6390,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" hidden="1">
       <c r="A357" s="1">
         <v>42187</v>
       </c>
@@ -5851,7 +6401,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" hidden="1">
       <c r="A358" s="1">
         <v>42191</v>
       </c>
@@ -5862,7 +6412,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" hidden="1">
       <c r="A359" s="1">
         <v>42191</v>
       </c>
@@ -5873,7 +6423,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" hidden="1">
       <c r="A360" s="1">
         <v>42195</v>
       </c>
@@ -5884,7 +6434,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" hidden="1">
       <c r="A361" s="1">
         <v>42195</v>
       </c>
@@ -5895,7 +6445,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" hidden="1">
       <c r="A362" s="1">
         <v>42198</v>
       </c>
@@ -5906,7 +6456,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" hidden="1">
       <c r="A363" s="1">
         <v>42210</v>
       </c>
@@ -5917,7 +6467,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" hidden="1">
       <c r="A364" s="1">
         <v>42210</v>
       </c>
@@ -5928,7 +6478,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" hidden="1">
       <c r="A365" s="1">
         <v>42210</v>
       </c>
@@ -5939,7 +6489,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" hidden="1">
       <c r="A366" s="1">
         <v>42210</v>
       </c>
@@ -5950,7 +6500,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" hidden="1">
       <c r="A367" s="1">
         <v>42210</v>
       </c>
@@ -5964,7 +6514,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" hidden="1">
       <c r="A368" s="1">
         <v>42210</v>
       </c>
@@ -5975,7 +6525,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" hidden="1">
       <c r="A369" s="1">
         <v>42217</v>
       </c>
@@ -5986,7 +6536,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" hidden="1">
       <c r="A370" s="1">
         <v>42221</v>
       </c>
@@ -5997,7 +6547,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" hidden="1">
       <c r="A371" s="1">
         <v>42221</v>
       </c>
@@ -6008,7 +6558,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" hidden="1">
       <c r="A372" s="1">
         <v>42223</v>
       </c>
@@ -6019,7 +6569,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" hidden="1">
       <c r="A373" s="1">
         <v>42226</v>
       </c>
@@ -6030,7 +6580,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" hidden="1">
       <c r="A374" s="1">
         <v>42226</v>
       </c>
@@ -6041,7 +6591,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" hidden="1">
       <c r="A375" s="1">
         <v>42229</v>
       </c>
@@ -6052,7 +6602,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" hidden="1">
       <c r="A376" s="1">
         <v>42254</v>
       </c>
@@ -6063,7 +6613,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" hidden="1">
       <c r="A377" s="1">
         <v>42254</v>
       </c>
@@ -6074,7 +6624,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" hidden="1">
       <c r="A378" s="1">
         <v>42254</v>
       </c>
@@ -6085,7 +6635,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" hidden="1">
       <c r="A379" s="1">
         <v>42254</v>
       </c>
@@ -6096,7 +6646,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" hidden="1">
       <c r="A380" s="1">
         <v>42258</v>
       </c>
@@ -6107,7 +6657,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" hidden="1">
       <c r="A381" s="1">
         <v>42262</v>
       </c>
@@ -6118,7 +6668,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" hidden="1">
       <c r="A382" s="1">
         <v>42277</v>
       </c>
@@ -6129,7 +6679,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" hidden="1">
       <c r="A383" s="1">
         <v>42283</v>
       </c>
@@ -6140,7 +6690,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" hidden="1">
       <c r="A384" s="1">
         <v>42283</v>
       </c>
@@ -6151,169 +6701,301 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" hidden="1">
       <c r="A385" s="1">
         <v>42286</v>
       </c>
       <c r="B385" s="15" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="386" spans="1:4">
+      <c r="D385" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" hidden="1">
       <c r="A386" s="1">
         <v>42286</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D386" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" hidden="1">
+      <c r="A387" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B387" t="s">
         <v>310</v>
       </c>
-      <c r="C386" s="2">
+      <c r="C387" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="1">
-        <v>42289</v>
-      </c>
-      <c r="B387" t="s">
-        <v>307</v>
-      </c>
-      <c r="D387" s="6">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" hidden="1">
       <c r="A388" s="1">
         <v>42289</v>
       </c>
       <c r="B388" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="D388" s="6">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1">
       <c r="A389" s="1">
         <v>42289</v>
       </c>
       <c r="B389" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D389" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" hidden="1">
       <c r="A390" s="1">
         <v>42289</v>
       </c>
       <c r="B390" t="s">
+        <v>231</v>
+      </c>
+      <c r="D390" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1">
+      <c r="A391" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B391" t="s">
         <v>308</v>
       </c>
-      <c r="D390" s="6">
+      <c r="D391" s="6">
         <v>1995</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="1">
-        <v>42290</v>
-      </c>
-      <c r="B391" t="s">
-        <v>98</v>
-      </c>
-      <c r="C391" s="2">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" hidden="1">
       <c r="A392" s="1">
         <v>42290</v>
       </c>
       <c r="B392" t="s">
+        <v>98</v>
+      </c>
+      <c r="C392" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" hidden="1">
+      <c r="A393" s="1">
+        <v>42290</v>
+      </c>
+      <c r="B393" t="s">
         <v>101</v>
       </c>
-      <c r="C392" s="2">
+      <c r="C393" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="1">
-        <v>42313</v>
-      </c>
-      <c r="B393" t="s">
-        <v>48</v>
-      </c>
-      <c r="D393" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" hidden="1">
       <c r="A394" s="1">
         <v>42313</v>
       </c>
       <c r="B394" t="s">
+        <v>48</v>
+      </c>
+      <c r="D394" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1">
+      <c r="A395" s="1">
+        <v>42313</v>
+      </c>
+      <c r="B395" t="s">
         <v>44</v>
       </c>
-      <c r="C394" s="2">
+      <c r="C395" s="2">
         <v>22624</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="1">
-        <v>42317</v>
-      </c>
-      <c r="B395" t="s">
-        <v>311</v>
-      </c>
-      <c r="D395" s="6">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" hidden="1">
       <c r="A396" s="1">
         <v>42317</v>
       </c>
       <c r="B396" t="s">
+        <v>311</v>
+      </c>
+      <c r="D396" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1">
+      <c r="A397" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B397" t="s">
         <v>312</v>
       </c>
-      <c r="D396" s="6">
+      <c r="D397" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="1">
+    <row r="398" spans="1:4" hidden="1">
+      <c r="A398" s="1">
         <v>42320</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B398" t="s">
         <v>313</v>
       </c>
-      <c r="C397" s="2">
+      <c r="C398" s="2">
         <v>1564</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="1">
+    <row r="399" spans="1:4" hidden="1">
+      <c r="A399" s="1">
         <v>42321</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B399" t="s">
         <v>314</v>
       </c>
-      <c r="C398" s="2">
+      <c r="C399" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="1">
+    <row r="400" spans="1:4" hidden="1">
+      <c r="A400" s="1">
+        <v>42334</v>
+      </c>
+      <c r="B400" t="s">
+        <v>315</v>
+      </c>
+      <c r="C400" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" hidden="1">
+      <c r="A401" s="1">
+        <v>42334</v>
+      </c>
+      <c r="B401" t="s">
+        <v>316</v>
+      </c>
+      <c r="C401" s="2">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" hidden="1">
+      <c r="A402" s="1">
+        <v>42342</v>
+      </c>
+      <c r="B402" t="s">
+        <v>191</v>
+      </c>
+      <c r="D402" s="6">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" hidden="1">
+      <c r="A403" s="1">
+        <v>42345</v>
+      </c>
+      <c r="B403" t="s">
+        <v>48</v>
+      </c>
+      <c r="D403" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" hidden="1">
+      <c r="A404" s="1">
+        <v>42345</v>
+      </c>
+      <c r="B404" t="s">
+        <v>44</v>
+      </c>
+      <c r="C404" s="2">
+        <v>22624</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" hidden="1">
+      <c r="A405" s="1">
+        <v>42346</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C405" s="2">
+        <v>2200</v>
+      </c>
+      <c r="G405" s="5"/>
+    </row>
+    <row r="406" spans="1:7" hidden="1">
+      <c r="A406" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B406" t="s">
+        <v>246</v>
+      </c>
+      <c r="D406" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" hidden="1">
+      <c r="A407" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B407" t="s">
+        <v>247</v>
+      </c>
+      <c r="D407" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" hidden="1">
+      <c r="A408" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B408" t="s">
+        <v>194</v>
+      </c>
+      <c r="D408" s="6">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" hidden="1">
+      <c r="A409" s="1">
+        <v>42351</v>
+      </c>
+      <c r="B409" t="s">
+        <v>192</v>
+      </c>
+      <c r="C409" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" hidden="1">
+      <c r="A410" s="1">
         <v>42353</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B410" t="s">
         <v>165</v>
       </c>
-      <c r="C399" s="2">
+      <c r="C410" s="2">
         <v>4497</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J410">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2012" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6328,11 +7010,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K400"/>
+  <dimension ref="A1:K411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C403" sqref="C403"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6347,19 +7029,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C998)</f>
-        <v>1347612</v>
+        <f>SUBTOTAL(9,C3:C1009)</f>
+        <v>1377989</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D998)</f>
-        <v>1017844</v>
+        <f>SUBTOTAL(9,D3:D1009)</f>
+        <v>1025905</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-329768</v>
+        <v>-352084</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F998)</f>
+        <f>SUBTOTAL(9,F3:F1009)</f>
         <v>36700</v>
       </c>
     </row>
@@ -7592,7 +8274,7 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
@@ -8434,7 +9116,7 @@
         <v>41675</v>
       </c>
       <c r="B178" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="D178" s="6">
         <v>6600</v>
@@ -9725,7 +10407,7 @@
         <v>41985</v>
       </c>
       <c r="B288" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="D288" s="6">
         <v>6600</v>
@@ -10857,6 +11539,9 @@
       <c r="B386" s="15" t="s">
         <v>238</v>
       </c>
+      <c r="D386" s="2">
+        <v>150</v>
+      </c>
       <c r="G386" s="15" t="s">
         <v>296</v>
       </c>
@@ -10865,22 +11550,23 @@
       <c r="A387" s="1">
         <v>42286</v>
       </c>
-      <c r="B387" t="s">
-        <v>310</v>
-      </c>
-      <c r="C387" s="2">
-        <v>110</v>
-      </c>
+      <c r="B387" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D387" s="2">
+        <v>306</v>
+      </c>
+      <c r="G387" s="15"/>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="1">
-        <v>42289</v>
+        <v>42286</v>
       </c>
       <c r="B388" t="s">
-        <v>307</v>
-      </c>
-      <c r="D388" s="6">
-        <v>415</v>
+        <v>310</v>
+      </c>
+      <c r="C388" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -10888,10 +11574,10 @@
         <v>42289</v>
       </c>
       <c r="B389" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="D389" s="6">
-        <v>6000</v>
+        <v>415</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -10899,10 +11585,10 @@
         <v>42289</v>
       </c>
       <c r="B390" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D390" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -10910,21 +11596,21 @@
         <v>42289</v>
       </c>
       <c r="B391" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="D391" s="6">
-        <v>1995</v>
+        <v>150</v>
       </c>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="1">
-        <v>42290</v>
+        <v>42289</v>
       </c>
       <c r="B392" t="s">
-        <v>98</v>
-      </c>
-      <c r="C392" s="2">
-        <v>219</v>
+        <v>308</v>
+      </c>
+      <c r="D392" s="6">
+        <v>1995</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -10932,21 +11618,21 @@
         <v>42290</v>
       </c>
       <c r="B393" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C393" s="2">
-        <v>2200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="1">
-        <v>42313</v>
+        <v>42290</v>
       </c>
       <c r="B394" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C394" s="2">
-        <v>10000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -10954,21 +11640,21 @@
         <v>42313</v>
       </c>
       <c r="B395" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C395" s="2">
-        <v>12624</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="1">
-        <v>42317</v>
+        <v>42313</v>
       </c>
       <c r="B396" t="s">
-        <v>311</v>
-      </c>
-      <c r="D396" s="6">
-        <v>6000</v>
+        <v>44</v>
+      </c>
+      <c r="C396" s="2">
+        <v>12624</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -10976,50 +11662,174 @@
         <v>42317</v>
       </c>
       <c r="B397" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D397" s="6">
-        <v>150</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="1">
-        <v>42320</v>
+        <v>42317</v>
       </c>
       <c r="B398" t="s">
-        <v>313</v>
-      </c>
-      <c r="C398" s="2">
-        <v>1564</v>
+        <v>312</v>
+      </c>
+      <c r="D398" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="1">
-        <v>42321</v>
+        <v>42320</v>
       </c>
       <c r="B399" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C399" s="2">
-        <v>254</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="1">
+        <v>42321</v>
+      </c>
+      <c r="B400" t="s">
+        <v>314</v>
+      </c>
+      <c r="C400" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="1">
+        <v>42334</v>
+      </c>
+      <c r="B401" t="s">
+        <v>315</v>
+      </c>
+      <c r="C401" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="1">
+        <v>42334</v>
+      </c>
+      <c r="B402" t="s">
+        <v>316</v>
+      </c>
+      <c r="C402" s="2">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="1">
+        <v>42342</v>
+      </c>
+      <c r="B403" t="s">
+        <v>191</v>
+      </c>
+      <c r="D403" s="6">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="1">
+        <v>42345</v>
+      </c>
+      <c r="B404" t="s">
+        <v>48</v>
+      </c>
+      <c r="C404" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="1">
+        <v>42345</v>
+      </c>
+      <c r="B405" t="s">
+        <v>44</v>
+      </c>
+      <c r="C405" s="2">
+        <v>12624</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="1">
+        <v>42346</v>
+      </c>
+      <c r="B406" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C406" s="2">
+        <v>2200</v>
+      </c>
+      <c r="G406" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B407" t="s">
+        <v>246</v>
+      </c>
+      <c r="D407" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B408" t="s">
+        <v>247</v>
+      </c>
+      <c r="D408" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B409" t="s">
+        <v>194</v>
+      </c>
+      <c r="D409" s="6">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="1">
+        <v>42351</v>
+      </c>
+      <c r="B410" t="s">
+        <v>192</v>
+      </c>
+      <c r="C410" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="1">
         <v>42353</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B411" t="s">
         <v>165</v>
       </c>
-      <c r="C400" s="2">
+      <c r="C411" s="2">
         <v>4497</v>
       </c>
-      <c r="G400" t="s">
+      <c r="G411" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
+  <autoFilter ref="A2:K411"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -11034,8 +11844,8 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11417,7 +12227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -11779,4 +12589,660 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="3" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="6.75" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1937798</v>
+      </c>
+      <c r="F2">
+        <v>1937798</v>
+      </c>
+      <c r="G2">
+        <v>115000</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="0">I2/(F2+I2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>B2-L2-M2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N7" si="1">(B2/F2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O7" si="2">(B2/(F2+I2))*100</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P7" si="3">(B2/E2)*10</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q6" si="4">(F2/E2)*10</f>
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R4" si="5">((F2+B2-L2)/(E2))*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>264733</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="6">D2+B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="7">E2+G2+M2</f>
+        <v>2052798</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="8">F2+B2+G2+H2-L2</f>
+        <v>2052798</v>
+      </c>
+      <c r="G3">
+        <v>120000</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="9">K2+B3-L3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>232300</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="7"/>
+        <v>2172798</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="8"/>
+        <v>2172798</v>
+      </c>
+      <c r="G4">
+        <v>120000</v>
+      </c>
+      <c r="I4">
+        <v>600000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>21.638792295724389</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>171550</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="7"/>
+        <v>2292798</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="8"/>
+        <v>2292798</v>
+      </c>
+      <c r="G5">
+        <v>120000</v>
+      </c>
+      <c r="H5">
+        <v>37500</v>
+      </c>
+      <c r="I5">
+        <v>800000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>25.866545438790379</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <f>((F5+B5-L5)/(E5))*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>225060</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>E5+G5+M5</f>
+        <v>2412798</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="8"/>
+        <v>2450298</v>
+      </c>
+      <c r="G6">
+        <v>120000</v>
+      </c>
+      <c r="H6">
+        <v>37500</v>
+      </c>
+      <c r="I6">
+        <v>4042518</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>62.261397827999446</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>10.15542121636374</v>
+      </c>
+      <c r="R6">
+        <f>((F6+B6-L6)/(E6))*10</f>
+        <v>10.15542121636374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>E6+G6+M6</f>
+        <v>2532798</v>
+      </c>
+      <c r="F7">
+        <f>F6+B6+G6+H6-L6</f>
+        <v>2607798</v>
+      </c>
+      <c r="I7">
+        <v>3974696</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>60.382827542265893</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>(F7/E7)*10</f>
+        <v>10.296115205397351</v>
+      </c>
+      <c r="R7" s="17">
+        <f>((F7+B7-L7+K12-K15+K18)/(E7))*10</f>
+        <v>7.9911544465843694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="16"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="16"/>
+      <c r="R9" s="17"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="K11" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="K12">
+        <v>-583800</v>
+      </c>
+      <c r="M12">
+        <v>700000</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="P13">
+        <v>2011</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q18" si="10">L2/(E2/10)</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R18" si="11">M2/(E2/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="K14" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="P14">
+        <v>2012</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="P15">
+        <v>2013</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="P16">
+        <v>2014</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18">
+      <c r="K17" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17">
+        <v>2015</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="11:18">
+      <c r="M18">
+        <f>E7+M12+((E7/10)*N15)</f>
+        <v>3232798</v>
+      </c>
+      <c r="P18">
+        <v>2016</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="11:18">
+      <c r="K20" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="11:18">
+      <c r="M21">
+        <f>((F7+B7+M12-((E7/10)*M15))/M18)*10</f>
+        <v>10.231997173965091</v>
+      </c>
+    </row>
+    <row r="23" spans="11:18">
+      <c r="K23" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="11:18">
+      <c r="K24">
+        <f>K21/(F7+B7+K12-K15+K21+K18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>K27/(F7+B7+K12+M12-K15+K21+K27)*100</f>
+        <v>54.135656859031023</v>
+      </c>
+    </row>
+    <row r="26" spans="11:18">
+      <c r="K26" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="11:18">
+      <c r="K27">
+        <v>3215252</v>
+      </c>
+      <c r="M27">
+        <f>(K27+K30)/(F7+B7+K12+M12-K15+K21+K27+K30)*100</f>
+        <v>57.696967814574677</v>
+      </c>
+    </row>
+    <row r="29" spans="11:18">
+      <c r="K29" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="11:18">
+      <c r="K30">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -13,9 +13,6 @@
     <sheet name="借款" sheetId="3" r:id="rId4"/>
     <sheet name="財務報表" sheetId="9" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$411</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$410</definedName>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="366">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,10 +1337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>債務(最高)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>負債比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1465,6 +1458,30 @@
   </si>
   <si>
     <t>租金收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除房貸結餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末債務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購入價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市價</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,16 +1694,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>145131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>128881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>102789</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1700,7 +1717,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>財務報表!$D$1</c:f>
+              <c:f>財務報表!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1740,7 +1757,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>財務報表!$D$2:$D$7</c:f>
+              <c:f>財務報表!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1748,19 +1765,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>145131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>274012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>299615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>402404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>402404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,24 +1852,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74666752"/>
-        <c:axId val="74668288"/>
+        <c:axId val="75284480"/>
+        <c:axId val="75286016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74666752"/>
+        <c:axId val="75284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74668288"/>
+        <c:crossAx val="75286016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74668288"/>
+        <c:axId val="75286016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +1877,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74666752"/>
+        <c:crossAx val="75284480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1889,7 +1906,7 @@
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
@@ -1912,127 +1929,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="老婆合資(投資)"/>
-      <sheetName val="股票獲利曲線"/>
-      <sheetName val="股份統計"/>
-      <sheetName val="公司資金"/>
-      <sheetName val="專案收入"/>
-      <sheetName val="福利金"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>結算損益</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>現金股利</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>累計盈餘</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>2010</v>
-          </cell>
-          <cell r="B2">
-            <v>29983</v>
-          </cell>
-          <cell r="D2">
-            <v>29983</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>2011</v>
-          </cell>
-          <cell r="B3">
-            <v>20086</v>
-          </cell>
-          <cell r="D3">
-            <v>50069</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>2012</v>
-          </cell>
-          <cell r="B4">
-            <v>-17592</v>
-          </cell>
-          <cell r="D4">
-            <v>32477</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>2013</v>
-          </cell>
-          <cell r="B5">
-            <v>37434</v>
-          </cell>
-          <cell r="C5">
-            <v>9561</v>
-          </cell>
-          <cell r="D5">
-            <v>69911</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>2014</v>
-          </cell>
-          <cell r="B6">
-            <v>327767</v>
-          </cell>
-          <cell r="C6">
-            <v>78922</v>
-          </cell>
-          <cell r="D6">
-            <v>397678</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>2015</v>
-          </cell>
-          <cell r="B7">
-            <v>1892186</v>
-          </cell>
-          <cell r="C7">
-            <v>313669</v>
-          </cell>
-          <cell r="D7">
-            <v>2289864</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>2016</v>
-          </cell>
-          <cell r="C8">
-            <v>411500</v>
-          </cell>
-          <cell r="D8">
-            <v>2289864</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2320,14 +2216,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:J410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2344,23 +2240,23 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
-        <v>217994</v>
+        <v>1377989</v>
       </c>
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C1009)</f>
-        <v>316291</v>
+        <v>1476286</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D1009)</f>
-        <v>438327</v>
+        <v>1635905</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>122036</v>
+        <v>159619</v>
       </c>
       <c r="F1" s="6">
         <f>SUBTOTAL(9,F3:F1009)</f>
-        <v>35600</v>
+        <v>36700</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3389,7 +3285,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>41278</v>
       </c>
@@ -3400,7 +3296,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>41281</v>
       </c>
@@ -3411,7 +3307,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>41281</v>
       </c>
@@ -3422,7 +3318,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>41282</v>
       </c>
@@ -3433,7 +3329,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>41285</v>
       </c>
@@ -3444,7 +3340,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>41286</v>
       </c>
@@ -3455,7 +3351,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>41306</v>
       </c>
@@ -3466,7 +3362,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>41310</v>
       </c>
@@ -3477,7 +3373,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>41310</v>
       </c>
@@ -3488,7 +3384,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>41310</v>
       </c>
@@ -3505,7 +3401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>41310</v>
       </c>
@@ -3516,7 +3412,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>41310</v>
       </c>
@@ -3527,7 +3423,7 @@
         <v>7433</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>41310</v>
       </c>
@@ -3538,7 +3434,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>41318</v>
       </c>
@@ -3549,7 +3445,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>41318</v>
       </c>
@@ -3560,7 +3456,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>41320</v>
       </c>
@@ -3571,7 +3467,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>41322</v>
       </c>
@@ -3582,7 +3478,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>41322</v>
       </c>
@@ -3593,7 +3489,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>41323</v>
       </c>
@@ -3608,7 +3504,7 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>41323</v>
       </c>
@@ -3619,7 +3515,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>41338</v>
       </c>
@@ -3630,7 +3526,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>41338</v>
       </c>
@@ -3641,7 +3537,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>41345</v>
       </c>
@@ -3652,7 +3548,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>41346</v>
       </c>
@@ -3663,7 +3559,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>41353</v>
       </c>
@@ -3674,7 +3570,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1">
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>41370</v>
       </c>
@@ -3685,7 +3581,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1">
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>41373</v>
       </c>
@@ -3696,7 +3592,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>41373</v>
       </c>
@@ -3707,7 +3603,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1">
       <c r="A119" s="1">
         <v>41377</v>
       </c>
@@ -3718,7 +3614,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>41386</v>
       </c>
@@ -3729,7 +3625,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>41401</v>
       </c>
@@ -3740,7 +3636,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>41401</v>
       </c>
@@ -3751,7 +3647,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>41408</v>
       </c>
@@ -3762,7 +3658,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>41418</v>
       </c>
@@ -3773,7 +3669,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>41425</v>
       </c>
@@ -3784,7 +3680,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>41426</v>
       </c>
@@ -3795,7 +3691,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>41430</v>
       </c>
@@ -3806,7 +3702,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>41430</v>
       </c>
@@ -3817,7 +3713,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>41435</v>
       </c>
@@ -3828,7 +3724,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>41440</v>
       </c>
@@ -3839,7 +3735,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>41441</v>
       </c>
@@ -3850,7 +3746,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>41441</v>
       </c>
@@ -3861,7 +3757,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>41441</v>
       </c>
@@ -3872,7 +3768,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>41441</v>
       </c>
@@ -3883,7 +3779,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>41444</v>
       </c>
@@ -3900,7 +3796,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>41444</v>
       </c>
@@ -3911,7 +3807,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>41444</v>
       </c>
@@ -3922,7 +3818,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>41450</v>
       </c>
@@ -3933,7 +3829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>41450</v>
       </c>
@@ -3944,7 +3840,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>41450</v>
       </c>
@@ -3955,7 +3851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>41451</v>
       </c>
@@ -3970,7 +3866,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>41451</v>
       </c>
@@ -3982,7 +3878,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" hidden="1">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>41451</v>
       </c>
@@ -3993,7 +3889,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>41460</v>
       </c>
@@ -4004,7 +3900,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1">
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>41460</v>
       </c>
@@ -4015,7 +3911,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1">
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>41466</v>
       </c>
@@ -4026,7 +3922,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>41486</v>
       </c>
@@ -4037,7 +3933,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1">
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>41487</v>
       </c>
@@ -4048,7 +3944,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1">
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>41491</v>
       </c>
@@ -4059,7 +3955,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1">
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>41491</v>
       </c>
@@ -4070,7 +3966,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1">
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>41522</v>
       </c>
@@ -4081,7 +3977,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1">
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>41522</v>
       </c>
@@ -4092,7 +3988,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1">
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>41528</v>
       </c>
@@ -4103,7 +3999,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1">
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>41532</v>
       </c>
@@ -4114,7 +4010,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1">
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>41534</v>
       </c>
@@ -4125,7 +4021,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1">
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>41534</v>
       </c>
@@ -4137,7 +4033,7 @@
         <v>60500</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1">
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>41534</v>
       </c>
@@ -4149,7 +4045,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1">
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>41542</v>
       </c>
@@ -4160,7 +4056,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1">
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>41542</v>
       </c>
@@ -4171,7 +4067,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1">
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>41548</v>
       </c>
@@ -4182,7 +4078,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>41549</v>
       </c>
@@ -4193,7 +4089,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>41552</v>
       </c>
@@ -4204,7 +4100,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>41552</v>
       </c>
@@ -4215,7 +4111,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1">
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>41583</v>
       </c>
@@ -4226,7 +4122,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1">
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>41583</v>
       </c>
@@ -4237,7 +4133,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1">
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>41590</v>
       </c>
@@ -4248,7 +4144,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1">
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>41607</v>
       </c>
@@ -4259,7 +4155,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1">
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>41613</v>
       </c>
@@ -4270,7 +4166,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1">
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>41613</v>
       </c>
@@ -4281,7 +4177,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>41614</v>
       </c>
@@ -4292,7 +4188,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1">
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>41619</v>
       </c>
@@ -4303,7 +4199,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1">
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>41619</v>
       </c>
@@ -4314,7 +4210,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>41621</v>
       </c>
@@ -4325,7 +4221,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>41623</v>
       </c>
@@ -4336,7 +4232,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1">
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>41646</v>
       </c>
@@ -4347,7 +4243,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1">
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>41646</v>
       </c>
@@ -4358,7 +4254,7 @@
         <v>22173</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>41652</v>
       </c>
@@ -4369,7 +4265,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1">
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>41675</v>
       </c>
@@ -4380,7 +4276,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1">
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>41675</v>
       </c>
@@ -4391,7 +4287,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1">
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>41676</v>
       </c>
@@ -4402,7 +4298,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1">
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>41676</v>
       </c>
@@ -4413,7 +4309,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1">
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>41677</v>
       </c>
@@ -4424,7 +4320,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1">
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>41683</v>
       </c>
@@ -4435,7 +4331,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1">
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>41694</v>
       </c>
@@ -4446,7 +4342,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>41694</v>
       </c>
@@ -4457,7 +4353,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1">
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>41703</v>
       </c>
@@ -4468,7 +4364,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1">
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>41703</v>
       </c>
@@ -4479,7 +4375,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>41710</v>
       </c>
@@ -4490,7 +4386,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1">
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>41713</v>
       </c>
@@ -4501,7 +4397,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1">
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>41726</v>
       </c>
@@ -4512,7 +4408,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>41726</v>
       </c>
@@ -4523,7 +4419,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1">
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>41736</v>
       </c>
@@ -4534,7 +4430,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>41736</v>
       </c>
@@ -4545,7 +4441,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>41737</v>
       </c>
@@ -4556,7 +4452,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>41742</v>
       </c>
@@ -4567,7 +4463,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>41765</v>
       </c>
@@ -4578,7 +4474,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1">
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>41765</v>
       </c>
@@ -4589,7 +4485,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1">
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>41772</v>
       </c>
@@ -4600,7 +4496,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1">
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>41787</v>
       </c>
@@ -4611,7 +4507,7 @@
         <v>7734</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1">
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>41787</v>
       </c>
@@ -4622,7 +4518,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1">
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>41787</v>
       </c>
@@ -4633,7 +4529,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1">
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>41787</v>
       </c>
@@ -4644,7 +4540,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1">
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>41787</v>
       </c>
@@ -4655,7 +4551,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1">
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>41792</v>
       </c>
@@ -4666,7 +4562,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>41795</v>
       </c>
@@ -4677,7 +4573,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1">
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>41795</v>
       </c>
@@ -4688,7 +4584,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1">
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>41796</v>
       </c>
@@ -4699,7 +4595,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1">
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>41799</v>
       </c>
@@ -4710,7 +4606,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>41802</v>
       </c>
@@ -4721,7 +4617,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>41803</v>
       </c>
@@ -4732,7 +4628,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>41821</v>
       </c>
@@ -4749,7 +4645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>41821</v>
       </c>
@@ -4760,7 +4656,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>41821</v>
       </c>
@@ -4771,7 +4667,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>41827</v>
       </c>
@@ -4782,7 +4678,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>41827</v>
       </c>
@@ -4793,7 +4689,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>41830</v>
       </c>
@@ -4804,7 +4700,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>41832</v>
       </c>
@@ -4815,7 +4711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>41832</v>
       </c>
@@ -4826,7 +4722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>41842</v>
       </c>
@@ -4837,7 +4733,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>41856</v>
       </c>
@@ -4848,7 +4744,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>41856</v>
       </c>
@@ -4859,7 +4755,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>41856</v>
       </c>
@@ -4874,7 +4770,7 @@
       </c>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" hidden="1">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>41857</v>
       </c>
@@ -4889,7 +4785,7 @@
       </c>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" hidden="1">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>41857</v>
       </c>
@@ -4900,7 +4796,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>41857</v>
       </c>
@@ -4911,7 +4807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>41857</v>
       </c>
@@ -4922,7 +4818,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>41859</v>
       </c>
@@ -4933,7 +4829,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>41864</v>
       </c>
@@ -4944,7 +4840,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>41887</v>
       </c>
@@ -4955,7 +4851,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>41887</v>
       </c>
@@ -4966,7 +4862,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>41888</v>
       </c>
@@ -4983,7 +4879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>41888</v>
       </c>
@@ -4994,7 +4890,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>41888</v>
       </c>
@@ -5005,7 +4901,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>41888</v>
       </c>
@@ -5016,7 +4912,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>41888</v>
       </c>
@@ -5027,7 +4923,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>41888</v>
       </c>
@@ -5038,7 +4934,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>41888</v>
       </c>
@@ -5049,7 +4945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>41888</v>
       </c>
@@ -5060,7 +4956,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>41888</v>
       </c>
@@ -5071,7 +4967,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>41888</v>
       </c>
@@ -5082,7 +4978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>41893</v>
       </c>
@@ -5093,7 +4989,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1">
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>41897</v>
       </c>
@@ -5104,7 +5000,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>41897</v>
       </c>
@@ -5115,7 +5011,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>41897</v>
       </c>
@@ -5126,7 +5022,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>41897</v>
       </c>
@@ -5137,7 +5033,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>41910</v>
       </c>
@@ -5155,7 +5051,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>41910</v>
       </c>
@@ -5166,7 +5062,7 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>41910</v>
       </c>
@@ -5177,7 +5073,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>41910</v>
       </c>
@@ -5188,7 +5084,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>41910</v>
       </c>
@@ -5199,7 +5095,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>41910</v>
       </c>
@@ -5210,7 +5106,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>41910</v>
       </c>
@@ -5221,7 +5117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>41911</v>
       </c>
@@ -5236,7 +5132,7 @@
       </c>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" hidden="1">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>41914</v>
       </c>
@@ -5247,7 +5143,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>41917</v>
       </c>
@@ -5258,7 +5154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>41917</v>
       </c>
@@ -5269,7 +5165,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1">
+    <row r="257" spans="1:4">
       <c r="A257" s="1">
         <v>41917</v>
       </c>
@@ -5280,7 +5176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1">
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
         <v>41918</v>
       </c>
@@ -5291,7 +5187,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1">
+    <row r="259" spans="1:4">
       <c r="A259" s="1">
         <v>41918</v>
       </c>
@@ -5302,7 +5198,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1">
+    <row r="260" spans="1:4">
       <c r="A260" s="1">
         <v>41920</v>
       </c>
@@ -5313,7 +5209,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1">
+    <row r="261" spans="1:4">
       <c r="A261" s="1">
         <v>41925</v>
       </c>
@@ -5324,7 +5220,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1">
+    <row r="262" spans="1:4">
       <c r="A262" s="1">
         <v>41932</v>
       </c>
@@ -5335,7 +5231,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1">
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>41932</v>
       </c>
@@ -5346,7 +5242,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1">
+    <row r="264" spans="1:4">
       <c r="A264" s="1">
         <v>41932</v>
       </c>
@@ -5357,7 +5253,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1">
+    <row r="265" spans="1:4">
       <c r="A265" s="1">
         <v>41932</v>
       </c>
@@ -5368,7 +5264,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1">
+    <row r="266" spans="1:4">
       <c r="A266" s="1">
         <v>41948</v>
       </c>
@@ -5379,7 +5275,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1">
+    <row r="267" spans="1:4">
       <c r="A267" s="1">
         <v>41948</v>
       </c>
@@ -5390,7 +5286,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1">
+    <row r="268" spans="1:4">
       <c r="A268" s="1">
         <v>41949</v>
       </c>
@@ -5401,7 +5297,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1">
+    <row r="269" spans="1:4">
       <c r="A269" s="1">
         <v>41949</v>
       </c>
@@ -5412,7 +5308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1">
+    <row r="270" spans="1:4">
       <c r="A270" s="1">
         <v>41953</v>
       </c>
@@ -5423,7 +5319,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1">
+    <row r="271" spans="1:4">
       <c r="A271" s="1">
         <v>41955</v>
       </c>
@@ -5434,7 +5330,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1">
+    <row r="272" spans="1:4">
       <c r="A272" s="1">
         <v>41957</v>
       </c>
@@ -5445,7 +5341,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1">
+    <row r="273" spans="1:4">
       <c r="A273" s="1">
         <v>41957</v>
       </c>
@@ -5456,7 +5352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1">
+    <row r="274" spans="1:4">
       <c r="A274" s="1">
         <v>41957</v>
       </c>
@@ -5467,7 +5363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1">
+    <row r="275" spans="1:4">
       <c r="A275" s="1">
         <v>41959</v>
       </c>
@@ -5478,7 +5374,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1">
+    <row r="276" spans="1:4">
       <c r="A276" s="1">
         <v>41967</v>
       </c>
@@ -5489,7 +5385,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1">
+    <row r="277" spans="1:4">
       <c r="A277" s="1">
         <v>41978</v>
       </c>
@@ -5500,7 +5396,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1">
+    <row r="278" spans="1:4">
       <c r="A278" s="1">
         <v>41978</v>
       </c>
@@ -5511,7 +5407,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1">
+    <row r="279" spans="1:4">
       <c r="A279" s="1">
         <v>41981</v>
       </c>
@@ -5522,7 +5418,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1">
+    <row r="280" spans="1:4">
       <c r="A280" s="1">
         <v>41982</v>
       </c>
@@ -5533,7 +5429,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:4">
       <c r="A281" s="1">
         <v>41982</v>
       </c>
@@ -5544,7 +5440,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:4">
       <c r="A282" s="1">
         <v>41982</v>
       </c>
@@ -5555,7 +5451,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:4">
       <c r="A283" s="1">
         <v>41982</v>
       </c>
@@ -5566,7 +5462,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:4">
       <c r="A284" s="1">
         <v>41983</v>
       </c>
@@ -5577,7 +5473,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:4">
       <c r="A285" s="1">
         <v>41983</v>
       </c>
@@ -5588,7 +5484,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:4">
       <c r="A286" s="1">
         <v>41983</v>
       </c>
@@ -5599,7 +5495,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:4">
       <c r="A287" s="1">
         <v>41985</v>
       </c>
@@ -5610,7 +5506,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1">
+    <row r="288" spans="1:4">
       <c r="A288" s="1">
         <v>41986</v>
       </c>
@@ -5621,7 +5517,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1">
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>41988</v>
       </c>
@@ -5632,7 +5528,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1">
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>42010</v>
       </c>
@@ -5643,7 +5539,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1">
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>42010</v>
       </c>
@@ -5654,7 +5550,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1">
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>42014</v>
       </c>
@@ -5665,7 +5561,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1">
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>42014</v>
       </c>
@@ -5676,7 +5572,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1">
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>42017</v>
       </c>
@@ -5687,7 +5583,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1">
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>42018</v>
       </c>
@@ -5698,7 +5594,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1">
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>42018</v>
       </c>
@@ -5709,7 +5605,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1">
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>42018</v>
       </c>
@@ -5720,7 +5616,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="5" customFormat="1" hidden="1">
+    <row r="298" spans="1:6" s="5" customFormat="1">
       <c r="A298" s="13">
         <v>42031</v>
       </c>
@@ -5734,7 +5630,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" hidden="1">
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>42036</v>
       </c>
@@ -5745,7 +5641,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1">
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>42040</v>
       </c>
@@ -5756,7 +5652,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1">
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>42040</v>
       </c>
@@ -5767,7 +5663,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1">
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>42043</v>
       </c>
@@ -5778,7 +5674,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1">
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>42045</v>
       </c>
@@ -5789,7 +5685,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1">
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>42045</v>
       </c>
@@ -5800,7 +5696,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1">
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>42045</v>
       </c>
@@ -5811,7 +5707,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1">
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>42048</v>
       </c>
@@ -5822,7 +5718,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1">
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>42062</v>
       </c>
@@ -5836,7 +5732,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1">
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>42062</v>
       </c>
@@ -5847,7 +5743,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1">
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>42063</v>
       </c>
@@ -5864,7 +5760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1">
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>42063</v>
       </c>
@@ -5875,7 +5771,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1">
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>42063</v>
       </c>
@@ -5886,7 +5782,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1">
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>42063</v>
       </c>
@@ -5897,7 +5793,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1">
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>42063</v>
       </c>
@@ -5908,7 +5804,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1">
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>42063</v>
       </c>
@@ -5919,7 +5815,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1">
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>42068</v>
       </c>
@@ -5930,7 +5826,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1">
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>42068</v>
       </c>
@@ -5941,7 +5837,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1">
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>42070</v>
       </c>
@@ -5952,7 +5848,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1">
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>42070</v>
       </c>
@@ -5963,7 +5859,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1">
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>42070</v>
       </c>
@@ -5974,7 +5870,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1">
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>42070</v>
       </c>
@@ -5985,7 +5881,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1">
+    <row r="321" spans="1:4">
       <c r="A321" s="1">
         <v>42074</v>
       </c>
@@ -5996,7 +5892,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1">
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>42074</v>
       </c>
@@ -6007,7 +5903,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1">
+    <row r="323" spans="1:4">
       <c r="A323" s="1">
         <v>42075</v>
       </c>
@@ -6018,7 +5914,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1">
+    <row r="324" spans="1:4">
       <c r="A324" s="1">
         <v>42078</v>
       </c>
@@ -6029,7 +5925,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1">
+    <row r="325" spans="1:4">
       <c r="A325" s="1">
         <v>42087</v>
       </c>
@@ -6040,7 +5936,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1">
+    <row r="326" spans="1:4">
       <c r="A326" s="1">
         <v>42102</v>
       </c>
@@ -6051,7 +5947,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1">
+    <row r="327" spans="1:4">
       <c r="A327" s="1">
         <v>42102</v>
       </c>
@@ -6062,7 +5958,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1">
+    <row r="328" spans="1:4">
       <c r="A328" s="1">
         <v>42102</v>
       </c>
@@ -6073,7 +5969,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1">
+    <row r="329" spans="1:4">
       <c r="A329" s="1">
         <v>42105</v>
       </c>
@@ -6084,7 +5980,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1">
+    <row r="330" spans="1:4">
       <c r="A330" s="1">
         <v>42105</v>
       </c>
@@ -6095,7 +5991,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1">
+    <row r="331" spans="1:4">
       <c r="A331" s="1">
         <v>42105</v>
       </c>
@@ -6106,7 +6002,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1">
+    <row r="332" spans="1:4">
       <c r="A332" s="1">
         <v>42107</v>
       </c>
@@ -6117,7 +6013,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1">
+    <row r="333" spans="1:4">
       <c r="A333" s="1">
         <v>42129</v>
       </c>
@@ -6128,7 +6024,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1">
+    <row r="334" spans="1:4">
       <c r="A334" s="1">
         <v>42129</v>
       </c>
@@ -6139,7 +6035,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1">
+    <row r="335" spans="1:4">
       <c r="A335" s="1">
         <v>42135</v>
       </c>
@@ -6150,7 +6046,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1">
+    <row r="336" spans="1:4">
       <c r="A336" s="1">
         <v>42135</v>
       </c>
@@ -6161,7 +6057,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1">
+    <row r="337" spans="1:6">
       <c r="A337" s="1">
         <v>42137</v>
       </c>
@@ -6172,7 +6068,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1">
+    <row r="338" spans="1:6">
       <c r="A338" s="1">
         <v>42140</v>
       </c>
@@ -6186,7 +6082,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1">
+    <row r="339" spans="1:6">
       <c r="A339" s="1">
         <v>42159</v>
       </c>
@@ -6197,7 +6093,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1">
+    <row r="340" spans="1:6">
       <c r="A340" s="1">
         <v>42159</v>
       </c>
@@ -6208,7 +6104,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1">
+    <row r="341" spans="1:6">
       <c r="A341" s="1">
         <v>42159</v>
       </c>
@@ -6219,7 +6115,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1">
+    <row r="342" spans="1:6">
       <c r="A342" s="1">
         <v>42159</v>
       </c>
@@ -6230,7 +6126,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1">
+    <row r="343" spans="1:6">
       <c r="A343" s="1">
         <v>42159</v>
       </c>
@@ -6241,7 +6137,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1">
+    <row r="344" spans="1:6">
       <c r="A344" s="1">
         <v>42160</v>
       </c>
@@ -6252,7 +6148,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1">
+    <row r="345" spans="1:6">
       <c r="A345" s="1">
         <v>42160</v>
       </c>
@@ -6263,7 +6159,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1">
+    <row r="346" spans="1:6">
       <c r="A346" s="1">
         <v>42164</v>
       </c>
@@ -6274,7 +6170,7 @@
         <v>5729</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1">
+    <row r="347" spans="1:6">
       <c r="A347" s="1">
         <v>42168</v>
       </c>
@@ -6285,7 +6181,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1">
+    <row r="348" spans="1:6">
       <c r="A348" s="1">
         <v>42170</v>
       </c>
@@ -6296,7 +6192,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1">
+    <row r="349" spans="1:6">
       <c r="A349" s="1">
         <v>42171</v>
       </c>
@@ -6307,7 +6203,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1">
+    <row r="350" spans="1:6">
       <c r="A350" s="1">
         <v>42171</v>
       </c>
@@ -6318,7 +6214,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1">
+    <row r="351" spans="1:6">
       <c r="A351" s="1">
         <v>42171</v>
       </c>
@@ -6329,7 +6225,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1">
+    <row r="352" spans="1:6">
       <c r="A352" s="1">
         <v>42179</v>
       </c>
@@ -6340,7 +6236,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1">
+    <row r="353" spans="1:7">
       <c r="A353" s="1">
         <v>42183</v>
       </c>
@@ -6357,7 +6253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1">
+    <row r="354" spans="1:7">
       <c r="A354" s="1">
         <v>42183</v>
       </c>
@@ -6368,7 +6264,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1">
+    <row r="355" spans="1:7">
       <c r="A355" s="1">
         <v>42183</v>
       </c>
@@ -6379,7 +6275,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1">
+    <row r="356" spans="1:7">
       <c r="A356" s="1">
         <v>42186</v>
       </c>
@@ -6390,7 +6286,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1">
+    <row r="357" spans="1:7">
       <c r="A357" s="1">
         <v>42187</v>
       </c>
@@ -6401,7 +6297,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1">
+    <row r="358" spans="1:7">
       <c r="A358" s="1">
         <v>42191</v>
       </c>
@@ -6412,7 +6308,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1">
+    <row r="359" spans="1:7">
       <c r="A359" s="1">
         <v>42191</v>
       </c>
@@ -6423,7 +6319,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1">
+    <row r="360" spans="1:7">
       <c r="A360" s="1">
         <v>42195</v>
       </c>
@@ -6434,7 +6330,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1">
+    <row r="361" spans="1:7">
       <c r="A361" s="1">
         <v>42195</v>
       </c>
@@ -6445,7 +6341,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1">
+    <row r="362" spans="1:7">
       <c r="A362" s="1">
         <v>42198</v>
       </c>
@@ -6456,7 +6352,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1">
+    <row r="363" spans="1:7">
       <c r="A363" s="1">
         <v>42210</v>
       </c>
@@ -6467,7 +6363,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1">
+    <row r="364" spans="1:7">
       <c r="A364" s="1">
         <v>42210</v>
       </c>
@@ -6478,7 +6374,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1">
+    <row r="365" spans="1:7">
       <c r="A365" s="1">
         <v>42210</v>
       </c>
@@ -6489,7 +6385,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1">
+    <row r="366" spans="1:7">
       <c r="A366" s="1">
         <v>42210</v>
       </c>
@@ -6500,7 +6396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1">
+    <row r="367" spans="1:7">
       <c r="A367" s="1">
         <v>42210</v>
       </c>
@@ -6514,7 +6410,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1">
+    <row r="368" spans="1:7">
       <c r="A368" s="1">
         <v>42210</v>
       </c>
@@ -6525,7 +6421,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1">
+    <row r="369" spans="1:4">
       <c r="A369" s="1">
         <v>42217</v>
       </c>
@@ -6536,7 +6432,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1">
+    <row r="370" spans="1:4">
       <c r="A370" s="1">
         <v>42221</v>
       </c>
@@ -6547,7 +6443,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1">
+    <row r="371" spans="1:4">
       <c r="A371" s="1">
         <v>42221</v>
       </c>
@@ -6558,7 +6454,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1">
+    <row r="372" spans="1:4">
       <c r="A372" s="1">
         <v>42223</v>
       </c>
@@ -6569,7 +6465,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1">
+    <row r="373" spans="1:4">
       <c r="A373" s="1">
         <v>42226</v>
       </c>
@@ -6580,7 +6476,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1">
+    <row r="374" spans="1:4">
       <c r="A374" s="1">
         <v>42226</v>
       </c>
@@ -6591,7 +6487,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1">
+    <row r="375" spans="1:4">
       <c r="A375" s="1">
         <v>42229</v>
       </c>
@@ -6602,7 +6498,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1">
+    <row r="376" spans="1:4">
       <c r="A376" s="1">
         <v>42254</v>
       </c>
@@ -6613,7 +6509,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1">
+    <row r="377" spans="1:4">
       <c r="A377" s="1">
         <v>42254</v>
       </c>
@@ -6624,7 +6520,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1">
+    <row r="378" spans="1:4">
       <c r="A378" s="1">
         <v>42254</v>
       </c>
@@ -6635,7 +6531,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1">
+    <row r="379" spans="1:4">
       <c r="A379" s="1">
         <v>42254</v>
       </c>
@@ -6646,7 +6542,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1">
+    <row r="380" spans="1:4">
       <c r="A380" s="1">
         <v>42258</v>
       </c>
@@ -6657,7 +6553,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1">
+    <row r="381" spans="1:4">
       <c r="A381" s="1">
         <v>42262</v>
       </c>
@@ -6668,7 +6564,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1">
+    <row r="382" spans="1:4">
       <c r="A382" s="1">
         <v>42277</v>
       </c>
@@ -6679,7 +6575,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1">
+    <row r="383" spans="1:4">
       <c r="A383" s="1">
         <v>42283</v>
       </c>
@@ -6690,7 +6586,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1">
+    <row r="384" spans="1:4">
       <c r="A384" s="1">
         <v>42283</v>
       </c>
@@ -6701,7 +6597,7 @@
         <v>22747</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1">
+    <row r="385" spans="1:4">
       <c r="A385" s="1">
         <v>42286</v>
       </c>
@@ -6712,7 +6608,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1">
+    <row r="386" spans="1:4">
       <c r="A386" s="1">
         <v>42286</v>
       </c>
@@ -6723,7 +6619,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1">
+    <row r="387" spans="1:4">
       <c r="A387" s="1">
         <v>42286</v>
       </c>
@@ -6734,7 +6630,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1">
+    <row r="388" spans="1:4">
       <c r="A388" s="1">
         <v>42289</v>
       </c>
@@ -6745,7 +6641,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1">
+    <row r="389" spans="1:4">
       <c r="A389" s="1">
         <v>42289</v>
       </c>
@@ -6756,7 +6652,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1">
+    <row r="390" spans="1:4">
       <c r="A390" s="1">
         <v>42289</v>
       </c>
@@ -6767,7 +6663,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1">
+    <row r="391" spans="1:4">
       <c r="A391" s="1">
         <v>42289</v>
       </c>
@@ -6778,7 +6674,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1">
+    <row r="392" spans="1:4">
       <c r="A392" s="1">
         <v>42290</v>
       </c>
@@ -6789,7 +6685,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1">
+    <row r="393" spans="1:4">
       <c r="A393" s="1">
         <v>42290</v>
       </c>
@@ -6800,7 +6696,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1">
+    <row r="394" spans="1:4">
       <c r="A394" s="1">
         <v>42313</v>
       </c>
@@ -6811,7 +6707,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1">
+    <row r="395" spans="1:4">
       <c r="A395" s="1">
         <v>42313</v>
       </c>
@@ -6822,7 +6718,7 @@
         <v>22624</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1">
+    <row r="396" spans="1:4">
       <c r="A396" s="1">
         <v>42317</v>
       </c>
@@ -6833,7 +6729,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1">
+    <row r="397" spans="1:4">
       <c r="A397" s="1">
         <v>42317</v>
       </c>
@@ -6844,7 +6740,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1">
+    <row r="398" spans="1:4">
       <c r="A398" s="1">
         <v>42320</v>
       </c>
@@ -6855,7 +6751,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1">
+    <row r="399" spans="1:4">
       <c r="A399" s="1">
         <v>42321</v>
       </c>
@@ -6866,7 +6762,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1">
+    <row r="400" spans="1:4">
       <c r="A400" s="1">
         <v>42334</v>
       </c>
@@ -6877,7 +6773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1">
+    <row r="401" spans="1:7">
       <c r="A401" s="1">
         <v>42334</v>
       </c>
@@ -6888,7 +6784,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1">
+    <row r="402" spans="1:7">
       <c r="A402" s="1">
         <v>42342</v>
       </c>
@@ -6899,7 +6795,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1">
+    <row r="403" spans="1:7">
       <c r="A403" s="1">
         <v>42345</v>
       </c>
@@ -6910,7 +6806,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1">
+    <row r="404" spans="1:7">
       <c r="A404" s="1">
         <v>42345</v>
       </c>
@@ -6921,7 +6817,7 @@
         <v>22624</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1">
+    <row r="405" spans="1:7">
       <c r="A405" s="1">
         <v>42346</v>
       </c>
@@ -6933,7 +6829,7 @@
       </c>
       <c r="G405" s="5"/>
     </row>
-    <row r="406" spans="1:7" hidden="1">
+    <row r="406" spans="1:7">
       <c r="A406" s="1">
         <v>42347</v>
       </c>
@@ -6944,7 +6840,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1">
+    <row r="407" spans="1:7">
       <c r="A407" s="1">
         <v>42347</v>
       </c>
@@ -6955,7 +6851,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1">
+    <row r="408" spans="1:7">
       <c r="A408" s="1">
         <v>42347</v>
       </c>
@@ -6966,7 +6862,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1">
+    <row r="409" spans="1:7">
       <c r="A409" s="1">
         <v>42351</v>
       </c>
@@ -6977,7 +6873,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1">
+    <row r="410" spans="1:7">
       <c r="A410" s="1">
         <v>42353</v>
       </c>
@@ -6990,11 +6886,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:J410">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2012" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7012,9 +6904,9 @@
   </sheetPr>
   <dimension ref="A1:K411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7187,7 +7079,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1">
       <c r="A13" s="1">
         <v>40928</v>
       </c>
@@ -7231,7 +7123,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
       <c r="A17" s="1">
         <v>40945</v>
       </c>
@@ -7292,7 +7184,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" customHeight="1">
       <c r="A22" s="1">
         <v>40974</v>
       </c>
@@ -7303,7 +7195,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5" customHeight="1">
       <c r="A23" s="1">
         <v>40974</v>
       </c>
@@ -7358,7 +7250,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1">
       <c r="A28" s="1">
         <v>41005</v>
       </c>
@@ -7370,7 +7262,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" customHeight="1">
       <c r="A29" s="1">
         <v>41005</v>
       </c>
@@ -7414,7 +7306,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1">
       <c r="A33" s="1">
         <v>41036</v>
       </c>
@@ -7426,7 +7318,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="16.5" customHeight="1">
       <c r="A34" s="1">
         <v>41036</v>
       </c>
@@ -7520,7 +7412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="1">
         <v>41065</v>
       </c>
@@ -7532,7 +7424,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="1">
         <v>41065</v>
       </c>
@@ -7670,7 +7562,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="16.5" customHeight="1">
       <c r="A55" s="1">
         <v>41095</v>
       </c>
@@ -7681,7 +7573,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="16.5" customHeight="1">
       <c r="A56" s="1">
         <v>41095</v>
       </c>
@@ -7776,7 +7668,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="16.5" customHeight="1">
       <c r="A64" s="1">
         <v>41128</v>
       </c>
@@ -7787,7 +7679,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1">
       <c r="A65" s="1">
         <v>41128</v>
       </c>
@@ -7809,7 +7701,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" ht="16.5" customHeight="1">
       <c r="A67" s="1">
         <v>41157</v>
       </c>
@@ -7820,7 +7712,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" ht="16.5" customHeight="1">
       <c r="A68" s="1">
         <v>41157</v>
       </c>
@@ -7920,7 +7812,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" ht="16.5" customHeight="1">
       <c r="A76" s="1">
         <v>41187</v>
       </c>
@@ -7933,7 +7825,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1">
       <c r="A77" s="1">
         <v>41187</v>
       </c>
@@ -7968,7 +7860,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1">
       <c r="A80" s="1">
         <v>41219</v>
       </c>
@@ -7979,7 +7871,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" ht="16.5" customHeight="1">
       <c r="A81" s="1">
         <v>41219</v>
       </c>
@@ -8045,7 +7937,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" ht="16.5" customHeight="1">
       <c r="A87" s="1">
         <v>41248</v>
       </c>
@@ -8056,7 +7948,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="16.5" customHeight="1">
       <c r="A88" s="1">
         <v>41248</v>
       </c>
@@ -8092,7 +7984,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" ht="16.5" customHeight="1">
       <c r="A91" s="1">
         <v>41278</v>
       </c>
@@ -8103,7 +7995,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" ht="16.5" customHeight="1">
       <c r="A92" s="1">
         <v>41281</v>
       </c>
@@ -8114,7 +8006,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" ht="16.5" customHeight="1">
       <c r="A93" s="1">
         <v>41281</v>
       </c>
@@ -8125,7 +8017,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" ht="16.5" customHeight="1">
       <c r="A94" s="1">
         <v>41282</v>
       </c>
@@ -8136,7 +8028,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" ht="16.5" customHeight="1">
       <c r="A95" s="1">
         <v>41285</v>
       </c>
@@ -8147,7 +8039,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="16.5" customHeight="1">
       <c r="A96" s="1">
         <v>41286</v>
       </c>
@@ -8161,7 +8053,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" ht="16.5" customHeight="1">
       <c r="A97" s="1">
         <v>41306</v>
       </c>
@@ -8172,7 +8064,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" ht="16.5" customHeight="1">
       <c r="A98" s="1">
         <v>41310</v>
       </c>
@@ -8183,7 +8075,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" ht="16.5" customHeight="1">
       <c r="A99" s="1">
         <v>41310</v>
       </c>
@@ -8194,7 +8086,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="16.5" customHeight="1">
       <c r="A100" s="1">
         <v>41310</v>
       </c>
@@ -8208,7 +8100,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" ht="16.5" customHeight="1">
       <c r="A101" s="1">
         <v>41310</v>
       </c>
@@ -8219,7 +8111,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" ht="16.5" customHeight="1">
       <c r="A102" s="1">
         <v>41310</v>
       </c>
@@ -8233,7 +8125,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" ht="16.5" customHeight="1">
       <c r="A103" s="1">
         <v>41310</v>
       </c>
@@ -8244,7 +8136,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" ht="16.5" customHeight="1">
       <c r="A104" s="1">
         <v>41318</v>
       </c>
@@ -8255,7 +8147,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" ht="16.5" customHeight="1">
       <c r="A105" s="1">
         <v>41318</v>
       </c>
@@ -8269,7 +8161,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" ht="16.5" customHeight="1">
       <c r="A106" s="1">
         <v>41320</v>
       </c>
@@ -8283,7 +8175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" ht="16.5" customHeight="1">
       <c r="A107" s="1">
         <v>41322</v>
       </c>
@@ -8294,7 +8186,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" ht="16.5" customHeight="1">
       <c r="A108" s="1">
         <v>41322</v>
       </c>
@@ -8305,7 +8197,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" ht="16.5" customHeight="1">
       <c r="A109" s="1">
         <v>41323</v>
       </c>
@@ -8319,7 +8211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" ht="16.5" customHeight="1">
       <c r="A110" s="1">
         <v>41323</v>
       </c>
@@ -8330,7 +8222,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" ht="16.5" customHeight="1">
       <c r="A111" s="1">
         <v>41338</v>
       </c>
@@ -8341,7 +8233,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="16.5" customHeight="1">
       <c r="A112" s="1">
         <v>41338</v>
       </c>
@@ -8352,7 +8244,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" ht="16.5" customHeight="1">
       <c r="A113" s="1">
         <v>41345</v>
       </c>
@@ -8363,7 +8255,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" ht="16.5" customHeight="1">
       <c r="A114" s="1">
         <v>41346</v>
       </c>
@@ -8377,7 +8269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" ht="16.5" customHeight="1">
       <c r="A115" s="1">
         <v>41353</v>
       </c>
@@ -8388,7 +8280,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" ht="16.5" customHeight="1">
       <c r="A116" s="1">
         <v>41370</v>
       </c>
@@ -8399,7 +8291,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" ht="16.5" customHeight="1">
       <c r="A117" s="1">
         <v>41373</v>
       </c>
@@ -8410,7 +8302,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" ht="16.5" customHeight="1">
       <c r="A118" s="1">
         <v>41373</v>
       </c>
@@ -8421,7 +8313,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" ht="16.5" customHeight="1">
       <c r="A119" s="1">
         <v>41377</v>
       </c>
@@ -8432,7 +8324,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="16.5" customHeight="1">
       <c r="A120" s="1">
         <v>41386</v>
       </c>
@@ -8443,7 +8335,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" ht="16.5" customHeight="1">
       <c r="A121" s="1">
         <v>41401</v>
       </c>
@@ -8454,7 +8346,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" ht="16.5" customHeight="1">
       <c r="A122" s="1">
         <v>41401</v>
       </c>
@@ -8465,7 +8357,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" ht="16.5" customHeight="1">
       <c r="A123" s="1">
         <v>41408</v>
       </c>
@@ -8476,7 +8368,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" ht="16.5" customHeight="1">
       <c r="A124" s="1">
         <v>41418</v>
       </c>
@@ -8487,7 +8379,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" ht="16.5" customHeight="1">
       <c r="A125" s="1">
         <v>41425</v>
       </c>
@@ -8498,7 +8390,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" ht="16.5" customHeight="1">
       <c r="A126" s="1">
         <v>41426</v>
       </c>
@@ -8509,7 +8401,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" ht="16.5" customHeight="1">
       <c r="A127" s="1">
         <v>41430</v>
       </c>
@@ -8520,7 +8412,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" ht="16.5" customHeight="1">
       <c r="A128" s="1">
         <v>41430</v>
       </c>
@@ -8531,7 +8423,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" ht="16.5" customHeight="1">
       <c r="A129" s="1">
         <v>41435</v>
       </c>
@@ -8542,7 +8434,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" ht="16.5" customHeight="1">
       <c r="A130" s="1">
         <v>41440</v>
       </c>
@@ -8556,7 +8448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" ht="16.5" customHeight="1">
       <c r="A131" s="1">
         <v>41441</v>
       </c>
@@ -8570,7 +8462,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" ht="16.5" customHeight="1">
       <c r="A132" s="1">
         <v>41441</v>
       </c>
@@ -8581,7 +8473,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" ht="16.5" customHeight="1">
       <c r="A133" s="1">
         <v>41441</v>
       </c>
@@ -8592,7 +8484,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" ht="16.5" customHeight="1">
       <c r="A134" s="1">
         <v>41441</v>
       </c>
@@ -8603,7 +8495,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" ht="16.5" customHeight="1">
       <c r="A135" s="1">
         <v>41444</v>
       </c>
@@ -8617,7 +8509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" ht="16.5" customHeight="1">
       <c r="A136" s="1">
         <v>41444</v>
       </c>
@@ -8628,7 +8520,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" ht="16.5" customHeight="1">
       <c r="A137" s="1">
         <v>41444</v>
       </c>
@@ -8642,7 +8534,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" ht="16.5" customHeight="1">
       <c r="A138" s="1">
         <v>41450</v>
       </c>
@@ -8656,7 +8548,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" ht="16.5" customHeight="1">
       <c r="A139" s="1">
         <v>41450</v>
       </c>
@@ -8667,7 +8559,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" ht="16.5" customHeight="1">
       <c r="A140" s="1">
         <v>41450</v>
       </c>
@@ -8678,7 +8570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" ht="16.5" customHeight="1">
       <c r="A141" s="1">
         <v>41451</v>
       </c>
@@ -8692,7 +8584,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" ht="16.5" customHeight="1">
       <c r="A142" s="1">
         <v>41451</v>
       </c>
@@ -8703,7 +8595,7 @@
         <v>74800</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" ht="16.5" customHeight="1">
       <c r="A143" s="1">
         <v>41451</v>
       </c>
@@ -8714,7 +8606,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" ht="16.5" customHeight="1">
       <c r="A144" s="1">
         <v>41460</v>
       </c>
@@ -8725,7 +8617,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" ht="16.5" customHeight="1">
       <c r="A145" s="1">
         <v>41460</v>
       </c>
@@ -8736,7 +8628,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" ht="16.5" customHeight="1">
       <c r="A146" s="1">
         <v>41466</v>
       </c>
@@ -8747,7 +8639,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" ht="16.5" customHeight="1">
       <c r="A147" s="1">
         <v>41486</v>
       </c>
@@ -8758,7 +8650,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" ht="16.5" customHeight="1">
       <c r="A148" s="1">
         <v>41487</v>
       </c>
@@ -8769,7 +8661,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" ht="16.5" customHeight="1">
       <c r="A149" s="1">
         <v>41491</v>
       </c>
@@ -8780,7 +8672,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" ht="16.5" customHeight="1">
       <c r="A150" s="1">
         <v>41491</v>
       </c>
@@ -8791,7 +8683,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" ht="16.5" customHeight="1">
       <c r="A151" s="1">
         <v>41522</v>
       </c>
@@ -8802,7 +8694,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" ht="16.5" customHeight="1">
       <c r="A152" s="1">
         <v>41522</v>
       </c>
@@ -8813,7 +8705,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" ht="16.5" customHeight="1">
       <c r="A153" s="1">
         <v>41528</v>
       </c>
@@ -8824,7 +8716,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" ht="16.5" customHeight="1">
       <c r="A154" s="1">
         <v>41532</v>
       </c>
@@ -8838,7 +8730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" ht="16.5" customHeight="1">
       <c r="A155" s="1">
         <v>41534</v>
       </c>
@@ -8852,7 +8744,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" ht="16.5" customHeight="1">
       <c r="A156" s="1">
         <v>41534</v>
       </c>
@@ -8864,7 +8756,7 @@
         <v>60500</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" ht="16.5" customHeight="1">
       <c r="A157" s="1">
         <v>41534</v>
       </c>
@@ -8876,7 +8768,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" ht="16.5" customHeight="1">
       <c r="A158" s="1">
         <v>41542</v>
       </c>
@@ -8890,7 +8782,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" ht="16.5" customHeight="1">
       <c r="A159" s="1">
         <v>41542</v>
       </c>
@@ -8904,7 +8796,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" ht="16.5" customHeight="1">
       <c r="A160" s="1">
         <v>41548</v>
       </c>
@@ -8915,7 +8807,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" ht="16.5" customHeight="1">
       <c r="A161" s="1">
         <v>41549</v>
       </c>
@@ -8926,7 +8818,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" ht="16.5" customHeight="1">
       <c r="A162" s="1">
         <v>41552</v>
       </c>
@@ -8937,7 +8829,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" ht="16.5" customHeight="1">
       <c r="A163" s="1">
         <v>41552</v>
       </c>
@@ -8948,7 +8840,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" ht="16.5" customHeight="1">
       <c r="A164" s="1">
         <v>41583</v>
       </c>
@@ -8959,7 +8851,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" ht="16.5" customHeight="1">
       <c r="A165" s="1">
         <v>41583</v>
       </c>
@@ -8970,7 +8862,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" ht="16.5" customHeight="1">
       <c r="A166" s="1">
         <v>41590</v>
       </c>
@@ -8981,7 +8873,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" ht="16.5" customHeight="1">
       <c r="A167" s="1">
         <v>41607</v>
       </c>
@@ -8992,7 +8884,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" ht="16.5" customHeight="1">
       <c r="A168" s="1">
         <v>41613</v>
       </c>
@@ -9003,7 +8895,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" ht="16.5" customHeight="1">
       <c r="A169" s="1">
         <v>41613</v>
       </c>
@@ -9014,7 +8906,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" ht="16.5" customHeight="1">
       <c r="A170" s="1">
         <v>41614</v>
       </c>
@@ -9025,7 +8917,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" ht="16.5" customHeight="1">
       <c r="A171" s="1">
         <v>41619</v>
       </c>
@@ -9039,7 +8931,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" ht="16.5" customHeight="1">
       <c r="A172" s="1">
         <v>41619</v>
       </c>
@@ -9053,7 +8945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" ht="16.5" customHeight="1">
       <c r="A173" s="1">
         <v>41621</v>
       </c>
@@ -9064,7 +8956,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" ht="16.5" customHeight="1">
       <c r="A174" s="1">
         <v>41623</v>
       </c>
@@ -9078,7 +8970,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="16.5" customHeight="1">
       <c r="A175" s="1">
         <v>41646</v>
       </c>
@@ -9089,7 +8981,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" ht="16.5" customHeight="1">
       <c r="A176" s="1">
         <v>41646</v>
       </c>
@@ -9100,7 +8992,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" ht="16.5" customHeight="1">
       <c r="A177" s="1">
         <v>41652</v>
       </c>
@@ -9111,7 +9003,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" ht="16.5" customHeight="1">
       <c r="A178" s="1">
         <v>41675</v>
       </c>
@@ -9125,7 +9017,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" ht="16.5" customHeight="1">
       <c r="A179" s="1">
         <v>41675</v>
       </c>
@@ -9136,7 +9028,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" ht="16.5" customHeight="1">
       <c r="A180" s="1">
         <v>41676</v>
       </c>
@@ -9148,7 +9040,7 @@
       </c>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" ht="16.5" customHeight="1">
       <c r="A181" s="1">
         <v>41676</v>
       </c>
@@ -9159,7 +9051,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" ht="16.5" customHeight="1">
       <c r="A182" s="1">
         <v>41677</v>
       </c>
@@ -9170,7 +9062,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" ht="16.5" customHeight="1">
       <c r="A183" s="1">
         <v>41683</v>
       </c>
@@ -9181,7 +9073,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" ht="16.5" customHeight="1">
       <c r="A184" s="1">
         <v>41694</v>
       </c>
@@ -9195,7 +9087,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" ht="16.5" customHeight="1">
       <c r="A185" s="1">
         <v>41694</v>
       </c>
@@ -9209,7 +9101,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" ht="16.5" customHeight="1">
       <c r="A186" s="1">
         <v>41703</v>
       </c>
@@ -9220,7 +9112,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" ht="16.5" customHeight="1">
       <c r="A187" s="1">
         <v>41703</v>
       </c>
@@ -9231,7 +9123,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" ht="16.5" customHeight="1">
       <c r="A188" s="1">
         <v>41710</v>
       </c>
@@ -9242,7 +9134,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" ht="16.5" customHeight="1">
       <c r="A189" s="1">
         <v>41713</v>
       </c>
@@ -9256,7 +9148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" ht="16.5" customHeight="1">
       <c r="A190" s="1">
         <v>41726</v>
       </c>
@@ -9270,7 +9162,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" ht="16.5" customHeight="1">
       <c r="A191" s="1">
         <v>41726</v>
       </c>
@@ -9284,7 +9176,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" ht="16.5" customHeight="1">
       <c r="A192" s="1">
         <v>41736</v>
       </c>
@@ -9295,7 +9187,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="16.5" customHeight="1">
       <c r="A193" s="1">
         <v>41736</v>
       </c>
@@ -9306,7 +9198,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" ht="16.5" customHeight="1">
       <c r="A194" s="1">
         <v>41737</v>
       </c>
@@ -9317,7 +9209,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" ht="16.5" customHeight="1">
       <c r="A195" s="1">
         <v>41742</v>
       </c>
@@ -9328,7 +9220,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" ht="16.5" customHeight="1">
       <c r="A196" s="1">
         <v>41765</v>
       </c>
@@ -9339,7 +9231,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" ht="16.5" customHeight="1">
       <c r="A197" s="1">
         <v>41765</v>
       </c>
@@ -9350,7 +9242,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" ht="16.5" customHeight="1">
       <c r="A198" s="1">
         <v>41772</v>
       </c>
@@ -9361,7 +9253,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" ht="16.5" customHeight="1">
       <c r="A199" s="1">
         <v>41787</v>
       </c>
@@ -9375,7 +9267,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" ht="16.5" customHeight="1">
       <c r="A200" s="1">
         <v>41787</v>
       </c>
@@ -9386,7 +9278,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" ht="16.5" customHeight="1">
       <c r="A201" s="1">
         <v>41787</v>
       </c>
@@ -9397,7 +9289,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" ht="16.5" customHeight="1">
       <c r="A202" s="1">
         <v>41787</v>
       </c>
@@ -9408,7 +9300,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" ht="16.5" customHeight="1">
       <c r="A203" s="1">
         <v>41787</v>
       </c>
@@ -9419,7 +9311,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" ht="16.5" customHeight="1">
       <c r="A204" s="1">
         <v>41792</v>
       </c>
@@ -9430,7 +9322,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" ht="16.5" customHeight="1">
       <c r="A205" s="1">
         <v>41795</v>
       </c>
@@ -9441,7 +9333,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" ht="16.5" customHeight="1">
       <c r="A206" s="1">
         <v>41795</v>
       </c>
@@ -9452,7 +9344,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" ht="16.5" customHeight="1">
       <c r="A207" s="1">
         <v>41796</v>
       </c>
@@ -9463,7 +9355,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" ht="16.5" customHeight="1">
       <c r="A208" s="1">
         <v>41799</v>
       </c>
@@ -9477,7 +9369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" ht="16.5" customHeight="1">
       <c r="A209" s="1">
         <v>41802</v>
       </c>
@@ -9488,7 +9380,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" ht="16.5" customHeight="1">
       <c r="A210" s="1">
         <v>41803</v>
       </c>
@@ -9499,7 +9391,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" ht="16.5" customHeight="1">
       <c r="A211" s="1">
         <v>41821</v>
       </c>
@@ -9513,7 +9405,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" ht="16.5" customHeight="1">
       <c r="A212" s="1">
         <v>41821</v>
       </c>
@@ -9527,7 +9419,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" ht="16.5" customHeight="1">
       <c r="A213" s="1">
         <v>41821</v>
       </c>
@@ -9541,7 +9433,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" ht="16.5" customHeight="1">
       <c r="A214" s="1">
         <v>41827</v>
       </c>
@@ -9552,7 +9444,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" ht="16.5" customHeight="1">
       <c r="A215" s="1">
         <v>41827</v>
       </c>
@@ -9563,7 +9455,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" ht="16.5" customHeight="1">
       <c r="A216" s="1">
         <v>41830</v>
       </c>
@@ -9574,7 +9466,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" ht="16.5" customHeight="1">
       <c r="A217" s="1">
         <v>41832</v>
       </c>
@@ -9588,7 +9480,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" ht="16.5" customHeight="1">
       <c r="A218" s="1">
         <v>41832</v>
       </c>
@@ -9602,7 +9494,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" ht="16.5" customHeight="1">
       <c r="A219" s="1">
         <v>41842</v>
       </c>
@@ -9613,7 +9505,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" ht="16.5" customHeight="1">
       <c r="A220" s="1">
         <v>41856</v>
       </c>
@@ -9624,7 +9516,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" ht="16.5" customHeight="1">
       <c r="A221" s="1">
         <v>41856</v>
       </c>
@@ -9635,7 +9527,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" ht="16.5" customHeight="1">
       <c r="A222" s="1">
         <v>41856</v>
       </c>
@@ -9649,7 +9541,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" ht="16.5" customHeight="1">
       <c r="A223" s="1">
         <v>41857</v>
       </c>
@@ -9664,7 +9556,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" ht="16.5" customHeight="1">
       <c r="A224" s="1">
         <v>41857</v>
       </c>
@@ -9675,7 +9567,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" ht="16.5" customHeight="1">
       <c r="A225" s="1">
         <v>41857</v>
       </c>
@@ -9686,7 +9578,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" ht="16.5" customHeight="1">
       <c r="A226" s="1">
         <v>41857</v>
       </c>
@@ -9697,7 +9589,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" ht="16.5" customHeight="1">
       <c r="A227" s="1">
         <v>41859</v>
       </c>
@@ -9708,7 +9600,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" ht="16.5" customHeight="1">
       <c r="A228" s="1">
         <v>41864</v>
       </c>
@@ -9719,7 +9611,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" ht="16.5" customHeight="1">
       <c r="A229" s="1">
         <v>41887</v>
       </c>
@@ -9730,7 +9622,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" ht="16.5" customHeight="1">
       <c r="A230" s="1">
         <v>41887</v>
       </c>
@@ -9741,7 +9633,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" ht="16.5" customHeight="1">
       <c r="A231" s="1">
         <v>41888</v>
       </c>
@@ -9755,7 +9647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" ht="16.5" customHeight="1">
       <c r="A232" s="1">
         <v>41888</v>
       </c>
@@ -9769,7 +9661,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" ht="16.5" customHeight="1">
       <c r="A233" s="1">
         <v>41888</v>
       </c>
@@ -9783,7 +9675,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" ht="16.5" customHeight="1">
       <c r="A234" s="1">
         <v>41888</v>
       </c>
@@ -9794,7 +9686,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" ht="16.5" customHeight="1">
       <c r="A235" s="1">
         <v>41888</v>
       </c>
@@ -9805,7 +9697,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" ht="16.5" customHeight="1">
       <c r="A236" s="1">
         <v>41888</v>
       </c>
@@ -9816,7 +9708,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" ht="16.5" customHeight="1">
       <c r="A237" s="1">
         <v>41888</v>
       </c>
@@ -9827,7 +9719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" ht="16.5" customHeight="1">
       <c r="A238" s="1">
         <v>41888</v>
       </c>
@@ -9841,7 +9733,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" ht="16.5" customHeight="1">
       <c r="A239" s="1">
         <v>41888</v>
       </c>
@@ -9852,7 +9744,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" ht="16.5" customHeight="1">
       <c r="A240" s="1">
         <v>41888</v>
       </c>
@@ -9863,7 +9755,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" ht="16.5" customHeight="1">
       <c r="A241" s="1">
         <v>41893</v>
       </c>
@@ -9874,7 +9766,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" ht="16.5" customHeight="1">
       <c r="A242" s="1">
         <v>41897</v>
       </c>
@@ -9888,7 +9780,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" ht="16.5" customHeight="1">
       <c r="A243" s="1">
         <v>41897</v>
       </c>
@@ -9899,7 +9791,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" ht="16.5" customHeight="1">
       <c r="A244" s="1">
         <v>41897</v>
       </c>
@@ -9910,7 +9802,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" ht="16.5" customHeight="1">
       <c r="A245" s="1">
         <v>41897</v>
       </c>
@@ -9921,7 +9813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" ht="16.5" customHeight="1">
       <c r="A246" s="1">
         <v>41910</v>
       </c>
@@ -9936,7 +9828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" ht="16.5" customHeight="1">
       <c r="A247" s="1">
         <v>41910</v>
       </c>
@@ -9950,7 +9842,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" ht="16.5" customHeight="1">
       <c r="A248" s="1">
         <v>41910</v>
       </c>
@@ -9964,7 +9856,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" ht="16.5" customHeight="1">
       <c r="A249" s="1">
         <v>41910</v>
       </c>
@@ -9975,7 +9867,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" ht="16.5" customHeight="1">
       <c r="A250" s="1">
         <v>41910</v>
       </c>
@@ -9986,7 +9878,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" ht="16.5" customHeight="1">
       <c r="A251" s="1">
         <v>41910</v>
       </c>
@@ -10000,7 +9892,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" ht="16.5" customHeight="1">
       <c r="A252" s="1">
         <v>41910</v>
       </c>
@@ -10011,7 +9903,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" ht="16.5" customHeight="1">
       <c r="A253" s="1">
         <v>41910</v>
       </c>
@@ -10022,7 +9914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" ht="16.5" customHeight="1">
       <c r="A254" s="1">
         <v>41911</v>
       </c>
@@ -10036,7 +9928,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" ht="16.5" customHeight="1">
       <c r="A255" s="1">
         <v>41914</v>
       </c>
@@ -10050,7 +9942,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" ht="16.5" customHeight="1">
       <c r="A256" s="1">
         <v>41917</v>
       </c>
@@ -10061,7 +9953,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" ht="16.5" customHeight="1">
       <c r="A257" s="1">
         <v>41917</v>
       </c>
@@ -10072,7 +9964,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" ht="16.5" customHeight="1">
       <c r="A258" s="1">
         <v>41917</v>
       </c>
@@ -10083,7 +9975,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" ht="16.5" customHeight="1">
       <c r="A259" s="1">
         <v>41918</v>
       </c>
@@ -10094,7 +9986,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" ht="16.5" customHeight="1">
       <c r="A260" s="1">
         <v>41918</v>
       </c>
@@ -10105,7 +9997,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" ht="16.5" customHeight="1">
       <c r="A261" s="1">
         <v>41920</v>
       </c>
@@ -10116,7 +10008,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" ht="16.5" customHeight="1">
       <c r="A262" s="1">
         <v>41925</v>
       </c>
@@ -10127,7 +10019,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" ht="16.5" customHeight="1">
       <c r="A263" s="1">
         <v>41932</v>
       </c>
@@ -10138,7 +10030,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" ht="16.5" customHeight="1">
       <c r="A264" s="1">
         <v>41932</v>
       </c>
@@ -10149,7 +10041,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" ht="16.5" customHeight="1">
       <c r="A265" s="1">
         <v>41932</v>
       </c>
@@ -10160,7 +10052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" ht="16.5" customHeight="1">
       <c r="A266" s="1">
         <v>41932</v>
       </c>
@@ -10171,7 +10063,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" ht="16.5" customHeight="1">
       <c r="A267" s="1">
         <v>41948</v>
       </c>
@@ -10182,7 +10074,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" ht="16.5" customHeight="1">
       <c r="A268" s="1">
         <v>41948</v>
       </c>
@@ -10193,7 +10085,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" ht="16.5" customHeight="1">
       <c r="A269" s="1">
         <v>41949</v>
       </c>
@@ -10204,7 +10096,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" ht="16.5" customHeight="1">
       <c r="A270" s="1">
         <v>41949</v>
       </c>
@@ -10215,7 +10107,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" ht="16.5" customHeight="1">
       <c r="A271" s="1">
         <v>41953</v>
       </c>
@@ -10226,7 +10118,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" ht="16.5" customHeight="1">
       <c r="A272" s="1">
         <v>41955</v>
       </c>
@@ -10237,7 +10129,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" ht="16.5" customHeight="1">
       <c r="A273" s="1">
         <v>41957</v>
       </c>
@@ -10248,7 +10140,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" ht="16.5" customHeight="1">
       <c r="A274" s="1">
         <v>41957</v>
       </c>
@@ -10259,7 +10151,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" ht="16.5" customHeight="1">
       <c r="A275" s="1">
         <v>41957</v>
       </c>
@@ -10270,7 +10162,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" ht="16.5" customHeight="1">
       <c r="A276" s="1">
         <v>41959</v>
       </c>
@@ -10281,7 +10173,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" ht="16.5" customHeight="1">
       <c r="A277" s="1">
         <v>41967</v>
       </c>
@@ -10292,7 +10184,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" ht="16.5" customHeight="1">
       <c r="A278" s="1">
         <v>41978</v>
       </c>
@@ -10303,7 +10195,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" ht="16.5" customHeight="1">
       <c r="A279" s="1">
         <v>41978</v>
       </c>
@@ -10314,7 +10206,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" ht="16.5" customHeight="1">
       <c r="A280" s="1">
         <v>41981</v>
       </c>
@@ -10325,7 +10217,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" ht="16.5" customHeight="1">
       <c r="A281" s="1">
         <v>41982</v>
       </c>
@@ -10336,7 +10228,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" ht="16.5" customHeight="1">
       <c r="A282" s="1">
         <v>41982</v>
       </c>
@@ -10347,7 +10239,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" ht="16.5" customHeight="1">
       <c r="A283" s="1">
         <v>41982</v>
       </c>
@@ -10358,7 +10250,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" ht="16.5" customHeight="1">
       <c r="A284" s="1">
         <v>41982</v>
       </c>
@@ -10369,7 +10261,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" ht="16.5" customHeight="1">
       <c r="A285" s="1">
         <v>41983</v>
       </c>
@@ -10380,7 +10272,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" ht="16.5" customHeight="1">
       <c r="A286" s="1">
         <v>41983</v>
       </c>
@@ -10391,7 +10283,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" ht="16.5" customHeight="1">
       <c r="A287" s="1">
         <v>41983</v>
       </c>
@@ -10402,7 +10294,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" ht="16.5" customHeight="1">
       <c r="A288" s="1">
         <v>41985</v>
       </c>
@@ -10416,7 +10308,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" ht="16.5" customHeight="1">
       <c r="A289" s="1">
         <v>41986</v>
       </c>
@@ -10427,7 +10319,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" ht="16.5" customHeight="1">
       <c r="A290" s="1">
         <v>41988</v>
       </c>
@@ -10441,7 +10333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" ht="16.5" customHeight="1">
       <c r="A291" s="1">
         <v>42010</v>
       </c>
@@ -10452,7 +10344,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" ht="16.5" customHeight="1">
       <c r="A292" s="1">
         <v>42010</v>
       </c>
@@ -10463,7 +10355,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" ht="16.5" customHeight="1">
       <c r="A293" s="1">
         <v>42014</v>
       </c>
@@ -10474,7 +10366,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" ht="16.5" customHeight="1">
       <c r="A294" s="1">
         <v>42014</v>
       </c>
@@ -10485,7 +10377,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" ht="16.5" customHeight="1">
       <c r="A295" s="1">
         <v>42017</v>
       </c>
@@ -10496,7 +10388,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" ht="16.5" customHeight="1">
       <c r="A296" s="1">
         <v>42018</v>
       </c>
@@ -10507,7 +10399,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" ht="16.5" customHeight="1">
       <c r="A297" s="1">
         <v>42018</v>
       </c>
@@ -10518,7 +10410,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" ht="16.5" customHeight="1">
       <c r="A298" s="1">
         <v>42018</v>
       </c>
@@ -10529,7 +10421,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="299" spans="1:7" s="5" customFormat="1">
+    <row r="299" spans="1:7" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A299" s="13">
         <v>42031</v>
       </c>
@@ -10543,7 +10435,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" ht="16.5" customHeight="1">
       <c r="A300" s="1">
         <v>42036</v>
       </c>
@@ -10554,7 +10446,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" ht="16.5" customHeight="1">
       <c r="A301" s="1">
         <v>42040</v>
       </c>
@@ -10565,7 +10457,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" ht="16.5" customHeight="1">
       <c r="A302" s="1">
         <v>42040</v>
       </c>
@@ -10576,7 +10468,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" ht="16.5" customHeight="1">
       <c r="A303" s="1">
         <v>42043</v>
       </c>
@@ -10587,7 +10479,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" ht="16.5" customHeight="1">
       <c r="A304" s="1">
         <v>42045</v>
       </c>
@@ -10598,7 +10490,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" ht="16.5" customHeight="1">
       <c r="A305" s="1">
         <v>42045</v>
       </c>
@@ -10609,7 +10501,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" ht="16.5" customHeight="1">
       <c r="A306" s="1">
         <v>42045</v>
       </c>
@@ -10620,7 +10512,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" ht="16.5" customHeight="1">
       <c r="A307" s="1">
         <v>42048</v>
       </c>
@@ -10631,7 +10523,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" ht="16.5" customHeight="1">
       <c r="A308" s="1">
         <v>42062</v>
       </c>
@@ -10645,7 +10537,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" ht="16.5" customHeight="1">
       <c r="A309" s="1">
         <v>42062</v>
       </c>
@@ -10656,7 +10548,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" ht="16.5" customHeight="1">
       <c r="A310" s="1">
         <v>42063</v>
       </c>
@@ -10670,7 +10562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" ht="16.5" customHeight="1">
       <c r="A311" s="1">
         <v>42063</v>
       </c>
@@ -10681,7 +10573,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" ht="16.5" customHeight="1">
       <c r="A312" s="1">
         <v>42063</v>
       </c>
@@ -10692,7 +10584,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" ht="16.5" customHeight="1">
       <c r="A313" s="1">
         <v>42063</v>
       </c>
@@ -10703,7 +10595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" ht="16.5" customHeight="1">
       <c r="A314" s="1">
         <v>42063</v>
       </c>
@@ -10714,7 +10606,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" ht="16.5" customHeight="1">
       <c r="A315" s="1">
         <v>42063</v>
       </c>
@@ -10725,7 +10617,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" ht="16.5" customHeight="1">
       <c r="A316" s="1">
         <v>42068</v>
       </c>
@@ -10736,7 +10628,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" ht="16.5" customHeight="1">
       <c r="A317" s="1">
         <v>42068</v>
       </c>
@@ -10747,7 +10639,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" ht="16.5" customHeight="1">
       <c r="A318" s="1">
         <v>42070</v>
       </c>
@@ -10758,7 +10650,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" ht="16.5" customHeight="1">
       <c r="A319" s="1">
         <v>42070</v>
       </c>
@@ -10769,7 +10661,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" ht="16.5" customHeight="1">
       <c r="A320" s="1">
         <v>42070</v>
       </c>
@@ -10783,7 +10675,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" ht="16.5" customHeight="1">
       <c r="A321" s="1">
         <v>42070</v>
       </c>
@@ -10795,7 +10687,7 @@
       </c>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" ht="16.5" customHeight="1">
       <c r="A322" s="1">
         <v>42074</v>
       </c>
@@ -10806,7 +10698,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" ht="16.5" customHeight="1">
       <c r="A323" s="1">
         <v>42074</v>
       </c>
@@ -10817,7 +10709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" ht="16.5" customHeight="1">
       <c r="A324" s="1">
         <v>42075</v>
       </c>
@@ -10828,7 +10720,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" ht="16.5" customHeight="1">
       <c r="A325" s="1">
         <v>42078</v>
       </c>
@@ -10842,7 +10734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" ht="16.5" customHeight="1">
       <c r="A326" s="1">
         <v>42087</v>
       </c>
@@ -10853,7 +10745,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" ht="16.5" customHeight="1">
       <c r="A327" s="1">
         <v>42102</v>
       </c>
@@ -10864,7 +10756,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" ht="16.5" customHeight="1">
       <c r="A328" s="1">
         <v>42102</v>
       </c>
@@ -10875,7 +10767,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" ht="16.5" customHeight="1">
       <c r="A329" s="1">
         <v>42102</v>
       </c>
@@ -10886,7 +10778,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" ht="16.5" customHeight="1">
       <c r="A330" s="1">
         <v>42105</v>
       </c>
@@ -10897,7 +10789,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" ht="16.5" customHeight="1">
       <c r="A331" s="1">
         <v>42105</v>
       </c>
@@ -10908,7 +10800,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" ht="16.5" customHeight="1">
       <c r="A332" s="1">
         <v>42105</v>
       </c>
@@ -10919,7 +10811,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" ht="16.5" customHeight="1">
       <c r="A333" s="1">
         <v>42107</v>
       </c>
@@ -10930,7 +10822,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" ht="16.5" customHeight="1">
       <c r="A334" s="1">
         <v>42129</v>
       </c>
@@ -10941,7 +10833,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" ht="16.5" customHeight="1">
       <c r="A335" s="1">
         <v>42129</v>
       </c>
@@ -10952,7 +10844,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" ht="16.5" customHeight="1">
       <c r="A336" s="1">
         <v>42135</v>
       </c>
@@ -10963,7 +10855,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" ht="16.5" customHeight="1">
       <c r="A337" s="1">
         <v>42135</v>
       </c>
@@ -10974,7 +10866,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" ht="16.5" customHeight="1">
       <c r="A338" s="1">
         <v>42137</v>
       </c>
@@ -10985,7 +10877,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" ht="16.5" customHeight="1">
       <c r="A339" s="1">
         <v>42140</v>
       </c>
@@ -10999,7 +10891,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" ht="16.5" customHeight="1">
       <c r="A340" s="1">
         <v>42159</v>
       </c>
@@ -11011,7 +10903,7 @@
       </c>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" ht="16.5" customHeight="1">
       <c r="A341" s="1">
         <v>42159</v>
       </c>
@@ -11023,7 +10915,7 @@
       </c>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" ht="16.5" customHeight="1">
       <c r="A342" s="1">
         <v>42159</v>
       </c>
@@ -11037,7 +10929,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" ht="16.5" customHeight="1">
       <c r="A343" s="1">
         <v>42159</v>
       </c>
@@ -11049,7 +10941,7 @@
       </c>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" ht="16.5" customHeight="1">
       <c r="A344" s="1">
         <v>42159</v>
       </c>
@@ -11061,7 +10953,7 @@
       </c>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" ht="16.5" customHeight="1">
       <c r="A345" s="1">
         <v>42160</v>
       </c>
@@ -11072,7 +10964,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" ht="16.5" customHeight="1">
       <c r="A346" s="1">
         <v>42160</v>
       </c>
@@ -11083,7 +10975,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" ht="16.5" customHeight="1">
       <c r="A347" s="1">
         <v>42164</v>
       </c>
@@ -11094,7 +10986,7 @@
         <v>5729</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" ht="16.5" customHeight="1">
       <c r="A348" s="1">
         <v>42168</v>
       </c>
@@ -11105,7 +10997,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" ht="16.5" customHeight="1">
       <c r="A349" s="1">
         <v>42170</v>
       </c>
@@ -11119,7 +11011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" ht="16.5" customHeight="1">
       <c r="A350" s="1">
         <v>42171</v>
       </c>
@@ -11130,7 +11022,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" ht="16.5" customHeight="1">
       <c r="A351" s="1">
         <v>42171</v>
       </c>
@@ -11141,7 +11033,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" ht="16.5" customHeight="1">
       <c r="A352" s="1">
         <v>42171</v>
       </c>
@@ -11152,7 +11044,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" ht="16.5" customHeight="1">
       <c r="A353" s="1">
         <v>42179</v>
       </c>
@@ -11163,7 +11055,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" ht="16.5" customHeight="1">
       <c r="A354" s="1">
         <v>42183</v>
       </c>
@@ -11177,7 +11069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" ht="16.5" customHeight="1">
       <c r="A355" s="1">
         <v>42183</v>
       </c>
@@ -11188,7 +11080,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" ht="16.5" customHeight="1">
       <c r="A356" s="1">
         <v>42183</v>
       </c>
@@ -11202,7 +11094,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" ht="16.5" customHeight="1">
       <c r="A357" s="1">
         <v>42186</v>
       </c>
@@ -11213,7 +11105,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" ht="16.5" customHeight="1">
       <c r="A358" s="1">
         <v>42187</v>
       </c>
@@ -11224,7 +11116,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" ht="16.5" customHeight="1">
       <c r="A359" s="1">
         <v>42191</v>
       </c>
@@ -11235,7 +11127,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" ht="16.5" customHeight="1">
       <c r="A360" s="1">
         <v>42191</v>
       </c>
@@ -11246,7 +11138,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" ht="16.5" customHeight="1">
       <c r="A361" s="1">
         <v>42195</v>
       </c>
@@ -11257,7 +11149,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" ht="16.5" customHeight="1">
       <c r="A362" s="1">
         <v>42195</v>
       </c>
@@ -11268,7 +11160,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" ht="16.5" customHeight="1">
       <c r="A363" s="1">
         <v>42198</v>
       </c>
@@ -11279,7 +11171,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" ht="16.5" customHeight="1">
       <c r="A364" s="1">
         <v>42210</v>
       </c>
@@ -11290,7 +11182,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" ht="16.5" customHeight="1">
       <c r="A365" s="1">
         <v>42210</v>
       </c>
@@ -11301,7 +11193,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" ht="16.5" customHeight="1">
       <c r="A366" s="1">
         <v>42210</v>
       </c>
@@ -11313,7 +11205,7 @@
       </c>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" ht="16.5" customHeight="1">
       <c r="A367" s="1">
         <v>42210</v>
       </c>
@@ -11325,7 +11217,7 @@
       </c>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" ht="16.5" customHeight="1">
       <c r="A368" s="1">
         <v>42210</v>
       </c>
@@ -11339,7 +11231,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" ht="16.5" customHeight="1">
       <c r="A369" s="1">
         <v>42210</v>
       </c>
@@ -11350,7 +11242,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" ht="16.5" customHeight="1">
       <c r="A370" s="1">
         <v>42217</v>
       </c>
@@ -11364,7 +11256,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" ht="16.5" customHeight="1">
       <c r="A371" s="1">
         <v>42221</v>
       </c>
@@ -11375,7 +11267,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" ht="16.5" customHeight="1">
       <c r="A372" s="1">
         <v>42221</v>
       </c>
@@ -11386,7 +11278,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" ht="16.5" customHeight="1">
       <c r="A373" s="1">
         <v>42223</v>
       </c>
@@ -11397,7 +11289,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" ht="16.5" customHeight="1">
       <c r="A374" s="1">
         <v>42226</v>
       </c>
@@ -11408,7 +11300,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" ht="16.5" customHeight="1">
       <c r="A375" s="1">
         <v>42226</v>
       </c>
@@ -11419,7 +11311,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" ht="16.5" customHeight="1">
       <c r="A376" s="1">
         <v>42229</v>
       </c>
@@ -11430,7 +11322,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" ht="16.5" customHeight="1">
       <c r="A377" s="1">
         <v>42254</v>
       </c>
@@ -11441,7 +11333,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" ht="16.5" customHeight="1">
       <c r="A378" s="1">
         <v>42254</v>
       </c>
@@ -11452,7 +11344,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" ht="16.5" customHeight="1">
       <c r="A379" s="1">
         <v>42254</v>
       </c>
@@ -11463,7 +11355,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" ht="16.5" customHeight="1">
       <c r="A380" s="1">
         <v>42254</v>
       </c>
@@ -11474,7 +11366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" ht="16.5" customHeight="1">
       <c r="A381" s="1">
         <v>42258</v>
       </c>
@@ -11485,7 +11377,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" ht="16.5" customHeight="1">
       <c r="A382" s="1">
         <v>42262</v>
       </c>
@@ -11499,7 +11391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" ht="16.5" customHeight="1">
       <c r="A383" s="1">
         <v>42277</v>
       </c>
@@ -11510,7 +11402,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" ht="16.5" customHeight="1">
       <c r="A384" s="1">
         <v>42283</v>
       </c>
@@ -11521,7 +11413,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" ht="16.5" customHeight="1">
       <c r="A385" s="1">
         <v>42283</v>
       </c>
@@ -11532,7 +11424,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" ht="16.5" customHeight="1">
       <c r="A386" s="1">
         <v>42286</v>
       </c>
@@ -11546,7 +11438,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" ht="16.5" customHeight="1">
       <c r="A387" s="1">
         <v>42286</v>
       </c>
@@ -11558,7 +11450,7 @@
       </c>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" ht="16.5" customHeight="1">
       <c r="A388" s="1">
         <v>42286</v>
       </c>
@@ -11569,7 +11461,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" ht="16.5" customHeight="1">
       <c r="A389" s="1">
         <v>42289</v>
       </c>
@@ -11580,7 +11472,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" ht="16.5" customHeight="1">
       <c r="A390" s="1">
         <v>42289</v>
       </c>
@@ -11591,7 +11483,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" ht="16.5" customHeight="1">
       <c r="A391" s="1">
         <v>42289</v>
       </c>
@@ -11602,7 +11494,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" ht="16.5" customHeight="1">
       <c r="A392" s="1">
         <v>42289</v>
       </c>
@@ -11613,7 +11505,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" ht="16.5" customHeight="1">
       <c r="A393" s="1">
         <v>42290</v>
       </c>
@@ -11624,7 +11516,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" ht="16.5" customHeight="1">
       <c r="A394" s="1">
         <v>42290</v>
       </c>
@@ -11635,7 +11527,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" ht="16.5" customHeight="1">
       <c r="A395" s="1">
         <v>42313</v>
       </c>
@@ -11646,7 +11538,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" ht="16.5" customHeight="1">
       <c r="A396" s="1">
         <v>42313</v>
       </c>
@@ -11657,7 +11549,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" ht="16.5" customHeight="1">
       <c r="A397" s="1">
         <v>42317</v>
       </c>
@@ -11668,7 +11560,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" ht="16.5" customHeight="1">
       <c r="A398" s="1">
         <v>42317</v>
       </c>
@@ -11679,7 +11571,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" ht="16.5" customHeight="1">
       <c r="A399" s="1">
         <v>42320</v>
       </c>
@@ -11690,7 +11582,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" ht="16.5" customHeight="1">
       <c r="A400" s="1">
         <v>42321</v>
       </c>
@@ -11701,7 +11593,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" ht="16.5" customHeight="1">
       <c r="A401" s="1">
         <v>42334</v>
       </c>
@@ -11712,7 +11604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" ht="16.5" customHeight="1">
       <c r="A402" s="1">
         <v>42334</v>
       </c>
@@ -11723,7 +11615,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" ht="16.5" customHeight="1">
       <c r="A403" s="1">
         <v>42342</v>
       </c>
@@ -11734,7 +11626,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" ht="16.5" customHeight="1">
       <c r="A404" s="1">
         <v>42345</v>
       </c>
@@ -11745,7 +11637,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" ht="16.5" customHeight="1">
       <c r="A405" s="1">
         <v>42345</v>
       </c>
@@ -11756,7 +11648,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" ht="16.5" customHeight="1">
       <c r="A406" s="1">
         <v>42346</v>
       </c>
@@ -11770,7 +11662,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" ht="16.5" customHeight="1">
       <c r="A407" s="1">
         <v>42347</v>
       </c>
@@ -11781,7 +11673,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" ht="16.5" customHeight="1">
       <c r="A408" s="1">
         <v>42347</v>
       </c>
@@ -11792,7 +11684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" ht="16.5" customHeight="1">
       <c r="A409" s="1">
         <v>42347</v>
       </c>
@@ -11803,7 +11695,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" ht="16.5" customHeight="1">
       <c r="A410" s="1">
         <v>42351</v>
       </c>
@@ -11814,7 +11706,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" ht="16.5" customHeight="1">
       <c r="A411" s="1">
         <v>42353</v>
       </c>
@@ -11829,7 +11721,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K411"/>
+  <autoFilter ref="A2:K411">
+    <filterColumn colId="0"/>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -11844,7 +11738,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -12593,651 +12487,730 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="3" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="6.75" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
-    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="2" max="6" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="6.75" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="21" max="21" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="L1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="16" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2">
+      <c r="G2">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>1937798</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>1937798</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>115000</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J7" si="0">I2/(F2+I2)*100</f>
+      <c r="L2">
+        <v>4500000</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M7" si="0">L2/(I2+L2)*100</f>
+        <v>69.899676877093682</v>
+      </c>
+      <c r="N2">
+        <f>B2-O2-P2</f>
         <v>0</v>
       </c>
-      <c r="K2">
-        <f>B2-L2-M2</f>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q7" si="1">(B2/I2)*100</f>
         <v>0</v>
       </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N7" si="1">(B2/F2)*100</f>
+      <c r="R2">
+        <f t="shared" ref="R2:R7" si="2">(B2/(I2+L2))*100</f>
         <v>0</v>
       </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O7" si="2">(B2/(F2+I2))*100</f>
+      <c r="S2">
+        <f t="shared" ref="S2:S7" si="3">(B2/H2)*10</f>
         <v>0</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P7" si="3">(B2/E2)*10</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q6" si="4">(F2/E2)*10</f>
+      <c r="T2">
+        <f t="shared" ref="T2:T6" si="4">(I2/H2)*10</f>
         <v>10</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R4" si="5">((F2+B2-L2)/(E2))*10</f>
+      <c r="U2">
+        <f t="shared" ref="U2:U4" si="5">((I2+B2-O2)/(H2))*10</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:21">
       <c r="A3" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f>D3-E3</f>
+        <v>145131</v>
       </c>
       <c r="C3">
         <v>264733</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="6">D2+B3</f>
+        <v>214836</v>
+      </c>
+      <c r="E3">
+        <v>69705</v>
+      </c>
+      <c r="F3">
+        <v>243903</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="6">G2+B3</f>
+        <v>145131</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="7">H2+J2+P2</f>
+        <v>2052798</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="8">I2+B2+J2+K2-O2</f>
+        <v>2052798</v>
+      </c>
+      <c r="J3">
+        <v>120000</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E5" si="7">E2+G2+M2</f>
-        <v>2052798</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="8">F2+B2+G2+H2-L2</f>
-        <v>2052798</v>
-      </c>
-      <c r="G3">
+      <c r="L3">
+        <f>L2-F3+E3</f>
+        <v>4325802</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>67.817420750634938</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="9">N2+B3-O3-P3</f>
+        <v>145131</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>7.0699114087211701</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="2"/>
+        <v>2.2752798419715927</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="3"/>
+        <v>0.70699114087211701</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="5"/>
+        <v>10.706991140872118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B7" si="10">D4-E4</f>
+        <v>128881</v>
+      </c>
+      <c r="C4">
+        <v>232300</v>
+      </c>
+      <c r="D4">
+        <v>201766</v>
+      </c>
+      <c r="E4">
+        <v>72885</v>
+      </c>
+      <c r="F4">
+        <v>266076</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>274012</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="7"/>
+        <v>2172798</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="8"/>
+        <v>2317929</v>
+      </c>
+      <c r="J4">
         <v>120000</v>
       </c>
-      <c r="I3">
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="11">L3-F4+E4</f>
+        <v>4132611</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="0"/>
+        <v>64.066124696537031</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="9"/>
+        <v>274012</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K7" si="9">K2+B3-L3-M3</f>
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>5.560178935592937</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>1.9979877653653801</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>0.59315684200740248</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>10.667945202453241</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="5"/>
+        <v>11.261102044460644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="10"/>
+        <v>25603</v>
+      </c>
+      <c r="C5">
+        <v>171550</v>
+      </c>
+      <c r="D5">
+        <v>106276</v>
+      </c>
+      <c r="E5">
+        <v>80673</v>
+      </c>
+      <c r="F5">
+        <v>272390</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>299615</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>2292798</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="8"/>
+        <v>2566810</v>
+      </c>
+      <c r="J5">
+        <v>120000</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="L5">
+        <f t="shared" si="11"/>
+        <v>3940894</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>60.55736401040982</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>299615</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0.99746377799681318</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0.393426007083297</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>0.11166705483867309</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>11.195098739618579</v>
+      </c>
+      <c r="U5">
+        <f>((I5+B5-O5)/(H5))*10</f>
+        <v>11.306765794457252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="10"/>
+        <v>102789</v>
+      </c>
+      <c r="C6">
+        <v>225060</v>
+      </c>
+      <c r="D6">
+        <v>180125</v>
+      </c>
+      <c r="E6">
+        <v>77336</v>
+      </c>
+      <c r="F6">
+        <v>272718</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>402404</v>
+      </c>
+      <c r="H6">
+        <f>H5+J5+P5</f>
+        <v>2412798</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="8"/>
+        <v>2712413</v>
+      </c>
+      <c r="J6">
+        <v>120000</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="11"/>
+        <v>3745512</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>57.998691530174163</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>402404</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>3.7895777671025761</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>1.591672247664691</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>0.42601577090166687</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>11.241774073088589</v>
+      </c>
+      <c r="U6">
+        <f>((I6+B6-O6)/(H6))*10</f>
+        <v>11.667789843990255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>402404</v>
+      </c>
+      <c r="H7">
+        <f>H6+J6+P6</f>
+        <v>2532798</v>
+      </c>
+      <c r="I7">
+        <f>I6+B6+J6+K6-O6</f>
+        <v>2935202</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="11"/>
+        <v>3745512</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>56.064546394292591</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>402404</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="S7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4">
+      <c r="T7">
+        <f>(I7/H7)*10</f>
+        <v>11.588772574836208</v>
+      </c>
+      <c r="U7" s="17">
+        <f>((I7+B7-O7+N12-N15+N18)/(H7))*10</f>
+        <v>19.128335540378664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="16"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="16"/>
+      <c r="U9" s="17"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="N11" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="N12">
+        <f>P32-N32</f>
+        <v>1750000</v>
+      </c>
+      <c r="P12">
+        <v>120000</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="S13">
+        <v>2011</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13:T18" si="12">O2/(H2/10)</f>
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>232300</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="6"/>
+      <c r="U13">
+        <f t="shared" ref="U13:U18" si="13">P2/(H2/10)</f>
         <v>0</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="7"/>
-        <v>2172798</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="8"/>
-        <v>2172798</v>
-      </c>
-      <c r="G4">
-        <v>120000</v>
-      </c>
-      <c r="I4">
-        <v>600000</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>21.638792295724389</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="9"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="N14" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="S14">
+        <v>2012</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="U14">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M4">
+    </row>
+    <row r="15" spans="1:21">
+      <c r="S15">
+        <v>2013</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
+      <c r="U15">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="S16">
+        <v>2014</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
+      <c r="U16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="17" spans="14:21">
+      <c r="N17" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="S17">
+        <v>2015</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>171550</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="6"/>
+      <c r="U17">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="7"/>
-        <v>2292798</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="8"/>
-        <v>2292798</v>
-      </c>
-      <c r="G5">
-        <v>120000</v>
-      </c>
-      <c r="H5">
-        <v>37500</v>
-      </c>
-      <c r="I5">
-        <v>800000</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>25.866545438790379</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="9"/>
+    </row>
+    <row r="18" spans="14:21">
+      <c r="N18">
+        <v>159619</v>
+      </c>
+      <c r="P18">
+        <f>H7+P12+((H7/10)*Q15)</f>
+        <v>2652798</v>
+      </c>
+      <c r="S18">
+        <v>2016</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="U18">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M5">
+    </row>
+    <row r="20" spans="14:21">
+      <c r="N20" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="14:21">
+      <c r="P21">
+        <f>((I7+B7+P12-((H7/10)*P15))/P18)*10</f>
+        <v>11.516904038679161</v>
+      </c>
+    </row>
+    <row r="23" spans="14:21">
+      <c r="N23" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="14:21">
+      <c r="N24">
+        <f>N21/(I7+B7+N12-N15+N21+N18)*100</f>
         <v>0</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="R5">
-        <f>((F5+B5-L5)/(E5))*10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>225060</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>E5+G5+M5</f>
-        <v>2412798</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="8"/>
-        <v>2450298</v>
-      </c>
-      <c r="G6">
-        <v>120000</v>
-      </c>
-      <c r="H6">
-        <v>37500</v>
-      </c>
-      <c r="I6">
-        <v>4042518</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>62.261397827999446</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>10.15542121636374</v>
-      </c>
-      <c r="R6">
-        <f>((F6+B6-L6)/(E6))*10</f>
-        <v>10.15542121636374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>E6+G6+M6</f>
-        <v>2532798</v>
-      </c>
-      <c r="F7">
-        <f>F6+B6+G6+H6-L6</f>
-        <v>2607798</v>
-      </c>
-      <c r="I7">
-        <v>3974696</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>60.382827542265893</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>(F7/E7)*10</f>
-        <v>10.296115205397351</v>
-      </c>
-      <c r="R7" s="17">
-        <f>((F7+B7-L7+K12-K15+K18)/(E7))*10</f>
-        <v>7.9911544465843694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="16"/>
-      <c r="R8" s="17"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="16"/>
-      <c r="R9" s="17"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="K11" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="K12">
-        <v>-583800</v>
-      </c>
-      <c r="M12">
-        <v>700000</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="P13">
-        <v>2011</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ref="Q13:Q18" si="10">L2/(E2/10)</f>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ref="R13:R18" si="11">M2/(E2/10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="K14" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="P14">
-        <v>2012</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="P15">
-        <v>2013</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="P16">
-        <v>2014</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="11:18">
-      <c r="K17" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="P17">
-        <v>2015</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="11:18">
-      <c r="M18">
-        <f>E7+M12+((E7/10)*N15)</f>
-        <v>3232798</v>
-      </c>
-      <c r="P18">
-        <v>2016</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="11:18">
-      <c r="K20" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" spans="11:18">
-      <c r="M21">
-        <f>((F7+B7+M12-((E7/10)*M15))/M18)*10</f>
-        <v>10.231997173965091</v>
-      </c>
-    </row>
-    <row r="23" spans="11:18">
-      <c r="K23" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="M23" s="3" t="s">
+      <c r="P24">
+        <f>N27/(I7+B7+N12+P12-N15+N21+N27)*100</f>
+        <v>40.088154610699092</v>
+      </c>
+    </row>
+    <row r="26" spans="14:21">
+      <c r="N26" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="24" spans="11:18">
-      <c r="K24">
-        <f>K21/(F7+B7+K12-K15+K21+K18)*100</f>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f>K27/(F7+B7+K12+M12-K15+K21+K27)*100</f>
-        <v>54.135656859031023</v>
-      </c>
-    </row>
-    <row r="26" spans="11:18">
-      <c r="K26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="M26" s="3" t="s">
+    </row>
+    <row r="27" spans="14:21">
+      <c r="N27">
+        <v>3215252</v>
+      </c>
+      <c r="P27">
+        <f>(N27+N30)/(I7+B7+N12+P12-N15+N21+N27+N30)*100</f>
+        <v>40.088154610699092</v>
+      </c>
+    </row>
+    <row r="29" spans="14:21">
+      <c r="N29" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="11:18">
-      <c r="K27">
-        <v>3215252</v>
-      </c>
-      <c r="M27">
-        <f>(K27+K30)/(F7+B7+K12+M12-K15+K21+K27+K30)*100</f>
-        <v>57.696967814574677</v>
-      </c>
-    </row>
-    <row r="29" spans="11:18">
-      <c r="K29" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="11:18">
-      <c r="K30">
-        <v>500000</v>
+    <row r="31" spans="14:21">
+      <c r="N31" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="14:21">
+      <c r="N32">
+        <v>6250000</v>
+      </c>
+      <c r="P32">
+        <v>8000000</v>
       </c>
     </row>
   </sheetData>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -1852,24 +1852,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75284480"/>
-        <c:axId val="75286016"/>
+        <c:axId val="129152128"/>
+        <c:axId val="129153664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75284480"/>
+        <c:axId val="129152128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75286016"/>
+        <c:crossAx val="129153664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75286016"/>
+        <c:axId val="129153664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,7 +1877,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75284480"/>
+        <c:crossAx val="129152128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6904,9 +6904,9 @@
   </sheetPr>
   <dimension ref="A1:K411"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G397" sqref="G397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12489,14 +12489,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="6" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="6" width="9.125" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="8.875" customWidth="1"/>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="交屋前支出" sheetId="7" r:id="rId3"/>
     <sheet name="借款" sheetId="3" r:id="rId4"/>
     <sheet name="財務報表" sheetId="9" r:id="rId5"/>
+    <sheet name="股份統計" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$411</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="378">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1482,6 +1483,54 @@
   </si>
   <si>
     <t>市價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認購金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股認購金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳信達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇琬婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012房屋貸款每月出資轉認股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013房屋貸款每月出資轉認股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014房屋貸款每月出資轉認股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015房屋貸款每月出資轉認股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016房屋貸款每月出資轉認股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1852,24 +1901,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="129152128"/>
-        <c:axId val="129153664"/>
+        <c:axId val="105293312"/>
+        <c:axId val="105294848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129152128"/>
+        <c:axId val="105293312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129153664"/>
+        <c:crossAx val="105294848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129153664"/>
+        <c:axId val="105294848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,7 +1926,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129152128"/>
+        <c:crossAx val="105293312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6899,14 +6948,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:K411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G397" sqref="G397"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6922,19 +6971,19 @@
     <row r="1" spans="1:7">
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C1009)</f>
-        <v>1377989</v>
+        <v>470000</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D1009)</f>
-        <v>1025905</v>
+        <v>0</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-352084</v>
+        <v>-470000</v>
       </c>
       <c r="F1" s="6">
         <f>SUBTOTAL(9,F3:F1009)</f>
-        <v>36700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6960,7 +7009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="1">
         <v>40913</v>
       </c>
@@ -6971,7 +7020,7 @@
         <v>39733</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="1">
         <v>40913</v>
       </c>
@@ -6982,7 +7031,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="1">
         <v>40913</v>
       </c>
@@ -6996,7 +7045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="1">
         <v>40913</v>
       </c>
@@ -7010,7 +7059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="1">
         <v>40913</v>
       </c>
@@ -7024,7 +7073,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="1">
         <v>40913</v>
       </c>
@@ -7035,7 +7084,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="1">
         <v>40913</v>
       </c>
@@ -7046,7 +7095,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="1">
         <v>40913</v>
       </c>
@@ -7057,7 +7106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="1">
         <v>40914</v>
       </c>
@@ -7068,7 +7117,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="1">
         <v>40922</v>
       </c>
@@ -7090,7 +7139,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="1">
         <v>40938</v>
       </c>
@@ -7101,7 +7150,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="1">
         <v>40942</v>
       </c>
@@ -7112,7 +7161,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="1">
         <v>40943</v>
       </c>
@@ -7123,7 +7172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+    <row r="17" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A17" s="1">
         <v>40945</v>
       </c>
@@ -7134,7 +7183,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="1">
         <v>40947</v>
       </c>
@@ -7145,7 +7194,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="1">
         <v>40969</v>
       </c>
@@ -7159,7 +7208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="1">
         <v>40969</v>
       </c>
@@ -7173,7 +7222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="1">
         <v>40973</v>
       </c>
@@ -7195,7 +7244,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1">
+    <row r="23" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A23" s="1">
         <v>40974</v>
       </c>
@@ -7206,7 +7255,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="1">
         <v>40974</v>
       </c>
@@ -7217,7 +7266,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="1">
         <v>40982</v>
       </c>
@@ -7228,7 +7277,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="1">
         <v>40998</v>
       </c>
@@ -7239,7 +7288,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="1">
         <v>41004</v>
       </c>
@@ -7262,7 +7311,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1">
+    <row r="29" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A29" s="1">
         <v>41005</v>
       </c>
@@ -7273,7 +7322,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="1">
         <v>41009</v>
       </c>
@@ -7284,7 +7333,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="1">
         <v>41012</v>
       </c>
@@ -7295,7 +7344,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="1">
         <v>41032</v>
       </c>
@@ -7318,7 +7367,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1">
+    <row r="34" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A34" s="1">
         <v>41036</v>
       </c>
@@ -7329,7 +7378,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="1">
         <v>41037</v>
       </c>
@@ -7340,7 +7389,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="1">
         <v>41040</v>
       </c>
@@ -7351,7 +7400,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="1">
         <v>41048</v>
       </c>
@@ -7362,7 +7411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="1">
         <v>41051</v>
       </c>
@@ -7376,7 +7425,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="1">
         <v>41051</v>
       </c>
@@ -7387,7 +7436,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="1">
         <v>41053</v>
       </c>
@@ -7398,7 +7447,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="1">
         <v>41060</v>
       </c>
@@ -7424,7 +7473,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1">
+    <row r="43" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A43" s="1">
         <v>41065</v>
       </c>
@@ -7435,7 +7484,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="1">
         <v>41065</v>
       </c>
@@ -7446,7 +7495,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="1">
         <v>41067</v>
       </c>
@@ -7460,7 +7509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="1">
         <v>41067</v>
       </c>
@@ -7471,7 +7520,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="1">
         <v>41067</v>
       </c>
@@ -7485,7 +7534,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="1">
         <v>41067</v>
       </c>
@@ -7496,7 +7545,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="1">
         <v>41068</v>
       </c>
@@ -7507,7 +7556,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="1">
         <v>41069</v>
       </c>
@@ -7518,7 +7567,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="1">
         <v>41069</v>
       </c>
@@ -7529,7 +7578,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="1">
         <v>41069</v>
       </c>
@@ -7540,7 +7589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="1">
         <v>41069</v>
       </c>
@@ -7551,7 +7600,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="1">
         <v>41073</v>
       </c>
@@ -7573,7 +7622,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1">
+    <row r="56" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A56" s="1">
         <v>41095</v>
       </c>
@@ -7584,7 +7633,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="1">
         <v>41095</v>
       </c>
@@ -7595,7 +7644,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" s="1">
         <v>41095</v>
       </c>
@@ -7610,7 +7659,7 @@
       <c r="F58" s="11"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" s="1">
         <v>41096</v>
       </c>
@@ -7621,7 +7670,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="1">
         <v>41096</v>
       </c>
@@ -7635,7 +7684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="1">
         <v>41101</v>
       </c>
@@ -7646,7 +7695,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="1">
         <v>41103</v>
       </c>
@@ -7657,7 +7706,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="1">
         <v>41124</v>
       </c>
@@ -7679,7 +7728,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1">
+    <row r="65" spans="1:11" ht="16.5" hidden="1" customHeight="1">
       <c r="A65" s="1">
         <v>41128</v>
       </c>
@@ -7690,7 +7739,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="1">
         <v>41134</v>
       </c>
@@ -7712,7 +7761,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1">
+    <row r="68" spans="1:11" ht="16.5" hidden="1" customHeight="1">
       <c r="A68" s="1">
         <v>41157</v>
       </c>
@@ -7723,7 +7772,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="1">
         <v>41157</v>
       </c>
@@ -7734,7 +7783,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="1">
         <v>41164</v>
       </c>
@@ -7745,7 +7794,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71" s="1">
         <v>41164</v>
       </c>
@@ -7759,7 +7808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72" s="1">
         <v>41170</v>
       </c>
@@ -7770,7 +7819,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" s="1">
         <v>41172</v>
       </c>
@@ -7786,7 +7835,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="1">
         <v>41172</v>
       </c>
@@ -7799,7 +7848,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="1">
         <v>41172</v>
       </c>
@@ -7825,7 +7874,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1">
+    <row r="77" spans="1:11" ht="16.5" hidden="1" customHeight="1">
       <c r="A77" s="1">
         <v>41187</v>
       </c>
@@ -7838,7 +7887,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78" s="1">
         <v>41187</v>
       </c>
@@ -7849,7 +7898,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79" s="1">
         <v>41218</v>
       </c>
@@ -7871,7 +7920,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" customHeight="1">
+    <row r="81" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A81" s="1">
         <v>41219</v>
       </c>
@@ -7882,7 +7931,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" s="1">
         <v>41221</v>
       </c>
@@ -7893,7 +7942,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="1">
         <v>41225</v>
       </c>
@@ -7904,7 +7953,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" s="1">
         <v>41231</v>
       </c>
@@ -7915,7 +7964,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="1">
         <v>41242</v>
       </c>
@@ -7926,7 +7975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="1">
         <v>41247</v>
       </c>
@@ -7948,7 +7997,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" customHeight="1">
+    <row r="88" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A88" s="1">
         <v>41248</v>
       </c>
@@ -7959,7 +8008,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="1">
         <v>41256</v>
       </c>
@@ -7970,7 +8019,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" s="1">
         <v>41257</v>
       </c>
@@ -7984,7 +8033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" customHeight="1">
+    <row r="91" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A91" s="1">
         <v>41278</v>
       </c>
@@ -8006,7 +8055,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" customHeight="1">
+    <row r="93" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A93" s="1">
         <v>41281</v>
       </c>
@@ -8017,7 +8066,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" customHeight="1">
+    <row r="94" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A94" s="1">
         <v>41282</v>
       </c>
@@ -8028,7 +8077,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" customHeight="1">
+    <row r="95" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A95" s="1">
         <v>41285</v>
       </c>
@@ -8039,7 +8088,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" customHeight="1">
+    <row r="96" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A96" s="1">
         <v>41286</v>
       </c>
@@ -8053,7 +8102,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" customHeight="1">
+    <row r="97" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A97" s="1">
         <v>41306</v>
       </c>
@@ -8075,7 +8124,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" customHeight="1">
+    <row r="99" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A99" s="1">
         <v>41310</v>
       </c>
@@ -8086,7 +8135,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" customHeight="1">
+    <row r="100" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A100" s="1">
         <v>41310</v>
       </c>
@@ -8100,7 +8149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" customHeight="1">
+    <row r="101" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A101" s="1">
         <v>41310</v>
       </c>
@@ -8111,7 +8160,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" customHeight="1">
+    <row r="102" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A102" s="1">
         <v>41310</v>
       </c>
@@ -8125,7 +8174,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" customHeight="1">
+    <row r="103" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A103" s="1">
         <v>41310</v>
       </c>
@@ -8136,7 +8185,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" customHeight="1">
+    <row r="104" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A104" s="1">
         <v>41318</v>
       </c>
@@ -8147,7 +8196,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" customHeight="1">
+    <row r="105" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A105" s="1">
         <v>41318</v>
       </c>
@@ -8161,7 +8210,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" customHeight="1">
+    <row r="106" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A106" s="1">
         <v>41320</v>
       </c>
@@ -8175,7 +8224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" customHeight="1">
+    <row r="107" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A107" s="1">
         <v>41322</v>
       </c>
@@ -8186,7 +8235,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.5" customHeight="1">
+    <row r="108" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A108" s="1">
         <v>41322</v>
       </c>
@@ -8197,7 +8246,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.5" customHeight="1">
+    <row r="109" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A109" s="1">
         <v>41323</v>
       </c>
@@ -8211,7 +8260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.5" customHeight="1">
+    <row r="110" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A110" s="1">
         <v>41323</v>
       </c>
@@ -8233,7 +8282,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.5" customHeight="1">
+    <row r="112" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A112" s="1">
         <v>41338</v>
       </c>
@@ -8244,7 +8293,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.5" customHeight="1">
+    <row r="113" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A113" s="1">
         <v>41345</v>
       </c>
@@ -8255,7 +8304,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.5" customHeight="1">
+    <row r="114" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A114" s="1">
         <v>41346</v>
       </c>
@@ -8269,7 +8318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.5" customHeight="1">
+    <row r="115" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A115" s="1">
         <v>41353</v>
       </c>
@@ -8280,7 +8329,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.5" customHeight="1">
+    <row r="116" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A116" s="1">
         <v>41370</v>
       </c>
@@ -8302,7 +8351,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16.5" customHeight="1">
+    <row r="118" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A118" s="1">
         <v>41373</v>
       </c>
@@ -8313,7 +8362,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="16.5" customHeight="1">
+    <row r="119" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A119" s="1">
         <v>41377</v>
       </c>
@@ -8324,7 +8373,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="16.5" customHeight="1">
+    <row r="120" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A120" s="1">
         <v>41386</v>
       </c>
@@ -8346,7 +8395,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="16.5" customHeight="1">
+    <row r="122" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A122" s="1">
         <v>41401</v>
       </c>
@@ -8357,7 +8406,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16.5" customHeight="1">
+    <row r="123" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A123" s="1">
         <v>41408</v>
       </c>
@@ -8368,7 +8417,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.5" customHeight="1">
+    <row r="124" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A124" s="1">
         <v>41418</v>
       </c>
@@ -8379,7 +8428,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="16.5" customHeight="1">
+    <row r="125" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A125" s="1">
         <v>41425</v>
       </c>
@@ -8390,7 +8439,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="16.5" customHeight="1">
+    <row r="126" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A126" s="1">
         <v>41426</v>
       </c>
@@ -8412,7 +8461,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="16.5" customHeight="1">
+    <row r="128" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A128" s="1">
         <v>41430</v>
       </c>
@@ -8423,7 +8472,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="16.5" customHeight="1">
+    <row r="129" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A129" s="1">
         <v>41435</v>
       </c>
@@ -8434,7 +8483,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="16.5" customHeight="1">
+    <row r="130" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A130" s="1">
         <v>41440</v>
       </c>
@@ -8448,7 +8497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16.5" customHeight="1">
+    <row r="131" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A131" s="1">
         <v>41441</v>
       </c>
@@ -8462,7 +8511,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="16.5" customHeight="1">
+    <row r="132" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A132" s="1">
         <v>41441</v>
       </c>
@@ -8473,7 +8522,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16.5" customHeight="1">
+    <row r="133" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A133" s="1">
         <v>41441</v>
       </c>
@@ -8484,7 +8533,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16.5" customHeight="1">
+    <row r="134" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A134" s="1">
         <v>41441</v>
       </c>
@@ -8495,7 +8544,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16.5" customHeight="1">
+    <row r="135" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A135" s="1">
         <v>41444</v>
       </c>
@@ -8509,7 +8558,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="16.5" customHeight="1">
+    <row r="136" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A136" s="1">
         <v>41444</v>
       </c>
@@ -8520,7 +8569,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16.5" customHeight="1">
+    <row r="137" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A137" s="1">
         <v>41444</v>
       </c>
@@ -8534,7 +8583,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16.5" customHeight="1">
+    <row r="138" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A138" s="1">
         <v>41450</v>
       </c>
@@ -8548,7 +8597,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16.5" customHeight="1">
+    <row r="139" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A139" s="1">
         <v>41450</v>
       </c>
@@ -8559,7 +8608,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="16.5" customHeight="1">
+    <row r="140" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A140" s="1">
         <v>41450</v>
       </c>
@@ -8570,7 +8619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16.5" customHeight="1">
+    <row r="141" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A141" s="1">
         <v>41451</v>
       </c>
@@ -8584,7 +8633,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16.5" customHeight="1">
+    <row r="142" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A142" s="1">
         <v>41451</v>
       </c>
@@ -8595,7 +8644,7 @@
         <v>74800</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.5" customHeight="1">
+    <row r="143" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A143" s="1">
         <v>41451</v>
       </c>
@@ -8617,7 +8666,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="16.5" customHeight="1">
+    <row r="145" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A145" s="1">
         <v>41460</v>
       </c>
@@ -8628,7 +8677,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="16.5" customHeight="1">
+    <row r="146" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A146" s="1">
         <v>41466</v>
       </c>
@@ -8639,7 +8688,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16.5" customHeight="1">
+    <row r="147" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A147" s="1">
         <v>41486</v>
       </c>
@@ -8650,7 +8699,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="16.5" customHeight="1">
+    <row r="148" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A148" s="1">
         <v>41487</v>
       </c>
@@ -8672,7 +8721,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="16.5" customHeight="1">
+    <row r="150" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A150" s="1">
         <v>41491</v>
       </c>
@@ -8694,7 +8743,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="16.5" customHeight="1">
+    <row r="152" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A152" s="1">
         <v>41522</v>
       </c>
@@ -8705,7 +8754,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="16.5" customHeight="1">
+    <row r="153" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A153" s="1">
         <v>41528</v>
       </c>
@@ -8716,7 +8765,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="16.5" customHeight="1">
+    <row r="154" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A154" s="1">
         <v>41532</v>
       </c>
@@ -8730,7 +8779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="16.5" customHeight="1">
+    <row r="155" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A155" s="1">
         <v>41534</v>
       </c>
@@ -8744,7 +8793,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="16.5" customHeight="1">
+    <row r="156" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A156" s="1">
         <v>41534</v>
       </c>
@@ -8756,7 +8805,7 @@
         <v>60500</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16.5" customHeight="1">
+    <row r="157" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A157" s="1">
         <v>41534</v>
       </c>
@@ -8768,7 +8817,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="16.5" customHeight="1">
+    <row r="158" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A158" s="1">
         <v>41542</v>
       </c>
@@ -8782,7 +8831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="16.5" customHeight="1">
+    <row r="159" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A159" s="1">
         <v>41542</v>
       </c>
@@ -8796,7 +8845,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="16.5" customHeight="1">
+    <row r="160" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A160" s="1">
         <v>41548</v>
       </c>
@@ -8807,7 +8856,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16.5" customHeight="1">
+    <row r="161" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A161" s="1">
         <v>41549</v>
       </c>
@@ -8829,7 +8878,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16.5" customHeight="1">
+    <row r="163" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A163" s="1">
         <v>41552</v>
       </c>
@@ -8851,7 +8900,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16.5" customHeight="1">
+    <row r="165" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A165" s="1">
         <v>41583</v>
       </c>
@@ -8862,7 +8911,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16.5" customHeight="1">
+    <row r="166" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A166" s="1">
         <v>41590</v>
       </c>
@@ -8873,7 +8922,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16.5" customHeight="1">
+    <row r="167" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A167" s="1">
         <v>41607</v>
       </c>
@@ -8895,7 +8944,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="16.5" customHeight="1">
+    <row r="169" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A169" s="1">
         <v>41613</v>
       </c>
@@ -8906,7 +8955,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="16.5" customHeight="1">
+    <row r="170" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A170" s="1">
         <v>41614</v>
       </c>
@@ -8917,7 +8966,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16.5" customHeight="1">
+    <row r="171" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A171" s="1">
         <v>41619</v>
       </c>
@@ -8931,7 +8980,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16.5" customHeight="1">
+    <row r="172" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A172" s="1">
         <v>41619</v>
       </c>
@@ -8945,7 +8994,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16.5" customHeight="1">
+    <row r="173" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A173" s="1">
         <v>41621</v>
       </c>
@@ -8956,7 +9005,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16.5" customHeight="1">
+    <row r="174" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A174" s="1">
         <v>41623</v>
       </c>
@@ -8981,7 +9030,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16.5" customHeight="1">
+    <row r="176" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A176" s="1">
         <v>41646</v>
       </c>
@@ -8992,7 +9041,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16.5" customHeight="1">
+    <row r="177" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A177" s="1">
         <v>41652</v>
       </c>
@@ -9003,7 +9052,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="16.5" customHeight="1">
+    <row r="178" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A178" s="1">
         <v>41675</v>
       </c>
@@ -9017,7 +9066,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="16.5" customHeight="1">
+    <row r="179" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A179" s="1">
         <v>41675</v>
       </c>
@@ -9040,7 +9089,7 @@
       </c>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:7" ht="16.5" customHeight="1">
+    <row r="181" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A181" s="1">
         <v>41676</v>
       </c>
@@ -9051,7 +9100,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="16.5" customHeight="1">
+    <row r="182" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A182" s="1">
         <v>41677</v>
       </c>
@@ -9062,7 +9111,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="16.5" customHeight="1">
+    <row r="183" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A183" s="1">
         <v>41683</v>
       </c>
@@ -9073,7 +9122,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16.5" customHeight="1">
+    <row r="184" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A184" s="1">
         <v>41694</v>
       </c>
@@ -9087,7 +9136,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.5" customHeight="1">
+    <row r="185" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A185" s="1">
         <v>41694</v>
       </c>
@@ -9112,7 +9161,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16.5" customHeight="1">
+    <row r="187" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A187" s="1">
         <v>41703</v>
       </c>
@@ -9123,7 +9172,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.5" customHeight="1">
+    <row r="188" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A188" s="1">
         <v>41710</v>
       </c>
@@ -9134,7 +9183,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.5" customHeight="1">
+    <row r="189" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A189" s="1">
         <v>41713</v>
       </c>
@@ -9148,7 +9197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.5" customHeight="1">
+    <row r="190" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A190" s="1">
         <v>41726</v>
       </c>
@@ -9162,7 +9211,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.5" customHeight="1">
+    <row r="191" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A191" s="1">
         <v>41726</v>
       </c>
@@ -9187,7 +9236,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="16.5" customHeight="1">
+    <row r="193" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A193" s="1">
         <v>41736</v>
       </c>
@@ -9198,7 +9247,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16.5" customHeight="1">
+    <row r="194" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A194" s="1">
         <v>41737</v>
       </c>
@@ -9209,7 +9258,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16.5" customHeight="1">
+    <row r="195" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A195" s="1">
         <v>41742</v>
       </c>
@@ -9231,7 +9280,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="16.5" customHeight="1">
+    <row r="197" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A197" s="1">
         <v>41765</v>
       </c>
@@ -9242,7 +9291,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16.5" customHeight="1">
+    <row r="198" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A198" s="1">
         <v>41772</v>
       </c>
@@ -9253,7 +9302,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.5" customHeight="1">
+    <row r="199" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A199" s="1">
         <v>41787</v>
       </c>
@@ -9267,7 +9316,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="16.5" customHeight="1">
+    <row r="200" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A200" s="1">
         <v>41787</v>
       </c>
@@ -9278,7 +9327,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16.5" customHeight="1">
+    <row r="201" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A201" s="1">
         <v>41787</v>
       </c>
@@ -9289,7 +9338,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="16.5" customHeight="1">
+    <row r="202" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A202" s="1">
         <v>41787</v>
       </c>
@@ -9300,7 +9349,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="16.5" customHeight="1">
+    <row r="203" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A203" s="1">
         <v>41787</v>
       </c>
@@ -9311,7 +9360,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="16.5" customHeight="1">
+    <row r="204" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A204" s="1">
         <v>41792</v>
       </c>
@@ -9333,7 +9382,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16.5" customHeight="1">
+    <row r="206" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A206" s="1">
         <v>41795</v>
       </c>
@@ -9344,7 +9393,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16.5" customHeight="1">
+    <row r="207" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A207" s="1">
         <v>41796</v>
       </c>
@@ -9355,7 +9404,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="16.5" customHeight="1">
+    <row r="208" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A208" s="1">
         <v>41799</v>
       </c>
@@ -9369,7 +9418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="16.5" customHeight="1">
+    <row r="209" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A209" s="1">
         <v>41802</v>
       </c>
@@ -9380,7 +9429,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="16.5" customHeight="1">
+    <row r="210" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A210" s="1">
         <v>41803</v>
       </c>
@@ -9391,7 +9440,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="16.5" customHeight="1">
+    <row r="211" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A211" s="1">
         <v>41821</v>
       </c>
@@ -9405,7 +9454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="16.5" customHeight="1">
+    <row r="212" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A212" s="1">
         <v>41821</v>
       </c>
@@ -9419,7 +9468,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="16.5" customHeight="1">
+    <row r="213" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A213" s="1">
         <v>41821</v>
       </c>
@@ -9444,7 +9493,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="16.5" customHeight="1">
+    <row r="215" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A215" s="1">
         <v>41827</v>
       </c>
@@ -9455,7 +9504,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="16.5" customHeight="1">
+    <row r="216" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A216" s="1">
         <v>41830</v>
       </c>
@@ -9466,7 +9515,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="16.5" customHeight="1">
+    <row r="217" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A217" s="1">
         <v>41832</v>
       </c>
@@ -9480,7 +9529,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="16.5" customHeight="1">
+    <row r="218" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A218" s="1">
         <v>41832</v>
       </c>
@@ -9494,7 +9543,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="16.5" customHeight="1">
+    <row r="219" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A219" s="1">
         <v>41842</v>
       </c>
@@ -9516,7 +9565,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="16.5" customHeight="1">
+    <row r="221" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A221" s="1">
         <v>41856</v>
       </c>
@@ -9527,7 +9576,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="16.5" customHeight="1">
+    <row r="222" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A222" s="1">
         <v>41856</v>
       </c>
@@ -9541,7 +9590,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="16.5" customHeight="1">
+    <row r="223" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A223" s="1">
         <v>41857</v>
       </c>
@@ -9556,7 +9605,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="16.5" customHeight="1">
+    <row r="224" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A224" s="1">
         <v>41857</v>
       </c>
@@ -9567,7 +9616,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="16.5" customHeight="1">
+    <row r="225" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A225" s="1">
         <v>41857</v>
       </c>
@@ -9578,7 +9627,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16.5" customHeight="1">
+    <row r="226" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A226" s="1">
         <v>41857</v>
       </c>
@@ -9589,7 +9638,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="16.5" customHeight="1">
+    <row r="227" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A227" s="1">
         <v>41859</v>
       </c>
@@ -9600,7 +9649,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="16.5" customHeight="1">
+    <row r="228" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A228" s="1">
         <v>41864</v>
       </c>
@@ -9622,7 +9671,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="16.5" customHeight="1">
+    <row r="230" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A230" s="1">
         <v>41887</v>
       </c>
@@ -9633,7 +9682,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="16.5" customHeight="1">
+    <row r="231" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A231" s="1">
         <v>41888</v>
       </c>
@@ -9647,7 +9696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="16.5" customHeight="1">
+    <row r="232" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A232" s="1">
         <v>41888</v>
       </c>
@@ -9661,7 +9710,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="16.5" customHeight="1">
+    <row r="233" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A233" s="1">
         <v>41888</v>
       </c>
@@ -9675,7 +9724,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="16.5" customHeight="1">
+    <row r="234" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A234" s="1">
         <v>41888</v>
       </c>
@@ -9686,7 +9735,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="16.5" customHeight="1">
+    <row r="235" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A235" s="1">
         <v>41888</v>
       </c>
@@ -9697,7 +9746,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="16.5" customHeight="1">
+    <row r="236" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A236" s="1">
         <v>41888</v>
       </c>
@@ -9708,7 +9757,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="16.5" customHeight="1">
+    <row r="237" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A237" s="1">
         <v>41888</v>
       </c>
@@ -9719,7 +9768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="16.5" customHeight="1">
+    <row r="238" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A238" s="1">
         <v>41888</v>
       </c>
@@ -9733,7 +9782,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="16.5" customHeight="1">
+    <row r="239" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A239" s="1">
         <v>41888</v>
       </c>
@@ -9744,7 +9793,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="16.5" customHeight="1">
+    <row r="240" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A240" s="1">
         <v>41888</v>
       </c>
@@ -9755,7 +9804,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="16.5" customHeight="1">
+    <row r="241" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A241" s="1">
         <v>41893</v>
       </c>
@@ -9766,7 +9815,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="16.5" customHeight="1">
+    <row r="242" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A242" s="1">
         <v>41897</v>
       </c>
@@ -9780,7 +9829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="16.5" customHeight="1">
+    <row r="243" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A243" s="1">
         <v>41897</v>
       </c>
@@ -9791,7 +9840,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="16.5" customHeight="1">
+    <row r="244" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A244" s="1">
         <v>41897</v>
       </c>
@@ -9802,7 +9851,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="16.5" customHeight="1">
+    <row r="245" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A245" s="1">
         <v>41897</v>
       </c>
@@ -9813,7 +9862,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="16.5" customHeight="1">
+    <row r="246" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A246" s="1">
         <v>41910</v>
       </c>
@@ -9828,7 +9877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="16.5" customHeight="1">
+    <row r="247" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A247" s="1">
         <v>41910</v>
       </c>
@@ -9842,7 +9891,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="16.5" customHeight="1">
+    <row r="248" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A248" s="1">
         <v>41910</v>
       </c>
@@ -9856,7 +9905,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="16.5" customHeight="1">
+    <row r="249" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A249" s="1">
         <v>41910</v>
       </c>
@@ -9867,7 +9916,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="16.5" customHeight="1">
+    <row r="250" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A250" s="1">
         <v>41910</v>
       </c>
@@ -9878,7 +9927,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="16.5" customHeight="1">
+    <row r="251" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A251" s="1">
         <v>41910</v>
       </c>
@@ -9892,7 +9941,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="16.5" customHeight="1">
+    <row r="252" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A252" s="1">
         <v>41910</v>
       </c>
@@ -9903,7 +9952,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="16.5" customHeight="1">
+    <row r="253" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A253" s="1">
         <v>41910</v>
       </c>
@@ -9914,7 +9963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="16.5" customHeight="1">
+    <row r="254" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A254" s="1">
         <v>41911</v>
       </c>
@@ -9928,7 +9977,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="16.5" customHeight="1">
+    <row r="255" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A255" s="1">
         <v>41914</v>
       </c>
@@ -9942,7 +9991,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="16.5" customHeight="1">
+    <row r="256" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A256" s="1">
         <v>41917</v>
       </c>
@@ -9953,7 +10002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" customHeight="1">
+    <row r="257" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A257" s="1">
         <v>41917</v>
       </c>
@@ -9964,7 +10013,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" customHeight="1">
+    <row r="258" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A258" s="1">
         <v>41917</v>
       </c>
@@ -9986,7 +10035,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" customHeight="1">
+    <row r="260" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A260" s="1">
         <v>41918</v>
       </c>
@@ -9997,7 +10046,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" customHeight="1">
+    <row r="261" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A261" s="1">
         <v>41920</v>
       </c>
@@ -10008,7 +10057,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" customHeight="1">
+    <row r="262" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A262" s="1">
         <v>41925</v>
       </c>
@@ -10019,7 +10068,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" customHeight="1">
+    <row r="263" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A263" s="1">
         <v>41932</v>
       </c>
@@ -10030,7 +10079,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" customHeight="1">
+    <row r="264" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A264" s="1">
         <v>41932</v>
       </c>
@@ -10041,7 +10090,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" customHeight="1">
+    <row r="265" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A265" s="1">
         <v>41932</v>
       </c>
@@ -10052,7 +10101,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" customHeight="1">
+    <row r="266" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A266" s="1">
         <v>41932</v>
       </c>
@@ -10074,7 +10123,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" customHeight="1">
+    <row r="268" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A268" s="1">
         <v>41948</v>
       </c>
@@ -10085,7 +10134,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" customHeight="1">
+    <row r="269" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A269" s="1">
         <v>41949</v>
       </c>
@@ -10096,7 +10145,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" customHeight="1">
+    <row r="270" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A270" s="1">
         <v>41949</v>
       </c>
@@ -10107,7 +10156,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" customHeight="1">
+    <row r="271" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A271" s="1">
         <v>41953</v>
       </c>
@@ -10118,7 +10167,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" customHeight="1">
+    <row r="272" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A272" s="1">
         <v>41955</v>
       </c>
@@ -10129,7 +10178,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="16.5" customHeight="1">
+    <row r="273" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A273" s="1">
         <v>41957</v>
       </c>
@@ -10140,7 +10189,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="16.5" customHeight="1">
+    <row r="274" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A274" s="1">
         <v>41957</v>
       </c>
@@ -10151,7 +10200,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="16.5" customHeight="1">
+    <row r="275" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A275" s="1">
         <v>41957</v>
       </c>
@@ -10162,7 +10211,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="16.5" customHeight="1">
+    <row r="276" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A276" s="1">
         <v>41959</v>
       </c>
@@ -10173,7 +10222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="16.5" customHeight="1">
+    <row r="277" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A277" s="1">
         <v>41967</v>
       </c>
@@ -10195,7 +10244,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="16.5" customHeight="1">
+    <row r="279" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A279" s="1">
         <v>41978</v>
       </c>
@@ -10206,7 +10255,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="16.5" customHeight="1">
+    <row r="280" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A280" s="1">
         <v>41981</v>
       </c>
@@ -10217,7 +10266,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="16.5" customHeight="1">
+    <row r="281" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A281" s="1">
         <v>41982</v>
       </c>
@@ -10228,7 +10277,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="16.5" customHeight="1">
+    <row r="282" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A282" s="1">
         <v>41982</v>
       </c>
@@ -10239,7 +10288,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="16.5" customHeight="1">
+    <row r="283" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A283" s="1">
         <v>41982</v>
       </c>
@@ -10250,7 +10299,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="16.5" customHeight="1">
+    <row r="284" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A284" s="1">
         <v>41982</v>
       </c>
@@ -10261,7 +10310,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="16.5" customHeight="1">
+    <row r="285" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A285" s="1">
         <v>41983</v>
       </c>
@@ -10272,7 +10321,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="16.5" customHeight="1">
+    <row r="286" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A286" s="1">
         <v>41983</v>
       </c>
@@ -10283,7 +10332,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="16.5" customHeight="1">
+    <row r="287" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A287" s="1">
         <v>41983</v>
       </c>
@@ -10294,7 +10343,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="16.5" customHeight="1">
+    <row r="288" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A288" s="1">
         <v>41985</v>
       </c>
@@ -10308,7 +10357,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="16.5" customHeight="1">
+    <row r="289" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A289" s="1">
         <v>41986</v>
       </c>
@@ -10319,7 +10368,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="16.5" customHeight="1">
+    <row r="290" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A290" s="1">
         <v>41988</v>
       </c>
@@ -10344,7 +10393,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="16.5" customHeight="1">
+    <row r="292" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A292" s="1">
         <v>42010</v>
       </c>
@@ -10355,7 +10404,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="16.5" customHeight="1">
+    <row r="293" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A293" s="1">
         <v>42014</v>
       </c>
@@ -10366,7 +10415,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="16.5" customHeight="1">
+    <row r="294" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A294" s="1">
         <v>42014</v>
       </c>
@@ -10377,7 +10426,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="16.5" customHeight="1">
+    <row r="295" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A295" s="1">
         <v>42017</v>
       </c>
@@ -10388,7 +10437,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="16.5" customHeight="1">
+    <row r="296" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A296" s="1">
         <v>42018</v>
       </c>
@@ -10399,7 +10448,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="16.5" customHeight="1">
+    <row r="297" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A297" s="1">
         <v>42018</v>
       </c>
@@ -10410,7 +10459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16.5" customHeight="1">
+    <row r="298" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A298" s="1">
         <v>42018</v>
       </c>
@@ -10421,7 +10470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="299" spans="1:7" s="5" customFormat="1" ht="16.5" customHeight="1">
+    <row r="299" spans="1:7" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A299" s="13">
         <v>42031</v>
       </c>
@@ -10435,7 +10484,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:7" ht="16.5" customHeight="1">
+    <row r="300" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A300" s="1">
         <v>42036</v>
       </c>
@@ -10457,7 +10506,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="16.5" customHeight="1">
+    <row r="302" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A302" s="1">
         <v>42040</v>
       </c>
@@ -10468,7 +10517,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="16.5" customHeight="1">
+    <row r="303" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A303" s="1">
         <v>42043</v>
       </c>
@@ -10479,7 +10528,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="16.5" customHeight="1">
+    <row r="304" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A304" s="1">
         <v>42045</v>
       </c>
@@ -10490,7 +10539,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="16.5" customHeight="1">
+    <row r="305" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A305" s="1">
         <v>42045</v>
       </c>
@@ -10501,7 +10550,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="16.5" customHeight="1">
+    <row r="306" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A306" s="1">
         <v>42045</v>
       </c>
@@ -10512,7 +10561,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="16.5" customHeight="1">
+    <row r="307" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A307" s="1">
         <v>42048</v>
       </c>
@@ -10523,7 +10572,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="16.5" customHeight="1">
+    <row r="308" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A308" s="1">
         <v>42062</v>
       </c>
@@ -10537,7 +10586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="16.5" customHeight="1">
+    <row r="309" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A309" s="1">
         <v>42062</v>
       </c>
@@ -10548,7 +10597,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="16.5" customHeight="1">
+    <row r="310" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A310" s="1">
         <v>42063</v>
       </c>
@@ -10562,7 +10611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="16.5" customHeight="1">
+    <row r="311" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A311" s="1">
         <v>42063</v>
       </c>
@@ -10573,7 +10622,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="16.5" customHeight="1">
+    <row r="312" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A312" s="1">
         <v>42063</v>
       </c>
@@ -10584,7 +10633,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="16.5" customHeight="1">
+    <row r="313" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A313" s="1">
         <v>42063</v>
       </c>
@@ -10595,7 +10644,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="16.5" customHeight="1">
+    <row r="314" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A314" s="1">
         <v>42063</v>
       </c>
@@ -10606,7 +10655,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="16.5" customHeight="1">
+    <row r="315" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A315" s="1">
         <v>42063</v>
       </c>
@@ -10628,7 +10677,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="16.5" customHeight="1">
+    <row r="317" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A317" s="1">
         <v>42068</v>
       </c>
@@ -10639,7 +10688,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="16.5" customHeight="1">
+    <row r="318" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A318" s="1">
         <v>42070</v>
       </c>
@@ -10650,7 +10699,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="16.5" customHeight="1">
+    <row r="319" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A319" s="1">
         <v>42070</v>
       </c>
@@ -10661,7 +10710,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="16.5" customHeight="1">
+    <row r="320" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A320" s="1">
         <v>42070</v>
       </c>
@@ -10675,7 +10724,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16.5" customHeight="1">
+    <row r="321" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A321" s="1">
         <v>42070</v>
       </c>
@@ -10687,7 +10736,7 @@
       </c>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="1:7" ht="16.5" customHeight="1">
+    <row r="322" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A322" s="1">
         <v>42074</v>
       </c>
@@ -10698,7 +10747,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16.5" customHeight="1">
+    <row r="323" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A323" s="1">
         <v>42074</v>
       </c>
@@ -10709,7 +10758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16.5" customHeight="1">
+    <row r="324" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A324" s="1">
         <v>42075</v>
       </c>
@@ -10720,7 +10769,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="16.5" customHeight="1">
+    <row r="325" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A325" s="1">
         <v>42078</v>
       </c>
@@ -10734,7 +10783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="16.5" customHeight="1">
+    <row r="326" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A326" s="1">
         <v>42087</v>
       </c>
@@ -10756,7 +10805,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="16.5" customHeight="1">
+    <row r="328" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A328" s="1">
         <v>42102</v>
       </c>
@@ -10767,7 +10816,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="16.5" customHeight="1">
+    <row r="329" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A329" s="1">
         <v>42102</v>
       </c>
@@ -10778,7 +10827,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="16.5" customHeight="1">
+    <row r="330" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A330" s="1">
         <v>42105</v>
       </c>
@@ -10789,7 +10838,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="16.5" customHeight="1">
+    <row r="331" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A331" s="1">
         <v>42105</v>
       </c>
@@ -10800,7 +10849,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="16.5" customHeight="1">
+    <row r="332" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A332" s="1">
         <v>42105</v>
       </c>
@@ -10811,7 +10860,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="16.5" customHeight="1">
+    <row r="333" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A333" s="1">
         <v>42107</v>
       </c>
@@ -10833,7 +10882,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="16.5" customHeight="1">
+    <row r="335" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A335" s="1">
         <v>42129</v>
       </c>
@@ -10844,7 +10893,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="16.5" customHeight="1">
+    <row r="336" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A336" s="1">
         <v>42135</v>
       </c>
@@ -10855,7 +10904,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16.5" customHeight="1">
+    <row r="337" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A337" s="1">
         <v>42135</v>
       </c>
@@ -10866,7 +10915,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16.5" customHeight="1">
+    <row r="338" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A338" s="1">
         <v>42137</v>
       </c>
@@ -10877,7 +10926,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16.5" customHeight="1">
+    <row r="339" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A339" s="1">
         <v>42140</v>
       </c>
@@ -10891,7 +10940,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16.5" customHeight="1">
+    <row r="340" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A340" s="1">
         <v>42159</v>
       </c>
@@ -10903,7 +10952,7 @@
       </c>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" ht="16.5" customHeight="1">
+    <row r="341" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A341" s="1">
         <v>42159</v>
       </c>
@@ -10915,7 +10964,7 @@
       </c>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" ht="16.5" customHeight="1">
+    <row r="342" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A342" s="1">
         <v>42159</v>
       </c>
@@ -10929,7 +10978,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16.5" customHeight="1">
+    <row r="343" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A343" s="1">
         <v>42159</v>
       </c>
@@ -10941,7 +10990,7 @@
       </c>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" ht="16.5" customHeight="1">
+    <row r="344" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A344" s="1">
         <v>42159</v>
       </c>
@@ -10964,7 +11013,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16.5" customHeight="1">
+    <row r="346" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A346" s="1">
         <v>42160</v>
       </c>
@@ -10975,7 +11024,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16.5" customHeight="1">
+    <row r="347" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A347" s="1">
         <v>42164</v>
       </c>
@@ -10986,7 +11035,7 @@
         <v>5729</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16.5" customHeight="1">
+    <row r="348" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A348" s="1">
         <v>42168</v>
       </c>
@@ -10997,7 +11046,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="16.5" customHeight="1">
+    <row r="349" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A349" s="1">
         <v>42170</v>
       </c>
@@ -11011,7 +11060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16.5" customHeight="1">
+    <row r="350" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A350" s="1">
         <v>42171</v>
       </c>
@@ -11022,7 +11071,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16.5" customHeight="1">
+    <row r="351" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A351" s="1">
         <v>42171</v>
       </c>
@@ -11033,7 +11082,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16.5" customHeight="1">
+    <row r="352" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A352" s="1">
         <v>42171</v>
       </c>
@@ -11044,7 +11093,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="16.5" customHeight="1">
+    <row r="353" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A353" s="1">
         <v>42179</v>
       </c>
@@ -11055,7 +11104,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="16.5" customHeight="1">
+    <row r="354" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A354" s="1">
         <v>42183</v>
       </c>
@@ -11069,7 +11118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="16.5" customHeight="1">
+    <row r="355" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A355" s="1">
         <v>42183</v>
       </c>
@@ -11080,7 +11129,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="16.5" customHeight="1">
+    <row r="356" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A356" s="1">
         <v>42183</v>
       </c>
@@ -11094,7 +11143,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="16.5" customHeight="1">
+    <row r="357" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A357" s="1">
         <v>42186</v>
       </c>
@@ -11105,7 +11154,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16.5" customHeight="1">
+    <row r="358" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A358" s="1">
         <v>42187</v>
       </c>
@@ -11127,7 +11176,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16.5" customHeight="1">
+    <row r="360" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A360" s="1">
         <v>42191</v>
       </c>
@@ -11138,7 +11187,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16.5" customHeight="1">
+    <row r="361" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A361" s="1">
         <v>42195</v>
       </c>
@@ -11149,7 +11198,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16.5" customHeight="1">
+    <row r="362" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A362" s="1">
         <v>42195</v>
       </c>
@@ -11160,7 +11209,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16.5" customHeight="1">
+    <row r="363" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A363" s="1">
         <v>42198</v>
       </c>
@@ -11171,7 +11220,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16.5" customHeight="1">
+    <row r="364" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A364" s="1">
         <v>42210</v>
       </c>
@@ -11182,7 +11231,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16.5" customHeight="1">
+    <row r="365" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A365" s="1">
         <v>42210</v>
       </c>
@@ -11193,7 +11242,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16.5" customHeight="1">
+    <row r="366" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A366" s="1">
         <v>42210</v>
       </c>
@@ -11205,7 +11254,7 @@
       </c>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" ht="16.5" customHeight="1">
+    <row r="367" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A367" s="1">
         <v>42210</v>
       </c>
@@ -11217,7 +11266,7 @@
       </c>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" ht="16.5" customHeight="1">
+    <row r="368" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A368" s="1">
         <v>42210</v>
       </c>
@@ -11231,7 +11280,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="16.5" customHeight="1">
+    <row r="369" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A369" s="1">
         <v>42210</v>
       </c>
@@ -11242,7 +11291,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="16.5" customHeight="1">
+    <row r="370" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A370" s="1">
         <v>42217</v>
       </c>
@@ -11267,7 +11316,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="16.5" customHeight="1">
+    <row r="372" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A372" s="1">
         <v>42221</v>
       </c>
@@ -11278,7 +11327,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="16.5" customHeight="1">
+    <row r="373" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A373" s="1">
         <v>42223</v>
       </c>
@@ -11289,7 +11338,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="16.5" customHeight="1">
+    <row r="374" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A374" s="1">
         <v>42226</v>
       </c>
@@ -11300,7 +11349,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="16.5" customHeight="1">
+    <row r="375" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A375" s="1">
         <v>42226</v>
       </c>
@@ -11311,7 +11360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="16.5" customHeight="1">
+    <row r="376" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A376" s="1">
         <v>42229</v>
       </c>
@@ -11333,7 +11382,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="16.5" customHeight="1">
+    <row r="378" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A378" s="1">
         <v>42254</v>
       </c>
@@ -11344,7 +11393,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="16.5" customHeight="1">
+    <row r="379" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A379" s="1">
         <v>42254</v>
       </c>
@@ -11355,7 +11404,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="16.5" customHeight="1">
+    <row r="380" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A380" s="1">
         <v>42254</v>
       </c>
@@ -11366,7 +11415,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="16.5" customHeight="1">
+    <row r="381" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A381" s="1">
         <v>42258</v>
       </c>
@@ -11377,7 +11426,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="16.5" customHeight="1">
+    <row r="382" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A382" s="1">
         <v>42262</v>
       </c>
@@ -11391,7 +11440,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="16.5" customHeight="1">
+    <row r="383" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A383" s="1">
         <v>42277</v>
       </c>
@@ -11413,7 +11462,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="16.5" customHeight="1">
+    <row r="385" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A385" s="1">
         <v>42283</v>
       </c>
@@ -11424,7 +11473,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="16.5" customHeight="1">
+    <row r="386" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A386" s="1">
         <v>42286</v>
       </c>
@@ -11438,7 +11487,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="16.5" customHeight="1">
+    <row r="387" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A387" s="1">
         <v>42286</v>
       </c>
@@ -11450,7 +11499,7 @@
       </c>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="1:7" ht="16.5" customHeight="1">
+    <row r="388" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A388" s="1">
         <v>42286</v>
       </c>
@@ -11461,7 +11510,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="16.5" customHeight="1">
+    <row r="389" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A389" s="1">
         <v>42289</v>
       </c>
@@ -11472,7 +11521,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="16.5" customHeight="1">
+    <row r="390" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A390" s="1">
         <v>42289</v>
       </c>
@@ -11483,7 +11532,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="16.5" customHeight="1">
+    <row r="391" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A391" s="1">
         <v>42289</v>
       </c>
@@ -11494,7 +11543,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="16.5" customHeight="1">
+    <row r="392" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A392" s="1">
         <v>42289</v>
       </c>
@@ -11505,7 +11554,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="16.5" customHeight="1">
+    <row r="393" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A393" s="1">
         <v>42290</v>
       </c>
@@ -11516,7 +11565,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="16.5" customHeight="1">
+    <row r="394" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A394" s="1">
         <v>42290</v>
       </c>
@@ -11538,7 +11587,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="16.5" customHeight="1">
+    <row r="396" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A396" s="1">
         <v>42313</v>
       </c>
@@ -11549,7 +11598,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="16.5" customHeight="1">
+    <row r="397" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A397" s="1">
         <v>42317</v>
       </c>
@@ -11560,7 +11609,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="16.5" customHeight="1">
+    <row r="398" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A398" s="1">
         <v>42317</v>
       </c>
@@ -11571,7 +11620,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="16.5" customHeight="1">
+    <row r="399" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A399" s="1">
         <v>42320</v>
       </c>
@@ -11582,7 +11631,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="16.5" customHeight="1">
+    <row r="400" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A400" s="1">
         <v>42321</v>
       </c>
@@ -11593,7 +11642,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="16.5" customHeight="1">
+    <row r="401" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A401" s="1">
         <v>42334</v>
       </c>
@@ -11604,7 +11653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="16.5" customHeight="1">
+    <row r="402" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A402" s="1">
         <v>42334</v>
       </c>
@@ -11615,7 +11664,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="16.5" customHeight="1">
+    <row r="403" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A403" s="1">
         <v>42342</v>
       </c>
@@ -11637,7 +11686,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="16.5" customHeight="1">
+    <row r="405" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A405" s="1">
         <v>42345</v>
       </c>
@@ -11648,7 +11697,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="16.5" customHeight="1">
+    <row r="406" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A406" s="1">
         <v>42346</v>
       </c>
@@ -11662,7 +11711,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="16.5" customHeight="1">
+    <row r="407" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A407" s="1">
         <v>42347</v>
       </c>
@@ -11673,7 +11722,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="16.5" customHeight="1">
+    <row r="408" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A408" s="1">
         <v>42347</v>
       </c>
@@ -11684,7 +11733,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="16.5" customHeight="1">
+    <row r="409" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A409" s="1">
         <v>42347</v>
       </c>
@@ -11695,7 +11744,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="16.5" customHeight="1">
+    <row r="410" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A410" s="1">
         <v>42351</v>
       </c>
@@ -11706,7 +11755,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="16.5" customHeight="1">
+    <row r="411" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A411" s="1">
         <v>42353</v>
       </c>
@@ -11723,6 +11772,11 @@
   </sheetData>
   <autoFilter ref="A2:K411">
     <filterColumn colId="0"/>
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*自付*"/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11739,7 +11793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12490,7 +12544,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13002,8 +13056,8 @@
         <v>11.588772574836208</v>
       </c>
       <c r="U7" s="17">
-        <f>((I7+B7-O7+N12-N15+N18)/(H7))*10</f>
-        <v>19.128335540378664</v>
+        <f>((I7+B7-O7+N12-N15)/(H7))*10</f>
+        <v>18.498127367441064</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -13220,4 +13274,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>40878</v>
+      </c>
+      <c r="B2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2">
+        <v>666000</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F5" si="0">D2/E2</f>
+        <v>66600</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G5" si="1">10*F2</f>
+        <v>666000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>40878</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3">
+        <v>1271798</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>127179.8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>1271798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4">
+        <v>57500</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>5750</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>57500</v>
+      </c>
+      <c r="I4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5">
+        <v>57500</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5750</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>57500</v>
+      </c>
+      <c r="I5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6">
+        <v>60000</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F7" si="2">D6/E6</f>
+        <v>6000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G7" si="3">10*F6</f>
+        <v>60000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7">
+        <v>60000</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8">
+        <v>60000</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F11" si="4">D8/E8</f>
+        <v>6000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="5">10*F8</f>
+        <v>60000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9">
+        <v>60000</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10">
+        <v>60000</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11">
+        <v>60000</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12">
+        <v>60000</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F13" si="6">D12/E12</f>
+        <v>6000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G13" si="7">10*F12</f>
+        <v>60000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13">
+        <v>60000</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="7"/>
+        <v>60000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -9,21 +9,22 @@
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
     <sheet name="交屋後明細" sheetId="6" r:id="rId2"/>
-    <sheet name="交屋前支出" sheetId="7" r:id="rId3"/>
-    <sheet name="借款" sheetId="3" r:id="rId4"/>
-    <sheet name="財務報表" sheetId="9" r:id="rId5"/>
-    <sheet name="股份統計" sheetId="10" r:id="rId6"/>
+    <sheet name="3號水電" sheetId="11" r:id="rId3"/>
+    <sheet name="交屋前支出" sheetId="7" r:id="rId4"/>
+    <sheet name="借款" sheetId="3" r:id="rId5"/>
+    <sheet name="財務報表" sheetId="9" r:id="rId6"/>
+    <sheet name="股份統計" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$411</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$417</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="385">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,10 +847,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2015/3/7~2015/10/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第3間3.4.5月租金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1294,10 +1291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多繳1個月，到時要去退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>353號15樓有線電視費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1531,6 +1524,42 @@
   </si>
   <si>
     <t>2016房屋貸款每月出資轉認股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費9~11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/3/7~2016/10/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間1月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間1月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多繳1個月，補在管理費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預繳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間12.1.2月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間2.3.4.5月租金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1581,7 +1610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1606,6 +1635,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1621,7 +1656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1674,6 +1709,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1755,7 +1793,7 @@
                   <c:v>102789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1826,7 +1864,7 @@
                   <c:v>402404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>402404</c:v>
+                  <c:v>425433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,31 +1932,31 @@
                   <c:v>225060</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>32400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105293312"/>
-        <c:axId val="105294848"/>
+        <c:axId val="147675392"/>
+        <c:axId val="147681280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105293312"/>
+        <c:axId val="147675392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105294848"/>
+        <c:crossAx val="147681280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105294848"/>
+        <c:axId val="147681280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1964,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105293312"/>
+        <c:crossAx val="147675392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2268,11 +2306,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J410"/>
+  <dimension ref="A1:J421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="2" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G392" sqref="G392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2289,22 +2327,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
-        <v>1377989</v>
+        <v>1404133</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1009)</f>
-        <v>1476286</v>
+        <f>SUBTOTAL(9,C3:C1011)</f>
+        <v>1502430</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1009)</f>
-        <v>1635905</v>
+        <f>SUBTOTAL(9,D3:D1011)</f>
+        <v>1678455</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>159619</v>
+        <v>176025</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1009)</f>
+        <f>SUBTOTAL(9,F3:F1011)</f>
         <v>36700</v>
       </c>
     </row>
@@ -2336,7 +2374,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -2347,7 +2385,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -2855,7 +2893,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -3144,7 +3182,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -3157,7 +3195,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -3822,7 +3860,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -4075,7 +4113,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -4087,7 +4125,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -4110,7 +4148,7 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
@@ -4253,7 +4291,7 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
@@ -4396,7 +4434,7 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
@@ -4462,7 +4500,7 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
@@ -4583,7 +4621,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -4605,7 +4643,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -4660,7 +4698,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -4710,7 +4748,7 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
@@ -4850,7 +4888,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -4861,7 +4899,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -4944,7 +4982,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -4955,7 +4993,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -4966,7 +5004,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -4977,7 +5015,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -5065,7 +5103,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -5076,7 +5114,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -5186,7 +5224,7 @@
         <v>41914</v>
       </c>
       <c r="B254" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C254" s="2">
         <v>325</v>
@@ -5208,7 +5246,7 @@
         <v>41917</v>
       </c>
       <c r="B256" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D256" s="6">
         <v>6000</v>
@@ -5219,7 +5257,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D257" s="6">
         <v>150</v>
@@ -5285,7 +5323,7 @@
         <v>41932</v>
       </c>
       <c r="B263" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D263" s="6">
         <v>150</v>
@@ -5296,7 +5334,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -5340,7 +5378,7 @@
         <v>41949</v>
       </c>
       <c r="B268" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D268" s="6">
         <v>6000</v>
@@ -5351,7 +5389,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D269" s="6">
         <v>150</v>
@@ -5395,7 +5433,7 @@
         <v>41957</v>
       </c>
       <c r="B273" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D273" s="6">
         <v>150</v>
@@ -5406,7 +5444,7 @@
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
@@ -5417,7 +5455,7 @@
         <v>41959</v>
       </c>
       <c r="B275" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C275" s="2">
         <v>300</v>
@@ -5483,7 +5521,7 @@
         <v>41982</v>
       </c>
       <c r="B281" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D281" s="6">
         <v>150</v>
@@ -5494,7 +5532,7 @@
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
@@ -5516,7 +5554,7 @@
         <v>41983</v>
       </c>
       <c r="B284" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D284" s="6">
         <v>6000</v>
@@ -5527,7 +5565,7 @@
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D285" s="6">
         <v>150</v>
@@ -5604,7 +5642,7 @@
         <v>42014</v>
       </c>
       <c r="B292" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D292" s="6">
         <v>6000</v>
@@ -5615,7 +5653,7 @@
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D293" s="6">
         <v>150</v>
@@ -5648,7 +5686,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
@@ -5659,7 +5697,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -5728,7 +5766,7 @@
         <v>42045</v>
       </c>
       <c r="B303" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D303" s="6">
         <v>6000</v>
@@ -5739,7 +5777,7 @@
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D304" s="6">
         <v>150</v>
@@ -5786,7 +5824,7 @@
         <v>42062</v>
       </c>
       <c r="B308" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D308" s="6">
         <v>16800</v>
@@ -5814,7 +5852,7 @@
         <v>42063</v>
       </c>
       <c r="B310" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D310" s="6">
         <v>5587</v>
@@ -5825,7 +5863,7 @@
         <v>42063</v>
       </c>
       <c r="B311" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D311" s="6">
         <v>123</v>
@@ -5836,7 +5874,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -5891,7 +5929,7 @@
         <v>42070</v>
       </c>
       <c r="B317" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C317" s="2">
         <v>140</v>
@@ -5902,7 +5940,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D318" s="6">
         <v>3000</v>
@@ -5913,7 +5951,7 @@
         <v>42070</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D319" s="6">
         <v>750</v>
@@ -5924,7 +5962,7 @@
         <v>42070</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D320" s="6">
         <v>170</v>
@@ -5946,7 +5984,7 @@
         <v>42074</v>
       </c>
       <c r="B322" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D322" s="6">
         <v>150</v>
@@ -5968,7 +6006,7 @@
         <v>42078</v>
       </c>
       <c r="B324" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C324" s="2">
         <v>4497</v>
@@ -5979,7 +6017,7 @@
         <v>42087</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D325" s="6">
         <v>612</v>
@@ -6023,7 +6061,7 @@
         <v>42105</v>
       </c>
       <c r="B329" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D329" s="6">
         <v>6000</v>
@@ -6034,7 +6072,7 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D330" s="6">
         <v>150</v>
@@ -6045,7 +6083,7 @@
         <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D331" s="6">
         <v>1100</v>
@@ -6100,7 +6138,7 @@
         <v>42135</v>
       </c>
       <c r="B336" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D336" s="6">
         <v>150</v>
@@ -6136,7 +6174,7 @@
         <v>42159</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D339" s="6">
         <v>653</v>
@@ -6147,7 +6185,7 @@
         <v>42159</v>
       </c>
       <c r="B340" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D340" s="6">
         <v>26400</v>
@@ -6158,7 +6196,7 @@
         <v>42159</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D341" s="6">
         <v>600</v>
@@ -6169,7 +6207,7 @@
         <v>42159</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D342" s="6">
         <v>228</v>
@@ -6213,7 +6251,7 @@
         <v>42164</v>
       </c>
       <c r="B346" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C346" s="2">
         <v>5729</v>
@@ -6224,7 +6262,7 @@
         <v>42168</v>
       </c>
       <c r="B347" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C347" s="2">
         <v>233</v>
@@ -6246,7 +6284,7 @@
         <v>42171</v>
       </c>
       <c r="B349" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D349" s="6">
         <v>6000</v>
@@ -6257,7 +6295,7 @@
         <v>42171</v>
       </c>
       <c r="B350" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D350" s="6">
         <v>150</v>
@@ -6268,7 +6306,7 @@
         <v>42171</v>
       </c>
       <c r="B351" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D351" s="6">
         <v>1221</v>
@@ -6279,7 +6317,7 @@
         <v>42179</v>
       </c>
       <c r="B352" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C352" s="2">
         <v>2200</v>
@@ -6307,7 +6345,7 @@
         <v>42183</v>
       </c>
       <c r="B354" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D354" s="6">
         <v>1938</v>
@@ -6318,7 +6356,7 @@
         <v>42183</v>
       </c>
       <c r="B355" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C355" s="2">
         <v>90</v>
@@ -6329,7 +6367,7 @@
         <v>42186</v>
       </c>
       <c r="B356" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C356" s="2">
         <v>500</v>
@@ -6340,7 +6378,7 @@
         <v>42187</v>
       </c>
       <c r="B357" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C357" s="2">
         <v>2000</v>
@@ -6373,7 +6411,7 @@
         <v>42195</v>
       </c>
       <c r="B360" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D360" s="2">
         <v>6000</v>
@@ -6384,7 +6422,7 @@
         <v>42195</v>
       </c>
       <c r="B361" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D361" s="2">
         <v>150</v>
@@ -6406,7 +6444,7 @@
         <v>42210</v>
       </c>
       <c r="B363" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D363" s="6">
         <v>66000</v>
@@ -6417,7 +6455,7 @@
         <v>42210</v>
       </c>
       <c r="B364" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D364" s="6">
         <v>1800</v>
@@ -6428,7 +6466,7 @@
         <v>42210</v>
       </c>
       <c r="B365" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D365" s="6">
         <v>1172</v>
@@ -6439,7 +6477,7 @@
         <v>42210</v>
       </c>
       <c r="B366" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C366" s="2">
         <v>110</v>
@@ -6450,7 +6488,7 @@
         <v>42210</v>
       </c>
       <c r="B367" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D367" s="6">
         <v>500</v>
@@ -6464,7 +6502,7 @@
         <v>42210</v>
       </c>
       <c r="B368" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D368" s="6">
         <v>1800</v>
@@ -6475,7 +6513,7 @@
         <v>42217</v>
       </c>
       <c r="B369" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C369" s="2">
         <v>229</v>
@@ -6519,7 +6557,7 @@
         <v>42226</v>
       </c>
       <c r="B373" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D373" s="2">
         <v>6000</v>
@@ -6530,7 +6568,7 @@
         <v>42226</v>
       </c>
       <c r="B374" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D374" s="2">
         <v>150</v>
@@ -6541,7 +6579,7 @@
         <v>42229</v>
       </c>
       <c r="B375" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C375" s="2">
         <v>178</v>
@@ -6574,7 +6612,7 @@
         <v>42254</v>
       </c>
       <c r="B378" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D378" s="2">
         <v>6000</v>
@@ -6585,7 +6623,7 @@
         <v>42254</v>
       </c>
       <c r="B379" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D379" s="2">
         <v>150</v>
@@ -6596,7 +6634,7 @@
         <v>42258</v>
       </c>
       <c r="B380" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C380" s="2">
         <v>2534</v>
@@ -6618,7 +6656,7 @@
         <v>42277</v>
       </c>
       <c r="B382" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D382" s="6">
         <v>26400</v>
@@ -6651,7 +6689,7 @@
         <v>42286</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D385" s="2">
         <v>150</v>
@@ -6673,7 +6711,7 @@
         <v>42286</v>
       </c>
       <c r="B387" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C387" s="2">
         <v>110</v>
@@ -6684,7 +6722,7 @@
         <v>42289</v>
       </c>
       <c r="B388" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D388" s="6">
         <v>415</v>
@@ -6695,7 +6733,7 @@
         <v>42289</v>
       </c>
       <c r="B389" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D389" s="6">
         <v>6000</v>
@@ -6706,7 +6744,7 @@
         <v>42289</v>
       </c>
       <c r="B390" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D390" s="6">
         <v>150</v>
@@ -6717,7 +6755,7 @@
         <v>42289</v>
       </c>
       <c r="B391" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D391" s="6">
         <v>1995</v>
@@ -6772,7 +6810,7 @@
         <v>42317</v>
       </c>
       <c r="B396" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D396" s="6">
         <v>6000</v>
@@ -6783,7 +6821,7 @@
         <v>42317</v>
       </c>
       <c r="B397" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D397" s="6">
         <v>150</v>
@@ -6794,7 +6832,7 @@
         <v>42320</v>
       </c>
       <c r="B398" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C398" s="2">
         <v>1564</v>
@@ -6805,7 +6843,7 @@
         <v>42321</v>
       </c>
       <c r="B399" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C399" s="2">
         <v>254</v>
@@ -6816,7 +6854,7 @@
         <v>42334</v>
       </c>
       <c r="B400" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C400" s="6">
         <v>16</v>
@@ -6827,7 +6865,7 @@
         <v>42334</v>
       </c>
       <c r="B401" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C401" s="2">
         <v>5302</v>
@@ -6871,7 +6909,7 @@
         <v>42346</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C405" s="2">
         <v>2200</v>
@@ -6883,7 +6921,7 @@
         <v>42347</v>
       </c>
       <c r="B406" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D406" s="6">
         <v>6000</v>
@@ -6894,7 +6932,7 @@
         <v>42347</v>
       </c>
       <c r="B407" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D407" s="6">
         <v>150</v>
@@ -6927,16 +6965,115 @@
         <v>42353</v>
       </c>
       <c r="B410" t="s">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="C410" s="2">
         <v>4497</v>
       </c>
     </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="1">
+        <v>42374</v>
+      </c>
+      <c r="B411" t="s">
+        <v>48</v>
+      </c>
+      <c r="D411" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="1">
+        <v>42374</v>
+      </c>
+      <c r="B412" t="s">
+        <v>44</v>
+      </c>
+      <c r="C412" s="2">
+        <v>22624</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="1">
+        <v>42378</v>
+      </c>
+      <c r="B413" t="s">
+        <v>378</v>
+      </c>
+      <c r="D413" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="1">
+        <v>42378</v>
+      </c>
+      <c r="B414" t="s">
+        <v>379</v>
+      </c>
+      <c r="D414" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="1">
+        <v>42382</v>
+      </c>
+      <c r="B415" t="s">
+        <v>108</v>
+      </c>
+      <c r="C415" s="2">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B416" t="s">
+        <v>27</v>
+      </c>
+      <c r="C416" s="2">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B417" t="s">
+        <v>384</v>
+      </c>
+      <c r="D417" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="B419" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="B420" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1">
+        <v>42413</v>
+      </c>
+      <c r="B421" t="s">
+        <v>380</v>
+      </c>
+      <c r="C421" s="2">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:J410">
-    <filterColumn colId="0"/>
-  </autoFilter>
+  <autoFilter ref="A2:J417"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6951,11 +7088,11 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K411"/>
+  <dimension ref="A1:K421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C412" sqref="C412:C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6970,23 +7107,23 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1009)</f>
-        <v>470000</v>
+        <f>SUBTOTAL(9,C3:C1012)</f>
+        <v>26144</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1009)</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,D3:D1012)</f>
+        <v>32550</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-470000</v>
+        <v>6406</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1009)</f>
+        <f>SUBTOTAL(9,F3:F1012)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7014,7 +7151,7 @@
         <v>40913</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="6">
         <v>39733</v>
@@ -7025,7 +7162,7 @@
         <v>40913</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="6">
         <v>1800</v>
@@ -7128,7 +7265,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1">
+    <row r="13" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A13" s="1">
         <v>40928</v>
       </c>
@@ -7233,7 +7370,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1">
+    <row r="22" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A22" s="1">
         <v>40974</v>
       </c>
@@ -7299,7 +7436,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1">
+    <row r="28" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A28" s="1">
         <v>41005</v>
       </c>
@@ -7355,7 +7492,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1">
+    <row r="33" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A33" s="1">
         <v>41036</v>
       </c>
@@ -7461,7 +7598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1">
+    <row r="42" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A42" s="1">
         <v>41065</v>
       </c>
@@ -7539,7 +7676,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -7611,7 +7748,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1">
+    <row r="55" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A55" s="1">
         <v>41095</v>
       </c>
@@ -7717,7 +7854,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1">
+    <row r="64" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A64" s="1">
         <v>41128</v>
       </c>
@@ -7750,7 +7887,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16.5" customHeight="1">
+    <row r="67" spans="1:11" ht="16.5" hidden="1" customHeight="1">
       <c r="A67" s="1">
         <v>41157</v>
       </c>
@@ -7840,7 +7977,7 @@
         <v>41172</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="6">
         <v>60500</v>
@@ -7853,7 +7990,7 @@
         <v>41172</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="6">
         <v>1800</v>
@@ -7861,7 +7998,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1">
+    <row r="76" spans="1:11" ht="16.5" hidden="1" customHeight="1">
       <c r="A76" s="1">
         <v>41187</v>
       </c>
@@ -7909,7 +8046,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1">
+    <row r="80" spans="1:11" ht="16.5" hidden="1" customHeight="1">
       <c r="A80" s="1">
         <v>41219</v>
       </c>
@@ -7986,7 +8123,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" customHeight="1">
+    <row r="87" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A87" s="1">
         <v>41248</v>
       </c>
@@ -8044,7 +8181,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" customHeight="1">
+    <row r="92" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A92" s="1">
         <v>41281</v>
       </c>
@@ -8113,7 +8250,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" customHeight="1">
+    <row r="98" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A98" s="1">
         <v>41310</v>
       </c>
@@ -8215,7 +8352,7 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
@@ -8271,7 +8408,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.5" customHeight="1">
+    <row r="111" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A111" s="1">
         <v>41338</v>
       </c>
@@ -8340,7 +8477,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16.5" customHeight="1">
+    <row r="117" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A117" s="1">
         <v>41373</v>
       </c>
@@ -8384,7 +8521,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16.5" customHeight="1">
+    <row r="121" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A121" s="1">
         <v>41401</v>
       </c>
@@ -8450,7 +8587,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="16.5" customHeight="1">
+    <row r="127" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A127" s="1">
         <v>41430</v>
       </c>
@@ -8538,7 +8675,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -8655,7 +8792,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16.5" customHeight="1">
+    <row r="144" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A144" s="1">
         <v>41460</v>
       </c>
@@ -8710,7 +8847,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="16.5" customHeight="1">
+    <row r="149" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A149" s="1">
         <v>41491</v>
       </c>
@@ -8732,7 +8869,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="16.5" customHeight="1">
+    <row r="151" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A151" s="1">
         <v>41522</v>
       </c>
@@ -8798,7 +8935,7 @@
         <v>41534</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6">
@@ -8810,7 +8947,7 @@
         <v>41534</v>
       </c>
       <c r="B157" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6">
@@ -8828,7 +8965,7 @@
         <v>2874</v>
       </c>
       <c r="G158" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -8836,13 +8973,13 @@
         <v>41542</v>
       </c>
       <c r="B159" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D159" s="6">
         <v>450</v>
       </c>
       <c r="G159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -8867,7 +9004,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16.5" customHeight="1">
+    <row r="162" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A162" s="1">
         <v>41552</v>
       </c>
@@ -8889,7 +9026,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16.5" customHeight="1">
+    <row r="164" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A164" s="1">
         <v>41583</v>
       </c>
@@ -8933,7 +9070,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="16.5" customHeight="1">
+    <row r="168" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A168" s="1">
         <v>41613</v>
       </c>
@@ -8977,7 +9114,7 @@
         <v>2398</v>
       </c>
       <c r="G171" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -8985,13 +9122,13 @@
         <v>41619</v>
       </c>
       <c r="B172" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D172" s="6">
         <v>300</v>
       </c>
       <c r="G172" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -9019,7 +9156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.5" customHeight="1">
+    <row r="175" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A175" s="1">
         <v>41646</v>
       </c>
@@ -9057,7 +9194,7 @@
         <v>41675</v>
       </c>
       <c r="B178" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D178" s="6">
         <v>6600</v>
@@ -9077,7 +9214,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="16.5" customHeight="1">
+    <row r="180" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A180" s="1">
         <v>41676</v>
       </c>
@@ -9133,7 +9270,7 @@
         <v>1336</v>
       </c>
       <c r="G184" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -9141,16 +9278,16 @@
         <v>41694</v>
       </c>
       <c r="B185" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D185" s="6">
         <v>300</v>
       </c>
       <c r="G185" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="16.5" customHeight="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A186" s="1">
         <v>41703</v>
       </c>
@@ -9208,7 +9345,7 @@
         <v>1423</v>
       </c>
       <c r="G190" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -9216,16 +9353,16 @@
         <v>41726</v>
       </c>
       <c r="B191" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D191" s="6">
         <v>300</v>
       </c>
       <c r="G191" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="16.5" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A192" s="1">
         <v>41736</v>
       </c>
@@ -9269,7 +9406,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16.5" customHeight="1">
+    <row r="196" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A196" s="1">
         <v>41765</v>
       </c>
@@ -9343,7 +9480,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -9365,13 +9502,13 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="16.5" customHeight="1">
+    <row r="205" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A205" s="1">
         <v>41795</v>
       </c>
@@ -9423,7 +9560,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -9465,7 +9602,7 @@
         <v>4258</v>
       </c>
       <c r="G212" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -9473,16 +9610,16 @@
         <v>41821</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D213" s="6">
         <v>450</v>
       </c>
       <c r="G213" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="16.5" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A214" s="1">
         <v>41827</v>
       </c>
@@ -9554,7 +9691,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="16.5" customHeight="1">
+    <row r="220" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A220" s="1">
         <v>41856</v>
       </c>
@@ -9587,7 +9724,7 @@
         <v>11000</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -9602,7 +9739,7 @@
         <v>13600</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -9621,7 +9758,7 @@
         <v>41857</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D225" s="6">
         <v>150</v>
@@ -9632,7 +9769,7 @@
         <v>41857</v>
       </c>
       <c r="B226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D226" s="6">
         <v>150</v>
@@ -9660,7 +9797,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="16.5" customHeight="1">
+    <row r="229" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A229" s="1">
         <v>41887</v>
       </c>
@@ -9715,7 +9852,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -9729,7 +9866,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -9740,7 +9877,7 @@
         <v>41888</v>
       </c>
       <c r="B235" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D235" s="6">
         <v>1500</v>
@@ -9751,7 +9888,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -9845,7 +9982,7 @@
         <v>41897</v>
       </c>
       <c r="B244" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D244" s="6">
         <v>150</v>
@@ -9856,7 +9993,7 @@
         <v>41897</v>
       </c>
       <c r="B245" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D245" s="6">
         <v>150</v>
@@ -9882,13 +10019,13 @@
         <v>41910</v>
       </c>
       <c r="B247" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D247" s="6">
         <v>6920</v>
       </c>
       <c r="G247" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -9896,13 +10033,13 @@
         <v>41910</v>
       </c>
       <c r="B248" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D248" s="6">
         <v>550</v>
       </c>
       <c r="G248" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -9910,7 +10047,7 @@
         <v>41910</v>
       </c>
       <c r="B249" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D249" s="6">
         <v>500</v>
@@ -9974,7 +10111,7 @@
         <v>12000</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -9982,7 +10119,7 @@
         <v>41914</v>
       </c>
       <c r="B255" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C255" s="2">
         <v>325</v>
@@ -10007,7 +10144,7 @@
         <v>41917</v>
       </c>
       <c r="B257" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D257" s="6">
         <v>6000</v>
@@ -10018,13 +10155,13 @@
         <v>41917</v>
       </c>
       <c r="B258" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D258" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" customHeight="1">
+    <row r="259" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A259" s="1">
         <v>41918</v>
       </c>
@@ -10084,7 +10221,7 @@
         <v>41932</v>
       </c>
       <c r="B264" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D264" s="6">
         <v>150</v>
@@ -10095,7 +10232,7 @@
         <v>41932</v>
       </c>
       <c r="B265" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D265" s="6">
         <v>150</v>
@@ -10112,7 +10249,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" customHeight="1">
+    <row r="267" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A267" s="1">
         <v>41948</v>
       </c>
@@ -10139,7 +10276,7 @@
         <v>41949</v>
       </c>
       <c r="B269" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D269" s="6">
         <v>6000</v>
@@ -10150,7 +10287,7 @@
         <v>41949</v>
       </c>
       <c r="B270" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D270" s="6">
         <v>150</v>
@@ -10194,7 +10331,7 @@
         <v>41957</v>
       </c>
       <c r="B274" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D274" s="6">
         <v>150</v>
@@ -10205,7 +10342,7 @@
         <v>41957</v>
       </c>
       <c r="B275" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D275" s="6">
         <v>150</v>
@@ -10216,7 +10353,7 @@
         <v>41959</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C276" s="2">
         <v>300</v>
@@ -10233,7 +10370,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="16.5" customHeight="1">
+    <row r="278" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A278" s="1">
         <v>41978</v>
       </c>
@@ -10282,7 +10419,7 @@
         <v>41982</v>
       </c>
       <c r="B282" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D282" s="6">
         <v>150</v>
@@ -10293,7 +10430,7 @@
         <v>41982</v>
       </c>
       <c r="B283" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D283" s="6">
         <v>150</v>
@@ -10315,7 +10452,7 @@
         <v>41983</v>
       </c>
       <c r="B285" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D285" s="6">
         <v>6000</v>
@@ -10326,7 +10463,7 @@
         <v>41983</v>
       </c>
       <c r="B286" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D286" s="6">
         <v>150</v>
@@ -10348,13 +10485,13 @@
         <v>41985</v>
       </c>
       <c r="B288" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D288" s="6">
         <v>6600</v>
       </c>
       <c r="G288" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -10382,7 +10519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="16.5" customHeight="1">
+    <row r="291" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A291" s="1">
         <v>42010</v>
       </c>
@@ -10409,7 +10546,7 @@
         <v>42014</v>
       </c>
       <c r="B293" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D293" s="6">
         <v>6000</v>
@@ -10420,7 +10557,7 @@
         <v>42014</v>
       </c>
       <c r="B294" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D294" s="6">
         <v>150</v>
@@ -10453,7 +10590,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -10464,7 +10601,7 @@
         <v>42018</v>
       </c>
       <c r="B298" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D298" s="6">
         <v>150</v>
@@ -10495,7 +10632,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16.5" customHeight="1">
+    <row r="301" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A301" s="1">
         <v>42040</v>
       </c>
@@ -10533,7 +10670,7 @@
         <v>42045</v>
       </c>
       <c r="B304" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D304" s="6">
         <v>6000</v>
@@ -10544,7 +10681,7 @@
         <v>42045</v>
       </c>
       <c r="B305" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D305" s="6">
         <v>150</v>
@@ -10583,7 +10720,7 @@
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>206</v>
+        <v>377</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -10591,7 +10728,7 @@
         <v>42062</v>
       </c>
       <c r="B309" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D309" s="6">
         <v>16800</v>
@@ -10627,7 +10764,7 @@
         <v>42063</v>
       </c>
       <c r="B312" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D312" s="6">
         <v>123</v>
@@ -10638,7 +10775,7 @@
         <v>42063</v>
       </c>
       <c r="B313" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D313" s="6">
         <v>123</v>
@@ -10666,7 +10803,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="16.5" customHeight="1">
+    <row r="316" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A316" s="1">
         <v>42068</v>
       </c>
@@ -10693,7 +10830,7 @@
         <v>42070</v>
       </c>
       <c r="B318" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C318" s="2">
         <v>140</v>
@@ -10704,7 +10841,7 @@
         <v>42070</v>
       </c>
       <c r="B319" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D319" s="6">
         <v>3000</v>
@@ -10715,13 +10852,13 @@
         <v>42070</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D320" s="6">
         <v>750</v>
       </c>
       <c r="G320" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -10729,12 +10866,12 @@
         <v>42070</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D321" s="6">
         <v>170</v>
       </c>
-      <c r="G321" s="15"/>
+      <c r="G321" s="5"/>
     </row>
     <row r="322" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A322" s="1">
@@ -10752,7 +10889,7 @@
         <v>42074</v>
       </c>
       <c r="B323" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D323" s="6">
         <v>150</v>
@@ -10774,7 +10911,7 @@
         <v>42078</v>
       </c>
       <c r="B325" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C325" s="2">
         <v>4497</v>
@@ -10788,13 +10925,13 @@
         <v>42087</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D326" s="6">
         <v>612</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16.5" customHeight="1">
+    <row r="327" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A327" s="1">
         <v>42102</v>
       </c>
@@ -10832,7 +10969,7 @@
         <v>42105</v>
       </c>
       <c r="B330" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D330" s="6">
         <v>6000</v>
@@ -10843,7 +10980,7 @@
         <v>42105</v>
       </c>
       <c r="B331" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D331" s="6">
         <v>150</v>
@@ -10854,7 +10991,7 @@
         <v>42105</v>
       </c>
       <c r="B332" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D332" s="6">
         <v>1100</v>
@@ -10871,7 +11008,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16.5" customHeight="1">
+    <row r="334" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A334" s="1">
         <v>42129</v>
       </c>
@@ -10909,7 +11046,7 @@
         <v>42135</v>
       </c>
       <c r="B337" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D337" s="6">
         <v>150</v>
@@ -10937,7 +11074,7 @@
         <v>12000</v>
       </c>
       <c r="G339" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -10945,7 +11082,7 @@
         <v>42159</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D340" s="6">
         <v>653</v>
@@ -10957,7 +11094,7 @@
         <v>42159</v>
       </c>
       <c r="B341" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D341" s="6">
         <v>26400</v>
@@ -10969,13 +11106,13 @@
         <v>42159</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D342" s="6">
         <v>600</v>
       </c>
       <c r="G342" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -10983,7 +11120,7 @@
         <v>42159</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D343" s="6">
         <v>228</v>
@@ -10995,14 +11132,14 @@
         <v>42159</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D344" s="6">
         <v>197</v>
       </c>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" ht="16.5" customHeight="1">
+    <row r="345" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A345" s="1">
         <v>42160</v>
       </c>
@@ -11029,7 +11166,7 @@
         <v>42164</v>
       </c>
       <c r="B347" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C347" s="2">
         <v>5729</v>
@@ -11040,7 +11177,7 @@
         <v>42168</v>
       </c>
       <c r="B348" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C348" s="2">
         <v>233</v>
@@ -11065,7 +11202,7 @@
         <v>42171</v>
       </c>
       <c r="B350" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D350" s="6">
         <v>6000</v>
@@ -11076,7 +11213,7 @@
         <v>42171</v>
       </c>
       <c r="B351" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D351" s="6">
         <v>150</v>
@@ -11087,7 +11224,7 @@
         <v>42171</v>
       </c>
       <c r="B352" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D352" s="6">
         <v>1221</v>
@@ -11098,7 +11235,7 @@
         <v>42179</v>
       </c>
       <c r="B353" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C353" s="2">
         <v>2200</v>
@@ -11109,7 +11246,7 @@
         <v>42183</v>
       </c>
       <c r="B354" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F354" s="6">
         <v>-12000</v>
@@ -11123,7 +11260,7 @@
         <v>42183</v>
       </c>
       <c r="B355" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D355" s="6">
         <v>1938</v>
@@ -11134,13 +11271,13 @@
         <v>42183</v>
       </c>
       <c r="B356" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C356" s="2">
         <v>90</v>
       </c>
       <c r="G356" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -11148,7 +11285,7 @@
         <v>42186</v>
       </c>
       <c r="B357" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C357" s="2">
         <v>500</v>
@@ -11159,13 +11296,13 @@
         <v>42187</v>
       </c>
       <c r="B358" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C358" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16.5" customHeight="1">
+    <row r="359" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A359" s="1">
         <v>42191</v>
       </c>
@@ -11192,7 +11329,7 @@
         <v>42195</v>
       </c>
       <c r="B361" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D361" s="2">
         <v>6000</v>
@@ -11203,7 +11340,7 @@
         <v>42195</v>
       </c>
       <c r="B362" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D362" s="2">
         <v>150</v>
@@ -11225,7 +11362,7 @@
         <v>42210</v>
       </c>
       <c r="B364" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D364" s="6">
         <v>66000</v>
@@ -11236,7 +11373,7 @@
         <v>42210</v>
       </c>
       <c r="B365" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D365" s="6">
         <v>1800</v>
@@ -11247,7 +11384,7 @@
         <v>42210</v>
       </c>
       <c r="B366" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D366" s="6">
         <v>1172</v>
@@ -11259,7 +11396,7 @@
         <v>42210</v>
       </c>
       <c r="B367" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C367" s="2">
         <v>110</v>
@@ -11271,13 +11408,13 @@
         <v>42210</v>
       </c>
       <c r="B368" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F368" s="6">
         <v>500</v>
       </c>
       <c r="G368" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -11285,7 +11422,7 @@
         <v>42210</v>
       </c>
       <c r="B369" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D369" s="6">
         <v>1800</v>
@@ -11296,16 +11433,16 @@
         <v>42217</v>
       </c>
       <c r="B370" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C370" s="2">
         <v>229</v>
       </c>
       <c r="G370" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" ht="16.5" customHeight="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A371" s="1">
         <v>42221</v>
       </c>
@@ -11343,7 +11480,7 @@
         <v>42226</v>
       </c>
       <c r="B374" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D374" s="2">
         <v>6000</v>
@@ -11354,7 +11491,7 @@
         <v>42226</v>
       </c>
       <c r="B375" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D375" s="2">
         <v>150</v>
@@ -11365,13 +11502,13 @@
         <v>42229</v>
       </c>
       <c r="B376" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C376" s="2">
         <v>178</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="16.5" customHeight="1">
+    <row r="377" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A377" s="1">
         <v>42254</v>
       </c>
@@ -11398,7 +11535,7 @@
         <v>42254</v>
       </c>
       <c r="B379" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D379" s="2">
         <v>6000</v>
@@ -11409,7 +11546,7 @@
         <v>42254</v>
       </c>
       <c r="B380" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D380" s="2">
         <v>150</v>
@@ -11420,7 +11557,7 @@
         <v>42258</v>
       </c>
       <c r="B381" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C381" s="2">
         <v>2534</v>
@@ -11445,13 +11582,13 @@
         <v>42277</v>
       </c>
       <c r="B383" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D383" s="6">
         <v>26400</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="16.5" customHeight="1">
+    <row r="384" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A384" s="1">
         <v>42283</v>
       </c>
@@ -11478,13 +11615,13 @@
         <v>42286</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D386" s="2">
         <v>150</v>
       </c>
       <c r="G386" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -11497,14 +11634,14 @@
       <c r="D387" s="2">
         <v>306</v>
       </c>
-      <c r="G387" s="15"/>
+      <c r="G387" s="5"/>
     </row>
     <row r="388" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A388" s="1">
         <v>42286</v>
       </c>
       <c r="B388" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C388" s="2">
         <v>110</v>
@@ -11515,7 +11652,7 @@
         <v>42289</v>
       </c>
       <c r="B389" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D389" s="6">
         <v>415</v>
@@ -11526,7 +11663,7 @@
         <v>42289</v>
       </c>
       <c r="B390" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D390" s="6">
         <v>6000</v>
@@ -11537,7 +11674,7 @@
         <v>42289</v>
       </c>
       <c r="B391" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D391" s="6">
         <v>150</v>
@@ -11548,7 +11685,7 @@
         <v>42289</v>
       </c>
       <c r="B392" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D392" s="6">
         <v>1995</v>
@@ -11576,7 +11713,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="16.5" customHeight="1">
+    <row r="395" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A395" s="1">
         <v>42313</v>
       </c>
@@ -11603,7 +11740,7 @@
         <v>42317</v>
       </c>
       <c r="B397" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D397" s="6">
         <v>6000</v>
@@ -11614,7 +11751,7 @@
         <v>42317</v>
       </c>
       <c r="B398" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D398" s="6">
         <v>150</v>
@@ -11625,7 +11762,7 @@
         <v>42320</v>
       </c>
       <c r="B399" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C399" s="2">
         <v>1564</v>
@@ -11636,7 +11773,7 @@
         <v>42321</v>
       </c>
       <c r="B400" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C400" s="2">
         <v>254</v>
@@ -11647,7 +11784,7 @@
         <v>42334</v>
       </c>
       <c r="B401" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C401" s="6">
         <v>16</v>
@@ -11658,7 +11795,7 @@
         <v>42334</v>
       </c>
       <c r="B402" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C402" s="2">
         <v>5302</v>
@@ -11675,7 +11812,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="16.5" customHeight="1">
+    <row r="404" spans="1:7" ht="16.5" hidden="1" customHeight="1">
       <c r="A404" s="1">
         <v>42345</v>
       </c>
@@ -11701,14 +11838,14 @@
       <c r="A406" s="1">
         <v>42346</v>
       </c>
-      <c r="B406" s="15" t="s">
-        <v>317</v>
+      <c r="B406" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C406" s="2">
         <v>2200</v>
       </c>
-      <c r="G406" s="15" t="s">
-        <v>318</v>
+      <c r="G406" s="18" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="16.5" hidden="1" customHeight="1">
@@ -11716,7 +11853,7 @@
         <v>42347</v>
       </c>
       <c r="B407" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D407" s="6">
         <v>6000</v>
@@ -11727,7 +11864,7 @@
         <v>42347</v>
       </c>
       <c r="B408" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D408" s="6">
         <v>150</v>
@@ -11760,7 +11897,7 @@
         <v>42353</v>
       </c>
       <c r="B411" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="C411" s="2">
         <v>4497</v>
@@ -11769,13 +11906,112 @@
         <v>55</v>
       </c>
     </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="1">
+        <v>42374</v>
+      </c>
+      <c r="B412" t="s">
+        <v>48</v>
+      </c>
+      <c r="C412" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="1">
+        <v>42374</v>
+      </c>
+      <c r="B413" t="s">
+        <v>44</v>
+      </c>
+      <c r="C413" s="2">
+        <v>12624</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="1">
+        <v>42378</v>
+      </c>
+      <c r="B414" t="s">
+        <v>378</v>
+      </c>
+      <c r="D414" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="1">
+        <v>42378</v>
+      </c>
+      <c r="B415" t="s">
+        <v>379</v>
+      </c>
+      <c r="D415" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="1">
+        <v>42382</v>
+      </c>
+      <c r="B416" t="s">
+        <v>108</v>
+      </c>
+      <c r="C416" s="2">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B417" t="s">
+        <v>27</v>
+      </c>
+      <c r="C417" s="2">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B418" t="s">
+        <v>384</v>
+      </c>
+      <c r="D418" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" hidden="1">
+      <c r="A419" s="1"/>
+      <c r="B419" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" hidden="1">
+      <c r="A420" s="1"/>
+      <c r="B420" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1">
+        <v>42413</v>
+      </c>
+      <c r="B421" t="s">
+        <v>380</v>
+      </c>
+      <c r="C421" s="2">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:K411">
-    <filterColumn colId="0"/>
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*自付*"/>
-      </customFilters>
+  <autoFilter ref="A2:K421">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2016" dateTimeGrouping="year"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11789,11 +12025,196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" s="2">
+        <f>SUBTOTAL(9,C3:C1011)</f>
+        <v>2940</v>
+      </c>
+      <c r="D1" s="6">
+        <f>SUBTOTAL(9,D3:D1011)</f>
+        <v>4200</v>
+      </c>
+      <c r="E1" s="6">
+        <f>D1-C1</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>42070</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="6">
+        <v>750</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>42070</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="6">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="6">
+        <v>600</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="6">
+        <v>228</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="6">
+        <v>197</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="2">
+        <v>450</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="2">
+        <v>306</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>42389</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="2">
+        <v>239</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>42404</v>
+      </c>
+      <c r="D11">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12171,7 +12592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -12539,12 +12960,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12569,72 +12990,72 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G2">
         <f>B2</f>
@@ -12692,7 +13113,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B3">
         <f>D3-E3</f>
@@ -12769,7 +13190,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B7" si="10">D4-E4</f>
@@ -12846,7 +13267,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B5">
         <f t="shared" si="10"/>
@@ -12923,7 +13344,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B6">
         <f t="shared" si="10"/>
@@ -13000,18 +13421,27 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>23029</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>32400</v>
+      </c>
+      <c r="D7">
+        <v>29030</v>
+      </c>
+      <c r="E7">
+        <v>6001</v>
+      </c>
+      <c r="F7">
+        <v>22624</v>
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>402404</v>
+        <v>425433</v>
       </c>
       <c r="H7">
         <f>H6+J6+P6</f>
@@ -13023,15 +13453,15 @@
       </c>
       <c r="L7">
         <f t="shared" si="11"/>
-        <v>3745512</v>
+        <v>3728889</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>56.064546394292591</v>
+        <v>55.954953196167331</v>
       </c>
       <c r="N7">
         <f t="shared" si="9"/>
-        <v>402404</v>
+        <v>425433</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -13041,15 +13471,15 @@
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.78457973250222646</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.34556851039399072</v>
       </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.0923160867941305E-2</v>
       </c>
       <c r="T7">
         <f>(I7/H7)*10</f>
@@ -13057,7 +13487,7 @@
       </c>
       <c r="U7" s="17">
         <f>((I7+B7-O7+N12-N15)/(H7))*10</f>
-        <v>18.498127367441064</v>
+        <v>18.589050528309009</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -13070,13 +13500,13 @@
     </row>
     <row r="11" spans="1:21">
       <c r="N11" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -13090,13 +13520,13 @@
         <v>120000</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -13114,13 +13544,13 @@
     </row>
     <row r="14" spans="1:21">
       <c r="N14" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S14">
         <v>2012</v>
@@ -13162,10 +13592,10 @@
     </row>
     <row r="17" spans="14:21">
       <c r="N17" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S17">
         <v>2015</v>
@@ -13181,7 +13611,7 @@
     </row>
     <row r="18" spans="14:21">
       <c r="N18">
-        <v>159619</v>
+        <v>176025</v>
       </c>
       <c r="P18">
         <f>H7+P12+((H7/10)*Q15)</f>
@@ -13201,24 +13631,24 @@
     </row>
     <row r="20" spans="14:21">
       <c r="N20" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="14:21">
       <c r="P21">
         <f>((I7+B7+P12-((H7/10)*P15))/P18)*10</f>
-        <v>11.516904038679161</v>
+        <v>11.603714266973967</v>
       </c>
     </row>
     <row r="23" spans="14:21">
       <c r="N23" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="14:21">
@@ -13228,15 +13658,15 @@
       </c>
       <c r="P24">
         <f>N27/(I7+B7+N12+P12-N15+N21+N27)*100</f>
-        <v>40.088154610699092</v>
+        <v>39.973379691360073</v>
       </c>
     </row>
     <row r="26" spans="14:21">
       <c r="N26" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="14:21">
@@ -13245,20 +13675,20 @@
       </c>
       <c r="P27">
         <f>(N27+N30)/(I7+B7+N12+P12-N15+N21+N27+N30)*100</f>
-        <v>40.088154610699092</v>
+        <v>39.973379691360073</v>
       </c>
     </row>
     <row r="29" spans="14:21">
       <c r="N29" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="14:21">
       <c r="N31" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="14:21">
@@ -13276,12 +13706,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13294,25 +13724,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" t="s">
         <v>366</v>
       </c>
-      <c r="C1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>368</v>
       </c>
-      <c r="F1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G1" t="s">
-        <v>370</v>
-      </c>
       <c r="H1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13320,7 +13750,7 @@
         <v>40878</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D2">
         <v>666000</v>
@@ -13342,7 +13772,7 @@
         <v>40878</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D3">
         <v>1271798</v>
@@ -13364,7 +13794,7 @@
         <v>40909</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D4">
         <v>57500</v>
@@ -13381,7 +13811,7 @@
         <v>57500</v>
       </c>
       <c r="I4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13389,7 +13819,7 @@
         <v>40909</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D5">
         <v>57500</v>
@@ -13406,7 +13836,7 @@
         <v>57500</v>
       </c>
       <c r="I5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13414,7 +13844,7 @@
         <v>41275</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D6">
         <v>60000</v>
@@ -13431,7 +13861,7 @@
         <v>60000</v>
       </c>
       <c r="I6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13439,7 +13869,7 @@
         <v>41275</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D7">
         <v>60000</v>
@@ -13456,7 +13886,7 @@
         <v>60000</v>
       </c>
       <c r="I7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13464,7 +13894,7 @@
         <v>41640</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D8">
         <v>60000</v>
@@ -13481,7 +13911,7 @@
         <v>60000</v>
       </c>
       <c r="I8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13489,7 +13919,7 @@
         <v>41640</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D9">
         <v>60000</v>
@@ -13506,7 +13936,7 @@
         <v>60000</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13514,7 +13944,7 @@
         <v>42005</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D10">
         <v>60000</v>
@@ -13531,7 +13961,7 @@
         <v>60000</v>
       </c>
       <c r="I10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13539,7 +13969,7 @@
         <v>42005</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D11">
         <v>60000</v>
@@ -13556,7 +13986,7 @@
         <v>60000</v>
       </c>
       <c r="I11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13564,7 +13994,7 @@
         <v>42370</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D12">
         <v>60000</v>
@@ -13581,7 +14011,7 @@
         <v>60000</v>
       </c>
       <c r="I12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13589,7 +14019,7 @@
         <v>42370</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D13">
         <v>60000</v>
@@ -13606,7 +14036,7 @@
         <v>60000</v>
       </c>
       <c r="I13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,27 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
     <sheet name="交屋後明細" sheetId="6" r:id="rId2"/>
-    <sheet name="3號水電" sheetId="11" r:id="rId3"/>
+    <sheet name="水電預繳" sheetId="11" r:id="rId3"/>
     <sheet name="交屋前支出" sheetId="7" r:id="rId4"/>
     <sheet name="借款" sheetId="3" r:id="rId5"/>
     <sheet name="財務報表" sheetId="9" r:id="rId6"/>
     <sheet name="股份統計" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$421</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$417</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="389">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1560,6 +1560,22 @@
   </si>
   <si>
     <t>第3間2.3.4.5月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間12.1.2月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先付1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間1月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先付2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1610,7 +1626,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,6 +1657,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1656,7 +1678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1714,12 +1736,83 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1793,7 +1886,7 @@
                   <c:v>102789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23029</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,7 +1957,7 @@
                   <c:v>402404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>425433</c:v>
+                  <c:v>402404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,31 +2025,31 @@
                   <c:v>225060</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="147675392"/>
-        <c:axId val="147681280"/>
+        <c:axId val="79368576"/>
+        <c:axId val="79370112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147675392"/>
+        <c:axId val="79368576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147681280"/>
+        <c:crossAx val="79370112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147681280"/>
+        <c:axId val="79370112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +2057,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147675392"/>
+        <c:crossAx val="79368576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,7 +2119,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2306,11 +2399,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J421"/>
+  <dimension ref="A1:J425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G392" sqref="G392"/>
+      <pane ySplit="2" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2327,22 +2420,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
-        <v>1404133</v>
+        <v>1426637</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1011)</f>
-        <v>1502430</v>
+        <f>SUBTOTAL(9,C3:C1015)</f>
+        <v>1524934</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1011)</f>
-        <v>1678455</v>
+        <f>SUBTOTAL(9,D3:D1015)</f>
+        <v>1696339</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>176025</v>
+        <v>171405</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1011)</f>
+        <f>SUBTOTAL(9,F3:F1015)</f>
         <v>36700</v>
       </c>
     </row>
@@ -5686,7 +5779,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
@@ -6689,10 +6782,10 @@
         <v>42286</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="D385" s="2">
-        <v>150</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7049,31 +7142,95 @@
       </c>
     </row>
     <row r="418" spans="1:4">
-      <c r="A418" s="1"/>
+      <c r="A418" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D418" s="2">
+        <v>239</v>
+      </c>
     </row>
     <row r="419" spans="1:4">
+      <c r="A419" s="1">
+        <v>42405</v>
+      </c>
       <c r="B419" t="s">
         <v>48</v>
       </c>
+      <c r="D419" s="6">
+        <v>10000</v>
+      </c>
     </row>
     <row r="420" spans="1:4">
+      <c r="A420" s="1">
+        <v>42405</v>
+      </c>
       <c r="B420" t="s">
         <v>44</v>
       </c>
+      <c r="C420" s="2">
+        <v>22504</v>
+      </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="1">
+        <v>42405</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D421" s="6">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1">
+        <v>42410</v>
+      </c>
+      <c r="B422" t="s">
+        <v>50</v>
+      </c>
+      <c r="D422" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1">
+        <v>42410</v>
+      </c>
+      <c r="B423" t="s">
+        <v>242</v>
+      </c>
+      <c r="D423" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1">
+        <v>42410</v>
+      </c>
+      <c r="B424" t="s">
+        <v>201</v>
+      </c>
+      <c r="D424" s="6">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1">
         <v>42413</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B425" t="s">
         <v>380</v>
       </c>
-      <c r="C421" s="2">
+      <c r="C425" s="2">
         <v>205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J417"/>
+  <autoFilter ref="A2:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7085,14 +7242,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K421"/>
+  <dimension ref="A1:K426"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C412" sqref="C412:C413"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7107,20 +7264,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1012)</f>
-        <v>26144</v>
+        <f>SUBTOTAL(9,C3:C1017)</f>
+        <v>1426637</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1012)</f>
-        <v>32550</v>
+        <f>SUBTOTAL(9,D3:D1017)</f>
+        <v>1066339</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>6406</v>
+        <v>-360298</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1012)</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,F3:F1017)</f>
+        <v>36700</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
@@ -7146,7 +7303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>40913</v>
       </c>
@@ -7157,7 +7314,7 @@
         <v>39733</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>40913</v>
       </c>
@@ -7168,7 +7325,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>40913</v>
       </c>
@@ -7182,7 +7339,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>40913</v>
       </c>
@@ -7196,7 +7353,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>40913</v>
       </c>
@@ -7210,7 +7367,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>40913</v>
       </c>
@@ -7221,7 +7378,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>40913</v>
       </c>
@@ -7232,7 +7389,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>40913</v>
       </c>
@@ -7243,7 +7400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>40914</v>
       </c>
@@ -7254,7 +7411,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>40922</v>
       </c>
@@ -7265,7 +7422,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1">
       <c r="A13" s="1">
         <v>40928</v>
       </c>
@@ -7276,7 +7433,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>40938</v>
       </c>
@@ -7287,7 +7444,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>40942</v>
       </c>
@@ -7298,7 +7455,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>40943</v>
       </c>
@@ -7309,7 +7466,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
       <c r="A17" s="1">
         <v>40945</v>
       </c>
@@ -7320,7 +7477,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>40947</v>
       </c>
@@ -7331,7 +7488,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>40969</v>
       </c>
@@ -7345,7 +7502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>40969</v>
       </c>
@@ -7359,7 +7516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>40973</v>
       </c>
@@ -7370,7 +7527,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="22" spans="1:7" ht="16.5" customHeight="1">
       <c r="A22" s="1">
         <v>40974</v>
       </c>
@@ -7381,7 +7538,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:7" ht="16.5" customHeight="1">
       <c r="A23" s="1">
         <v>40974</v>
       </c>
@@ -7392,7 +7549,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>40974</v>
       </c>
@@ -7403,7 +7560,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>40982</v>
       </c>
@@ -7414,7 +7571,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>40998</v>
       </c>
@@ -7425,7 +7582,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>41004</v>
       </c>
@@ -7436,7 +7593,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1">
       <c r="A28" s="1">
         <v>41005</v>
       </c>
@@ -7448,7 +7605,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:7" ht="16.5" customHeight="1">
       <c r="A29" s="1">
         <v>41005</v>
       </c>
@@ -7459,7 +7616,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>41009</v>
       </c>
@@ -7470,7 +7627,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>41012</v>
       </c>
@@ -7481,7 +7638,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>41032</v>
       </c>
@@ -7492,7 +7649,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1">
       <c r="A33" s="1">
         <v>41036</v>
       </c>
@@ -7504,7 +7661,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="34" spans="1:7" ht="16.5" customHeight="1">
       <c r="A34" s="1">
         <v>41036</v>
       </c>
@@ -7515,7 +7672,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>41037</v>
       </c>
@@ -7526,7 +7683,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>41040</v>
       </c>
@@ -7537,7 +7694,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>41048</v>
       </c>
@@ -7548,7 +7705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>41051</v>
       </c>
@@ -7562,7 +7719,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>41051</v>
       </c>
@@ -7573,7 +7730,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>41053</v>
       </c>
@@ -7584,7 +7741,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>41060</v>
       </c>
@@ -7598,7 +7755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="1">
         <v>41065</v>
       </c>
@@ -7610,7 +7767,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="1">
         <v>41065</v>
       </c>
@@ -7621,7 +7778,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>41065</v>
       </c>
@@ -7632,7 +7789,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>41067</v>
       </c>
@@ -7646,7 +7803,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>41067</v>
       </c>
@@ -7657,7 +7814,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>41067</v>
       </c>
@@ -7671,7 +7828,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>41067</v>
       </c>
@@ -7682,7 +7839,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>41068</v>
       </c>
@@ -7693,7 +7850,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>41069</v>
       </c>
@@ -7704,7 +7861,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>41069</v>
       </c>
@@ -7715,7 +7872,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>41069</v>
       </c>
@@ -7726,7 +7883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>41069</v>
       </c>
@@ -7737,7 +7894,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>41073</v>
       </c>
@@ -7748,7 +7905,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="55" spans="1:7" ht="16.5" customHeight="1">
       <c r="A55" s="1">
         <v>41095</v>
       </c>
@@ -7759,7 +7916,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:7" ht="16.5" customHeight="1">
       <c r="A56" s="1">
         <v>41095</v>
       </c>
@@ -7770,7 +7927,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>41095</v>
       </c>
@@ -7781,7 +7938,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>41095</v>
       </c>
@@ -7796,7 +7953,7 @@
       <c r="F58" s="11"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>41096</v>
       </c>
@@ -7807,7 +7964,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>41096</v>
       </c>
@@ -7821,7 +7978,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>41101</v>
       </c>
@@ -7832,7 +7989,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>41103</v>
       </c>
@@ -7843,7 +8000,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>41124</v>
       </c>
@@ -7854,7 +8011,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="64" spans="1:7" ht="16.5" customHeight="1">
       <c r="A64" s="1">
         <v>41128</v>
       </c>
@@ -7865,7 +8022,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16.5" hidden="1" customHeight="1">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1">
       <c r="A65" s="1">
         <v>41128</v>
       </c>
@@ -7876,7 +8033,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>41134</v>
       </c>
@@ -7887,7 +8044,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16.5" hidden="1" customHeight="1">
+    <row r="67" spans="1:11" ht="16.5" customHeight="1">
       <c r="A67" s="1">
         <v>41157</v>
       </c>
@@ -7898,7 +8055,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16.5" hidden="1" customHeight="1">
+    <row r="68" spans="1:11" ht="16.5" customHeight="1">
       <c r="A68" s="1">
         <v>41157</v>
       </c>
@@ -7909,7 +8066,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>41157</v>
       </c>
@@ -7920,7 +8077,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>41164</v>
       </c>
@@ -7931,7 +8088,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>41164</v>
       </c>
@@ -7945,7 +8102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>41170</v>
       </c>
@@ -7956,7 +8113,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>41172</v>
       </c>
@@ -7972,7 +8129,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>41172</v>
       </c>
@@ -7985,7 +8142,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>41172</v>
       </c>
@@ -7998,7 +8155,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" hidden="1" customHeight="1">
+    <row r="76" spans="1:11" ht="16.5" customHeight="1">
       <c r="A76" s="1">
         <v>41187</v>
       </c>
@@ -8011,7 +8168,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" hidden="1" customHeight="1">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1">
       <c r="A77" s="1">
         <v>41187</v>
       </c>
@@ -8024,7 +8181,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" hidden="1">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>41187</v>
       </c>
@@ -8035,7 +8192,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>41218</v>
       </c>
@@ -8046,7 +8203,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" hidden="1" customHeight="1">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1">
       <c r="A80" s="1">
         <v>41219</v>
       </c>
@@ -8057,7 +8214,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="81" spans="1:7" ht="16.5" customHeight="1">
       <c r="A81" s="1">
         <v>41219</v>
       </c>
@@ -8068,7 +8225,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>41221</v>
       </c>
@@ -8079,7 +8236,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>41225</v>
       </c>
@@ -8090,7 +8247,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>41231</v>
       </c>
@@ -8101,7 +8258,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>41242</v>
       </c>
@@ -8112,7 +8269,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>41247</v>
       </c>
@@ -8123,7 +8280,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="87" spans="1:7" ht="16.5" customHeight="1">
       <c r="A87" s="1">
         <v>41248</v>
       </c>
@@ -8134,7 +8291,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="88" spans="1:7" ht="16.5" customHeight="1">
       <c r="A88" s="1">
         <v>41248</v>
       </c>
@@ -8145,7 +8302,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>41256</v>
       </c>
@@ -8156,7 +8313,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>41257</v>
       </c>
@@ -8170,7 +8327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="91" spans="1:7" ht="16.5" customHeight="1">
       <c r="A91" s="1">
         <v>41278</v>
       </c>
@@ -8181,7 +8338,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="92" spans="1:7" ht="16.5" customHeight="1">
       <c r="A92" s="1">
         <v>41281</v>
       </c>
@@ -8192,7 +8349,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="93" spans="1:7" ht="16.5" customHeight="1">
       <c r="A93" s="1">
         <v>41281</v>
       </c>
@@ -8203,7 +8360,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="94" spans="1:7" ht="16.5" customHeight="1">
       <c r="A94" s="1">
         <v>41282</v>
       </c>
@@ -8214,7 +8371,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="95" spans="1:7" ht="16.5" customHeight="1">
       <c r="A95" s="1">
         <v>41285</v>
       </c>
@@ -8225,7 +8382,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="96" spans="1:7" ht="16.5" customHeight="1">
       <c r="A96" s="1">
         <v>41286</v>
       </c>
@@ -8239,7 +8396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="97" spans="1:7" ht="16.5" customHeight="1">
       <c r="A97" s="1">
         <v>41306</v>
       </c>
@@ -8250,7 +8407,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="98" spans="1:7" ht="16.5" customHeight="1">
       <c r="A98" s="1">
         <v>41310</v>
       </c>
@@ -8261,7 +8418,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="99" spans="1:7" ht="16.5" customHeight="1">
       <c r="A99" s="1">
         <v>41310</v>
       </c>
@@ -8272,7 +8429,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="100" spans="1:7" ht="16.5" customHeight="1">
       <c r="A100" s="1">
         <v>41310</v>
       </c>
@@ -8286,7 +8443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="101" spans="1:7" ht="16.5" customHeight="1">
       <c r="A101" s="1">
         <v>41310</v>
       </c>
@@ -8297,7 +8454,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="102" spans="1:7" ht="16.5" customHeight="1">
       <c r="A102" s="1">
         <v>41310</v>
       </c>
@@ -8311,7 +8468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="103" spans="1:7" ht="16.5" customHeight="1">
       <c r="A103" s="1">
         <v>41310</v>
       </c>
@@ -8322,7 +8479,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="104" spans="1:7" ht="16.5" customHeight="1">
       <c r="A104" s="1">
         <v>41318</v>
       </c>
@@ -8333,7 +8490,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="105" spans="1:7" ht="16.5" customHeight="1">
       <c r="A105" s="1">
         <v>41318</v>
       </c>
@@ -8347,7 +8504,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="106" spans="1:7" ht="16.5" customHeight="1">
       <c r="A106" s="1">
         <v>41320</v>
       </c>
@@ -8361,7 +8518,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="107" spans="1:7" ht="16.5" customHeight="1">
       <c r="A107" s="1">
         <v>41322</v>
       </c>
@@ -8372,7 +8529,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="108" spans="1:7" ht="16.5" customHeight="1">
       <c r="A108" s="1">
         <v>41322</v>
       </c>
@@ -8383,7 +8540,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="109" spans="1:7" ht="16.5" customHeight="1">
       <c r="A109" s="1">
         <v>41323</v>
       </c>
@@ -8397,7 +8554,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="110" spans="1:7" ht="16.5" customHeight="1">
       <c r="A110" s="1">
         <v>41323</v>
       </c>
@@ -8408,7 +8565,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="111" spans="1:7" ht="16.5" customHeight="1">
       <c r="A111" s="1">
         <v>41338</v>
       </c>
@@ -8419,7 +8576,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="112" spans="1:7" ht="16.5" customHeight="1">
       <c r="A112" s="1">
         <v>41338</v>
       </c>
@@ -8430,7 +8587,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="113" spans="1:7" ht="16.5" customHeight="1">
       <c r="A113" s="1">
         <v>41345</v>
       </c>
@@ -8441,7 +8598,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="114" spans="1:7" ht="16.5" customHeight="1">
       <c r="A114" s="1">
         <v>41346</v>
       </c>
@@ -8455,7 +8612,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="115" spans="1:7" ht="16.5" customHeight="1">
       <c r="A115" s="1">
         <v>41353</v>
       </c>
@@ -8466,7 +8623,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="116" spans="1:7" ht="16.5" customHeight="1">
       <c r="A116" s="1">
         <v>41370</v>
       </c>
@@ -8477,7 +8634,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="117" spans="1:7" ht="16.5" customHeight="1">
       <c r="A117" s="1">
         <v>41373</v>
       </c>
@@ -8488,7 +8645,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="118" spans="1:7" ht="16.5" customHeight="1">
       <c r="A118" s="1">
         <v>41373</v>
       </c>
@@ -8499,7 +8656,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="119" spans="1:7" ht="16.5" customHeight="1">
       <c r="A119" s="1">
         <v>41377</v>
       </c>
@@ -8510,7 +8667,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="120" spans="1:7" ht="16.5" customHeight="1">
       <c r="A120" s="1">
         <v>41386</v>
       </c>
@@ -8521,7 +8678,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="121" spans="1:7" ht="16.5" customHeight="1">
       <c r="A121" s="1">
         <v>41401</v>
       </c>
@@ -8532,7 +8689,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="122" spans="1:7" ht="16.5" customHeight="1">
       <c r="A122" s="1">
         <v>41401</v>
       </c>
@@ -8543,7 +8700,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="123" spans="1:7" ht="16.5" customHeight="1">
       <c r="A123" s="1">
         <v>41408</v>
       </c>
@@ -8554,7 +8711,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="124" spans="1:7" ht="16.5" customHeight="1">
       <c r="A124" s="1">
         <v>41418</v>
       </c>
@@ -8565,7 +8722,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="125" spans="1:7" ht="16.5" customHeight="1">
       <c r="A125" s="1">
         <v>41425</v>
       </c>
@@ -8576,7 +8733,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="126" spans="1:7" ht="16.5" customHeight="1">
       <c r="A126" s="1">
         <v>41426</v>
       </c>
@@ -8587,7 +8744,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="127" spans="1:7" ht="16.5" customHeight="1">
       <c r="A127" s="1">
         <v>41430</v>
       </c>
@@ -8598,7 +8755,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="128" spans="1:7" ht="16.5" customHeight="1">
       <c r="A128" s="1">
         <v>41430</v>
       </c>
@@ -8609,7 +8766,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="129" spans="1:7" ht="16.5" customHeight="1">
       <c r="A129" s="1">
         <v>41435</v>
       </c>
@@ -8620,7 +8777,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="130" spans="1:7" ht="16.5" customHeight="1">
       <c r="A130" s="1">
         <v>41440</v>
       </c>
@@ -8634,7 +8791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="131" spans="1:7" ht="16.5" customHeight="1">
       <c r="A131" s="1">
         <v>41441</v>
       </c>
@@ -8648,7 +8805,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="132" spans="1:7" ht="16.5" customHeight="1">
       <c r="A132" s="1">
         <v>41441</v>
       </c>
@@ -8659,7 +8816,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="133" spans="1:7" ht="16.5" customHeight="1">
       <c r="A133" s="1">
         <v>41441</v>
       </c>
@@ -8670,7 +8827,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="134" spans="1:7" ht="16.5" customHeight="1">
       <c r="A134" s="1">
         <v>41441</v>
       </c>
@@ -8681,7 +8838,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="135" spans="1:7" ht="16.5" customHeight="1">
       <c r="A135" s="1">
         <v>41444</v>
       </c>
@@ -8695,7 +8852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="136" spans="1:7" ht="16.5" customHeight="1">
       <c r="A136" s="1">
         <v>41444</v>
       </c>
@@ -8706,7 +8863,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="137" spans="1:7" ht="16.5" customHeight="1">
       <c r="A137" s="1">
         <v>41444</v>
       </c>
@@ -8720,7 +8877,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="138" spans="1:7" ht="16.5" customHeight="1">
       <c r="A138" s="1">
         <v>41450</v>
       </c>
@@ -8734,7 +8891,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="139" spans="1:7" ht="16.5" customHeight="1">
       <c r="A139" s="1">
         <v>41450</v>
       </c>
@@ -8745,7 +8902,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="140" spans="1:7" ht="16.5" customHeight="1">
       <c r="A140" s="1">
         <v>41450</v>
       </c>
@@ -8756,7 +8913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="141" spans="1:7" ht="16.5" customHeight="1">
       <c r="A141" s="1">
         <v>41451</v>
       </c>
@@ -8770,7 +8927,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="142" spans="1:7" ht="16.5" customHeight="1">
       <c r="A142" s="1">
         <v>41451</v>
       </c>
@@ -8781,7 +8938,7 @@
         <v>74800</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="143" spans="1:7" ht="16.5" customHeight="1">
       <c r="A143" s="1">
         <v>41451</v>
       </c>
@@ -8792,7 +8949,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="144" spans="1:7" ht="16.5" customHeight="1">
       <c r="A144" s="1">
         <v>41460</v>
       </c>
@@ -8803,7 +8960,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="145" spans="1:7" ht="16.5" customHeight="1">
       <c r="A145" s="1">
         <v>41460</v>
       </c>
@@ -8814,7 +8971,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="146" spans="1:7" ht="16.5" customHeight="1">
       <c r="A146" s="1">
         <v>41466</v>
       </c>
@@ -8825,7 +8982,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="147" spans="1:7" ht="16.5" customHeight="1">
       <c r="A147" s="1">
         <v>41486</v>
       </c>
@@ -8836,7 +8993,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="148" spans="1:7" ht="16.5" customHeight="1">
       <c r="A148" s="1">
         <v>41487</v>
       </c>
@@ -8847,7 +9004,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="149" spans="1:7" ht="16.5" customHeight="1">
       <c r="A149" s="1">
         <v>41491</v>
       </c>
@@ -8858,7 +9015,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="150" spans="1:7" ht="16.5" customHeight="1">
       <c r="A150" s="1">
         <v>41491</v>
       </c>
@@ -8869,7 +9026,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="151" spans="1:7" ht="16.5" customHeight="1">
       <c r="A151" s="1">
         <v>41522</v>
       </c>
@@ -8880,7 +9037,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="152" spans="1:7" ht="16.5" customHeight="1">
       <c r="A152" s="1">
         <v>41522</v>
       </c>
@@ -8891,7 +9048,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="153" spans="1:7" ht="16.5" customHeight="1">
       <c r="A153" s="1">
         <v>41528</v>
       </c>
@@ -8902,7 +9059,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="154" spans="1:7" ht="16.5" customHeight="1">
       <c r="A154" s="1">
         <v>41532</v>
       </c>
@@ -8916,7 +9073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="155" spans="1:7" ht="16.5" customHeight="1">
       <c r="A155" s="1">
         <v>41534</v>
       </c>
@@ -8930,7 +9087,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="156" spans="1:7" ht="16.5" customHeight="1">
       <c r="A156" s="1">
         <v>41534</v>
       </c>
@@ -8942,7 +9099,7 @@
         <v>60500</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="157" spans="1:7" ht="16.5" customHeight="1">
       <c r="A157" s="1">
         <v>41534</v>
       </c>
@@ -8954,7 +9111,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="158" spans="1:7" ht="16.5" customHeight="1">
       <c r="A158" s="1">
         <v>41542</v>
       </c>
@@ -8968,7 +9125,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="159" spans="1:7" ht="16.5" customHeight="1">
       <c r="A159" s="1">
         <v>41542</v>
       </c>
@@ -8982,7 +9139,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="160" spans="1:7" ht="16.5" customHeight="1">
       <c r="A160" s="1">
         <v>41548</v>
       </c>
@@ -8993,7 +9150,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="161" spans="1:7" ht="16.5" customHeight="1">
       <c r="A161" s="1">
         <v>41549</v>
       </c>
@@ -9004,7 +9161,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="162" spans="1:7" ht="16.5" customHeight="1">
       <c r="A162" s="1">
         <v>41552</v>
       </c>
@@ -9015,7 +9172,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="163" spans="1:7" ht="16.5" customHeight="1">
       <c r="A163" s="1">
         <v>41552</v>
       </c>
@@ -9026,7 +9183,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="164" spans="1:7" ht="16.5" customHeight="1">
       <c r="A164" s="1">
         <v>41583</v>
       </c>
@@ -9037,7 +9194,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="165" spans="1:7" ht="16.5" customHeight="1">
       <c r="A165" s="1">
         <v>41583</v>
       </c>
@@ -9048,7 +9205,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="166" spans="1:7" ht="16.5" customHeight="1">
       <c r="A166" s="1">
         <v>41590</v>
       </c>
@@ -9059,7 +9216,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="167" spans="1:7" ht="16.5" customHeight="1">
       <c r="A167" s="1">
         <v>41607</v>
       </c>
@@ -9070,7 +9227,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="168" spans="1:7" ht="16.5" customHeight="1">
       <c r="A168" s="1">
         <v>41613</v>
       </c>
@@ -9081,7 +9238,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="169" spans="1:7" ht="16.5" customHeight="1">
       <c r="A169" s="1">
         <v>41613</v>
       </c>
@@ -9092,7 +9249,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="170" spans="1:7" ht="16.5" customHeight="1">
       <c r="A170" s="1">
         <v>41614</v>
       </c>
@@ -9103,7 +9260,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="171" spans="1:7" ht="16.5" customHeight="1">
       <c r="A171" s="1">
         <v>41619</v>
       </c>
@@ -9117,7 +9274,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="172" spans="1:7" ht="16.5" customHeight="1">
       <c r="A172" s="1">
         <v>41619</v>
       </c>
@@ -9131,7 +9288,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="173" spans="1:7" ht="16.5" customHeight="1">
       <c r="A173" s="1">
         <v>41621</v>
       </c>
@@ -9142,7 +9299,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="174" spans="1:7" ht="16.5" customHeight="1">
       <c r="A174" s="1">
         <v>41623</v>
       </c>
@@ -9156,7 +9313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="175" spans="1:7" ht="16.5" customHeight="1">
       <c r="A175" s="1">
         <v>41646</v>
       </c>
@@ -9167,7 +9324,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="176" spans="1:7" ht="16.5" customHeight="1">
       <c r="A176" s="1">
         <v>41646</v>
       </c>
@@ -9178,7 +9335,7 @@
         <v>12173</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="177" spans="1:7" ht="16.5" customHeight="1">
       <c r="A177" s="1">
         <v>41652</v>
       </c>
@@ -9189,7 +9346,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="178" spans="1:7" ht="16.5" customHeight="1">
       <c r="A178" s="1">
         <v>41675</v>
       </c>
@@ -9203,7 +9360,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="179" spans="1:7" ht="16.5" customHeight="1">
       <c r="A179" s="1">
         <v>41675</v>
       </c>
@@ -9214,7 +9371,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="180" spans="1:7" ht="16.5" customHeight="1">
       <c r="A180" s="1">
         <v>41676</v>
       </c>
@@ -9226,7 +9383,7 @@
       </c>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="181" spans="1:7" ht="16.5" customHeight="1">
       <c r="A181" s="1">
         <v>41676</v>
       </c>
@@ -9237,7 +9394,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="182" spans="1:7" ht="16.5" customHeight="1">
       <c r="A182" s="1">
         <v>41677</v>
       </c>
@@ -9248,7 +9405,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="183" spans="1:7" ht="16.5" customHeight="1">
       <c r="A183" s="1">
         <v>41683</v>
       </c>
@@ -9259,7 +9416,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="184" spans="1:7" ht="16.5" customHeight="1">
       <c r="A184" s="1">
         <v>41694</v>
       </c>
@@ -9273,7 +9430,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="185" spans="1:7" ht="16.5" customHeight="1">
       <c r="A185" s="1">
         <v>41694</v>
       </c>
@@ -9287,7 +9444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="186" spans="1:7" ht="16.5" customHeight="1">
       <c r="A186" s="1">
         <v>41703</v>
       </c>
@@ -9298,7 +9455,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="187" spans="1:7" ht="16.5" customHeight="1">
       <c r="A187" s="1">
         <v>41703</v>
       </c>
@@ -9309,7 +9466,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="188" spans="1:7" ht="16.5" customHeight="1">
       <c r="A188" s="1">
         <v>41710</v>
       </c>
@@ -9320,7 +9477,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="189" spans="1:7" ht="16.5" customHeight="1">
       <c r="A189" s="1">
         <v>41713</v>
       </c>
@@ -9334,7 +9491,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="190" spans="1:7" ht="16.5" customHeight="1">
       <c r="A190" s="1">
         <v>41726</v>
       </c>
@@ -9348,7 +9505,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="191" spans="1:7" ht="16.5" customHeight="1">
       <c r="A191" s="1">
         <v>41726</v>
       </c>
@@ -9362,7 +9519,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="192" spans="1:7" ht="16.5" customHeight="1">
       <c r="A192" s="1">
         <v>41736</v>
       </c>
@@ -9373,7 +9530,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="193" spans="1:7" ht="16.5" customHeight="1">
       <c r="A193" s="1">
         <v>41736</v>
       </c>
@@ -9384,7 +9541,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="194" spans="1:7" ht="16.5" customHeight="1">
       <c r="A194" s="1">
         <v>41737</v>
       </c>
@@ -9395,7 +9552,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="195" spans="1:7" ht="16.5" customHeight="1">
       <c r="A195" s="1">
         <v>41742</v>
       </c>
@@ -9406,7 +9563,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="196" spans="1:7" ht="16.5" customHeight="1">
       <c r="A196" s="1">
         <v>41765</v>
       </c>
@@ -9417,7 +9574,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="197" spans="1:7" ht="16.5" customHeight="1">
       <c r="A197" s="1">
         <v>41765</v>
       </c>
@@ -9428,7 +9585,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="198" spans="1:7" ht="16.5" customHeight="1">
       <c r="A198" s="1">
         <v>41772</v>
       </c>
@@ -9439,7 +9596,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="199" spans="1:7" ht="16.5" customHeight="1">
       <c r="A199" s="1">
         <v>41787</v>
       </c>
@@ -9453,7 +9610,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="200" spans="1:7" ht="16.5" customHeight="1">
       <c r="A200" s="1">
         <v>41787</v>
       </c>
@@ -9464,7 +9621,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="201" spans="1:7" ht="16.5" customHeight="1">
       <c r="A201" s="1">
         <v>41787</v>
       </c>
@@ -9475,7 +9632,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="202" spans="1:7" ht="16.5" customHeight="1">
       <c r="A202" s="1">
         <v>41787</v>
       </c>
@@ -9486,7 +9643,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="203" spans="1:7" ht="16.5" customHeight="1">
       <c r="A203" s="1">
         <v>41787</v>
       </c>
@@ -9497,7 +9654,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="204" spans="1:7" ht="16.5" customHeight="1">
       <c r="A204" s="1">
         <v>41792</v>
       </c>
@@ -9508,7 +9665,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="205" spans="1:7" ht="16.5" customHeight="1">
       <c r="A205" s="1">
         <v>41795</v>
       </c>
@@ -9519,7 +9676,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="206" spans="1:7" ht="16.5" customHeight="1">
       <c r="A206" s="1">
         <v>41795</v>
       </c>
@@ -9530,7 +9687,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="207" spans="1:7" ht="16.5" customHeight="1">
       <c r="A207" s="1">
         <v>41796</v>
       </c>
@@ -9541,7 +9698,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="208" spans="1:7" ht="16.5" customHeight="1">
       <c r="A208" s="1">
         <v>41799</v>
       </c>
@@ -9555,7 +9712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="209" spans="1:7" ht="16.5" customHeight="1">
       <c r="A209" s="1">
         <v>41802</v>
       </c>
@@ -9566,7 +9723,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="210" spans="1:7" ht="16.5" customHeight="1">
       <c r="A210" s="1">
         <v>41803</v>
       </c>
@@ -9577,7 +9734,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="211" spans="1:7" ht="16.5" customHeight="1">
       <c r="A211" s="1">
         <v>41821</v>
       </c>
@@ -9591,7 +9748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="212" spans="1:7" ht="16.5" customHeight="1">
       <c r="A212" s="1">
         <v>41821</v>
       </c>
@@ -9605,7 +9762,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="213" spans="1:7" ht="16.5" customHeight="1">
       <c r="A213" s="1">
         <v>41821</v>
       </c>
@@ -9619,7 +9776,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="214" spans="1:7" ht="16.5" customHeight="1">
       <c r="A214" s="1">
         <v>41827</v>
       </c>
@@ -9630,7 +9787,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="215" spans="1:7" ht="16.5" customHeight="1">
       <c r="A215" s="1">
         <v>41827</v>
       </c>
@@ -9641,7 +9798,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="216" spans="1:7" ht="16.5" customHeight="1">
       <c r="A216" s="1">
         <v>41830</v>
       </c>
@@ -9652,7 +9809,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="217" spans="1:7" ht="16.5" customHeight="1">
       <c r="A217" s="1">
         <v>41832</v>
       </c>
@@ -9666,7 +9823,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="218" spans="1:7" ht="16.5" customHeight="1">
       <c r="A218" s="1">
         <v>41832</v>
       </c>
@@ -9680,7 +9837,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="219" spans="1:7" ht="16.5" customHeight="1">
       <c r="A219" s="1">
         <v>41842</v>
       </c>
@@ -9691,7 +9848,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="220" spans="1:7" ht="16.5" customHeight="1">
       <c r="A220" s="1">
         <v>41856</v>
       </c>
@@ -9702,7 +9859,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="221" spans="1:7" ht="16.5" customHeight="1">
       <c r="A221" s="1">
         <v>41856</v>
       </c>
@@ -9713,7 +9870,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="222" spans="1:7" ht="16.5" customHeight="1">
       <c r="A222" s="1">
         <v>41856</v>
       </c>
@@ -9727,7 +9884,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="223" spans="1:7" ht="16.5" customHeight="1">
       <c r="A223" s="1">
         <v>41857</v>
       </c>
@@ -9742,7 +9899,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="224" spans="1:7" ht="16.5" customHeight="1">
       <c r="A224" s="1">
         <v>41857</v>
       </c>
@@ -9753,7 +9910,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="225" spans="1:7" ht="16.5" customHeight="1">
       <c r="A225" s="1">
         <v>41857</v>
       </c>
@@ -9764,7 +9921,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="226" spans="1:7" ht="16.5" customHeight="1">
       <c r="A226" s="1">
         <v>41857</v>
       </c>
@@ -9775,7 +9932,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="227" spans="1:7" ht="16.5" customHeight="1">
       <c r="A227" s="1">
         <v>41859</v>
       </c>
@@ -9786,7 +9943,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="228" spans="1:7" ht="16.5" customHeight="1">
       <c r="A228" s="1">
         <v>41864</v>
       </c>
@@ -9797,7 +9954,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="229" spans="1:7" ht="16.5" customHeight="1">
       <c r="A229" s="1">
         <v>41887</v>
       </c>
@@ -9808,7 +9965,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="230" spans="1:7" ht="16.5" customHeight="1">
       <c r="A230" s="1">
         <v>41887</v>
       </c>
@@ -9819,7 +9976,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="231" spans="1:7" ht="16.5" customHeight="1">
       <c r="A231" s="1">
         <v>41888</v>
       </c>
@@ -9833,7 +9990,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="232" spans="1:7" ht="16.5" customHeight="1">
       <c r="A232" s="1">
         <v>41888</v>
       </c>
@@ -9847,7 +10004,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="233" spans="1:7" ht="16.5" customHeight="1">
       <c r="A233" s="1">
         <v>41888</v>
       </c>
@@ -9861,7 +10018,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="234" spans="1:7" ht="16.5" customHeight="1">
       <c r="A234" s="1">
         <v>41888</v>
       </c>
@@ -9872,7 +10029,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="235" spans="1:7" ht="16.5" customHeight="1">
       <c r="A235" s="1">
         <v>41888</v>
       </c>
@@ -9883,7 +10040,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="236" spans="1:7" ht="16.5" customHeight="1">
       <c r="A236" s="1">
         <v>41888</v>
       </c>
@@ -9894,7 +10051,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="237" spans="1:7" ht="16.5" customHeight="1">
       <c r="A237" s="1">
         <v>41888</v>
       </c>
@@ -9905,7 +10062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="238" spans="1:7" ht="16.5" customHeight="1">
       <c r="A238" s="1">
         <v>41888</v>
       </c>
@@ -9919,7 +10076,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="239" spans="1:7" ht="16.5" customHeight="1">
       <c r="A239" s="1">
         <v>41888</v>
       </c>
@@ -9930,7 +10087,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="240" spans="1:7" ht="16.5" customHeight="1">
       <c r="A240" s="1">
         <v>41888</v>
       </c>
@@ -9941,7 +10098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="241" spans="1:7" ht="16.5" customHeight="1">
       <c r="A241" s="1">
         <v>41893</v>
       </c>
@@ -9952,7 +10109,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="242" spans="1:7" ht="16.5" customHeight="1">
       <c r="A242" s="1">
         <v>41897</v>
       </c>
@@ -9966,7 +10123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="243" spans="1:7" ht="16.5" customHeight="1">
       <c r="A243" s="1">
         <v>41897</v>
       </c>
@@ -9977,7 +10134,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="244" spans="1:7" ht="16.5" customHeight="1">
       <c r="A244" s="1">
         <v>41897</v>
       </c>
@@ -9988,7 +10145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="245" spans="1:7" ht="16.5" customHeight="1">
       <c r="A245" s="1">
         <v>41897</v>
       </c>
@@ -9999,7 +10156,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="246" spans="1:7" ht="16.5" customHeight="1">
       <c r="A246" s="1">
         <v>41910</v>
       </c>
@@ -10014,7 +10171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="247" spans="1:7" ht="16.5" customHeight="1">
       <c r="A247" s="1">
         <v>41910</v>
       </c>
@@ -10028,7 +10185,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="248" spans="1:7" ht="16.5" customHeight="1">
       <c r="A248" s="1">
         <v>41910</v>
       </c>
@@ -10042,7 +10199,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="249" spans="1:7" ht="16.5" customHeight="1">
       <c r="A249" s="1">
         <v>41910</v>
       </c>
@@ -10053,7 +10210,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="250" spans="1:7" ht="16.5" customHeight="1">
       <c r="A250" s="1">
         <v>41910</v>
       </c>
@@ -10064,7 +10221,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="251" spans="1:7" ht="16.5" customHeight="1">
       <c r="A251" s="1">
         <v>41910</v>
       </c>
@@ -10078,7 +10235,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="252" spans="1:7" ht="16.5" customHeight="1">
       <c r="A252" s="1">
         <v>41910</v>
       </c>
@@ -10089,7 +10246,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="253" spans="1:7" ht="16.5" customHeight="1">
       <c r="A253" s="1">
         <v>41910</v>
       </c>
@@ -10100,7 +10257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="254" spans="1:7" ht="16.5" customHeight="1">
       <c r="A254" s="1">
         <v>41911</v>
       </c>
@@ -10114,7 +10271,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="255" spans="1:7" ht="16.5" customHeight="1">
       <c r="A255" s="1">
         <v>41914</v>
       </c>
@@ -10128,7 +10285,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="256" spans="1:7" ht="16.5" customHeight="1">
       <c r="A256" s="1">
         <v>41917</v>
       </c>
@@ -10139,7 +10296,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="257" spans="1:4" ht="16.5" customHeight="1">
       <c r="A257" s="1">
         <v>41917</v>
       </c>
@@ -10150,7 +10307,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="258" spans="1:4" ht="16.5" customHeight="1">
       <c r="A258" s="1">
         <v>41917</v>
       </c>
@@ -10161,7 +10318,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="259" spans="1:4" ht="16.5" customHeight="1">
       <c r="A259" s="1">
         <v>41918</v>
       </c>
@@ -10172,7 +10329,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="260" spans="1:4" ht="16.5" customHeight="1">
       <c r="A260" s="1">
         <v>41918</v>
       </c>
@@ -10183,7 +10340,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="261" spans="1:4" ht="16.5" customHeight="1">
       <c r="A261" s="1">
         <v>41920</v>
       </c>
@@ -10194,7 +10351,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="262" spans="1:4" ht="16.5" customHeight="1">
       <c r="A262" s="1">
         <v>41925</v>
       </c>
@@ -10205,7 +10362,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="263" spans="1:4" ht="16.5" customHeight="1">
       <c r="A263" s="1">
         <v>41932</v>
       </c>
@@ -10216,7 +10373,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="264" spans="1:4" ht="16.5" customHeight="1">
       <c r="A264" s="1">
         <v>41932</v>
       </c>
@@ -10227,7 +10384,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="265" spans="1:4" ht="16.5" customHeight="1">
       <c r="A265" s="1">
         <v>41932</v>
       </c>
@@ -10238,7 +10395,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="266" spans="1:4" ht="16.5" customHeight="1">
       <c r="A266" s="1">
         <v>41932</v>
       </c>
@@ -10249,7 +10406,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="267" spans="1:4" ht="16.5" customHeight="1">
       <c r="A267" s="1">
         <v>41948</v>
       </c>
@@ -10260,7 +10417,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="268" spans="1:4" ht="16.5" customHeight="1">
       <c r="A268" s="1">
         <v>41948</v>
       </c>
@@ -10271,7 +10428,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="269" spans="1:4" ht="16.5" customHeight="1">
       <c r="A269" s="1">
         <v>41949</v>
       </c>
@@ -10282,7 +10439,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="270" spans="1:4" ht="16.5" customHeight="1">
       <c r="A270" s="1">
         <v>41949</v>
       </c>
@@ -10293,7 +10450,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="271" spans="1:4" ht="16.5" customHeight="1">
       <c r="A271" s="1">
         <v>41953</v>
       </c>
@@ -10304,7 +10461,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="272" spans="1:4" ht="16.5" customHeight="1">
       <c r="A272" s="1">
         <v>41955</v>
       </c>
@@ -10315,7 +10472,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="273" spans="1:7" ht="16.5" customHeight="1">
       <c r="A273" s="1">
         <v>41957</v>
       </c>
@@ -10326,7 +10483,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="274" spans="1:7" ht="16.5" customHeight="1">
       <c r="A274" s="1">
         <v>41957</v>
       </c>
@@ -10337,7 +10494,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="275" spans="1:7" ht="16.5" customHeight="1">
       <c r="A275" s="1">
         <v>41957</v>
       </c>
@@ -10348,7 +10505,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="276" spans="1:7" ht="16.5" customHeight="1">
       <c r="A276" s="1">
         <v>41959</v>
       </c>
@@ -10359,7 +10516,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="277" spans="1:7" ht="16.5" customHeight="1">
       <c r="A277" s="1">
         <v>41967</v>
       </c>
@@ -10370,7 +10527,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="278" spans="1:7" ht="16.5" customHeight="1">
       <c r="A278" s="1">
         <v>41978</v>
       </c>
@@ -10381,7 +10538,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="279" spans="1:7" ht="16.5" customHeight="1">
       <c r="A279" s="1">
         <v>41978</v>
       </c>
@@ -10392,7 +10549,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="280" spans="1:7" ht="16.5" customHeight="1">
       <c r="A280" s="1">
         <v>41981</v>
       </c>
@@ -10403,7 +10560,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="281" spans="1:7" ht="16.5" customHeight="1">
       <c r="A281" s="1">
         <v>41982</v>
       </c>
@@ -10414,7 +10571,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="282" spans="1:7" ht="16.5" customHeight="1">
       <c r="A282" s="1">
         <v>41982</v>
       </c>
@@ -10425,7 +10582,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="283" spans="1:7" ht="16.5" customHeight="1">
       <c r="A283" s="1">
         <v>41982</v>
       </c>
@@ -10436,7 +10593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="284" spans="1:7" ht="16.5" customHeight="1">
       <c r="A284" s="1">
         <v>41982</v>
       </c>
@@ -10447,7 +10604,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="285" spans="1:7" ht="16.5" customHeight="1">
       <c r="A285" s="1">
         <v>41983</v>
       </c>
@@ -10458,7 +10615,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="286" spans="1:7" ht="16.5" customHeight="1">
       <c r="A286" s="1">
         <v>41983</v>
       </c>
@@ -10469,7 +10626,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="287" spans="1:7" ht="16.5" customHeight="1">
       <c r="A287" s="1">
         <v>41983</v>
       </c>
@@ -10480,7 +10637,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="288" spans="1:7" ht="16.5" customHeight="1">
       <c r="A288" s="1">
         <v>41985</v>
       </c>
@@ -10494,7 +10651,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="289" spans="1:7" ht="16.5" customHeight="1">
       <c r="A289" s="1">
         <v>41986</v>
       </c>
@@ -10505,7 +10662,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="290" spans="1:7" ht="16.5" customHeight="1">
       <c r="A290" s="1">
         <v>41988</v>
       </c>
@@ -10519,7 +10676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="291" spans="1:7" ht="16.5" customHeight="1">
       <c r="A291" s="1">
         <v>42010</v>
       </c>
@@ -10530,7 +10687,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="292" spans="1:7" ht="16.5" customHeight="1">
       <c r="A292" s="1">
         <v>42010</v>
       </c>
@@ -10541,7 +10698,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="293" spans="1:7" ht="16.5" customHeight="1">
       <c r="A293" s="1">
         <v>42014</v>
       </c>
@@ -10552,7 +10709,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="294" spans="1:7" ht="16.5" customHeight="1">
       <c r="A294" s="1">
         <v>42014</v>
       </c>
@@ -10563,7 +10720,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="295" spans="1:7" ht="16.5" customHeight="1">
       <c r="A295" s="1">
         <v>42017</v>
       </c>
@@ -10574,7 +10731,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="296" spans="1:7" ht="16.5" customHeight="1">
       <c r="A296" s="1">
         <v>42018</v>
       </c>
@@ -10585,18 +10742,18 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="297" spans="1:7" ht="16.5" customHeight="1">
       <c r="A297" s="1">
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="298" spans="1:7" ht="16.5" customHeight="1">
       <c r="A298" s="1">
         <v>42018</v>
       </c>
@@ -10607,7 +10764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="299" spans="1:7" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="299" spans="1:7" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A299" s="13">
         <v>42031</v>
       </c>
@@ -10621,7 +10778,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="300" spans="1:7" ht="16.5" customHeight="1">
       <c r="A300" s="1">
         <v>42036</v>
       </c>
@@ -10632,7 +10789,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="301" spans="1:7" ht="16.5" customHeight="1">
       <c r="A301" s="1">
         <v>42040</v>
       </c>
@@ -10643,7 +10800,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="302" spans="1:7" ht="16.5" customHeight="1">
       <c r="A302" s="1">
         <v>42040</v>
       </c>
@@ -10654,7 +10811,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="303" spans="1:7" ht="16.5" customHeight="1">
       <c r="A303" s="1">
         <v>42043</v>
       </c>
@@ -10665,7 +10822,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="304" spans="1:7" ht="16.5" customHeight="1">
       <c r="A304" s="1">
         <v>42045</v>
       </c>
@@ -10676,7 +10833,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="305" spans="1:7" ht="16.5" customHeight="1">
       <c r="A305" s="1">
         <v>42045</v>
       </c>
@@ -10687,7 +10844,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="306" spans="1:7" ht="16.5" customHeight="1">
       <c r="A306" s="1">
         <v>42045</v>
       </c>
@@ -10698,7 +10855,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="307" spans="1:7" ht="16.5" customHeight="1">
       <c r="A307" s="1">
         <v>42048</v>
       </c>
@@ -10709,7 +10866,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="308" spans="1:7" ht="16.5" customHeight="1">
       <c r="A308" s="1">
         <v>42062</v>
       </c>
@@ -10723,7 +10880,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="309" spans="1:7" ht="16.5" customHeight="1">
       <c r="A309" s="1">
         <v>42062</v>
       </c>
@@ -10734,7 +10891,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="310" spans="1:7" ht="16.5" customHeight="1">
       <c r="A310" s="1">
         <v>42063</v>
       </c>
@@ -10748,7 +10905,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="311" spans="1:7" ht="16.5" customHeight="1">
       <c r="A311" s="1">
         <v>42063</v>
       </c>
@@ -10759,7 +10916,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="312" spans="1:7" ht="16.5" customHeight="1">
       <c r="A312" s="1">
         <v>42063</v>
       </c>
@@ -10770,7 +10927,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="313" spans="1:7" ht="16.5" customHeight="1">
       <c r="A313" s="1">
         <v>42063</v>
       </c>
@@ -10781,7 +10938,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="314" spans="1:7" ht="16.5" customHeight="1">
       <c r="A314" s="1">
         <v>42063</v>
       </c>
@@ -10792,7 +10949,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="315" spans="1:7" ht="16.5" customHeight="1">
       <c r="A315" s="1">
         <v>42063</v>
       </c>
@@ -10803,7 +10960,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="316" spans="1:7" ht="16.5" customHeight="1">
       <c r="A316" s="1">
         <v>42068</v>
       </c>
@@ -10814,7 +10971,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="317" spans="1:7" ht="16.5" customHeight="1">
       <c r="A317" s="1">
         <v>42068</v>
       </c>
@@ -10825,7 +10982,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="318" spans="1:7" ht="16.5" customHeight="1">
       <c r="A318" s="1">
         <v>42070</v>
       </c>
@@ -10836,7 +10993,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="319" spans="1:7" ht="16.5" customHeight="1">
       <c r="A319" s="1">
         <v>42070</v>
       </c>
@@ -10847,7 +11004,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="320" spans="1:7" ht="16.5" customHeight="1">
       <c r="A320" s="1">
         <v>42070</v>
       </c>
@@ -10861,7 +11018,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="321" spans="1:7" ht="16.5" customHeight="1">
       <c r="A321" s="1">
         <v>42070</v>
       </c>
@@ -10873,7 +11030,7 @@
       </c>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="322" spans="1:7" ht="16.5" customHeight="1">
       <c r="A322" s="1">
         <v>42074</v>
       </c>
@@ -10884,7 +11041,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="323" spans="1:7" ht="16.5" customHeight="1">
       <c r="A323" s="1">
         <v>42074</v>
       </c>
@@ -10895,7 +11052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="324" spans="1:7" ht="16.5" customHeight="1">
       <c r="A324" s="1">
         <v>42075</v>
       </c>
@@ -10906,7 +11063,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="325" spans="1:7" ht="16.5" customHeight="1">
       <c r="A325" s="1">
         <v>42078</v>
       </c>
@@ -10920,7 +11077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="326" spans="1:7" ht="16.5" customHeight="1">
       <c r="A326" s="1">
         <v>42087</v>
       </c>
@@ -10931,7 +11088,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="327" spans="1:7" ht="16.5" customHeight="1">
       <c r="A327" s="1">
         <v>42102</v>
       </c>
@@ -10942,7 +11099,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="328" spans="1:7" ht="16.5" customHeight="1">
       <c r="A328" s="1">
         <v>42102</v>
       </c>
@@ -10953,7 +11110,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="329" spans="1:7" ht="16.5" customHeight="1">
       <c r="A329" s="1">
         <v>42102</v>
       </c>
@@ -10964,7 +11121,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="330" spans="1:7" ht="16.5" customHeight="1">
       <c r="A330" s="1">
         <v>42105</v>
       </c>
@@ -10975,7 +11132,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="331" spans="1:7" ht="16.5" customHeight="1">
       <c r="A331" s="1">
         <v>42105</v>
       </c>
@@ -10986,7 +11143,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="332" spans="1:7" ht="16.5" customHeight="1">
       <c r="A332" s="1">
         <v>42105</v>
       </c>
@@ -10997,7 +11154,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="333" spans="1:7" ht="16.5" customHeight="1">
       <c r="A333" s="1">
         <v>42107</v>
       </c>
@@ -11008,7 +11165,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="334" spans="1:7" ht="16.5" customHeight="1">
       <c r="A334" s="1">
         <v>42129</v>
       </c>
@@ -11019,7 +11176,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="335" spans="1:7" ht="16.5" customHeight="1">
       <c r="A335" s="1">
         <v>42129</v>
       </c>
@@ -11030,7 +11187,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="336" spans="1:7" ht="16.5" customHeight="1">
       <c r="A336" s="1">
         <v>42135</v>
       </c>
@@ -11041,7 +11198,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="337" spans="1:7" ht="16.5" customHeight="1">
       <c r="A337" s="1">
         <v>42135</v>
       </c>
@@ -11052,7 +11209,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="338" spans="1:7" ht="16.5" customHeight="1">
       <c r="A338" s="1">
         <v>42137</v>
       </c>
@@ -11063,7 +11220,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="339" spans="1:7" ht="16.5" customHeight="1">
       <c r="A339" s="1">
         <v>42140</v>
       </c>
@@ -11077,7 +11234,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="340" spans="1:7" ht="16.5" customHeight="1">
       <c r="A340" s="1">
         <v>42159</v>
       </c>
@@ -11089,7 +11246,7 @@
       </c>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="341" spans="1:7" ht="16.5" customHeight="1">
       <c r="A341" s="1">
         <v>42159</v>
       </c>
@@ -11101,7 +11258,7 @@
       </c>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="342" spans="1:7" ht="16.5" customHeight="1">
       <c r="A342" s="1">
         <v>42159</v>
       </c>
@@ -11115,7 +11272,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="343" spans="1:7" ht="16.5" customHeight="1">
       <c r="A343" s="1">
         <v>42159</v>
       </c>
@@ -11127,7 +11284,7 @@
       </c>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="344" spans="1:7" ht="16.5" customHeight="1">
       <c r="A344" s="1">
         <v>42159</v>
       </c>
@@ -11139,7 +11296,7 @@
       </c>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="345" spans="1:7" ht="16.5" customHeight="1">
       <c r="A345" s="1">
         <v>42160</v>
       </c>
@@ -11150,7 +11307,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="346" spans="1:7" ht="16.5" customHeight="1">
       <c r="A346" s="1">
         <v>42160</v>
       </c>
@@ -11161,7 +11318,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="347" spans="1:7" ht="16.5" customHeight="1">
       <c r="A347" s="1">
         <v>42164</v>
       </c>
@@ -11172,7 +11329,7 @@
         <v>5729</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="348" spans="1:7" ht="16.5" customHeight="1">
       <c r="A348" s="1">
         <v>42168</v>
       </c>
@@ -11183,7 +11340,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="349" spans="1:7" ht="16.5" customHeight="1">
       <c r="A349" s="1">
         <v>42170</v>
       </c>
@@ -11197,7 +11354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="350" spans="1:7" ht="16.5" customHeight="1">
       <c r="A350" s="1">
         <v>42171</v>
       </c>
@@ -11208,7 +11365,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="351" spans="1:7" ht="16.5" customHeight="1">
       <c r="A351" s="1">
         <v>42171</v>
       </c>
@@ -11219,7 +11376,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="352" spans="1:7" ht="16.5" customHeight="1">
       <c r="A352" s="1">
         <v>42171</v>
       </c>
@@ -11230,7 +11387,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="353" spans="1:7" ht="16.5" customHeight="1">
       <c r="A353" s="1">
         <v>42179</v>
       </c>
@@ -11241,7 +11398,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="354" spans="1:7" ht="16.5" customHeight="1">
       <c r="A354" s="1">
         <v>42183</v>
       </c>
@@ -11255,7 +11412,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="355" spans="1:7" ht="16.5" customHeight="1">
       <c r="A355" s="1">
         <v>42183</v>
       </c>
@@ -11266,7 +11423,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="356" spans="1:7" ht="16.5" customHeight="1">
       <c r="A356" s="1">
         <v>42183</v>
       </c>
@@ -11280,7 +11437,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="357" spans="1:7" ht="16.5" customHeight="1">
       <c r="A357" s="1">
         <v>42186</v>
       </c>
@@ -11291,7 +11448,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="358" spans="1:7" ht="16.5" customHeight="1">
       <c r="A358" s="1">
         <v>42187</v>
       </c>
@@ -11302,7 +11459,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="359" spans="1:7" ht="16.5" customHeight="1">
       <c r="A359" s="1">
         <v>42191</v>
       </c>
@@ -11313,7 +11470,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="360" spans="1:7" ht="16.5" customHeight="1">
       <c r="A360" s="1">
         <v>42191</v>
       </c>
@@ -11324,7 +11481,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="361" spans="1:7" ht="16.5" customHeight="1">
       <c r="A361" s="1">
         <v>42195</v>
       </c>
@@ -11335,7 +11492,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="362" spans="1:7" ht="16.5" customHeight="1">
       <c r="A362" s="1">
         <v>42195</v>
       </c>
@@ -11346,7 +11503,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="363" spans="1:7" ht="16.5" customHeight="1">
       <c r="A363" s="1">
         <v>42198</v>
       </c>
@@ -11357,7 +11514,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="364" spans="1:7" ht="16.5" customHeight="1">
       <c r="A364" s="1">
         <v>42210</v>
       </c>
@@ -11368,7 +11525,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="365" spans="1:7" ht="16.5" customHeight="1">
       <c r="A365" s="1">
         <v>42210</v>
       </c>
@@ -11379,7 +11536,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="366" spans="1:7" ht="16.5" customHeight="1">
       <c r="A366" s="1">
         <v>42210</v>
       </c>
@@ -11391,7 +11548,7 @@
       </c>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="367" spans="1:7" ht="16.5" customHeight="1">
       <c r="A367" s="1">
         <v>42210</v>
       </c>
@@ -11403,7 +11560,7 @@
       </c>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="368" spans="1:7" ht="16.5" customHeight="1">
       <c r="A368" s="1">
         <v>42210</v>
       </c>
@@ -11417,7 +11574,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="369" spans="1:7" ht="16.5" customHeight="1">
       <c r="A369" s="1">
         <v>42210</v>
       </c>
@@ -11428,7 +11585,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="370" spans="1:7" ht="16.5" customHeight="1">
       <c r="A370" s="1">
         <v>42217</v>
       </c>
@@ -11442,7 +11599,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="371" spans="1:7" ht="16.5" customHeight="1">
       <c r="A371" s="1">
         <v>42221</v>
       </c>
@@ -11453,7 +11610,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="372" spans="1:7" ht="16.5" customHeight="1">
       <c r="A372" s="1">
         <v>42221</v>
       </c>
@@ -11464,7 +11621,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="373" spans="1:7" ht="16.5" customHeight="1">
       <c r="A373" s="1">
         <v>42223</v>
       </c>
@@ -11475,7 +11632,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="374" spans="1:7" ht="16.5" customHeight="1">
       <c r="A374" s="1">
         <v>42226</v>
       </c>
@@ -11486,7 +11643,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="375" spans="1:7" ht="16.5" customHeight="1">
       <c r="A375" s="1">
         <v>42226</v>
       </c>
@@ -11497,7 +11654,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="376" spans="1:7" ht="16.5" customHeight="1">
       <c r="A376" s="1">
         <v>42229</v>
       </c>
@@ -11508,7 +11665,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="377" spans="1:7" ht="16.5" customHeight="1">
       <c r="A377" s="1">
         <v>42254</v>
       </c>
@@ -11519,7 +11676,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="378" spans="1:7" ht="16.5" customHeight="1">
       <c r="A378" s="1">
         <v>42254</v>
       </c>
@@ -11530,7 +11687,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="379" spans="1:7" ht="16.5" customHeight="1">
       <c r="A379" s="1">
         <v>42254</v>
       </c>
@@ -11541,7 +11698,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="380" spans="1:7" ht="16.5" customHeight="1">
       <c r="A380" s="1">
         <v>42254</v>
       </c>
@@ -11552,7 +11709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="381" spans="1:7" ht="16.5" customHeight="1">
       <c r="A381" s="1">
         <v>42258</v>
       </c>
@@ -11563,7 +11720,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="382" spans="1:7" ht="16.5" customHeight="1">
       <c r="A382" s="1">
         <v>42262</v>
       </c>
@@ -11577,7 +11734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="383" spans="1:7" ht="16.5" customHeight="1">
       <c r="A383" s="1">
         <v>42277</v>
       </c>
@@ -11588,7 +11745,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="384" spans="1:7" ht="16.5" customHeight="1">
       <c r="A384" s="1">
         <v>42283</v>
       </c>
@@ -11599,7 +11756,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="385" spans="1:7" ht="16.5" customHeight="1">
       <c r="A385" s="1">
         <v>42283</v>
       </c>
@@ -11610,21 +11767,21 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="386" spans="1:7" ht="16.5" customHeight="1">
       <c r="A386" s="1">
         <v>42286</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="D386" s="2">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="G386" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="387" spans="1:7" ht="16.5" customHeight="1">
       <c r="A387" s="1">
         <v>42286</v>
       </c>
@@ -11636,7 +11793,7 @@
       </c>
       <c r="G387" s="5"/>
     </row>
-    <row r="388" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="388" spans="1:7" ht="16.5" customHeight="1">
       <c r="A388" s="1">
         <v>42286</v>
       </c>
@@ -11647,7 +11804,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="389" spans="1:7" ht="16.5" customHeight="1">
       <c r="A389" s="1">
         <v>42289</v>
       </c>
@@ -11658,7 +11815,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="390" spans="1:7" ht="16.5" customHeight="1">
       <c r="A390" s="1">
         <v>42289</v>
       </c>
@@ -11669,7 +11826,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="391" spans="1:7" ht="16.5" customHeight="1">
       <c r="A391" s="1">
         <v>42289</v>
       </c>
@@ -11680,7 +11837,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="392" spans="1:7" ht="16.5" customHeight="1">
       <c r="A392" s="1">
         <v>42289</v>
       </c>
@@ -11691,7 +11848,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="393" spans="1:7" ht="16.5" customHeight="1">
       <c r="A393" s="1">
         <v>42290</v>
       </c>
@@ -11702,7 +11859,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="394" spans="1:7" ht="16.5" customHeight="1">
       <c r="A394" s="1">
         <v>42290</v>
       </c>
@@ -11713,7 +11870,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="395" spans="1:7" ht="16.5" customHeight="1">
       <c r="A395" s="1">
         <v>42313</v>
       </c>
@@ -11724,7 +11881,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="396" spans="1:7" ht="16.5" customHeight="1">
       <c r="A396" s="1">
         <v>42313</v>
       </c>
@@ -11735,7 +11892,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="397" spans="1:7" ht="16.5" customHeight="1">
       <c r="A397" s="1">
         <v>42317</v>
       </c>
@@ -11746,7 +11903,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="398" spans="1:7" ht="16.5" customHeight="1">
       <c r="A398" s="1">
         <v>42317</v>
       </c>
@@ -11757,7 +11914,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="399" spans="1:7" ht="16.5" customHeight="1">
       <c r="A399" s="1">
         <v>42320</v>
       </c>
@@ -11768,7 +11925,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="400" spans="1:7" ht="16.5" customHeight="1">
       <c r="A400" s="1">
         <v>42321</v>
       </c>
@@ -11779,7 +11936,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="401" spans="1:7" ht="16.5" customHeight="1">
       <c r="A401" s="1">
         <v>42334</v>
       </c>
@@ -11790,7 +11947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="402" spans="1:7" ht="16.5" customHeight="1">
       <c r="A402" s="1">
         <v>42334</v>
       </c>
@@ -11801,7 +11958,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="403" spans="1:7" ht="16.5" customHeight="1">
       <c r="A403" s="1">
         <v>42342</v>
       </c>
@@ -11812,7 +11969,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="404" spans="1:7" ht="16.5" customHeight="1">
       <c r="A404" s="1">
         <v>42345</v>
       </c>
@@ -11823,7 +11980,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="405" spans="1:7" ht="16.5" customHeight="1">
       <c r="A405" s="1">
         <v>42345</v>
       </c>
@@ -11834,7 +11991,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="406" spans="1:7" ht="16.5" customHeight="1">
       <c r="A406" s="1">
         <v>42346</v>
       </c>
@@ -11848,7 +12005,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="407" spans="1:7" ht="16.5" customHeight="1">
       <c r="A407" s="1">
         <v>42347</v>
       </c>
@@ -11859,7 +12016,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="408" spans="1:7" ht="16.5" customHeight="1">
       <c r="A408" s="1">
         <v>42347</v>
       </c>
@@ -11870,7 +12027,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="409" spans="1:7" ht="16.5" customHeight="1">
       <c r="A409" s="1">
         <v>42347</v>
       </c>
@@ -11881,7 +12038,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="410" spans="1:7" ht="16.5" customHeight="1">
       <c r="A410" s="1">
         <v>42351</v>
       </c>
@@ -11892,7 +12049,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+    <row r="411" spans="1:7" ht="16.5" customHeight="1">
       <c r="A411" s="1">
         <v>42353</v>
       </c>
@@ -11961,7 +12118,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:7">
       <c r="A417" s="1">
         <v>42401</v>
       </c>
@@ -11972,7 +12129,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:7">
       <c r="A418" s="1">
         <v>42404</v>
       </c>
@@ -11983,37 +12140,102 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1">
-      <c r="A419" s="1"/>
-      <c r="B419" t="s">
+    <row r="419" spans="1:7">
+      <c r="A419" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B419" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D419" s="2">
+        <v>239</v>
+      </c>
+      <c r="G419" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="1">
+        <v>42405</v>
+      </c>
+      <c r="B420" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" hidden="1">
-      <c r="A420" s="1"/>
-      <c r="B420" t="s">
+      <c r="C420" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="1">
+        <v>42405</v>
+      </c>
+      <c r="B421" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="1">
+      <c r="C421" s="2">
+        <v>12504</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="1">
+        <v>42405</v>
+      </c>
+      <c r="B422" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D422" s="6">
+        <v>584</v>
+      </c>
+      <c r="G422" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="1">
+        <v>42410</v>
+      </c>
+      <c r="B423" t="s">
+        <v>50</v>
+      </c>
+      <c r="D423" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="1">
+        <v>42410</v>
+      </c>
+      <c r="B424" t="s">
+        <v>242</v>
+      </c>
+      <c r="D424" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="1">
+        <v>42410</v>
+      </c>
+      <c r="B425" t="s">
+        <v>201</v>
+      </c>
+      <c r="D425" s="6">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="1">
         <v>42413</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B426" t="s">
         <v>380</v>
       </c>
-      <c r="C421" s="2">
+      <c r="C426" s="2">
         <v>205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K421">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2016" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:K2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -12025,33 +12247,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1011)</f>
+        <f>SUBTOTAL(9,C3:C100)</f>
         <v>2940</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1011)</f>
+        <f>SUBTOTAL(9,D3:D100)</f>
         <v>4200</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
         <v>1260</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="2">
+        <f>SUBTOTAL(9,I3:I1011)</f>
+        <v>584</v>
+      </c>
+      <c r="J1" s="6">
+        <f>SUBTOTAL(9,J3:J1011)</f>
+        <v>2000</v>
+      </c>
+      <c r="K1" s="6">
+        <f>J1-I1</f>
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -12067,8 +12303,23 @@
       <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>42070</v>
       </c>
@@ -12083,9 +12334,21 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="1">
+        <v>42405</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="6">
+        <v>584</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>42070</v>
       </c>
@@ -12098,9 +12361,8 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>42159</v>
       </c>
@@ -12115,9 +12377,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>42159</v>
       </c>
@@ -12130,9 +12391,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>42159</v>
       </c>
@@ -12145,9 +12405,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>42286</v>
       </c>
@@ -12162,9 +12421,8 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>42286</v>
       </c>
@@ -12177,11 +12435,10 @@
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>42389</v>
+        <v>42404</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>204</v>
@@ -12189,18 +12446,14 @@
       <c r="C10" s="2">
         <v>239</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6">
+        <v>1200</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>42404</v>
-      </c>
-      <c r="D11">
-        <v>1200</v>
-      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12964,8 +13217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13425,23 +13678,14 @@
       </c>
       <c r="B7">
         <f t="shared" si="10"/>
-        <v>23029</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>32400</v>
-      </c>
-      <c r="D7">
-        <v>29030</v>
-      </c>
-      <c r="E7">
-        <v>6001</v>
-      </c>
-      <c r="F7">
-        <v>22624</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>425433</v>
+        <v>402404</v>
       </c>
       <c r="H7">
         <f>H6+J6+P6</f>
@@ -13453,15 +13697,15 @@
       </c>
       <c r="L7">
         <f t="shared" si="11"/>
-        <v>3728889</v>
+        <v>3745512</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>55.954953196167331</v>
+        <v>56.064546394292591</v>
       </c>
       <c r="N7">
         <f t="shared" si="9"/>
-        <v>425433</v>
+        <v>402404</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -13471,15 +13715,15 @@
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>0.78457973250222646</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>0.34556851039399072</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>9.0923160867941305E-2</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <f>(I7/H7)*10</f>
@@ -13487,7 +13731,7 @@
       </c>
       <c r="U7" s="17">
         <f>((I7+B7-O7+N12-N15)/(H7))*10</f>
-        <v>18.589050528309009</v>
+        <v>18.498127367441064</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -13611,7 +13855,7 @@
     </row>
     <row r="18" spans="14:21">
       <c r="N18">
-        <v>176025</v>
+        <v>159619</v>
       </c>
       <c r="P18">
         <f>H7+P12+((H7/10)*Q15)</f>
@@ -13640,7 +13884,7 @@
     <row r="21" spans="14:21">
       <c r="P21">
         <f>((I7+B7+P12-((H7/10)*P15))/P18)*10</f>
-        <v>11.603714266973967</v>
+        <v>11.516904038679161</v>
       </c>
     </row>
     <row r="23" spans="14:21">
@@ -13658,7 +13902,7 @@
       </c>
       <c r="P24">
         <f>N27/(I7+B7+N12+P12-N15+N21+N27)*100</f>
-        <v>39.973379691360073</v>
+        <v>40.088154610699092</v>
       </c>
     </row>
     <row r="26" spans="14:21">
@@ -13675,7 +13919,7 @@
       </c>
       <c r="P27">
         <f>(N27+N30)/(I7+B7+N12+P12-N15+N21+N27+N30)*100</f>
-        <v>39.973379691360073</v>
+        <v>40.088154610699092</v>
       </c>
     </row>
     <row r="29" spans="14:21">
@@ -13711,7 +13955,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="391">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1287,10 +1287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有線電視費12~1月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>353號15樓有線電視費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1547,10 +1543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多繳1個月，補在管理費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>預繳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1576,6 +1568,22 @@
   </si>
   <si>
     <t>先付2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有線電視費12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3747，機清費300，垃圾費150，寬頻費300，第四台費1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間3.4.5月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補102年稅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1583,9 +1591,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1626,7 +1635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1648,12 +1657,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,7 +1739,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2032,24 +2035,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79368576"/>
-        <c:axId val="79370112"/>
+        <c:axId val="77932416"/>
+        <c:axId val="77933952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79368576"/>
+        <c:axId val="77932416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79370112"/>
+        <c:crossAx val="77933952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79370112"/>
+        <c:axId val="77933952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,14 +2060,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79368576"/>
+        <c:crossAx val="77932416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2399,11 +2401,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J425"/>
+  <dimension ref="A1:J441"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F429" sqref="F429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2420,22 +2422,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
-        <v>1426637</v>
+        <v>1479030</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1015)</f>
-        <v>1524934</v>
+        <f>SUBTOTAL(9,C3:C1023)</f>
+        <v>1577327</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1015)</f>
-        <v>1696339</v>
+        <f>SUBTOTAL(9,D3:D1023)</f>
+        <v>1730263</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>171405</v>
+        <v>152936</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1015)</f>
+        <f>SUBTOTAL(9,F3:F1023)</f>
         <v>36700</v>
       </c>
     </row>
@@ -5779,7 +5781,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
@@ -6782,7 +6784,7 @@
         <v>42286</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D385" s="2">
         <v>450</v>
@@ -7002,10 +7004,10 @@
         <v>42346</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="C405" s="2">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="G405" s="5"/>
     </row>
@@ -7058,7 +7060,7 @@
         <v>42353</v>
       </c>
       <c r="B410" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C410" s="2">
         <v>4497</v>
@@ -7091,7 +7093,7 @@
         <v>42378</v>
       </c>
       <c r="B413" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D413" s="6">
         <v>6000</v>
@@ -7102,7 +7104,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D414" s="6">
         <v>150</v>
@@ -7135,7 +7137,7 @@
         <v>42404</v>
       </c>
       <c r="B417" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D417" s="6">
         <v>26400</v>
@@ -7223,10 +7225,187 @@
         <v>42413</v>
       </c>
       <c r="B425" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C425" s="2">
         <v>205</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D426" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1">
+        <v>42436</v>
+      </c>
+      <c r="B427" t="s">
+        <v>48</v>
+      </c>
+      <c r="D427" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1">
+        <v>42436</v>
+      </c>
+      <c r="B428" t="s">
+        <v>44</v>
+      </c>
+      <c r="C428" s="2">
+        <v>22504</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1">
+        <v>42439</v>
+      </c>
+      <c r="B429" t="s">
+        <v>69</v>
+      </c>
+      <c r="C429" s="2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1">
+        <v>42440</v>
+      </c>
+      <c r="B430" t="s">
+        <v>57</v>
+      </c>
+      <c r="D430" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
+        <v>42440</v>
+      </c>
+      <c r="B431" t="s">
+        <v>252</v>
+      </c>
+      <c r="D431" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1">
+        <v>42444</v>
+      </c>
+      <c r="B432" t="s">
+        <v>52</v>
+      </c>
+      <c r="C432" s="2">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1">
+        <v>42454</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D433" s="19">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1">
+        <v>42454</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D434" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1">
+        <v>42466</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C435" s="2">
+        <v>1983</v>
+      </c>
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1">
+        <v>42467</v>
+      </c>
+      <c r="B436" t="s">
+        <v>48</v>
+      </c>
+      <c r="D436" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1">
+        <v>42467</v>
+      </c>
+      <c r="B437" t="s">
+        <v>44</v>
+      </c>
+      <c r="C437" s="2">
+        <v>22504</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B438" t="s">
+        <v>61</v>
+      </c>
+      <c r="D438" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B439" t="s">
+        <v>254</v>
+      </c>
+      <c r="D439" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B440" t="s">
+        <v>250</v>
+      </c>
+      <c r="D440" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1">
+        <v>42473</v>
+      </c>
+      <c r="B441" t="s">
+        <v>70</v>
+      </c>
+      <c r="C441" s="2">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -7245,11 +7424,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K426"/>
+  <dimension ref="A1:K442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G374" sqref="G374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7264,19 +7443,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1017)</f>
-        <v>1426637</v>
+        <f>SUBTOTAL(9,C3:C1027)</f>
+        <v>1479030</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1017)</f>
-        <v>1066339</v>
+        <f>SUBTOTAL(9,D3:D1027)</f>
+        <v>1080263</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-360298</v>
+        <v>-398767</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1017)</f>
+        <f>SUBTOTAL(9,F3:F1027)</f>
         <v>36700</v>
       </c>
     </row>
@@ -8509,7 +8688,7 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
@@ -9351,7 +9530,7 @@
         <v>41675</v>
       </c>
       <c r="B178" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D178" s="6">
         <v>6600</v>
@@ -10642,7 +10821,7 @@
         <v>41985</v>
       </c>
       <c r="B288" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D288" s="6">
         <v>6600</v>
@@ -10747,7 +10926,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -10877,7 +11056,7 @@
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" customHeight="1">
@@ -11772,7 +11951,7 @@
         <v>42286</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D386" s="2">
         <v>450</v>
@@ -11995,15 +12174,16 @@
       <c r="A406" s="1">
         <v>42346</v>
       </c>
-      <c r="B406" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C406" s="2">
-        <v>2200</v>
-      </c>
-      <c r="G406" s="18" t="s">
-        <v>381</v>
-      </c>
+      <c r="B406" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C406" s="14">
+        <v>1100</v>
+      </c>
+      <c r="D406" s="11"/>
+      <c r="E406" s="11"/>
+      <c r="F406" s="11"/>
+      <c r="G406" s="5"/>
     </row>
     <row r="407" spans="1:7" ht="16.5" customHeight="1">
       <c r="A407" s="1">
@@ -12090,7 +12270,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D414" s="6">
         <v>6000</v>
@@ -12101,7 +12281,7 @@
         <v>42378</v>
       </c>
       <c r="B415" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D415" s="6">
         <v>150</v>
@@ -12134,7 +12314,7 @@
         <v>42404</v>
       </c>
       <c r="B418" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D418" s="6">
         <v>26400</v>
@@ -12151,7 +12331,7 @@
         <v>239</v>
       </c>
       <c r="G419" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -12180,14 +12360,14 @@
       <c r="A422" s="1">
         <v>42405</v>
       </c>
-      <c r="B422" s="19" t="s">
+      <c r="B422" s="18" t="s">
         <v>200</v>
       </c>
       <c r="D422" s="6">
         <v>584</v>
       </c>
-      <c r="G422" s="19" t="s">
-        <v>388</v>
+      <c r="G422" s="18" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -12228,10 +12408,192 @@
         <v>42413</v>
       </c>
       <c r="B426" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C426" s="2">
         <v>205</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B427" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D427" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="1">
+        <v>42436</v>
+      </c>
+      <c r="B428" t="s">
+        <v>48</v>
+      </c>
+      <c r="C428" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="1">
+        <v>42436</v>
+      </c>
+      <c r="B429" t="s">
+        <v>44</v>
+      </c>
+      <c r="C429" s="2">
+        <v>12504</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="1">
+        <v>42439</v>
+      </c>
+      <c r="B430" t="s">
+        <v>69</v>
+      </c>
+      <c r="C430" s="2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="1">
+        <v>42440</v>
+      </c>
+      <c r="B431" t="s">
+        <v>57</v>
+      </c>
+      <c r="D431" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="1">
+        <v>42440</v>
+      </c>
+      <c r="B432" t="s">
+        <v>252</v>
+      </c>
+      <c r="D432" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="1">
+        <v>42444</v>
+      </c>
+      <c r="B433" t="s">
+        <v>52</v>
+      </c>
+      <c r="C433" s="2">
+        <v>5505</v>
+      </c>
+      <c r="G433" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="1">
+        <v>42454</v>
+      </c>
+      <c r="B434" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D434" s="19">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1">
+        <v>42454</v>
+      </c>
+      <c r="B435" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D435" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="1">
+        <v>42466</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C436" s="2">
+        <v>1983</v>
+      </c>
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="1">
+        <v>42467</v>
+      </c>
+      <c r="B437" t="s">
+        <v>48</v>
+      </c>
+      <c r="C437" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D437" s="2"/>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="1">
+        <v>42467</v>
+      </c>
+      <c r="B438" t="s">
+        <v>44</v>
+      </c>
+      <c r="C438" s="2">
+        <v>12504</v>
+      </c>
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B439" t="s">
+        <v>61</v>
+      </c>
+      <c r="D439" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B440" t="s">
+        <v>254</v>
+      </c>
+      <c r="D440" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B441" t="s">
+        <v>250</v>
+      </c>
+      <c r="D441" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="1">
+        <v>42473</v>
+      </c>
+      <c r="B442" t="s">
+        <v>70</v>
+      </c>
+      <c r="C442" s="2">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -12247,10 +12609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12264,7 +12626,7 @@
     <row r="1" spans="1:11">
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C100)</f>
-        <v>2940</v>
+        <v>3551</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D100)</f>
@@ -12272,11 +12634,11 @@
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>1260</v>
+        <v>649</v>
       </c>
       <c r="I1" s="2">
         <f>SUBTOTAL(9,I3:I1011)</f>
-        <v>584</v>
+        <v>1130</v>
       </c>
       <c r="J1" s="6">
         <f>SUBTOTAL(9,J3:J1011)</f>
@@ -12284,7 +12646,7 @@
       </c>
       <c r="K1" s="6">
         <f>J1-I1</f>
-        <v>1416</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -12298,7 +12660,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
@@ -12313,7 +12675,7 @@
         <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>41</v>
@@ -12361,6 +12723,15 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
+      <c r="G4" s="1">
+        <v>42454</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I4" s="19">
+        <v>546</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
@@ -12411,7 +12782,7 @@
         <v>42286</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C8" s="2">
         <v>450</v>
@@ -12453,7 +12824,26 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>42454</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="2">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13243,72 +13633,72 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G2">
         <f>B2</f>
@@ -13366,7 +13756,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3">
         <f>D3-E3</f>
@@ -13443,7 +13833,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B7" si="10">D4-E4</f>
@@ -13520,7 +13910,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5">
         <f t="shared" si="10"/>
@@ -13597,7 +13987,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6">
         <f t="shared" si="10"/>
@@ -13674,7 +14064,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7">
         <f t="shared" si="10"/>
@@ -13744,13 +14134,13 @@
     </row>
     <row r="11" spans="1:21">
       <c r="N11" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -13764,13 +14154,13 @@
         <v>120000</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T12" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -13788,13 +14178,13 @@
     </row>
     <row r="14" spans="1:21">
       <c r="N14" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="Q14" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S14">
         <v>2012</v>
@@ -13836,10 +14226,10 @@
     </row>
     <row r="17" spans="14:21">
       <c r="N17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="S17">
         <v>2015</v>
@@ -13875,10 +14265,10 @@
     </row>
     <row r="20" spans="14:21">
       <c r="N20" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="21" spans="14:21">
@@ -13889,10 +14279,10 @@
     </row>
     <row r="23" spans="14:21">
       <c r="N23" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="24" spans="14:21">
@@ -13907,10 +14297,10 @@
     </row>
     <row r="26" spans="14:21">
       <c r="N26" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="27" spans="14:21">
@@ -13924,15 +14314,15 @@
     </row>
     <row r="29" spans="14:21">
       <c r="N29" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="14:21">
       <c r="N31" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="32" spans="14:21">
@@ -13968,25 +14358,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" t="s">
         <v>364</v>
       </c>
-      <c r="C1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>366</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>367</v>
       </c>
-      <c r="G1" t="s">
-        <v>368</v>
-      </c>
       <c r="H1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13994,7 +14384,7 @@
         <v>40878</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D2">
         <v>666000</v>
@@ -14016,7 +14406,7 @@
         <v>40878</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D3">
         <v>1271798</v>
@@ -14038,7 +14428,7 @@
         <v>40909</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D4">
         <v>57500</v>
@@ -14055,7 +14445,7 @@
         <v>57500</v>
       </c>
       <c r="I4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14063,7 +14453,7 @@
         <v>40909</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D5">
         <v>57500</v>
@@ -14080,7 +14470,7 @@
         <v>57500</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -14088,7 +14478,7 @@
         <v>41275</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D6">
         <v>60000</v>
@@ -14105,7 +14495,7 @@
         <v>60000</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -14113,7 +14503,7 @@
         <v>41275</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D7">
         <v>60000</v>
@@ -14130,7 +14520,7 @@
         <v>60000</v>
       </c>
       <c r="I7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -14138,7 +14528,7 @@
         <v>41640</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D8">
         <v>60000</v>
@@ -14155,7 +14545,7 @@
         <v>60000</v>
       </c>
       <c r="I8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -14163,7 +14553,7 @@
         <v>41640</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D9">
         <v>60000</v>
@@ -14180,7 +14570,7 @@
         <v>60000</v>
       </c>
       <c r="I9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -14188,7 +14578,7 @@
         <v>42005</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D10">
         <v>60000</v>
@@ -14205,7 +14595,7 @@
         <v>60000</v>
       </c>
       <c r="I10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -14213,7 +14603,7 @@
         <v>42005</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D11">
         <v>60000</v>
@@ -14230,7 +14620,7 @@
         <v>60000</v>
       </c>
       <c r="I11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -14238,7 +14628,7 @@
         <v>42370</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D12">
         <v>60000</v>
@@ -14255,7 +14645,7 @@
         <v>60000</v>
       </c>
       <c r="I12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -14263,7 +14653,7 @@
         <v>42370</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D13">
         <v>60000</v>
@@ -14280,7 +14670,7 @@
         <v>60000</v>
       </c>
       <c r="I13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="395">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1584,6 +1584,22 @@
   </si>
   <si>
     <t>補102年稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補103年地價稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補104年地價稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間3.4.5.6月水費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,24 +2051,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77932416"/>
-        <c:axId val="77933952"/>
+        <c:axId val="84072704"/>
+        <c:axId val="84078592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77932416"/>
+        <c:axId val="84072704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77933952"/>
+        <c:crossAx val="84078592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77933952"/>
+        <c:axId val="84078592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2076,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77932416"/>
+        <c:crossAx val="84072704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2401,11 +2417,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J441"/>
+  <dimension ref="A1:J448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F429" sqref="F429"/>
+      <pane ySplit="2" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B453" sqref="B453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2422,22 +2438,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
-        <v>1479030</v>
+        <v>1503451</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1023)</f>
-        <v>1577327</v>
+        <f>SUBTOTAL(9,C3:C1025)</f>
+        <v>1601748</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1023)</f>
-        <v>1730263</v>
+        <f>SUBTOTAL(9,D3:D1025)</f>
+        <v>1740263</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>152936</v>
+        <v>138515</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1023)</f>
+        <f>SUBTOTAL(9,F3:F1025)</f>
         <v>36700</v>
       </c>
     </row>
@@ -7406,6 +7422,66 @@
       </c>
       <c r="C441" s="2">
         <v>173</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1">
+        <v>42494</v>
+      </c>
+      <c r="B442" t="s">
+        <v>391</v>
+      </c>
+      <c r="C442" s="2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1">
+        <v>42494</v>
+      </c>
+      <c r="B443" t="s">
+        <v>392</v>
+      </c>
+      <c r="C443" s="2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1">
+        <v>42495</v>
+      </c>
+      <c r="B444" t="s">
+        <v>48</v>
+      </c>
+      <c r="D444" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1">
+        <v>42495</v>
+      </c>
+      <c r="B445" t="s">
+        <v>44</v>
+      </c>
+      <c r="C445" s="2">
+        <v>22385</v>
+      </c>
+      <c r="D445" s="2"/>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="B446" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="B447" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="B448" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -7424,11 +7500,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K442"/>
+  <dimension ref="A1:K449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G374" sqref="G374"/>
+      <pane ySplit="2" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B449" sqref="B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7443,19 +7519,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1027)</f>
-        <v>1479030</v>
+        <f>SUBTOTAL(9,C3:C1029)</f>
+        <v>1503451</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1027)</f>
+        <f>SUBTOTAL(9,D3:D1029)</f>
         <v>1080263</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-398767</v>
+        <v>-423188</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1027)</f>
+        <f>SUBTOTAL(9,F3:F1029)</f>
         <v>36700</v>
       </c>
     </row>
@@ -12594,6 +12670,65 @@
       </c>
       <c r="C442" s="2">
         <v>173</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="1">
+        <v>42494</v>
+      </c>
+      <c r="B443" t="s">
+        <v>391</v>
+      </c>
+      <c r="C443" s="2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="1">
+        <v>42494</v>
+      </c>
+      <c r="B444" t="s">
+        <v>392</v>
+      </c>
+      <c r="C444" s="2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="1">
+        <v>42495</v>
+      </c>
+      <c r="B445" t="s">
+        <v>48</v>
+      </c>
+      <c r="C445" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="1">
+        <v>42495</v>
+      </c>
+      <c r="B446" t="s">
+        <v>44</v>
+      </c>
+      <c r="C446" s="2">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="B447" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="B448" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -12612,7 +12747,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12626,7 +12761,7 @@
     <row r="1" spans="1:11">
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C100)</f>
-        <v>3551</v>
+        <v>3701</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D100)</f>
@@ -12634,7 +12769,7 @@
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>649</v>
+        <v>499</v>
       </c>
       <c r="I1" s="2">
         <f>SUBTOTAL(9,I3:I1011)</f>
@@ -12828,10 +12963,10 @@
         <v>42430</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C11" s="2">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="409">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1103,10 +1103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2015/7/1~2016/6/30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租約 2014/10/5~2015/6/28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1575,14 +1571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理費3747，機清費300，垃圾費150，寬頻費300，第四台費1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3間3.4.5月水費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>補102年稅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1599,7 +1587,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>第1間5月租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3747，機清費300，垃圾費150，寬頻費300，第四台費1,2月1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3~5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3747，機清費300，垃圾費150，寬頻費300，第四台費1512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第3間3.4.5.6月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間3.4.5.6月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間7月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間7月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間5月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螞蟻藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/7/1~2016/7/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅糖48，硼酸25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螞蟻藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自製螞蟻藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間7月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1651,7 +1707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,12 +1732,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1697,7 +1747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1752,11 +1802,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2051,24 +2107,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84072704"/>
-        <c:axId val="84078592"/>
+        <c:axId val="73489024"/>
+        <c:axId val="74334592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84072704"/>
+        <c:axId val="73489024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84078592"/>
+        <c:crossAx val="74334592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84078592"/>
+        <c:axId val="74334592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,13 +2132,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84072704"/>
+        <c:crossAx val="73489024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2417,11 +2474,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J448"/>
+  <dimension ref="A1:J464"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B453" sqref="B453"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B470" sqref="B470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2437,24 +2494,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
-        <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000</f>
-        <v>1503451</v>
+        <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000-11000</f>
+        <v>1539432</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1025)</f>
-        <v>1601748</v>
+        <f>SUBTOTAL(9,C3:C1034)</f>
+        <v>1648729</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1025)</f>
-        <v>1740263</v>
+        <f>SUBTOTAL(9,D3:D1034)</f>
+        <v>1791088</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>138515</v>
+        <v>142359</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1025)</f>
-        <v>36700</v>
+        <f>SUBTOTAL(9,F3:F1034)</f>
+        <v>25700</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3004,7 +3061,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -3971,7 +4028,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -4732,7 +4789,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -4754,7 +4811,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -4809,7 +4866,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -5093,7 +5150,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -5126,7 +5183,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -5335,7 +5392,7 @@
         <v>41914</v>
       </c>
       <c r="B254" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C254" s="2">
         <v>325</v>
@@ -5566,7 +5623,7 @@
         <v>41959</v>
       </c>
       <c r="B275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C275" s="2">
         <v>300</v>
@@ -5797,7 +5854,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
@@ -6061,7 +6118,7 @@
       <c r="A319" s="1">
         <v>42070</v>
       </c>
-      <c r="B319" s="15" t="s">
+      <c r="B319" s="5" t="s">
         <v>260</v>
       </c>
       <c r="D319" s="6">
@@ -6072,7 +6129,7 @@
       <c r="A320" s="1">
         <v>42070</v>
       </c>
-      <c r="B320" s="15" t="s">
+      <c r="B320" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D320" s="6">
@@ -6306,8 +6363,8 @@
       <c r="A341" s="1">
         <v>42159</v>
       </c>
-      <c r="B341" s="15" t="s">
-        <v>308</v>
+      <c r="B341" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="D341" s="6">
         <v>600</v>
@@ -6317,8 +6374,8 @@
       <c r="A342" s="1">
         <v>42159</v>
       </c>
-      <c r="B342" s="15" t="s">
-        <v>294</v>
+      <c r="B342" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="D342" s="6">
         <v>228</v>
@@ -6328,7 +6385,7 @@
       <c r="A343" s="1">
         <v>42159</v>
       </c>
-      <c r="B343" s="15" t="s">
+      <c r="B343" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D343" s="6">
@@ -6478,7 +6535,7 @@
         <v>42186</v>
       </c>
       <c r="B356" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C356" s="2">
         <v>500</v>
@@ -6489,7 +6546,7 @@
         <v>42187</v>
       </c>
       <c r="B357" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C357" s="2">
         <v>2000</v>
@@ -6522,7 +6579,7 @@
         <v>42195</v>
       </c>
       <c r="B360" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D360" s="2">
         <v>6000</v>
@@ -6533,7 +6590,7 @@
         <v>42195</v>
       </c>
       <c r="B361" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D361" s="2">
         <v>150</v>
@@ -6555,7 +6612,7 @@
         <v>42210</v>
       </c>
       <c r="B363" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D363" s="6">
         <v>66000</v>
@@ -6566,7 +6623,7 @@
         <v>42210</v>
       </c>
       <c r="B364" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D364" s="6">
         <v>1800</v>
@@ -6577,7 +6634,7 @@
         <v>42210</v>
       </c>
       <c r="B365" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D365" s="6">
         <v>1172</v>
@@ -6588,7 +6645,7 @@
         <v>42210</v>
       </c>
       <c r="B366" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C366" s="2">
         <v>110</v>
@@ -6599,7 +6656,7 @@
         <v>42210</v>
       </c>
       <c r="B367" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D367" s="6">
         <v>500</v>
@@ -6613,7 +6670,7 @@
         <v>42210</v>
       </c>
       <c r="B368" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D368" s="6">
         <v>1800</v>
@@ -6624,7 +6681,7 @@
         <v>42217</v>
       </c>
       <c r="B369" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C369" s="2">
         <v>229</v>
@@ -6668,7 +6725,7 @@
         <v>42226</v>
       </c>
       <c r="B373" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D373" s="2">
         <v>6000</v>
@@ -6679,7 +6736,7 @@
         <v>42226</v>
       </c>
       <c r="B374" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D374" s="2">
         <v>150</v>
@@ -6690,7 +6747,7 @@
         <v>42229</v>
       </c>
       <c r="B375" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C375" s="2">
         <v>178</v>
@@ -6723,7 +6780,7 @@
         <v>42254</v>
       </c>
       <c r="B378" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D378" s="2">
         <v>6000</v>
@@ -6734,7 +6791,7 @@
         <v>42254</v>
       </c>
       <c r="B379" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D379" s="2">
         <v>150</v>
@@ -6745,7 +6802,7 @@
         <v>42258</v>
       </c>
       <c r="B380" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C380" s="2">
         <v>2534</v>
@@ -6767,7 +6824,7 @@
         <v>42277</v>
       </c>
       <c r="B382" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D382" s="6">
         <v>26400</v>
@@ -6799,8 +6856,8 @@
       <c r="A385" s="1">
         <v>42286</v>
       </c>
-      <c r="B385" s="15" t="s">
-        <v>383</v>
+      <c r="B385" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="D385" s="2">
         <v>450</v>
@@ -6810,7 +6867,7 @@
       <c r="A386" s="1">
         <v>42286</v>
       </c>
-      <c r="B386" s="15" t="s">
+      <c r="B386" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D386" s="2">
@@ -6822,7 +6879,7 @@
         <v>42286</v>
       </c>
       <c r="B387" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C387" s="2">
         <v>110</v>
@@ -6833,7 +6890,7 @@
         <v>42289</v>
       </c>
       <c r="B388" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D388" s="6">
         <v>415</v>
@@ -6866,7 +6923,7 @@
         <v>42289</v>
       </c>
       <c r="B391" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D391" s="6">
         <v>1995</v>
@@ -6921,7 +6978,7 @@
         <v>42317</v>
       </c>
       <c r="B396" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D396" s="6">
         <v>6000</v>
@@ -6932,7 +6989,7 @@
         <v>42317</v>
       </c>
       <c r="B397" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D397" s="6">
         <v>150</v>
@@ -6943,7 +7000,7 @@
         <v>42320</v>
       </c>
       <c r="B398" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C398" s="2">
         <v>1564</v>
@@ -6954,7 +7011,7 @@
         <v>42321</v>
       </c>
       <c r="B399" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C399" s="2">
         <v>254</v>
@@ -6965,7 +7022,7 @@
         <v>42334</v>
       </c>
       <c r="B400" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C400" s="6">
         <v>16</v>
@@ -6976,7 +7033,7 @@
         <v>42334</v>
       </c>
       <c r="B401" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C401" s="2">
         <v>5302</v>
@@ -7020,7 +7077,7 @@
         <v>42346</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C405" s="2">
         <v>1100</v>
@@ -7076,7 +7133,7 @@
         <v>42353</v>
       </c>
       <c r="B410" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C410" s="2">
         <v>4497</v>
@@ -7109,7 +7166,7 @@
         <v>42378</v>
       </c>
       <c r="B413" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D413" s="6">
         <v>6000</v>
@@ -7120,7 +7177,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D414" s="6">
         <v>150</v>
@@ -7153,7 +7210,7 @@
         <v>42404</v>
       </c>
       <c r="B417" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D417" s="6">
         <v>26400</v>
@@ -7241,7 +7298,7 @@
         <v>42413</v>
       </c>
       <c r="B425" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C425" s="2">
         <v>205</v>
@@ -7252,7 +7309,7 @@
         <v>42430</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D426" s="6">
         <v>450</v>
@@ -7331,7 +7388,7 @@
       <c r="B433" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D433" s="19">
+      <c r="D433" s="18">
         <v>546</v>
       </c>
     </row>
@@ -7351,7 +7408,7 @@
         <v>42466</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C435" s="2">
         <v>1983</v>
@@ -7429,7 +7486,7 @@
         <v>42494</v>
       </c>
       <c r="B442" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C442" s="2">
         <v>1018</v>
@@ -7440,7 +7497,7 @@
         <v>42494</v>
       </c>
       <c r="B443" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C443" s="2">
         <v>1018</v>
@@ -7470,18 +7527,222 @@
       <c r="D445" s="2"/>
     </row>
     <row r="446" spans="1:4">
+      <c r="A446" s="1">
+        <v>42501</v>
+      </c>
       <c r="B446" t="s">
-        <v>63</v>
+        <v>391</v>
+      </c>
+      <c r="D446" s="6">
+        <v>6000</v>
       </c>
     </row>
     <row r="447" spans="1:4">
+      <c r="A447" s="1">
+        <v>42501</v>
+      </c>
       <c r="B447" t="s">
         <v>261</v>
       </c>
+      <c r="D447" s="6">
+        <v>150</v>
+      </c>
     </row>
     <row r="448" spans="1:4">
+      <c r="A448" s="1">
+        <v>42501</v>
+      </c>
       <c r="B448" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="C448" s="2">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="1">
+        <v>42513</v>
+      </c>
+      <c r="B449" t="s">
+        <v>397</v>
+      </c>
+      <c r="D449" s="20">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="1">
+        <v>42513</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D450" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B451" t="s">
+        <v>390</v>
+      </c>
+      <c r="C451" s="2">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="1">
+        <v>42527</v>
+      </c>
+      <c r="B452" t="s">
+        <v>48</v>
+      </c>
+      <c r="D452" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="1">
+        <v>42527</v>
+      </c>
+      <c r="B453" t="s">
+        <v>44</v>
+      </c>
+      <c r="C453" s="2">
+        <v>22385</v>
+      </c>
+      <c r="D453" s="2"/>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" s="1">
+        <v>42527</v>
+      </c>
+      <c r="B454" t="s">
+        <v>258</v>
+      </c>
+      <c r="D454" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" s="1">
+        <v>42527</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C455" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="1">
+        <v>42530</v>
+      </c>
+      <c r="B456" t="s">
+        <v>262</v>
+      </c>
+      <c r="D456" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" s="1">
+        <v>42530</v>
+      </c>
+      <c r="B457" t="s">
+        <v>263</v>
+      </c>
+      <c r="D457" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" s="1">
+        <v>42530</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D458" s="6">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="1">
+        <v>42534</v>
+      </c>
+      <c r="B459" t="s">
+        <v>131</v>
+      </c>
+      <c r="C459" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="1">
+        <v>42536</v>
+      </c>
+      <c r="B460" t="s">
+        <v>394</v>
+      </c>
+      <c r="C460" s="2">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="1">
+        <v>42545</v>
+      </c>
+      <c r="B461" t="s">
+        <v>402</v>
+      </c>
+      <c r="C461" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B462" t="s">
+        <v>406</v>
+      </c>
+      <c r="C462" s="2">
+        <v>73</v>
+      </c>
+      <c r="G462" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B463" t="s">
+        <v>166</v>
+      </c>
+      <c r="C463" s="2">
+        <v>11000</v>
+      </c>
+      <c r="F463" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G463" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B464" t="s">
+        <v>408</v>
+      </c>
+      <c r="D464" s="6">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -7500,11 +7761,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K449"/>
+  <dimension ref="A1:K465"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B449" sqref="B449"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A466" sqref="A466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7519,20 +7780,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1029)</f>
-        <v>1503451</v>
+        <f>SUBTOTAL(9,C3:C1039)</f>
+        <v>1539432</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1029)</f>
-        <v>1080263</v>
+        <f>SUBTOTAL(9,D3:D1039)</f>
+        <v>1121238</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-423188</v>
+        <v>-418194</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1029)</f>
-        <v>36700</v>
+        <f>SUBTOTAL(9,F3:F1039)</f>
+        <v>25700</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
@@ -8088,7 +8349,7 @@
         <v>41067</v>
       </c>
       <c r="B48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C48" s="2">
         <v>1600</v>
@@ -8764,7 +9025,7 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
@@ -9087,7 +9348,7 @@
         <v>41441</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C134" s="2">
         <v>400</v>
@@ -9606,7 +9867,7 @@
         <v>41675</v>
       </c>
       <c r="B178" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D178" s="6">
         <v>6600</v>
@@ -9892,7 +10153,7 @@
         <v>41787</v>
       </c>
       <c r="B202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C202" s="2">
         <v>350</v>
@@ -9914,7 +10175,7 @@
         <v>41792</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C204" s="2">
         <v>2000</v>
@@ -9972,7 +10233,7 @@
         <v>41802</v>
       </c>
       <c r="B209" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C209" s="2">
         <v>800</v>
@@ -10136,7 +10397,7 @@
         <v>11000</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="16.5" customHeight="1">
@@ -10264,7 +10525,7 @@
         <v>41888</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C233" s="2">
         <v>310</v>
@@ -10300,7 +10561,7 @@
         <v>41888</v>
       </c>
       <c r="B236" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C236" s="2">
         <v>1600</v>
@@ -10523,7 +10784,7 @@
         <v>12000</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="16.5" customHeight="1">
@@ -10531,7 +10792,7 @@
         <v>41914</v>
       </c>
       <c r="B255" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C255" s="2">
         <v>325</v>
@@ -10765,7 +11026,7 @@
         <v>41959</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C276" s="2">
         <v>300</v>
@@ -10897,13 +11158,13 @@
         <v>41985</v>
       </c>
       <c r="B288" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D288" s="6">
         <v>6600</v>
       </c>
       <c r="G288" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="16.5" customHeight="1">
@@ -11002,7 +11263,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -11132,7 +11393,7 @@
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" customHeight="1">
@@ -11270,7 +11531,7 @@
         <v>750</v>
       </c>
       <c r="G320" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="16.5" customHeight="1">
@@ -11486,7 +11747,7 @@
         <v>12000</v>
       </c>
       <c r="G339" s="8" t="s">
-        <v>270</v>
+        <v>403</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="16.5" customHeight="1">
@@ -11518,13 +11779,13 @@
         <v>42159</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D342" s="6">
         <v>600</v>
       </c>
       <c r="G342" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="16.5" customHeight="1">
@@ -11532,7 +11793,7 @@
         <v>42159</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D343" s="6">
         <v>228</v>
@@ -11544,7 +11805,7 @@
         <v>42159</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D344" s="6">
         <v>197</v>
@@ -11697,7 +11958,7 @@
         <v>42186</v>
       </c>
       <c r="B357" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C357" s="2">
         <v>500</v>
@@ -11708,7 +11969,7 @@
         <v>42187</v>
       </c>
       <c r="B358" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C358" s="2">
         <v>2000</v>
@@ -11741,7 +12002,7 @@
         <v>42195</v>
       </c>
       <c r="B361" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D361" s="2">
         <v>6000</v>
@@ -11752,7 +12013,7 @@
         <v>42195</v>
       </c>
       <c r="B362" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D362" s="2">
         <v>150</v>
@@ -11774,7 +12035,7 @@
         <v>42210</v>
       </c>
       <c r="B364" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D364" s="6">
         <v>66000</v>
@@ -11785,7 +12046,7 @@
         <v>42210</v>
       </c>
       <c r="B365" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D365" s="6">
         <v>1800</v>
@@ -11796,7 +12057,7 @@
         <v>42210</v>
       </c>
       <c r="B366" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D366" s="6">
         <v>1172</v>
@@ -11808,7 +12069,7 @@
         <v>42210</v>
       </c>
       <c r="B367" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C367" s="2">
         <v>110</v>
@@ -11820,13 +12081,13 @@
         <v>42210</v>
       </c>
       <c r="B368" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F368" s="6">
         <v>500</v>
       </c>
       <c r="G368" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="16.5" customHeight="1">
@@ -11834,7 +12095,7 @@
         <v>42210</v>
       </c>
       <c r="B369" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D369" s="6">
         <v>1800</v>
@@ -11845,13 +12106,13 @@
         <v>42217</v>
       </c>
       <c r="B370" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C370" s="2">
         <v>229</v>
       </c>
       <c r="G370" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="16.5" customHeight="1">
@@ -11892,7 +12153,7 @@
         <v>42226</v>
       </c>
       <c r="B374" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D374" s="2">
         <v>6000</v>
@@ -11903,7 +12164,7 @@
         <v>42226</v>
       </c>
       <c r="B375" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D375" s="2">
         <v>150</v>
@@ -11914,7 +12175,7 @@
         <v>42229</v>
       </c>
       <c r="B376" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C376" s="2">
         <v>178</v>
@@ -11947,7 +12208,7 @@
         <v>42254</v>
       </c>
       <c r="B379" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D379" s="2">
         <v>6000</v>
@@ -11958,7 +12219,7 @@
         <v>42254</v>
       </c>
       <c r="B380" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D380" s="2">
         <v>150</v>
@@ -11969,7 +12230,7 @@
         <v>42258</v>
       </c>
       <c r="B381" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C381" s="2">
         <v>2534</v>
@@ -11994,7 +12255,7 @@
         <v>42277</v>
       </c>
       <c r="B383" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D383" s="6">
         <v>26400</v>
@@ -12027,13 +12288,13 @@
         <v>42286</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D386" s="2">
         <v>450</v>
       </c>
       <c r="G386" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="16.5" customHeight="1">
@@ -12053,7 +12314,7 @@
         <v>42286</v>
       </c>
       <c r="B388" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C388" s="2">
         <v>110</v>
@@ -12064,7 +12325,7 @@
         <v>42289</v>
       </c>
       <c r="B389" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D389" s="6">
         <v>415</v>
@@ -12097,7 +12358,7 @@
         <v>42289</v>
       </c>
       <c r="B392" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D392" s="6">
         <v>1995</v>
@@ -12152,7 +12413,7 @@
         <v>42317</v>
       </c>
       <c r="B397" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D397" s="6">
         <v>6000</v>
@@ -12163,7 +12424,7 @@
         <v>42317</v>
       </c>
       <c r="B398" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D398" s="6">
         <v>150</v>
@@ -12174,7 +12435,7 @@
         <v>42320</v>
       </c>
       <c r="B399" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C399" s="2">
         <v>1564</v>
@@ -12185,7 +12446,7 @@
         <v>42321</v>
       </c>
       <c r="B400" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C400" s="2">
         <v>254</v>
@@ -12196,7 +12457,7 @@
         <v>42334</v>
       </c>
       <c r="B401" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C401" s="6">
         <v>16</v>
@@ -12207,7 +12468,7 @@
         <v>42334</v>
       </c>
       <c r="B402" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C402" s="2">
         <v>5302</v>
@@ -12251,7 +12512,7 @@
         <v>42346</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C406" s="14">
         <v>1100</v>
@@ -12346,7 +12607,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D414" s="6">
         <v>6000</v>
@@ -12357,7 +12618,7 @@
         <v>42378</v>
       </c>
       <c r="B415" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D415" s="6">
         <v>150</v>
@@ -12390,7 +12651,7 @@
         <v>42404</v>
       </c>
       <c r="B418" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D418" s="6">
         <v>26400</v>
@@ -12407,7 +12668,7 @@
         <v>239</v>
       </c>
       <c r="G419" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -12436,14 +12697,14 @@
       <c r="A422" s="1">
         <v>42405</v>
       </c>
-      <c r="B422" s="18" t="s">
+      <c r="B422" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D422" s="6">
         <v>584</v>
       </c>
-      <c r="G422" s="18" t="s">
-        <v>386</v>
+      <c r="G422" s="5" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -12484,7 +12745,7 @@
         <v>42413</v>
       </c>
       <c r="B426" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C426" s="2">
         <v>205</v>
@@ -12495,10 +12756,10 @@
         <v>42430</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D427" s="6">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -12567,17 +12828,17 @@
         <v>5505</v>
       </c>
       <c r="G433" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="1">
         <v>42454</v>
       </c>
-      <c r="B434" s="18" t="s">
+      <c r="B434" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D434" s="19">
+      <c r="D434" s="18">
         <v>546</v>
       </c>
     </row>
@@ -12597,7 +12858,7 @@
         <v>42466</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C436" s="2">
         <v>1983</v>
@@ -12677,7 +12938,7 @@
         <v>42494</v>
       </c>
       <c r="B443" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C443" s="2">
         <v>1018</v>
@@ -12688,7 +12949,7 @@
         <v>42494</v>
       </c>
       <c r="B444" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C444" s="2">
         <v>1018</v>
@@ -12717,18 +12978,229 @@
       </c>
     </row>
     <row r="447" spans="1:7">
+      <c r="A447" s="1">
+        <v>42501</v>
+      </c>
       <c r="B447" t="s">
         <v>63</v>
       </c>
+      <c r="D447" s="6">
+        <v>6000</v>
+      </c>
     </row>
     <row r="448" spans="1:7">
+      <c r="A448" s="1">
+        <v>42501</v>
+      </c>
       <c r="B448" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="449" spans="2:2">
+      <c r="D448" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="1">
+        <v>42501</v>
+      </c>
       <c r="B449" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="C449" s="2">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="1">
+        <v>42513</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C450" s="14"/>
+      <c r="D450" s="21">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="1">
+        <v>42513</v>
+      </c>
+      <c r="B451" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C451" s="14"/>
+      <c r="D451" s="14">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B452" t="s">
+        <v>390</v>
+      </c>
+      <c r="C452" s="2">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="1">
+        <v>42527</v>
+      </c>
+      <c r="B453" t="s">
+        <v>48</v>
+      </c>
+      <c r="C453" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" s="1">
+        <v>42527</v>
+      </c>
+      <c r="B454" t="s">
+        <v>44</v>
+      </c>
+      <c r="C454" s="2">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" s="1">
+        <v>42527</v>
+      </c>
+      <c r="B455" t="s">
+        <v>258</v>
+      </c>
+      <c r="D455" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="1">
+        <v>42527</v>
+      </c>
+      <c r="B456" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C456" s="2">
+        <v>150</v>
+      </c>
+      <c r="G456" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" s="1">
+        <v>42530</v>
+      </c>
+      <c r="B457" t="s">
+        <v>262</v>
+      </c>
+      <c r="D457" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G457" s="5"/>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" s="1">
+        <v>42530</v>
+      </c>
+      <c r="B458" t="s">
+        <v>263</v>
+      </c>
+      <c r="D458" s="6">
+        <v>150</v>
+      </c>
+      <c r="G458" s="5"/>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="1">
+        <v>42530</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D459" s="6">
+        <v>694</v>
+      </c>
+      <c r="G459" s="5"/>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="1">
+        <v>42534</v>
+      </c>
+      <c r="B460" t="s">
+        <v>131</v>
+      </c>
+      <c r="C460" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="1">
+        <v>42536</v>
+      </c>
+      <c r="B461" t="s">
+        <v>394</v>
+      </c>
+      <c r="C461" s="2">
+        <v>6009</v>
+      </c>
+      <c r="G461" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="1">
+        <v>42545</v>
+      </c>
+      <c r="B462" t="s">
+        <v>405</v>
+      </c>
+      <c r="C462" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B463" t="s">
+        <v>406</v>
+      </c>
+      <c r="C463" s="2">
+        <v>73</v>
+      </c>
+      <c r="G463" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B464" t="s">
+        <v>166</v>
+      </c>
+      <c r="F464" s="6">
+        <v>-11000</v>
+      </c>
+      <c r="G464" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B465" t="s">
+        <v>408</v>
+      </c>
+      <c r="D465" s="6">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -12744,10 +13216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12761,19 +13233,19 @@
     <row r="1" spans="1:11">
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C100)</f>
-        <v>3701</v>
+        <v>4097</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D100)</f>
-        <v>4200</v>
+        <v>5400</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>499</v>
+        <v>1303</v>
       </c>
       <c r="I1" s="2">
         <f>SUBTOTAL(9,I3:I1011)</f>
-        <v>1130</v>
+        <v>1726</v>
       </c>
       <c r="J1" s="6">
         <f>SUBTOTAL(9,J3:J1011)</f>
@@ -12781,7 +13253,7 @@
       </c>
       <c r="K1" s="6">
         <f>J1-I1</f>
-        <v>870</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -12795,7 +13267,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
@@ -12810,7 +13282,7 @@
         <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>41</v>
@@ -12837,7 +13309,7 @@
       <c r="H3" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="19">
         <v>584</v>
       </c>
       <c r="J3" s="6">
@@ -12864,7 +13336,7 @@
       <c r="H4" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="20">
         <v>546</v>
       </c>
     </row>
@@ -12873,7 +13345,7 @@
         <v>42159</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="6">
         <v>600</v>
@@ -12883,13 +13355,22 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
+      <c r="G5" s="1">
+        <v>42513</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" s="20">
+        <v>596</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>42159</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="6">
         <v>228</v>
@@ -12897,13 +13378,16 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>42159</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C7" s="6">
         <v>197</v>
@@ -12917,7 +13401,7 @@
         <v>42286</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" s="2">
         <v>450</v>
@@ -12963,7 +13447,7 @@
         <v>42430</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C11" s="2">
         <v>600</v>
@@ -12978,6 +13462,31 @@
       </c>
       <c r="C12" s="2">
         <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>42513</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>42527</v>
+      </c>
+      <c r="B14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="2">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -12991,7 +13500,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
@@ -13743,7 +14252,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13768,72 +14277,72 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G2">
         <f>B2</f>
@@ -13891,7 +14400,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3">
         <f>D3-E3</f>
@@ -13968,7 +14477,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B7" si="10">D4-E4</f>
@@ -14045,7 +14554,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5">
         <f t="shared" si="10"/>
@@ -14122,7 +14631,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6">
         <f t="shared" si="10"/>
@@ -14199,7 +14708,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7">
         <f t="shared" si="10"/>
@@ -14269,13 +14778,13 @@
     </row>
     <row r="11" spans="1:21">
       <c r="N11" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -14289,13 +14798,13 @@
         <v>120000</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T12" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -14313,13 +14822,13 @@
     </row>
     <row r="14" spans="1:21">
       <c r="N14" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="Q14" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S14">
         <v>2012</v>
@@ -14361,10 +14870,10 @@
     </row>
     <row r="17" spans="14:21">
       <c r="N17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="S17">
         <v>2015</v>
@@ -14400,10 +14909,10 @@
     </row>
     <row r="20" spans="14:21">
       <c r="N20" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="14:21">
@@ -14414,10 +14923,10 @@
     </row>
     <row r="23" spans="14:21">
       <c r="N23" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="24" spans="14:21">
@@ -14432,10 +14941,10 @@
     </row>
     <row r="26" spans="14:21">
       <c r="N26" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="27" spans="14:21">
@@ -14449,15 +14958,15 @@
     </row>
     <row r="29" spans="14:21">
       <c r="N29" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="14:21">
       <c r="N31" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="32" spans="14:21">
@@ -14493,25 +15002,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" t="s">
         <v>363</v>
       </c>
-      <c r="C1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>364</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>365</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>366</v>
       </c>
-      <c r="G1" t="s">
-        <v>367</v>
-      </c>
       <c r="H1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -14519,7 +15028,7 @@
         <v>40878</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2">
         <v>666000</v>
@@ -14541,7 +15050,7 @@
         <v>40878</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3">
         <v>1271798</v>
@@ -14563,7 +15072,7 @@
         <v>40909</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D4">
         <v>57500</v>
@@ -14580,7 +15089,7 @@
         <v>57500</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14588,7 +15097,7 @@
         <v>40909</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D5">
         <v>57500</v>
@@ -14605,7 +15114,7 @@
         <v>57500</v>
       </c>
       <c r="I5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -14613,7 +15122,7 @@
         <v>41275</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6">
         <v>60000</v>
@@ -14630,7 +15139,7 @@
         <v>60000</v>
       </c>
       <c r="I6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -14638,7 +15147,7 @@
         <v>41275</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D7">
         <v>60000</v>
@@ -14655,7 +15164,7 @@
         <v>60000</v>
       </c>
       <c r="I7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -14663,7 +15172,7 @@
         <v>41640</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D8">
         <v>60000</v>
@@ -14680,7 +15189,7 @@
         <v>60000</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -14688,7 +15197,7 @@
         <v>41640</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D9">
         <v>60000</v>
@@ -14705,7 +15214,7 @@
         <v>60000</v>
       </c>
       <c r="I9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -14713,7 +15222,7 @@
         <v>42005</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D10">
         <v>60000</v>
@@ -14730,7 +15239,7 @@
         <v>60000</v>
       </c>
       <c r="I10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -14738,7 +15247,7 @@
         <v>42005</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D11">
         <v>60000</v>
@@ -14755,7 +15264,7 @@
         <v>60000</v>
       </c>
       <c r="I11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -14763,7 +15272,7 @@
         <v>42370</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D12">
         <v>60000</v>
@@ -14780,7 +15289,7 @@
         <v>60000</v>
       </c>
       <c r="I12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -14788,7 +15297,7 @@
         <v>42370</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D13">
         <v>60000</v>
@@ -14805,7 +15314,7 @@
         <v>60000</v>
       </c>
       <c r="I13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="426">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1187,10 +1187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2015/8/1~2016/7/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租約 2015/7/6~ 2016/7/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1656,6 +1652,78 @@
   </si>
   <si>
     <t>第2間7月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2016/8/6~ 2017/8/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間預收租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打掃器具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間電視遙控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間電視遙控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗床套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗床套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗20，烘50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間床罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第2間流理臺水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2016/7/9~ 2017/7/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預收機車位租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預收機車位租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/8/1~2017/7/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間7月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間7月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間7月電費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,7 +1815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1813,6 +1881,18 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2107,24 +2187,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73489024"/>
-        <c:axId val="74334592"/>
+        <c:axId val="53087232"/>
+        <c:axId val="53089024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73489024"/>
+        <c:axId val="53087232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74334592"/>
+        <c:crossAx val="53089024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74334592"/>
+        <c:axId val="53089024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2212,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73489024"/>
+        <c:crossAx val="53087232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2474,11 +2554,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J464"/>
+  <dimension ref="A1:J482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B470" sqref="B470"/>
+      <pane ySplit="2" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2494,24 +2574,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
-        <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000-11000</f>
-        <v>1539432</v>
+        <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000-11000-12000</f>
+        <v>1564390</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1034)</f>
-        <v>1648729</v>
+        <f>SUBTOTAL(9,C3:C1041)</f>
+        <v>1685687</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1034)</f>
-        <v>1791088</v>
+        <f>SUBTOTAL(9,D3:D1041)</f>
+        <v>1980305</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>142359</v>
+        <v>294618</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1034)</f>
-        <v>25700</v>
+        <f>SUBTOTAL(9,F3:F1041)</f>
+        <v>37700</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5854,7 +5934,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
@@ -6364,7 +6444,7 @@
         <v>42159</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D341" s="6">
         <v>600</v>
@@ -6375,7 +6455,7 @@
         <v>42159</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D342" s="6">
         <v>228</v>
@@ -6681,7 +6761,7 @@
         <v>42217</v>
       </c>
       <c r="B369" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C369" s="2">
         <v>229</v>
@@ -6725,7 +6805,7 @@
         <v>42226</v>
       </c>
       <c r="B373" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D373" s="2">
         <v>6000</v>
@@ -6736,7 +6816,7 @@
         <v>42226</v>
       </c>
       <c r="B374" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D374" s="2">
         <v>150</v>
@@ -6747,7 +6827,7 @@
         <v>42229</v>
       </c>
       <c r="B375" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C375" s="2">
         <v>178</v>
@@ -6780,7 +6860,7 @@
         <v>42254</v>
       </c>
       <c r="B378" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D378" s="2">
         <v>6000</v>
@@ -6791,7 +6871,7 @@
         <v>42254</v>
       </c>
       <c r="B379" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D379" s="2">
         <v>150</v>
@@ -6802,7 +6882,7 @@
         <v>42258</v>
       </c>
       <c r="B380" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C380" s="2">
         <v>2534</v>
@@ -6824,7 +6904,7 @@
         <v>42277</v>
       </c>
       <c r="B382" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D382" s="6">
         <v>26400</v>
@@ -6857,7 +6937,7 @@
         <v>42286</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D385" s="2">
         <v>450</v>
@@ -6879,7 +6959,7 @@
         <v>42286</v>
       </c>
       <c r="B387" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C387" s="2">
         <v>110</v>
@@ -6890,7 +6970,7 @@
         <v>42289</v>
       </c>
       <c r="B388" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D388" s="6">
         <v>415</v>
@@ -6923,7 +7003,7 @@
         <v>42289</v>
       </c>
       <c r="B391" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D391" s="6">
         <v>1995</v>
@@ -6978,7 +7058,7 @@
         <v>42317</v>
       </c>
       <c r="B396" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D396" s="6">
         <v>6000</v>
@@ -6989,7 +7069,7 @@
         <v>42317</v>
       </c>
       <c r="B397" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D397" s="6">
         <v>150</v>
@@ -7000,7 +7080,7 @@
         <v>42320</v>
       </c>
       <c r="B398" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C398" s="2">
         <v>1564</v>
@@ -7011,7 +7091,7 @@
         <v>42321</v>
       </c>
       <c r="B399" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C399" s="2">
         <v>254</v>
@@ -7022,7 +7102,7 @@
         <v>42334</v>
       </c>
       <c r="B400" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C400" s="6">
         <v>16</v>
@@ -7033,7 +7113,7 @@
         <v>42334</v>
       </c>
       <c r="B401" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C401" s="2">
         <v>5302</v>
@@ -7077,7 +7157,7 @@
         <v>42346</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C405" s="2">
         <v>1100</v>
@@ -7133,7 +7213,7 @@
         <v>42353</v>
       </c>
       <c r="B410" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C410" s="2">
         <v>4497</v>
@@ -7166,7 +7246,7 @@
         <v>42378</v>
       </c>
       <c r="B413" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D413" s="6">
         <v>6000</v>
@@ -7177,7 +7257,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D414" s="6">
         <v>150</v>
@@ -7210,7 +7290,7 @@
         <v>42404</v>
       </c>
       <c r="B417" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D417" s="6">
         <v>26400</v>
@@ -7298,7 +7378,7 @@
         <v>42413</v>
       </c>
       <c r="B425" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C425" s="2">
         <v>205</v>
@@ -7309,7 +7389,7 @@
         <v>42430</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D426" s="6">
         <v>450</v>
@@ -7408,7 +7488,7 @@
         <v>42466</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C435" s="2">
         <v>1983</v>
@@ -7486,7 +7566,7 @@
         <v>42494</v>
       </c>
       <c r="B442" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C442" s="2">
         <v>1018</v>
@@ -7497,7 +7577,7 @@
         <v>42494</v>
       </c>
       <c r="B443" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C443" s="2">
         <v>1018</v>
@@ -7531,7 +7611,7 @@
         <v>42501</v>
       </c>
       <c r="B446" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D446" s="6">
         <v>6000</v>
@@ -7553,7 +7633,7 @@
         <v>42501</v>
       </c>
       <c r="B448" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C448" s="2">
         <v>1408</v>
@@ -7564,7 +7644,7 @@
         <v>42513</v>
       </c>
       <c r="B449" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D449" s="20">
         <v>596</v>
@@ -7586,7 +7666,7 @@
         <v>42521</v>
       </c>
       <c r="B451" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C451" s="2">
         <v>5642</v>
@@ -7631,7 +7711,7 @@
         <v>42527</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C455" s="2">
         <v>150</v>
@@ -7664,7 +7744,7 @@
         <v>42530</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D458" s="6">
         <v>694</v>
@@ -7686,7 +7766,7 @@
         <v>42536</v>
       </c>
       <c r="B460" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C460" s="2">
         <v>6009</v>
@@ -7697,7 +7777,7 @@
         <v>42545</v>
       </c>
       <c r="B461" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C461" s="2">
         <v>118</v>
@@ -7708,13 +7788,13 @@
         <v>42554</v>
       </c>
       <c r="B462" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C462" s="2">
         <v>73</v>
       </c>
       <c r="G462" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -7731,7 +7811,7 @@
         <v>-11000</v>
       </c>
       <c r="G463" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -7739,10 +7819,226 @@
         <v>42554</v>
       </c>
       <c r="B464" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D464" s="6">
         <v>589</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B465" t="s">
+        <v>420</v>
+      </c>
+      <c r="D465" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B466" t="s">
+        <v>48</v>
+      </c>
+      <c r="D466" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B467" t="s">
+        <v>44</v>
+      </c>
+      <c r="C467" s="2">
+        <v>22385</v>
+      </c>
+      <c r="D467" s="2"/>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B468" t="s">
+        <v>34</v>
+      </c>
+      <c r="D468" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F468" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G468" s="5"/>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B469" t="s">
+        <v>67</v>
+      </c>
+      <c r="D469" s="6">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B470" t="s">
+        <v>414</v>
+      </c>
+      <c r="C470" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B471" t="s">
+        <v>412</v>
+      </c>
+      <c r="C471" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B472" t="s">
+        <v>416</v>
+      </c>
+      <c r="C472" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B473" t="s">
+        <v>417</v>
+      </c>
+      <c r="C473" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B474" t="s">
+        <v>167</v>
+      </c>
+      <c r="D474" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F474" s="6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="A475" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B475" t="s">
+        <v>224</v>
+      </c>
+      <c r="D475" s="6">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="A476" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B476" t="s">
+        <v>288</v>
+      </c>
+      <c r="D476" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="A477" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B477" t="s">
+        <v>283</v>
+      </c>
+      <c r="D477" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B478" t="s">
+        <v>284</v>
+      </c>
+      <c r="D478" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="A479" s="1">
+        <v>42563</v>
+      </c>
+      <c r="B479" t="s">
+        <v>422</v>
+      </c>
+      <c r="C479" s="2">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D480" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" s="23">
+        <v>42572</v>
+      </c>
+      <c r="B481" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C481" s="24"/>
+      <c r="D481" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E481" s="25"/>
+      <c r="F481" s="25"/>
+      <c r="G481" s="22"/>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" s="23">
+        <v>42572</v>
+      </c>
+      <c r="B482" t="s">
+        <v>162</v>
+      </c>
+      <c r="C482" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F482" s="6">
+        <v>-12000</v>
+      </c>
+      <c r="G482" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -7761,11 +8057,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K465"/>
+  <dimension ref="A1:K483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A466" sqref="A466"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G469" sqref="G469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7780,20 +8076,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1039)</f>
-        <v>1539432</v>
+        <f>SUBTOTAL(9,C3:C1042)</f>
+        <v>1564390</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1039)</f>
-        <v>1121238</v>
+        <f>SUBTOTAL(9,D3:D1042)</f>
+        <v>1276455</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-418194</v>
+        <v>-287935</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1039)</f>
-        <v>25700</v>
+        <f>SUBTOTAL(9,F3:F1042)</f>
+        <v>37700</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
@@ -8382,7 +8678,7 @@
         <v>41069</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2">
         <v>399</v>
@@ -9025,7 +9321,7 @@
         <v>41320</v>
       </c>
       <c r="B106" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D106" s="6">
         <v>13200</v>
@@ -9867,7 +10163,7 @@
         <v>41675</v>
       </c>
       <c r="B178" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D178" s="6">
         <v>6600</v>
@@ -10330,7 +10626,7 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>159</v>
+        <v>413</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
@@ -10344,7 +10640,7 @@
         <v>41832</v>
       </c>
       <c r="B218" t="s">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="C218" s="2">
         <v>39</v>
@@ -10396,8 +10692,8 @@
       <c r="F222" s="6">
         <v>11000</v>
       </c>
-      <c r="G222" s="8" t="s">
-        <v>292</v>
+      <c r="G222" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="16.5" customHeight="1">
@@ -10539,7 +10835,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>224</v>
+        <v>409</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -11158,7 +11454,7 @@
         <v>41985</v>
       </c>
       <c r="B288" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D288" s="6">
         <v>6600</v>
@@ -11263,7 +11559,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -11393,7 +11689,7 @@
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" customHeight="1">
@@ -11531,7 +11827,7 @@
         <v>750</v>
       </c>
       <c r="G320" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="16.5" customHeight="1">
@@ -11746,8 +12042,8 @@
       <c r="F339" s="6">
         <v>12000</v>
       </c>
-      <c r="G339" s="8" t="s">
-        <v>403</v>
+      <c r="G339" s="5" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="16.5" customHeight="1">
@@ -11779,13 +12075,13 @@
         <v>42159</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D342" s="6">
         <v>600</v>
       </c>
       <c r="G342" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="16.5" customHeight="1">
@@ -11793,7 +12089,7 @@
         <v>42159</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D343" s="6">
         <v>228</v>
@@ -11805,7 +12101,7 @@
         <v>42159</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D344" s="6">
         <v>197</v>
@@ -12087,7 +12383,7 @@
         <v>500</v>
       </c>
       <c r="G368" s="8" t="s">
-        <v>291</v>
+        <v>421</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="16.5" customHeight="1">
@@ -12095,7 +12391,7 @@
         <v>42210</v>
       </c>
       <c r="B369" t="s">
-        <v>289</v>
+        <v>419</v>
       </c>
       <c r="D369" s="6">
         <v>1800</v>
@@ -12106,13 +12402,13 @@
         <v>42217</v>
       </c>
       <c r="B370" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C370" s="2">
         <v>229</v>
       </c>
       <c r="G370" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="16.5" customHeight="1">
@@ -12153,7 +12449,7 @@
         <v>42226</v>
       </c>
       <c r="B374" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D374" s="2">
         <v>6000</v>
@@ -12164,7 +12460,7 @@
         <v>42226</v>
       </c>
       <c r="B375" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D375" s="2">
         <v>150</v>
@@ -12175,7 +12471,7 @@
         <v>42229</v>
       </c>
       <c r="B376" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C376" s="2">
         <v>178</v>
@@ -12208,7 +12504,7 @@
         <v>42254</v>
       </c>
       <c r="B379" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D379" s="2">
         <v>6000</v>
@@ -12219,7 +12515,7 @@
         <v>42254</v>
       </c>
       <c r="B380" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D380" s="2">
         <v>150</v>
@@ -12230,7 +12526,7 @@
         <v>42258</v>
       </c>
       <c r="B381" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C381" s="2">
         <v>2534</v>
@@ -12255,7 +12551,7 @@
         <v>42277</v>
       </c>
       <c r="B383" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D383" s="6">
         <v>26400</v>
@@ -12288,13 +12584,13 @@
         <v>42286</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D386" s="2">
         <v>450</v>
       </c>
       <c r="G386" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="16.5" customHeight="1">
@@ -12314,7 +12610,7 @@
         <v>42286</v>
       </c>
       <c r="B388" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C388" s="2">
         <v>110</v>
@@ -12325,7 +12621,7 @@
         <v>42289</v>
       </c>
       <c r="B389" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D389" s="6">
         <v>415</v>
@@ -12358,7 +12654,7 @@
         <v>42289</v>
       </c>
       <c r="B392" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D392" s="6">
         <v>1995</v>
@@ -12413,7 +12709,7 @@
         <v>42317</v>
       </c>
       <c r="B397" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D397" s="6">
         <v>6000</v>
@@ -12424,7 +12720,7 @@
         <v>42317</v>
       </c>
       <c r="B398" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D398" s="6">
         <v>150</v>
@@ -12435,7 +12731,7 @@
         <v>42320</v>
       </c>
       <c r="B399" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C399" s="2">
         <v>1564</v>
@@ -12446,7 +12742,7 @@
         <v>42321</v>
       </c>
       <c r="B400" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C400" s="2">
         <v>254</v>
@@ -12457,7 +12753,7 @@
         <v>42334</v>
       </c>
       <c r="B401" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C401" s="6">
         <v>16</v>
@@ -12468,7 +12764,7 @@
         <v>42334</v>
       </c>
       <c r="B402" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C402" s="2">
         <v>5302</v>
@@ -12512,7 +12808,7 @@
         <v>42346</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C406" s="14">
         <v>1100</v>
@@ -12607,7 +12903,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D414" s="6">
         <v>6000</v>
@@ -12618,7 +12914,7 @@
         <v>42378</v>
       </c>
       <c r="B415" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D415" s="6">
         <v>150</v>
@@ -12651,7 +12947,7 @@
         <v>42404</v>
       </c>
       <c r="B418" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D418" s="6">
         <v>26400</v>
@@ -12668,7 +12964,7 @@
         <v>239</v>
       </c>
       <c r="G419" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -12704,7 +13000,7 @@
         <v>584</v>
       </c>
       <c r="G422" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -12745,7 +13041,7 @@
         <v>42413</v>
       </c>
       <c r="B426" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C426" s="2">
         <v>205</v>
@@ -12756,7 +13052,7 @@
         <v>42430</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D427" s="6">
         <v>600</v>
@@ -12828,7 +13124,7 @@
         <v>5505</v>
       </c>
       <c r="G433" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -12858,7 +13154,7 @@
         <v>42466</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C436" s="2">
         <v>1983</v>
@@ -12938,7 +13234,7 @@
         <v>42494</v>
       </c>
       <c r="B443" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C443" s="2">
         <v>1018</v>
@@ -12949,7 +13245,7 @@
         <v>42494</v>
       </c>
       <c r="B444" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C444" s="2">
         <v>1018</v>
@@ -13004,7 +13300,7 @@
         <v>42501</v>
       </c>
       <c r="B449" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C449" s="2">
         <v>1408</v>
@@ -13039,7 +13335,7 @@
         <v>42521</v>
       </c>
       <c r="B452" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C452" s="2">
         <v>5642</v>
@@ -13083,13 +13379,13 @@
         <v>42527</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C456" s="2">
         <v>150</v>
       </c>
       <c r="G456" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -13121,7 +13417,7 @@
         <v>42530</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D459" s="6">
         <v>694</v>
@@ -13144,13 +13440,13 @@
         <v>42536</v>
       </c>
       <c r="B461" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C461" s="2">
         <v>6009</v>
       </c>
       <c r="G461" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -13158,7 +13454,7 @@
         <v>42545</v>
       </c>
       <c r="B462" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C462" s="2">
         <v>118</v>
@@ -13169,13 +13465,13 @@
         <v>42554</v>
       </c>
       <c r="B463" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C463" s="2">
         <v>73</v>
       </c>
       <c r="G463" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -13189,18 +13485,232 @@
         <v>-11000</v>
       </c>
       <c r="G464" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
       <c r="A465" s="1">
         <v>42554</v>
       </c>
       <c r="B465" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D465" s="6">
         <v>589</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B466" t="s">
+        <v>420</v>
+      </c>
+      <c r="D466" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B467" t="s">
+        <v>48</v>
+      </c>
+      <c r="C467" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B468" t="s">
+        <v>44</v>
+      </c>
+      <c r="C468" s="2">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B469" t="s">
+        <v>34</v>
+      </c>
+      <c r="F469" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G469" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B470" t="s">
+        <v>67</v>
+      </c>
+      <c r="D470" s="6">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B471" t="s">
+        <v>414</v>
+      </c>
+      <c r="C471" s="2">
+        <v>70</v>
+      </c>
+      <c r="G471" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B472" t="s">
+        <v>412</v>
+      </c>
+      <c r="C472" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B473" t="s">
+        <v>416</v>
+      </c>
+      <c r="C473" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B474" t="s">
+        <v>417</v>
+      </c>
+      <c r="C474" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="A475" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B475" t="s">
+        <v>167</v>
+      </c>
+      <c r="F475" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G475" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="A476" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B476" t="s">
+        <v>224</v>
+      </c>
+      <c r="D476" s="6">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="A477" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B477" t="s">
+        <v>288</v>
+      </c>
+      <c r="D477" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B478" t="s">
+        <v>283</v>
+      </c>
+      <c r="D478" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="A479" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B479" t="s">
+        <v>284</v>
+      </c>
+      <c r="D479" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" s="1">
+        <v>42563</v>
+      </c>
+      <c r="B480" t="s">
+        <v>422</v>
+      </c>
+      <c r="C480" s="2">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B481" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D481" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" s="23">
+        <v>42572</v>
+      </c>
+      <c r="B482" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C482" s="24"/>
+      <c r="D482" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E482" s="25"/>
+      <c r="F482" s="25"/>
+      <c r="G482" s="22"/>
+    </row>
+    <row r="483" spans="1:7">
+      <c r="A483" s="23">
+        <v>42572</v>
+      </c>
+      <c r="B483" t="s">
+        <v>162</v>
+      </c>
+      <c r="F483" s="6">
+        <v>-12000</v>
+      </c>
+      <c r="G483" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -13216,10 +13726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13233,7 +13743,7 @@
     <row r="1" spans="1:11">
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C100)</f>
-        <v>4097</v>
+        <v>4364</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D100)</f>
@@ -13241,7 +13751,7 @@
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>1303</v>
+        <v>1036</v>
       </c>
       <c r="I1" s="2">
         <f>SUBTOTAL(9,I3:I1011)</f>
@@ -13267,7 +13777,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
@@ -13282,7 +13792,7 @@
         <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>41</v>
@@ -13345,7 +13855,7 @@
         <v>42159</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="6">
         <v>600</v>
@@ -13370,7 +13880,7 @@
         <v>42159</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="6">
         <v>228</v>
@@ -13387,7 +13897,7 @@
         <v>42159</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="6">
         <v>197</v>
@@ -13401,7 +13911,7 @@
         <v>42286</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="2">
         <v>450</v>
@@ -13447,7 +13957,7 @@
         <v>42430</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" s="2">
         <v>600</v>
@@ -13480,13 +13990,24 @@
         <v>42527</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C14" s="2">
         <v>150</v>
       </c>
       <c r="D14">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" s="2">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -14277,72 +14798,72 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2">
         <f>B2</f>
@@ -14400,7 +14921,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3">
         <f>D3-E3</f>
@@ -14477,7 +14998,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B7" si="10">D4-E4</f>
@@ -14554,7 +15075,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5">
         <f t="shared" si="10"/>
@@ -14631,7 +15152,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6">
         <f t="shared" si="10"/>
@@ -14708,7 +15229,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B7">
         <f t="shared" si="10"/>
@@ -14778,13 +15299,13 @@
     </row>
     <row r="11" spans="1:21">
       <c r="N11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -14798,13 +15319,13 @@
         <v>120000</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -14822,13 +15343,13 @@
     </row>
     <row r="14" spans="1:21">
       <c r="N14" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="Q14" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S14">
         <v>2012</v>
@@ -14870,10 +15391,10 @@
     </row>
     <row r="17" spans="14:21">
       <c r="N17" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="S17">
         <v>2015</v>
@@ -14909,10 +15430,10 @@
     </row>
     <row r="20" spans="14:21">
       <c r="N20" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="21" spans="14:21">
@@ -14923,10 +15444,10 @@
     </row>
     <row r="23" spans="14:21">
       <c r="N23" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="24" spans="14:21">
@@ -14941,10 +15462,10 @@
     </row>
     <row r="26" spans="14:21">
       <c r="N26" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="27" spans="14:21">
@@ -14958,15 +15479,15 @@
     </row>
     <row r="29" spans="14:21">
       <c r="N29" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="14:21">
       <c r="N31" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="32" spans="14:21">
@@ -14988,7 +15509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -15002,25 +15523,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" t="s">
         <v>362</v>
       </c>
-      <c r="C1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>363</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>364</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>365</v>
       </c>
-      <c r="G1" t="s">
-        <v>366</v>
-      </c>
       <c r="H1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15028,7 +15549,7 @@
         <v>40878</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2">
         <v>666000</v>
@@ -15050,7 +15571,7 @@
         <v>40878</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3">
         <v>1271798</v>
@@ -15072,7 +15593,7 @@
         <v>40909</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D4">
         <v>57500</v>
@@ -15089,7 +15610,7 @@
         <v>57500</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -15097,7 +15618,7 @@
         <v>40909</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D5">
         <v>57500</v>
@@ -15114,7 +15635,7 @@
         <v>57500</v>
       </c>
       <c r="I5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -15122,7 +15643,7 @@
         <v>41275</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D6">
         <v>60000</v>
@@ -15139,7 +15660,7 @@
         <v>60000</v>
       </c>
       <c r="I6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -15147,7 +15668,7 @@
         <v>41275</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D7">
         <v>60000</v>
@@ -15164,7 +15685,7 @@
         <v>60000</v>
       </c>
       <c r="I7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -15172,7 +15693,7 @@
         <v>41640</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D8">
         <v>60000</v>
@@ -15189,7 +15710,7 @@
         <v>60000</v>
       </c>
       <c r="I8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -15197,7 +15718,7 @@
         <v>41640</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D9">
         <v>60000</v>
@@ -15214,7 +15735,7 @@
         <v>60000</v>
       </c>
       <c r="I9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -15222,7 +15743,7 @@
         <v>42005</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D10">
         <v>60000</v>
@@ -15239,7 +15760,7 @@
         <v>60000</v>
       </c>
       <c r="I10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -15247,7 +15768,7 @@
         <v>42005</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D11">
         <v>60000</v>
@@ -15264,7 +15785,7 @@
         <v>60000</v>
       </c>
       <c r="I11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -15272,7 +15793,7 @@
         <v>42370</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D12">
         <v>60000</v>
@@ -15289,7 +15810,7 @@
         <v>60000</v>
       </c>
       <c r="I12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -15297,7 +15818,7 @@
         <v>42370</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D13">
         <v>60000</v>
@@ -15314,7 +15835,7 @@
         <v>60000</v>
       </c>
       <c r="I13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="432">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1724,6 +1724,30 @@
   </si>
   <si>
     <t>第1間7月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間流理臺水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2間床罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間床罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3747，機清費300，垃圾費240，寬頻費300，第四台費1512</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1900,74 +1924,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2187,24 +2143,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53087232"/>
-        <c:axId val="53089024"/>
+        <c:axId val="153486848"/>
+        <c:axId val="153488384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53087232"/>
+        <c:axId val="153486848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53089024"/>
+        <c:crossAx val="153488384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53089024"/>
+        <c:axId val="153488384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,14 +2168,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53087232"/>
+        <c:crossAx val="153486848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2274,7 +2229,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2554,11 +2509,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J482"/>
+  <dimension ref="A1:J491"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B510" sqref="B510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2575,22 +2530,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000-11000-12000</f>
-        <v>1564390</v>
+        <v>1617960</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1041)</f>
-        <v>1685687</v>
+        <f>SUBTOTAL(9,C3:C1043)</f>
+        <v>1739257</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1041)</f>
-        <v>1980305</v>
+        <f>SUBTOTAL(9,D3:D1043)</f>
+        <v>2000305</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>294618</v>
+        <v>261048</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1041)</f>
+        <f>SUBTOTAL(9,F3:F1043)</f>
         <v>37700</v>
       </c>
     </row>
@@ -7912,7 +7867,7 @@
         <v>42559</v>
       </c>
       <c r="B472" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="C472" s="2">
         <v>449</v>
@@ -8039,6 +7994,106 @@
       </c>
       <c r="G482" t="s">
         <v>406</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
+      <c r="A483" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B483" t="s">
+        <v>426</v>
+      </c>
+      <c r="C483" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B484" t="s">
+        <v>428</v>
+      </c>
+      <c r="C484" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B485" t="s">
+        <v>429</v>
+      </c>
+      <c r="C485" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
+      <c r="A486" s="1">
+        <v>42587</v>
+      </c>
+      <c r="B486" t="s">
+        <v>48</v>
+      </c>
+      <c r="D486" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
+      <c r="A487" s="1">
+        <v>42587</v>
+      </c>
+      <c r="B487" t="s">
+        <v>44</v>
+      </c>
+      <c r="C487" s="2">
+        <v>22385</v>
+      </c>
+      <c r="D487" s="2"/>
+    </row>
+    <row r="488" spans="1:7">
+      <c r="A488" s="1">
+        <v>42595</v>
+      </c>
+      <c r="B488" t="s">
+        <v>430</v>
+      </c>
+      <c r="C488" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="A489" s="1">
+        <v>42606</v>
+      </c>
+      <c r="B489" t="s">
+        <v>165</v>
+      </c>
+      <c r="C489" s="2">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
+      <c r="A490" s="1">
+        <v>42619</v>
+      </c>
+      <c r="B490" t="s">
+        <v>48</v>
+      </c>
+      <c r="D490" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
+      <c r="A491" s="1">
+        <v>42619</v>
+      </c>
+      <c r="B491" t="s">
+        <v>44</v>
+      </c>
+      <c r="C491" s="2">
+        <v>22268</v>
       </c>
     </row>
   </sheetData>
@@ -8057,11 +8112,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K483"/>
+  <dimension ref="A1:K492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G469" sqref="G469"/>
+      <pane ySplit="2" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B511" sqref="B511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8076,19 +8131,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1042)</f>
-        <v>1564390</v>
+        <f>SUBTOTAL(9,C3:C1044)</f>
+        <v>1617960</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1042)</f>
+        <f>SUBTOTAL(9,D3:D1044)</f>
         <v>1276455</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-287935</v>
+        <v>-341505</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1042)</f>
+        <f>SUBTOTAL(9,F3:F1044)</f>
         <v>37700</v>
       </c>
     </row>
@@ -13711,6 +13766,108 @@
       </c>
       <c r="G483" t="s">
         <v>406</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B484" t="s">
+        <v>426</v>
+      </c>
+      <c r="C484" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B485" t="s">
+        <v>428</v>
+      </c>
+      <c r="C485" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
+      <c r="A486" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B486" t="s">
+        <v>429</v>
+      </c>
+      <c r="C486" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
+      <c r="A487" s="1">
+        <v>42587</v>
+      </c>
+      <c r="B487" t="s">
+        <v>48</v>
+      </c>
+      <c r="C487" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
+      <c r="A488" s="1">
+        <v>42587</v>
+      </c>
+      <c r="B488" t="s">
+        <v>44</v>
+      </c>
+      <c r="C488" s="2">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="A489" s="1">
+        <v>42595</v>
+      </c>
+      <c r="B489" t="s">
+        <v>430</v>
+      </c>
+      <c r="C489" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
+      <c r="A490" s="1">
+        <v>42606</v>
+      </c>
+      <c r="B490" t="s">
+        <v>165</v>
+      </c>
+      <c r="C490" s="2">
+        <v>6099</v>
+      </c>
+      <c r="G490" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
+      <c r="A491" s="1">
+        <v>42619</v>
+      </c>
+      <c r="B491" t="s">
+        <v>48</v>
+      </c>
+      <c r="C491" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" s="1">
+        <v>42619</v>
+      </c>
+      <c r="B492" t="s">
+        <v>44</v>
+      </c>
+      <c r="C492" s="2">
+        <v>12268</v>
       </c>
     </row>
   </sheetData>
@@ -15509,7 +15666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075"/>
+    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="444">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1519,10 +1519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租約 2015/3/7~2016/10/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1間1月租金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1748,6 +1744,58 @@
   </si>
   <si>
     <t>管理費3747，機清費300，垃圾費240，寬頻費300，第四台費1512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租約 2015/3/7~2018/2/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間9月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間8.9.10.11月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間修理水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間11月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地價稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間12.1月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間12.1月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間燈管馬達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車遙控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電費1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1799,7 +1847,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1824,6 +1872,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1839,7 +1893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1916,6 +1970,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2143,24 +2200,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="153486848"/>
-        <c:axId val="153488384"/>
+        <c:axId val="141788672"/>
+        <c:axId val="141790208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153486848"/>
+        <c:axId val="141788672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153488384"/>
+        <c:crossAx val="141790208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153488384"/>
+        <c:axId val="141790208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2225,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153486848"/>
+        <c:crossAx val="141788672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,11 +2566,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J491"/>
+  <dimension ref="A1:J518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B510" sqref="B510"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A521" sqref="A521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2530,22 +2587,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000-11000-12000</f>
-        <v>1617960</v>
+        <v>1721438</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1043)</f>
-        <v>1739257</v>
+        <f>SUBTOTAL(9,C3:C1054)</f>
+        <v>1842735</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1043)</f>
-        <v>2000305</v>
+        <f>SUBTOTAL(9,D3:D1054)</f>
+        <v>2070983</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>261048</v>
+        <v>228248</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1043)</f>
+        <f>SUBTOTAL(9,F3:F1054)</f>
         <v>37700</v>
       </c>
     </row>
@@ -5889,7 +5946,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
@@ -6892,7 +6949,7 @@
         <v>42286</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D385" s="2">
         <v>450</v>
@@ -7112,7 +7169,7 @@
         <v>42346</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C405" s="2">
         <v>1100</v>
@@ -7201,7 +7258,7 @@
         <v>42378</v>
       </c>
       <c r="B413" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D413" s="6">
         <v>6000</v>
@@ -7212,7 +7269,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D414" s="6">
         <v>150</v>
@@ -7245,7 +7302,7 @@
         <v>42404</v>
       </c>
       <c r="B417" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D417" s="6">
         <v>26400</v>
@@ -7333,7 +7390,7 @@
         <v>42413</v>
       </c>
       <c r="B425" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C425" s="2">
         <v>205</v>
@@ -7344,7 +7401,7 @@
         <v>42430</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D426" s="6">
         <v>450</v>
@@ -7443,7 +7500,7 @@
         <v>42466</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C435" s="2">
         <v>1983</v>
@@ -7521,7 +7578,7 @@
         <v>42494</v>
       </c>
       <c r="B442" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C442" s="2">
         <v>1018</v>
@@ -7532,7 +7589,7 @@
         <v>42494</v>
       </c>
       <c r="B443" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C443" s="2">
         <v>1018</v>
@@ -7566,7 +7623,7 @@
         <v>42501</v>
       </c>
       <c r="B446" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D446" s="6">
         <v>6000</v>
@@ -7588,7 +7645,7 @@
         <v>42501</v>
       </c>
       <c r="B448" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C448" s="2">
         <v>1408</v>
@@ -7599,7 +7656,7 @@
         <v>42513</v>
       </c>
       <c r="B449" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D449" s="20">
         <v>596</v>
@@ -7621,7 +7678,7 @@
         <v>42521</v>
       </c>
       <c r="B451" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C451" s="2">
         <v>5642</v>
@@ -7666,7 +7723,7 @@
         <v>42527</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C455" s="2">
         <v>150</v>
@@ -7699,7 +7756,7 @@
         <v>42530</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D458" s="6">
         <v>694</v>
@@ -7721,7 +7778,7 @@
         <v>42536</v>
       </c>
       <c r="B460" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C460" s="2">
         <v>6009</v>
@@ -7732,7 +7789,7 @@
         <v>42545</v>
       </c>
       <c r="B461" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C461" s="2">
         <v>118</v>
@@ -7743,13 +7800,13 @@
         <v>42554</v>
       </c>
       <c r="B462" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C462" s="2">
         <v>73</v>
       </c>
       <c r="G462" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -7766,7 +7823,7 @@
         <v>-11000</v>
       </c>
       <c r="G463" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -7774,7 +7831,7 @@
         <v>42554</v>
       </c>
       <c r="B464" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D464" s="6">
         <v>589</v>
@@ -7785,7 +7842,7 @@
         <v>42554</v>
       </c>
       <c r="B465" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D465" s="6">
         <v>1800</v>
@@ -7845,7 +7902,7 @@
         <v>42559</v>
       </c>
       <c r="B470" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C470" s="2">
         <v>70</v>
@@ -7856,7 +7913,7 @@
         <v>42559</v>
       </c>
       <c r="B471" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C471" s="2">
         <v>199</v>
@@ -7867,7 +7924,7 @@
         <v>42559</v>
       </c>
       <c r="B472" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C472" s="2">
         <v>449</v>
@@ -7878,7 +7935,7 @@
         <v>42559</v>
       </c>
       <c r="B473" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C473" s="2">
         <v>300</v>
@@ -7947,7 +8004,7 @@
         <v>42563</v>
       </c>
       <c r="B479" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C479" s="2">
         <v>1555</v>
@@ -7958,7 +8015,7 @@
         <v>42569</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D480" s="6">
         <v>267</v>
@@ -7969,7 +8026,7 @@
         <v>42572</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C481" s="24"/>
       <c r="D481" s="25">
@@ -7993,7 +8050,7 @@
         <v>-12000</v>
       </c>
       <c r="G482" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -8001,7 +8058,7 @@
         <v>42582</v>
       </c>
       <c r="B483" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C483" s="2">
         <v>1600</v>
@@ -8012,7 +8069,7 @@
         <v>42582</v>
       </c>
       <c r="B484" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C484" s="2">
         <v>430</v>
@@ -8023,7 +8080,7 @@
         <v>42582</v>
       </c>
       <c r="B485" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C485" s="2">
         <v>599</v>
@@ -8057,7 +8114,7 @@
         <v>42595</v>
       </c>
       <c r="B488" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C488" s="2">
         <v>189</v>
@@ -8094,6 +8151,303 @@
       </c>
       <c r="C491" s="2">
         <v>22268</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" s="1">
+        <v>42623</v>
+      </c>
+      <c r="B492" t="s">
+        <v>431</v>
+      </c>
+      <c r="C492" s="2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
+      <c r="A493" s="1">
+        <v>42641</v>
+      </c>
+      <c r="B493" t="s">
+        <v>303</v>
+      </c>
+      <c r="D493" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
+      <c r="A494" s="1">
+        <v>42641</v>
+      </c>
+      <c r="B494" t="s">
+        <v>306</v>
+      </c>
+      <c r="D494" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
+      <c r="A495" s="1">
+        <v>42648</v>
+      </c>
+      <c r="B495" t="s">
+        <v>48</v>
+      </c>
+      <c r="D495" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
+      <c r="A496" s="1">
+        <v>42648</v>
+      </c>
+      <c r="B496" t="s">
+        <v>44</v>
+      </c>
+      <c r="C496" s="2">
+        <v>22268</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1">
+        <v>42656</v>
+      </c>
+      <c r="B497" t="s">
+        <v>98</v>
+      </c>
+      <c r="C497" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1">
+        <v>42664</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D498" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1">
+        <v>42664</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D499" s="6">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1">
+        <v>42681</v>
+      </c>
+      <c r="B500" t="s">
+        <v>48</v>
+      </c>
+      <c r="D500" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1">
+        <v>42681</v>
+      </c>
+      <c r="B501" t="s">
+        <v>44</v>
+      </c>
+      <c r="C501" s="2">
+        <v>22268</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B502" t="s">
+        <v>433</v>
+      </c>
+      <c r="D502" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B503" t="s">
+        <v>434</v>
+      </c>
+      <c r="D503" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C504" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1">
+        <v>42684</v>
+      </c>
+      <c r="B505" t="s">
+        <v>436</v>
+      </c>
+      <c r="C505" s="2">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B506" t="s">
+        <v>194</v>
+      </c>
+      <c r="D506" s="6">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B507" t="s">
+        <v>191</v>
+      </c>
+      <c r="D507" s="6">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B508" t="s">
+        <v>193</v>
+      </c>
+      <c r="D508" s="6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B509" t="s">
+        <v>438</v>
+      </c>
+      <c r="C509" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1">
+        <v>42710</v>
+      </c>
+      <c r="B510" t="s">
+        <v>48</v>
+      </c>
+      <c r="D510" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1">
+        <v>42710</v>
+      </c>
+      <c r="B511" t="s">
+        <v>44</v>
+      </c>
+      <c r="C511" s="2">
+        <v>22268</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1">
+        <v>42716</v>
+      </c>
+      <c r="B512" t="s">
+        <v>442</v>
+      </c>
+      <c r="C512" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1">
+        <v>42717</v>
+      </c>
+      <c r="B513" t="s">
+        <v>192</v>
+      </c>
+      <c r="C513" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1">
+        <v>42719</v>
+      </c>
+      <c r="B514" t="s">
+        <v>373</v>
+      </c>
+      <c r="C514" s="2">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1">
+        <v>42733</v>
+      </c>
+      <c r="B515" t="s">
+        <v>441</v>
+      </c>
+      <c r="C515" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B516" t="s">
+        <v>48</v>
+      </c>
+      <c r="D516" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B517" t="s">
+        <v>44</v>
+      </c>
+      <c r="C517" s="2">
+        <v>22268</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1">
+        <v>42747</v>
+      </c>
+      <c r="B518" t="s">
+        <v>443</v>
+      </c>
+      <c r="C518" s="2">
+        <v>1614</v>
       </c>
     </row>
   </sheetData>
@@ -8112,11 +8466,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K492"/>
+  <dimension ref="A1:K519"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B511" sqref="B511"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C519" sqref="A519:C519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8131,19 +8485,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1044)</f>
-        <v>1617960</v>
+        <f>SUBTOTAL(9,C3:C1056)</f>
+        <v>1721438</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1044)</f>
-        <v>1276455</v>
+        <f>SUBTOTAL(9,D3:D1056)</f>
+        <v>1307133</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-341505</v>
+        <v>-414305</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1044)</f>
+        <f>SUBTOTAL(9,F3:F1056)</f>
         <v>37700</v>
       </c>
     </row>
@@ -8733,7 +9087,7 @@
         <v>41069</v>
       </c>
       <c r="B51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2">
         <v>399</v>
@@ -10681,7 +11035,7 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
@@ -10695,7 +11049,7 @@
         <v>41832</v>
       </c>
       <c r="B218" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C218" s="2">
         <v>39</v>
@@ -10890,7 +11244,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -11614,7 +11968,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -11744,7 +12098,7 @@
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" customHeight="1">
@@ -12098,7 +12452,7 @@
         <v>12000</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="16.5" customHeight="1">
@@ -12438,7 +12792,7 @@
         <v>500</v>
       </c>
       <c r="G368" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="16.5" customHeight="1">
@@ -12446,7 +12800,7 @@
         <v>42210</v>
       </c>
       <c r="B369" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D369" s="6">
         <v>1800</v>
@@ -12639,7 +12993,7 @@
         <v>42286</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D386" s="2">
         <v>450</v>
@@ -12863,7 +13217,7 @@
         <v>42346</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C406" s="14">
         <v>1100</v>
@@ -12958,7 +13312,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D414" s="6">
         <v>6000</v>
@@ -12969,7 +13323,7 @@
         <v>42378</v>
       </c>
       <c r="B415" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D415" s="6">
         <v>150</v>
@@ -13002,7 +13356,7 @@
         <v>42404</v>
       </c>
       <c r="B418" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D418" s="6">
         <v>26400</v>
@@ -13019,7 +13373,7 @@
         <v>239</v>
       </c>
       <c r="G419" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -13055,7 +13409,7 @@
         <v>584</v>
       </c>
       <c r="G422" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -13096,7 +13450,7 @@
         <v>42413</v>
       </c>
       <c r="B426" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C426" s="2">
         <v>205</v>
@@ -13107,7 +13461,7 @@
         <v>42430</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D427" s="6">
         <v>600</v>
@@ -13179,7 +13533,7 @@
         <v>5505</v>
       </c>
       <c r="G433" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -13209,7 +13563,7 @@
         <v>42466</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C436" s="2">
         <v>1983</v>
@@ -13289,7 +13643,7 @@
         <v>42494</v>
       </c>
       <c r="B443" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C443" s="2">
         <v>1018</v>
@@ -13300,7 +13654,7 @@
         <v>42494</v>
       </c>
       <c r="B444" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C444" s="2">
         <v>1018</v>
@@ -13355,7 +13709,7 @@
         <v>42501</v>
       </c>
       <c r="B449" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C449" s="2">
         <v>1408</v>
@@ -13390,7 +13744,7 @@
         <v>42521</v>
       </c>
       <c r="B452" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C452" s="2">
         <v>5642</v>
@@ -13434,13 +13788,13 @@
         <v>42527</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C456" s="2">
         <v>150</v>
       </c>
       <c r="G456" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -13472,7 +13826,7 @@
         <v>42530</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D459" s="6">
         <v>694</v>
@@ -13495,13 +13849,13 @@
         <v>42536</v>
       </c>
       <c r="B461" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C461" s="2">
         <v>6009</v>
       </c>
       <c r="G461" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -13509,7 +13863,7 @@
         <v>42545</v>
       </c>
       <c r="B462" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C462" s="2">
         <v>118</v>
@@ -13520,13 +13874,13 @@
         <v>42554</v>
       </c>
       <c r="B463" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C463" s="2">
         <v>73</v>
       </c>
       <c r="G463" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -13540,7 +13894,7 @@
         <v>-11000</v>
       </c>
       <c r="G464" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -13548,7 +13902,7 @@
         <v>42554</v>
       </c>
       <c r="B465" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D465" s="6">
         <v>589</v>
@@ -13559,7 +13913,7 @@
         <v>42554</v>
       </c>
       <c r="B466" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D466" s="6">
         <v>1800</v>
@@ -13598,7 +13952,7 @@
         <v>12000</v>
       </c>
       <c r="G469" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -13617,13 +13971,13 @@
         <v>42559</v>
       </c>
       <c r="B471" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C471" s="2">
         <v>70</v>
       </c>
       <c r="G471" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -13631,7 +13985,7 @@
         <v>42559</v>
       </c>
       <c r="B472" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C472" s="2">
         <v>199</v>
@@ -13642,7 +13996,7 @@
         <v>42559</v>
       </c>
       <c r="B473" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C473" s="2">
         <v>449</v>
@@ -13653,7 +14007,7 @@
         <v>42559</v>
       </c>
       <c r="B474" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C474" s="2">
         <v>300</v>
@@ -13670,7 +14024,7 @@
         <v>12000</v>
       </c>
       <c r="G475" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -13722,7 +14076,7 @@
         <v>42563</v>
       </c>
       <c r="B480" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C480" s="2">
         <v>1555</v>
@@ -13733,7 +14087,7 @@
         <v>42569</v>
       </c>
       <c r="B481" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D481" s="6">
         <v>267</v>
@@ -13744,7 +14098,7 @@
         <v>42572</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C482" s="24"/>
       <c r="D482" s="25">
@@ -13765,7 +14119,7 @@
         <v>-12000</v>
       </c>
       <c r="G483" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -13773,7 +14127,7 @@
         <v>42582</v>
       </c>
       <c r="B484" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C484" s="2">
         <v>1600</v>
@@ -13784,7 +14138,7 @@
         <v>42582</v>
       </c>
       <c r="B485" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C485" s="2">
         <v>430</v>
@@ -13795,7 +14149,7 @@
         <v>42582</v>
       </c>
       <c r="B486" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C486" s="2">
         <v>599</v>
@@ -13828,7 +14182,7 @@
         <v>42595</v>
       </c>
       <c r="B489" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C489" s="2">
         <v>189</v>
@@ -13845,7 +14199,7 @@
         <v>6099</v>
       </c>
       <c r="G490" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -13868,6 +14222,306 @@
       </c>
       <c r="C492" s="2">
         <v>12268</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
+      <c r="A493" s="1">
+        <v>42623</v>
+      </c>
+      <c r="B493" t="s">
+        <v>431</v>
+      </c>
+      <c r="C493" s="2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
+      <c r="A494" s="1">
+        <v>42641</v>
+      </c>
+      <c r="B494" t="s">
+        <v>303</v>
+      </c>
+      <c r="D494" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
+      <c r="A495" s="1">
+        <v>42641</v>
+      </c>
+      <c r="B495" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D495" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
+      <c r="A496" s="1">
+        <v>42648</v>
+      </c>
+      <c r="B496" t="s">
+        <v>48</v>
+      </c>
+      <c r="C496" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1">
+        <v>42648</v>
+      </c>
+      <c r="B497" t="s">
+        <v>44</v>
+      </c>
+      <c r="C497" s="2">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1">
+        <v>42656</v>
+      </c>
+      <c r="B498" t="s">
+        <v>98</v>
+      </c>
+      <c r="C498" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1">
+        <v>42664</v>
+      </c>
+      <c r="B499" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D499" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1">
+        <v>42664</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D500" s="6">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1">
+        <v>42681</v>
+      </c>
+      <c r="B501" t="s">
+        <v>48</v>
+      </c>
+      <c r="C501" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>42681</v>
+      </c>
+      <c r="B502" t="s">
+        <v>44</v>
+      </c>
+      <c r="C502" s="2">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B503" t="s">
+        <v>433</v>
+      </c>
+      <c r="D503" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B504" t="s">
+        <v>434</v>
+      </c>
+      <c r="D504" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B505" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C505" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1">
+        <v>42684</v>
+      </c>
+      <c r="B506" t="s">
+        <v>436</v>
+      </c>
+      <c r="C506" s="2">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A507" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B507" t="s">
+        <v>194</v>
+      </c>
+      <c r="D507" s="6">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B508" t="s">
+        <v>191</v>
+      </c>
+      <c r="D508" s="6">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B509" t="s">
+        <v>193</v>
+      </c>
+      <c r="D509" s="6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B510" t="s">
+        <v>438</v>
+      </c>
+      <c r="C510" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1">
+        <v>42710</v>
+      </c>
+      <c r="B511" t="s">
+        <v>48</v>
+      </c>
+      <c r="C511" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1">
+        <v>42710</v>
+      </c>
+      <c r="B512" t="s">
+        <v>44</v>
+      </c>
+      <c r="C512" s="2">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7">
+      <c r="A513" s="1">
+        <v>42716</v>
+      </c>
+      <c r="B513" t="s">
+        <v>442</v>
+      </c>
+      <c r="C513" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7">
+      <c r="A514" s="1">
+        <v>42717</v>
+      </c>
+      <c r="B514" t="s">
+        <v>192</v>
+      </c>
+      <c r="C514" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
+      <c r="A515" s="1">
+        <v>42719</v>
+      </c>
+      <c r="B515" t="s">
+        <v>373</v>
+      </c>
+      <c r="C515" s="2">
+        <v>6099</v>
+      </c>
+      <c r="G515" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516" s="1">
+        <v>42733</v>
+      </c>
+      <c r="B516" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C516" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B517" t="s">
+        <v>48</v>
+      </c>
+      <c r="C517" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
+      <c r="A518" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B518" t="s">
+        <v>44</v>
+      </c>
+      <c r="C518" s="2">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7">
+      <c r="A519" s="1">
+        <v>42747</v>
+      </c>
+      <c r="B519" t="s">
+        <v>443</v>
+      </c>
+      <c r="C519" s="2">
+        <v>1614</v>
       </c>
     </row>
   </sheetData>
@@ -13883,44 +14537,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C100)</f>
-        <v>4364</v>
+        <v>5623</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D100)</f>
-        <v>5400</v>
+        <v>6600</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>1036</v>
+        <v>977</v>
       </c>
       <c r="I1" s="2">
         <f>SUBTOTAL(9,I3:I1011)</f>
-        <v>1726</v>
+        <v>777</v>
       </c>
       <c r="J1" s="6">
         <f>SUBTOTAL(9,J3:J1011)</f>
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K1" s="6">
         <f>J1-I1</f>
-        <v>274</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -13934,7 +14588,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
@@ -13949,7 +14603,7 @@
         <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>41</v>
@@ -13970,17 +14624,15 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="1">
-        <v>42405</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>200</v>
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>437</v>
       </c>
       <c r="I3" s="19">
-        <v>584</v>
+        <v>477</v>
       </c>
       <c r="J3" s="6">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -13997,14 +14649,15 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="1">
-        <v>42454</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>251</v>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>439</v>
       </c>
       <c r="I4" s="20">
-        <v>546</v>
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -14022,15 +14675,9 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="1">
-        <v>42513</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I5" s="20">
-        <v>596</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
@@ -14068,7 +14715,7 @@
         <v>42286</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="2">
         <v>450</v>
@@ -14114,7 +14761,7 @@
         <v>42430</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C11" s="2">
         <v>600</v>
@@ -14147,7 +14794,7 @@
         <v>42527</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C14" s="2">
         <v>150</v>
@@ -14161,10 +14808,57 @@
         <v>42569</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C15" s="2">
         <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>42641</v>
+      </c>
+      <c r="B16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="2">
+        <v>600</v>
+      </c>
+      <c r="D16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>42664</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" s="2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="449">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1763,10 +1763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第1間修理水龍頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電費11月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1791,11 +1787,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>機車遙控器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電費1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間1月電費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-新買機車遙控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第1間水龍頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-新買機車遙控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間2.3月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3間2.3.4.5月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費2月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1893,7 +1913,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1973,6 +1993,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2200,24 +2223,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="141788672"/>
-        <c:axId val="141790208"/>
+        <c:axId val="114308224"/>
+        <c:axId val="114309760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141788672"/>
+        <c:axId val="114308224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141790208"/>
+        <c:crossAx val="114309760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141790208"/>
+        <c:axId val="114309760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2248,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141788672"/>
+        <c:crossAx val="114308224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2566,11 +2589,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J518"/>
+  <dimension ref="A1:J527"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A521" sqref="A521"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B531" sqref="B531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2587,22 +2610,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000-11000-12000</f>
-        <v>1721438</v>
+        <v>1721682</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1054)</f>
-        <v>1842735</v>
+        <f>SUBTOTAL(9,C3:C1059)</f>
+        <v>1842979</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1054)</f>
-        <v>2070983</v>
+        <f>SUBTOTAL(9,D3:D1059)</f>
+        <v>2100669</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>228248</v>
+        <v>257690</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1054)</f>
+        <f>SUBTOTAL(9,F3:F1059)</f>
         <v>37700</v>
       </c>
     </row>
@@ -8290,7 +8313,7 @@
         <v>42682</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C504" s="2">
         <v>1800</v>
@@ -8301,7 +8324,7 @@
         <v>42684</v>
       </c>
       <c r="B505" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C505" s="2">
         <v>1514</v>
@@ -8345,7 +8368,7 @@
         <v>42704</v>
       </c>
       <c r="B509" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C509" s="2">
         <v>372</v>
@@ -8353,101 +8376,201 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="1">
-        <v>42710</v>
-      </c>
-      <c r="B510" t="s">
-        <v>48</v>
+        <v>42705</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="D510" s="6">
-        <v>10000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="1">
-        <v>42710</v>
+        <v>42705</v>
       </c>
       <c r="B511" t="s">
-        <v>44</v>
-      </c>
-      <c r="C511" s="2">
-        <v>22268</v>
+        <v>439</v>
+      </c>
+      <c r="D511" s="6">
+        <v>300</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="1">
-        <v>42716</v>
+        <v>42710</v>
       </c>
       <c r="B512" t="s">
-        <v>442</v>
-      </c>
-      <c r="C512" s="2">
-        <v>500</v>
+        <v>48</v>
+      </c>
+      <c r="D512" s="6">
+        <v>10000</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="1">
-        <v>42717</v>
+        <v>42710</v>
       </c>
       <c r="B513" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="C513" s="2">
-        <v>251</v>
+        <v>22268</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="1">
-        <v>42719</v>
+        <v>42716</v>
       </c>
       <c r="B514" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="C514" s="2">
-        <v>6099</v>
+        <v>500</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1">
-        <v>42733</v>
+        <v>42717</v>
       </c>
       <c r="B515" t="s">
-        <v>441</v>
+        <v>192</v>
       </c>
       <c r="C515" s="2">
-        <v>1000</v>
+        <v>251</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="1">
-        <v>42740</v>
+        <v>42719</v>
       </c>
       <c r="B516" t="s">
-        <v>48</v>
-      </c>
-      <c r="D516" s="6">
-        <v>10000</v>
+        <v>373</v>
+      </c>
+      <c r="C516" s="2">
+        <v>6099</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="1">
-        <v>42740</v>
+        <v>42733</v>
       </c>
       <c r="B517" t="s">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="C517" s="2">
-        <v>22268</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B518" t="s">
+        <v>48</v>
+      </c>
+      <c r="D518" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B519" t="s">
+        <v>44</v>
+      </c>
+      <c r="C519" s="2">
+        <v>22268</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1">
         <v>42747</v>
       </c>
-      <c r="B518" t="s">
-        <v>443</v>
-      </c>
-      <c r="C518" s="2">
+      <c r="B520" t="s">
+        <v>441</v>
+      </c>
+      <c r="C520" s="2">
         <v>1614</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1">
+        <v>42758</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D521" s="6">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1">
+        <v>42758</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C522" s="6"/>
+      <c r="D522" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1">
+        <v>42759</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D523" s="6">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="13">
+        <v>42761</v>
+      </c>
+      <c r="B524" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D524" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="13">
+        <v>42761</v>
+      </c>
+      <c r="B525" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D525" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1">
+        <v>42761</v>
+      </c>
+      <c r="B526" t="s">
+        <v>379</v>
+      </c>
+      <c r="D526" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>42779</v>
+      </c>
+      <c r="B527" t="s">
+        <v>448</v>
+      </c>
+      <c r="C527" s="2">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -8466,11 +8589,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K519"/>
+  <dimension ref="A1:K528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C519" sqref="A519:C519"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A528" sqref="A528:C528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8485,19 +8608,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1056)</f>
-        <v>1721438</v>
+        <f>SUBTOTAL(9,C3:C1061)</f>
+        <v>1721682</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1056)</f>
-        <v>1307133</v>
+        <f>SUBTOTAL(9,D3:D1061)</f>
+        <v>1336819</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-414305</v>
+        <v>-384863</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1056)</f>
+        <f>SUBTOTAL(9,F3:F1061)</f>
         <v>37700</v>
       </c>
     </row>
@@ -14361,7 +14484,7 @@
         <v>42682</v>
       </c>
       <c r="B505" s="26" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C505" s="2">
         <v>1800</v>
@@ -14372,7 +14495,7 @@
         <v>42684</v>
       </c>
       <c r="B506" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C506" s="2">
         <v>1514</v>
@@ -14404,124 +14527,224 @@
       <c r="A509" s="1">
         <v>42703</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D509" s="6">
         <v>194</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" ht="15.75" customHeight="1">
       <c r="A510" s="1">
         <v>42704</v>
       </c>
       <c r="B510" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C510" s="2">
         <v>372</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" ht="15.75" customHeight="1">
       <c r="A511" s="1">
-        <v>42710</v>
-      </c>
-      <c r="B511" t="s">
-        <v>48</v>
-      </c>
-      <c r="C511" s="2">
-        <v>10000</v>
+        <v>42705</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D511" s="6">
+        <v>300</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="1">
-        <v>42710</v>
-      </c>
-      <c r="B512" t="s">
-        <v>44</v>
-      </c>
-      <c r="C512" s="2">
-        <v>12268</v>
+        <v>42705</v>
+      </c>
+      <c r="B512" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D512" s="6">
+        <v>300</v>
       </c>
     </row>
     <row r="513" spans="1:7">
       <c r="A513" s="1">
-        <v>42716</v>
+        <v>42710</v>
       </c>
       <c r="B513" t="s">
-        <v>442</v>
+        <v>48</v>
       </c>
       <c r="C513" s="2">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="514" spans="1:7">
       <c r="A514" s="1">
-        <v>42717</v>
+        <v>42710</v>
       </c>
       <c r="B514" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="C514" s="2">
-        <v>251</v>
+        <v>12268</v>
       </c>
     </row>
     <row r="515" spans="1:7">
       <c r="A515" s="1">
-        <v>42719</v>
+        <v>42716</v>
       </c>
       <c r="B515" t="s">
-        <v>373</v>
+        <v>445</v>
       </c>
       <c r="C515" s="2">
-        <v>6099</v>
-      </c>
-      <c r="G515" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
     </row>
     <row r="516" spans="1:7">
       <c r="A516" s="1">
-        <v>42733</v>
-      </c>
-      <c r="B516" s="26" t="s">
-        <v>441</v>
+        <v>42717</v>
+      </c>
+      <c r="B516" t="s">
+        <v>192</v>
       </c>
       <c r="C516" s="2">
-        <v>1000</v>
+        <v>251</v>
       </c>
     </row>
     <row r="517" spans="1:7">
       <c r="A517" s="1">
-        <v>42740</v>
+        <v>42719</v>
       </c>
       <c r="B517" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="C517" s="2">
-        <v>10000</v>
+        <v>6099</v>
+      </c>
+      <c r="G517" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="518" spans="1:7">
       <c r="A518" s="1">
-        <v>42740</v>
-      </c>
-      <c r="B518" t="s">
-        <v>44</v>
+        <v>42733</v>
+      </c>
+      <c r="B518" s="26" t="s">
+        <v>440</v>
       </c>
       <c r="C518" s="2">
-        <v>12268</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="519" spans="1:7">
       <c r="A519" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B519" t="s">
+        <v>48</v>
+      </c>
+      <c r="C519" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
+      <c r="A520" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B520" t="s">
+        <v>44</v>
+      </c>
+      <c r="C520" s="2">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521" s="1">
         <v>42747</v>
       </c>
-      <c r="B519" t="s">
-        <v>443</v>
-      </c>
-      <c r="C519" s="2">
+      <c r="B521" t="s">
+        <v>441</v>
+      </c>
+      <c r="C521" s="2">
         <v>1614</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
+      <c r="A522" s="1">
+        <v>42758</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D522" s="6">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7">
+      <c r="A523" s="1">
+        <v>42758</v>
+      </c>
+      <c r="B523" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C523" s="6"/>
+      <c r="D523" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
+      <c r="A524" s="1">
+        <v>42759</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D524" s="6">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
+      <c r="A525" s="1">
+        <v>42761</v>
+      </c>
+      <c r="B525" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="D525" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7">
+      <c r="A526" s="1">
+        <v>42761</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D526" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
+      <c r="A527" s="1">
+        <v>42761</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D527" s="6">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528" s="1">
+        <v>42779</v>
+      </c>
+      <c r="B528" t="s">
+        <v>448</v>
+      </c>
+      <c r="C528" s="2">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -14537,10 +14760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14554,19 +14777,19 @@
     <row r="1" spans="1:11">
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C100)</f>
-        <v>5623</v>
+        <v>6434</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D100)</f>
-        <v>6600</v>
+        <v>7800</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>977</v>
+        <v>1366</v>
       </c>
       <c r="I1" s="2">
         <f>SUBTOTAL(9,I3:I1011)</f>
-        <v>777</v>
+        <v>1622</v>
       </c>
       <c r="J1" s="6">
         <f>SUBTOTAL(9,J3:J1011)</f>
@@ -14574,7 +14797,7 @@
       </c>
       <c r="K1" s="6">
         <f>J1-I1</f>
-        <v>2023</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -14624,9 +14847,9 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="1"/>
-      <c r="H3" t="s">
-        <v>437</v>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="I3" s="19">
         <v>477</v>
@@ -14649,14 +14872,14 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
-      <c r="H4" t="s">
-        <v>439</v>
-      </c>
-      <c r="I4" s="20">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I4" s="19">
         <v>300</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -14675,9 +14898,14 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="20"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I5" s="19">
+        <v>545</v>
+      </c>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
@@ -14692,9 +14920,14 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="20"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I6" s="19">
+        <v>300</v>
+      </c>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
@@ -14709,6 +14942,10 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
@@ -14717,7 +14954,7 @@
       <c r="B8" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>450</v>
       </c>
       <c r="D8" s="6">
@@ -14725,6 +14962,10 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
@@ -14733,12 +14974,16 @@
       <c r="B9" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>306</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
@@ -14747,7 +14992,7 @@
       <c r="B10" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>239</v>
       </c>
       <c r="D10" s="6">
@@ -14755,6 +15000,10 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
@@ -14763,9 +15012,16 @@
       <c r="B11" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>600</v>
       </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
@@ -14774,9 +15030,16 @@
       <c r="B12" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>161</v>
       </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
@@ -14785,9 +15048,16 @@
       <c r="B13" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>246</v>
       </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
@@ -14796,12 +15066,18 @@
       <c r="B14" t="s">
         <v>397</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>150</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>1200</v>
       </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
@@ -14810,9 +15086,16 @@
       <c r="B15" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>267</v>
       </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
@@ -14821,49 +15104,115 @@
       <c r="B16" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>600</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>1200</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>42664</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>42703</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>194</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>42705</v>
       </c>
       <c r="B19" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" s="2">
+        <v>439</v>
+      </c>
+      <c r="C19" s="6">
         <v>300</v>
       </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>42758</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="6">
+        <v>211</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>42761</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="6">
+        <v>600</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075"/>
+    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="449">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2223,24 +2223,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114308224"/>
-        <c:axId val="114309760"/>
+        <c:axId val="144152064"/>
+        <c:axId val="144153600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114308224"/>
+        <c:axId val="144152064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114309760"/>
+        <c:crossAx val="144153600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114309760"/>
+        <c:axId val="144153600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2248,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114308224"/>
+        <c:crossAx val="144152064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,11 +2589,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J527"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B531" sqref="B531"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B534" sqref="B534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2610,22 +2610,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000-11000-12000</f>
-        <v>1721682</v>
+        <v>1768481</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1059)</f>
-        <v>1842979</v>
+        <f>SUBTOTAL(9,C3:C1062)</f>
+        <v>1889778</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1059)</f>
-        <v>2100669</v>
+        <f>SUBTOTAL(9,D3:D1062)</f>
+        <v>2120669</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>257690</v>
+        <v>230891</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1059)</f>
+        <f>SUBTOTAL(9,F3:F1062)</f>
         <v>37700</v>
       </c>
     </row>
@@ -8564,13 +8564,68 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="1">
+        <v>42768</v>
+      </c>
+      <c r="B527" t="s">
+        <v>27</v>
+      </c>
+      <c r="C527" s="2">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>42773</v>
+      </c>
+      <c r="B528" t="s">
+        <v>48</v>
+      </c>
+      <c r="D528" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>42773</v>
+      </c>
+      <c r="B529" t="s">
+        <v>44</v>
+      </c>
+      <c r="C529" s="2">
+        <v>22268</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A530" s="1">
         <v>42779</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B530" t="s">
         <v>448</v>
       </c>
-      <c r="C527" s="2">
+      <c r="C530" s="2">
         <v>244</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1">
+        <v>42801</v>
+      </c>
+      <c r="B531" t="s">
+        <v>48</v>
+      </c>
+      <c r="D531" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1">
+        <v>42801</v>
+      </c>
+      <c r="B532" t="s">
+        <v>44</v>
+      </c>
+      <c r="C532" s="2">
+        <v>22268</v>
       </c>
     </row>
   </sheetData>
@@ -8589,11 +8644,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K528"/>
+  <dimension ref="A1:K533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A528" sqref="A528:C528"/>
+      <pane ySplit="2" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A549" sqref="A549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8608,19 +8663,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1061)</f>
-        <v>1721682</v>
+        <f>SUBTOTAL(9,C3:C1064)</f>
+        <v>1768481</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1061)</f>
+        <f>SUBTOTAL(9,D3:D1064)</f>
         <v>1336819</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-384863</v>
+        <v>-431662</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1061)</f>
+        <f>SUBTOTAL(9,F3:F1064)</f>
         <v>37700</v>
       </c>
     </row>
@@ -14738,13 +14793,68 @@
     </row>
     <row r="528" spans="1:7">
       <c r="A528" s="1">
+        <v>42768</v>
+      </c>
+      <c r="B528" t="s">
+        <v>27</v>
+      </c>
+      <c r="C528" s="2">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1">
+        <v>42773</v>
+      </c>
+      <c r="B529" t="s">
+        <v>48</v>
+      </c>
+      <c r="C529" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1">
+        <v>42773</v>
+      </c>
+      <c r="B530" t="s">
+        <v>44</v>
+      </c>
+      <c r="C530" s="2">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1">
         <v>42779</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B531" t="s">
         <v>448</v>
       </c>
-      <c r="C528" s="2">
+      <c r="C531" s="2">
         <v>244</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1">
+        <v>42801</v>
+      </c>
+      <c r="B532" t="s">
+        <v>48</v>
+      </c>
+      <c r="C532" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1">
+        <v>42801</v>
+      </c>
+      <c r="B533" t="s">
+        <v>44</v>
+      </c>
+      <c r="C533" s="2">
+        <v>12268</v>
       </c>
     </row>
   </sheetData>
@@ -14763,7 +14873,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15220,8 +15330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
@@ -15604,8 +15714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/交易紀錄/購屋款項.xlsx
+++ b/交易紀錄/購屋款項.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="6075" windowWidth="20550" windowHeight="3075" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="銀行帳目" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="股份統計" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">交屋後明細!$A$2:$K$542</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">銀行帳目!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="448">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1407,38 +1407,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明年初預計股本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目前剩餘債務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>預估明年初每股淨值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前負債比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預估明年長期負債比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預估明年長期負債</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預估明年最高負債比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預估明年股東可轉債</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租金收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1816,6 +1788,30 @@
   </si>
   <si>
     <t>水費2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1間4.5月水費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理-第2間冷氣霉味清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費3747，機清費300，垃圾費300，寬頻費300，第四台費1512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017房屋貸款每月出資轉認股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1867,7 +1863,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1898,6 +1894,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1913,7 +1915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1998,6 +2000,9 @@
     <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2034,9 +2039,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>財務報表!$A$2:$A$7</c:f>
+              <c:f>財務報表!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2055,15 +2060,18 @@
                 <c:pt idx="5">
                   <c:v>2016</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>財務報表!$B$2:$B$7</c:f>
+              <c:f>財務報表!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>145131</c:v>
                 </c:pt>
@@ -2074,9 +2082,12 @@
                   <c:v>25603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102789</c:v>
+                  <c:v>104189</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>163555</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2102,9 +2113,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>財務報表!$A$2:$A$7</c:f>
+              <c:f>財務報表!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2123,15 +2134,18 @@
                 <c:pt idx="5">
                   <c:v>2016</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>財務報表!$G$2:$G$7</c:f>
+              <c:f>財務報表!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2145,10 +2159,13 @@
                   <c:v>299615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>402404</c:v>
+                  <c:v>403804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>402404</c:v>
+                  <c:v>567359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>567359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,9 +2190,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>財務報表!$A$2:$A$7</c:f>
+              <c:f>財務報表!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2194,15 +2211,18 @@
                 <c:pt idx="5">
                   <c:v>2016</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>財務報表!$C$2:$C$7</c:f>
+              <c:f>財務報表!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>264733</c:v>
                 </c:pt>
@@ -2216,6 +2236,9 @@
                   <c:v>225060</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>267000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2223,24 +2246,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144152064"/>
-        <c:axId val="144153600"/>
+        <c:axId val="277921792"/>
+        <c:axId val="277923328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144152064"/>
+        <c:axId val="277921792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144153600"/>
+        <c:crossAx val="277923328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144153600"/>
+        <c:axId val="277923328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,13 +2271,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144152064"/>
+        <c:crossAx val="277921792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2272,13 +2296,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2589,11 +2613,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J532"/>
+  <dimension ref="A1:J549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B534" sqref="B534"/>
+      <pane ySplit="2" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B553" sqref="B553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2610,22 +2634,22 @@
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" s="6">
         <f>C1-11000-13000+503-13000-13600-11000-11600-13600-12000-11000-12000</f>
-        <v>1768481</v>
+        <v>1807198</v>
       </c>
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1062)</f>
-        <v>1889778</v>
+        <f>SUBTOTAL(9,C3:C1063)</f>
+        <v>1928495</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1062)</f>
-        <v>2120669</v>
+        <f>SUBTOTAL(9,D3:D1063)</f>
+        <v>2132268</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>230891</v>
+        <v>203773</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1062)</f>
+        <f>SUBTOTAL(9,F3:F1063)</f>
         <v>37700</v>
       </c>
     </row>
@@ -5969,7 +5993,7 @@
         <v>42018</v>
       </c>
       <c r="B296" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D296" s="6">
         <v>150</v>
@@ -6972,7 +6996,7 @@
         <v>42286</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D385" s="2">
         <v>450</v>
@@ -7192,7 +7216,7 @@
         <v>42346</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C405" s="2">
         <v>1100</v>
@@ -7248,7 +7272,7 @@
         <v>42353</v>
       </c>
       <c r="B410" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C410" s="2">
         <v>4497</v>
@@ -7281,7 +7305,7 @@
         <v>42378</v>
       </c>
       <c r="B413" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D413" s="6">
         <v>6000</v>
@@ -7292,7 +7316,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D414" s="6">
         <v>150</v>
@@ -7325,7 +7349,7 @@
         <v>42404</v>
       </c>
       <c r="B417" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D417" s="6">
         <v>26400</v>
@@ -7413,7 +7437,7 @@
         <v>42413</v>
       </c>
       <c r="B425" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C425" s="2">
         <v>205</v>
@@ -7424,7 +7448,7 @@
         <v>42430</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D426" s="6">
         <v>450</v>
@@ -7523,7 +7547,7 @@
         <v>42466</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C435" s="2">
         <v>1983</v>
@@ -7601,7 +7625,7 @@
         <v>42494</v>
       </c>
       <c r="B442" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C442" s="2">
         <v>1018</v>
@@ -7612,7 +7636,7 @@
         <v>42494</v>
       </c>
       <c r="B443" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C443" s="2">
         <v>1018</v>
@@ -7646,7 +7670,7 @@
         <v>42501</v>
       </c>
       <c r="B446" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D446" s="6">
         <v>6000</v>
@@ -7668,7 +7692,7 @@
         <v>42501</v>
       </c>
       <c r="B448" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C448" s="2">
         <v>1408</v>
@@ -7679,7 +7703,7 @@
         <v>42513</v>
       </c>
       <c r="B449" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D449" s="20">
         <v>596</v>
@@ -7701,7 +7725,7 @@
         <v>42521</v>
       </c>
       <c r="B451" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C451" s="2">
         <v>5642</v>
@@ -7746,7 +7770,7 @@
         <v>42527</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C455" s="2">
         <v>150</v>
@@ -7779,7 +7803,7 @@
         <v>42530</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D458" s="6">
         <v>694</v>
@@ -7801,7 +7825,7 @@
         <v>42536</v>
       </c>
       <c r="B460" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C460" s="2">
         <v>6009</v>
@@ -7812,7 +7836,7 @@
         <v>42545</v>
       </c>
       <c r="B461" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C461" s="2">
         <v>118</v>
@@ -7823,13 +7847,13 @@
         <v>42554</v>
       </c>
       <c r="B462" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C462" s="2">
         <v>73</v>
       </c>
       <c r="G462" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -7846,7 +7870,7 @@
         <v>-11000</v>
       </c>
       <c r="G463" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -7854,7 +7878,7 @@
         <v>42554</v>
       </c>
       <c r="B464" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D464" s="6">
         <v>589</v>
@@ -7865,7 +7889,7 @@
         <v>42554</v>
       </c>
       <c r="B465" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D465" s="6">
         <v>1800</v>
@@ -7925,7 +7949,7 @@
         <v>42559</v>
       </c>
       <c r="B470" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C470" s="2">
         <v>70</v>
@@ -7936,7 +7960,7 @@
         <v>42559</v>
       </c>
       <c r="B471" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C471" s="2">
         <v>199</v>
@@ -7947,7 +7971,7 @@
         <v>42559</v>
       </c>
       <c r="B472" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C472" s="2">
         <v>449</v>
@@ -7958,7 +7982,7 @@
         <v>42559</v>
       </c>
       <c r="B473" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C473" s="2">
         <v>300</v>
@@ -8027,7 +8051,7 @@
         <v>42563</v>
       </c>
       <c r="B479" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C479" s="2">
         <v>1555</v>
@@ -8038,7 +8062,7 @@
         <v>42569</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D480" s="6">
         <v>267</v>
@@ -8049,7 +8073,7 @@
         <v>42572</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C481" s="24"/>
       <c r="D481" s="25">
@@ -8073,7 +8097,7 @@
         <v>-12000</v>
       </c>
       <c r="G482" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -8081,7 +8105,7 @@
         <v>42582</v>
       </c>
       <c r="B483" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C483" s="2">
         <v>1600</v>
@@ -8092,7 +8116,7 @@
         <v>42582</v>
       </c>
       <c r="B484" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C484" s="2">
         <v>430</v>
@@ -8103,7 +8127,7 @@
         <v>42582</v>
       </c>
       <c r="B485" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C485" s="2">
         <v>599</v>
@@ -8137,7 +8161,7 @@
         <v>42595</v>
       </c>
       <c r="B488" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C488" s="2">
         <v>189</v>
@@ -8181,7 +8205,7 @@
         <v>42623</v>
       </c>
       <c r="B492" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C492" s="2">
         <v>1044</v>
@@ -8291,7 +8315,7 @@
         <v>42682</v>
       </c>
       <c r="B502" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D502" s="6">
         <v>192</v>
@@ -8302,7 +8326,7 @@
         <v>42682</v>
       </c>
       <c r="B503" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D503" s="6">
         <v>600</v>
@@ -8313,7 +8337,7 @@
         <v>42682</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C504" s="2">
         <v>1800</v>
@@ -8324,7 +8348,7 @@
         <v>42684</v>
       </c>
       <c r="B505" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C505" s="2">
         <v>1514</v>
@@ -8368,7 +8392,7 @@
         <v>42704</v>
       </c>
       <c r="B509" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C509" s="2">
         <v>372</v>
@@ -8379,7 +8403,7 @@
         <v>42705</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D510" s="6">
         <v>300</v>
@@ -8390,7 +8414,7 @@
         <v>42705</v>
       </c>
       <c r="B511" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D511" s="6">
         <v>300</v>
@@ -8423,7 +8447,7 @@
         <v>42716</v>
       </c>
       <c r="B514" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C514" s="2">
         <v>500</v>
@@ -8445,7 +8469,7 @@
         <v>42719</v>
       </c>
       <c r="B516" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C516" s="2">
         <v>6099</v>
@@ -8456,7 +8480,7 @@
         <v>42733</v>
       </c>
       <c r="B517" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C517" s="2">
         <v>1000</v>
@@ -8489,7 +8513,7 @@
         <v>42747</v>
       </c>
       <c r="B520" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C520" s="2">
         <v>1614</v>
@@ -8500,7 +8524,7 @@
         <v>42758</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D521" s="6">
         <v>545</v>
@@ -8534,7 +8558,7 @@
         <v>42761</v>
       </c>
       <c r="B524" s="11" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D524" s="6">
         <v>600</v>
@@ -8545,7 +8569,7 @@
         <v>42761</v>
       </c>
       <c r="B525" s="11" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D525" s="6">
         <v>300</v>
@@ -8556,7 +8580,7 @@
         <v>42761</v>
       </c>
       <c r="B526" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D526" s="6">
         <v>26400</v>
@@ -8600,7 +8624,7 @@
         <v>42779</v>
       </c>
       <c r="B530" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C530" s="2">
         <v>244</v>
@@ -8626,6 +8650,116 @@
       </c>
       <c r="C532" s="2">
         <v>22268</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1">
+        <v>42807</v>
+      </c>
+      <c r="B533" t="s">
+        <v>69</v>
+      </c>
+      <c r="C533" s="2">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1">
+        <v>42809</v>
+      </c>
+      <c r="B534" t="s">
+        <v>52</v>
+      </c>
+      <c r="C534" s="2">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1">
+        <v>42812</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D535" s="6">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1">
+        <v>42812</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D536" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1">
+        <v>42812</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D537" s="6">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B538" t="s">
+        <v>48</v>
+      </c>
+      <c r="D538" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B539" t="s">
+        <v>44</v>
+      </c>
+      <c r="C539" s="2">
+        <v>22268</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1">
+        <v>42838</v>
+      </c>
+      <c r="B540" t="s">
+        <v>443</v>
+      </c>
+      <c r="C540" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1">
+        <v>42852</v>
+      </c>
+      <c r="B541" t="s">
+        <v>444</v>
+      </c>
+      <c r="C541" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="1">
+        <v>42901</v>
+      </c>
+      <c r="B549" t="s">
+        <v>74</v>
+      </c>
+      <c r="C549" s="2">
+        <v>6159</v>
       </c>
     </row>
   </sheetData>
@@ -8644,11 +8778,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K533"/>
+  <dimension ref="A1:K548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A549" sqref="A549"/>
+      <pane ySplit="2" topLeftCell="A531" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8663,19 +8797,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="2">
-        <f>SUBTOTAL(9,C3:C1064)</f>
-        <v>1768481</v>
+        <f>SUBTOTAL(9,C3:C1065)</f>
+        <v>1807198</v>
       </c>
       <c r="D1" s="6">
-        <f>SUBTOTAL(9,D3:D1064)</f>
-        <v>1336819</v>
+        <f>SUBTOTAL(9,D3:D1065)</f>
+        <v>1338418</v>
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>-431662</v>
+        <v>-468780</v>
       </c>
       <c r="F1" s="6">
-        <f>SUBTOTAL(9,F3:F1064)</f>
+        <f>SUBTOTAL(9,F3:F1065)</f>
         <v>37700</v>
       </c>
     </row>
@@ -9265,7 +9399,7 @@
         <v>41069</v>
       </c>
       <c r="B51" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2">
         <v>399</v>
@@ -11213,7 +11347,7 @@
         <v>41832</v>
       </c>
       <c r="B217" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C217" s="2">
         <v>90</v>
@@ -11227,7 +11361,7 @@
         <v>41832</v>
       </c>
       <c r="B218" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C218" s="2">
         <v>39</v>
@@ -11422,7 +11556,7 @@
         <v>41888</v>
       </c>
       <c r="B234" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D234" s="6">
         <v>55000</v>
@@ -12146,7 +12280,7 @@
         <v>42018</v>
       </c>
       <c r="B297" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D297" s="6">
         <v>150</v>
@@ -12276,7 +12410,7 @@
         <v>13200</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" customHeight="1">
@@ -12630,7 +12764,7 @@
         <v>12000</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="16.5" customHeight="1">
@@ -12970,7 +13104,7 @@
         <v>500</v>
       </c>
       <c r="G368" s="8" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="16.5" customHeight="1">
@@ -12978,7 +13112,7 @@
         <v>42210</v>
       </c>
       <c r="B369" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D369" s="6">
         <v>1800</v>
@@ -13171,7 +13305,7 @@
         <v>42286</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D386" s="2">
         <v>450</v>
@@ -13395,7 +13529,7 @@
         <v>42346</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C406" s="14">
         <v>1100</v>
@@ -13490,7 +13624,7 @@
         <v>42378</v>
       </c>
       <c r="B414" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D414" s="6">
         <v>6000</v>
@@ -13501,7 +13635,7 @@
         <v>42378</v>
       </c>
       <c r="B415" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D415" s="6">
         <v>150</v>
@@ -13534,7 +13668,7 @@
         <v>42404</v>
       </c>
       <c r="B418" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D418" s="6">
         <v>26400</v>
@@ -13551,7 +13685,7 @@
         <v>239</v>
       </c>
       <c r="G419" s="15" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -13587,7 +13721,7 @@
         <v>584</v>
       </c>
       <c r="G422" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -13628,7 +13762,7 @@
         <v>42413</v>
       </c>
       <c r="B426" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C426" s="2">
         <v>205</v>
@@ -13639,7 +13773,7 @@
         <v>42430</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D427" s="6">
         <v>600</v>
@@ -13711,7 +13845,7 @@
         <v>5505</v>
       </c>
       <c r="G433" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -13741,7 +13875,7 @@
         <v>42466</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C436" s="2">
         <v>1983</v>
@@ -13821,7 +13955,7 @@
         <v>42494</v>
       </c>
       <c r="B443" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C443" s="2">
         <v>1018</v>
@@ -13832,7 +13966,7 @@
         <v>42494</v>
       </c>
       <c r="B444" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C444" s="2">
         <v>1018</v>
@@ -13887,7 +14021,7 @@
         <v>42501</v>
       </c>
       <c r="B449" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C449" s="2">
         <v>1408</v>
@@ -13922,7 +14056,7 @@
         <v>42521</v>
       </c>
       <c r="B452" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C452" s="2">
         <v>5642</v>
@@ -13966,13 +14100,13 @@
         <v>42527</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C456" s="2">
         <v>150</v>
       </c>
       <c r="G456" s="15" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -14004,7 +14138,7 @@
         <v>42530</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D459" s="6">
         <v>694</v>
@@ -14027,13 +14161,13 @@
         <v>42536</v>
       </c>
       <c r="B461" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C461" s="2">
         <v>6009</v>
       </c>
       <c r="G461" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -14041,7 +14175,7 @@
         <v>42545</v>
       </c>
       <c r="B462" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C462" s="2">
         <v>118</v>
@@ -14052,13 +14186,13 @@
         <v>42554</v>
       </c>
       <c r="B463" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C463" s="2">
         <v>73</v>
       </c>
       <c r="G463" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -14072,7 +14206,7 @@
         <v>-11000</v>
       </c>
       <c r="G464" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -14080,7 +14214,7 @@
         <v>42554</v>
       </c>
       <c r="B465" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D465" s="6">
         <v>589</v>
@@ -14091,7 +14225,7 @@
         <v>42554</v>
       </c>
       <c r="B466" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D466" s="6">
         <v>1800</v>
@@ -14130,7 +14264,7 @@
         <v>12000</v>
       </c>
       <c r="G469" s="8" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -14149,13 +14283,13 @@
         <v>42559</v>
       </c>
       <c r="B471" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C471" s="2">
         <v>70</v>
       </c>
       <c r="G471" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -14163,7 +14297,7 @@
         <v>42559</v>
       </c>
       <c r="B472" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C472" s="2">
         <v>199</v>
@@ -14174,7 +14308,7 @@
         <v>42559</v>
       </c>
       <c r="B473" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C473" s="2">
         <v>449</v>
@@ -14185,7 +14319,7 @@
         <v>42559</v>
       </c>
       <c r="B474" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C474" s="2">
         <v>300</v>
@@ -14202,7 +14336,7 @@
         <v>12000</v>
       </c>
       <c r="G475" s="8" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -14254,7 +14388,7 @@
         <v>42563</v>
       </c>
       <c r="B480" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C480" s="2">
         <v>1555</v>
@@ -14265,7 +14399,7 @@
         <v>42569</v>
       </c>
       <c r="B481" s="15" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D481" s="6">
         <v>267</v>
@@ -14276,7 +14410,7 @@
         <v>42572</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C482" s="24"/>
       <c r="D482" s="25">
@@ -14297,7 +14431,7 @@
         <v>-12000</v>
       </c>
       <c r="G483" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -14305,7 +14439,7 @@
         <v>42582</v>
       </c>
       <c r="B484" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C484" s="2">
         <v>1600</v>
@@ -14316,7 +14450,7 @@
         <v>42582</v>
       </c>
       <c r="B485" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C485" s="2">
         <v>430</v>
@@ -14327,7 +14461,7 @@
         <v>42582</v>
       </c>
       <c r="B486" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C486" s="2">
         <v>599</v>
@@ -14360,7 +14494,7 @@
         <v>42595</v>
       </c>
       <c r="B489" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C489" s="2">
         <v>189</v>
@@ -14377,7 +14511,7 @@
         <v>6099</v>
       </c>
       <c r="G490" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -14407,7 +14541,7 @@
         <v>42623</v>
       </c>
       <c r="B493" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C493" s="2">
         <v>1044</v>
@@ -14517,7 +14651,7 @@
         <v>42682</v>
       </c>
       <c r="B503" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D503" s="6">
         <v>192</v>
@@ -14528,7 +14662,7 @@
         <v>42682</v>
       </c>
       <c r="B504" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D504" s="6">
         <v>600</v>
@@ -14539,7 +14673,7 @@
         <v>42682</v>
       </c>
       <c r="B505" s="26" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C505" s="2">
         <v>1800</v>
@@ -14550,7 +14684,7 @@
         <v>42684</v>
       </c>
       <c r="B506" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C506" s="2">
         <v>1514</v>
@@ -14594,7 +14728,7 @@
         <v>42704</v>
       </c>
       <c r="B510" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C510" s="2">
         <v>372</v>
@@ -14605,7 +14739,7 @@
         <v>42705</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D511" s="6">
         <v>300</v>
@@ -14616,7 +14750,7 @@
         <v>42705</v>
       </c>
       <c r="B512" s="15" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D512" s="6">
         <v>300</v>
@@ -14649,7 +14783,7 @@
         <v>42716</v>
       </c>
       <c r="B515" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C515" s="2">
         <v>500</v>
@@ -14671,13 +14805,13 @@
         <v>42719</v>
       </c>
       <c r="B517" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C517" s="2">
         <v>6099</v>
       </c>
       <c r="G517" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -14685,7 +14819,7 @@
         <v>42733</v>
       </c>
       <c r="B518" s="26" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C518" s="2">
         <v>1000</v>
@@ -14718,7 +14852,7 @@
         <v>42747</v>
       </c>
       <c r="B521" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C521" s="2">
         <v>1614</v>
@@ -14729,7 +14863,7 @@
         <v>42758</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D522" s="6">
         <v>545</v>
@@ -14763,7 +14897,7 @@
         <v>42761</v>
       </c>
       <c r="B525" s="27" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D525" s="6">
         <v>600</v>
@@ -14774,7 +14908,7 @@
         <v>42761</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D526" s="6">
         <v>300</v>
@@ -14785,7 +14919,7 @@
         <v>42761</v>
       </c>
       <c r="B527" s="9" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D527" s="6">
         <v>26400</v>
@@ -14802,7 +14936,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:7">
       <c r="A529" s="1">
         <v>42773</v>
       </c>
@@ -14813,7 +14947,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:7">
       <c r="A530" s="1">
         <v>42773</v>
       </c>
@@ -14824,18 +14958,18 @@
         <v>12268</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:7">
       <c r="A531" s="1">
         <v>42779</v>
       </c>
       <c r="B531" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C531" s="2">
         <v>244</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:7">
       <c r="A532" s="1">
         <v>42801</v>
       </c>
@@ -14846,7 +14980,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:7">
       <c r="A533" s="1">
         <v>42801</v>
       </c>
@@ -14857,8 +14991,124 @@
         <v>12268</v>
       </c>
     </row>
+    <row r="534" spans="1:7">
+      <c r="A534" s="1">
+        <v>42807</v>
+      </c>
+      <c r="B534" t="s">
+        <v>69</v>
+      </c>
+      <c r="C534" s="2">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535" s="1">
+        <v>42809</v>
+      </c>
+      <c r="B535" t="s">
+        <v>52</v>
+      </c>
+      <c r="C535" s="2">
+        <v>6099</v>
+      </c>
+      <c r="G535" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536" s="1">
+        <v>42812</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D536" s="6">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" s="1">
+        <v>42812</v>
+      </c>
+      <c r="B537" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D537" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538" s="1">
+        <v>42812</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D538" s="6">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B539" t="s">
+        <v>48</v>
+      </c>
+      <c r="C539" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B540" t="s">
+        <v>44</v>
+      </c>
+      <c r="C540" s="2">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" s="1">
+        <v>42838</v>
+      </c>
+      <c r="B541" t="s">
+        <v>443</v>
+      </c>
+      <c r="C541" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" s="1">
+        <v>42852</v>
+      </c>
+      <c r="B542" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="C542" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7">
+      <c r="A548" s="1">
+        <v>42901</v>
+      </c>
+      <c r="B548" t="s">
+        <v>74</v>
+      </c>
+      <c r="C548" s="2">
+        <v>6159</v>
+      </c>
+      <c r="G548" t="s">
+        <v>445</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
+  <autoFilter ref="A2:K542"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -14870,10 +15120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14882,12 +15132,13 @@
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="14" max="14" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17">
       <c r="C1" s="2">
         <f>SUBTOTAL(9,C3:C100)</f>
-        <v>6434</v>
+        <v>6617</v>
       </c>
       <c r="D1" s="6">
         <f>SUBTOTAL(9,D3:D100)</f>
@@ -14895,11 +15146,11 @@
       </c>
       <c r="E1" s="6">
         <f>D1-C1</f>
-        <v>1366</v>
+        <v>1183</v>
       </c>
       <c r="I1" s="2">
         <f>SUBTOTAL(9,I3:I1011)</f>
-        <v>1622</v>
+        <v>2414</v>
       </c>
       <c r="J1" s="6">
         <f>SUBTOTAL(9,J3:J1011)</f>
@@ -14907,10 +15158,22 @@
       </c>
       <c r="K1" s="6">
         <f>J1-I1</f>
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>386</v>
+      </c>
+      <c r="O1" s="2">
+        <f>SUBTOTAL(9,O3:O1011)</f>
+        <v>0</v>
+      </c>
+      <c r="P1" s="6">
+        <f>SUBTOTAL(9,P3:P1011)</f>
+        <v>2500</v>
+      </c>
+      <c r="Q1" s="6">
+        <f>P1-O1</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -14921,7 +15184,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
@@ -14936,13 +15199,28 @@
         <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>42070</v>
       </c>
@@ -14959,7 +15237,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I3" s="19">
         <v>477</v>
@@ -14968,8 +15246,14 @@
         <v>1800</v>
       </c>
       <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="P3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>42070</v>
       </c>
@@ -14984,7 +15268,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I4" s="19">
         <v>300</v>
@@ -14993,7 +15277,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>42159</v>
       </c>
@@ -15010,14 +15294,14 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I5" s="19">
         <v>545</v>
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>42159</v>
       </c>
@@ -15032,14 +15316,14 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I6" s="19">
         <v>300</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>42159</v>
       </c>
@@ -15053,16 +15337,20 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="6">
+        <v>492</v>
+      </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>42286</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C8" s="6">
         <v>450</v>
@@ -15073,11 +15361,15 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I8" s="6">
+        <v>300</v>
+      </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>42286</v>
       </c>
@@ -15091,11 +15383,13 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>42404</v>
       </c>
@@ -15115,12 +15409,12 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>42430</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C11" s="6">
         <v>600</v>
@@ -15133,7 +15427,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>42454</v>
       </c>
@@ -15151,7 +15445,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>42513</v>
       </c>
@@ -15169,12 +15463,12 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>42527</v>
       </c>
       <c r="B14" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C14" s="6">
         <v>150</v>
@@ -15189,12 +15483,12 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>42569</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C15" s="6">
         <v>267</v>
@@ -15207,7 +15501,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>42641</v>
       </c>
@@ -15268,7 +15562,7 @@
         <v>42705</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C19" s="6">
         <v>300</v>
@@ -15304,7 +15598,7 @@
         <v>42761</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C21" s="6">
         <v>600</v>
@@ -15318,6 +15612,22 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>42807</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="6" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15330,7 +15640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="B12:C12"/>
     </sheetView>
@@ -16080,10 +16390,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16114,16 +16424,16 @@
         <v>317</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>319</v>
@@ -16141,7 +16451,7 @@
         <v>323</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>324</v>
@@ -16209,11 +16519,11 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q7" si="1">(B2/I2)*100</f>
+        <f t="shared" ref="Q2:Q6" si="1">(B2/I2)*100</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R7" si="2">(B2/(I2+L2))*100</f>
+        <f t="shared" ref="R2:R6" si="2">(B2/(I2+L2))*100</f>
         <v>0</v>
       </c>
       <c r="S2">
@@ -16258,7 +16568,7 @@
         <v>2052798</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I6" si="8">I2+B2+J2+K2-O2</f>
+        <f t="shared" ref="I3:I7" si="8">I2+B2+J2+K2-O2</f>
         <v>2052798</v>
       </c>
       <c r="J3">
@@ -16311,7 +16621,7 @@
         <v>334</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B7" si="10">D4-E4</f>
+        <f t="shared" ref="B4:B5" si="10">D4-E4</f>
         <v>128881</v>
       </c>
       <c r="C4">
@@ -16345,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L7" si="11">L3-F4+E4</f>
+        <f t="shared" ref="L4:L6" si="11">L3-F4+E4</f>
         <v>4132611</v>
       </c>
       <c r="M4">
@@ -16422,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="11"/>
+        <f>L4-F5+E5</f>
         <v>3940894</v>
       </c>
       <c r="M5">
@@ -16465,14 +16775,14 @@
         <v>336</v>
       </c>
       <c r="B6">
-        <f t="shared" si="10"/>
-        <v>102789</v>
+        <f>D6-E6</f>
+        <v>104189</v>
       </c>
       <c r="C6">
         <v>225060</v>
       </c>
       <c r="D6">
-        <v>180125</v>
+        <v>181525</v>
       </c>
       <c r="E6">
         <v>77336</v>
@@ -16482,7 +16792,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>402404</v>
+        <v>403804</v>
       </c>
       <c r="H6">
         <f>H5+J5+P5</f>
@@ -16508,7 +16818,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="9"/>
-        <v>402404</v>
+        <v>403804</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -16518,15 +16828,15 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>3.7895777671025761</v>
+        <v>3.841192325799943</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>1.591672247664691</v>
+        <v>1.6133510376785114</v>
       </c>
       <c r="S6">
         <f t="shared" si="3"/>
-        <v>0.42601577090166687</v>
+        <v>0.43181816297924647</v>
       </c>
       <c r="T6">
         <f t="shared" si="4"/>
@@ -16534,7 +16844,7 @@
       </c>
       <c r="U6">
         <f>((I6+B6-O6)/(H6))*10</f>
-        <v>11.667789843990255</v>
+        <v>11.673592236067837</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -16542,35 +16852,50 @@
         <v>337</v>
       </c>
       <c r="B7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>D7-E7</f>
+        <v>163555</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>267000</v>
+      </c>
+      <c r="D7">
+        <v>229609</v>
+      </c>
+      <c r="E7">
+        <v>66054</v>
+      </c>
+      <c r="F7">
+        <v>268748</v>
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>402404</v>
+        <v>567359</v>
       </c>
       <c r="H7">
         <f>H6+J6+P6</f>
         <v>2532798</v>
       </c>
       <c r="I7">
-        <f>I6+B6+J6+K6-O6</f>
-        <v>2935202</v>
+        <f t="shared" si="8"/>
+        <v>2936602</v>
+      </c>
+      <c r="J7">
+        <v>120000</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="11"/>
-        <v>3745512</v>
+        <f>L6-F7+E7</f>
+        <v>3542818</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>56.064546394292591</v>
+        <v>54.678011303480865</v>
       </c>
       <c r="N7">
         <f t="shared" si="9"/>
-        <v>402404</v>
+        <v>567359</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -16579,232 +16904,240 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(B7/I7)*100</f>
+        <v>5.5695324051403627</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>(B7/(I7+L7))*100</f>
+        <v>2.5242228471066852</v>
       </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.64574829891685004</v>
       </c>
       <c r="T7">
         <f>(I7/H7)*10</f>
-        <v>11.588772574836208</v>
-      </c>
-      <c r="U7" s="17">
-        <f>((I7+B7-O7+N12-N15)/(H7))*10</f>
-        <v>18.498127367441064</v>
+        <v>11.594300058670292</v>
+      </c>
+      <c r="U7">
+        <f>((I7+B7-O7)/(H7))*10</f>
+        <v>12.240048357587144</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="16"/>
-      <c r="U8" s="17"/>
+      <c r="A8" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8" si="12">D8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8" si="13">G7+B8</f>
+        <v>567359</v>
+      </c>
+      <c r="H8">
+        <f>H7+J7+P7</f>
+        <v>2652798</v>
+      </c>
+      <c r="I8">
+        <f>I7+B7+J7+K7-O7</f>
+        <v>3220157</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="14">L7-F8+E8</f>
+        <v>3542818</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8" si="15">L8/(I8+L8)*100</f>
+        <v>52.385496028005427</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8" si="16">N7+B8-O8-P8</f>
+        <v>567359</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8" si="17">(B8/I8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8" si="18">(B8/(I8+L8))*100</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8" si="19">(B8/H8)*10</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>(I8/H8)*10</f>
+        <v>12.138719193847402</v>
+      </c>
+      <c r="U8" s="17">
+        <f>((I8+B8-O8+N13-N16)/(H8))*10</f>
+        <v>18.73552754487903</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="16"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="11" spans="1:21">
-      <c r="N11" s="3" t="s">
+    <row r="10" spans="1:21">
+      <c r="A10" s="16"/>
+      <c r="U10" s="17"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="N12" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="N12">
-        <f>P32-N32</f>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="N13">
+        <f>P26-N26</f>
         <v>1750000</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>120000</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="S13">
+    <row r="14" spans="1:21">
+      <c r="S14">
         <v>2011</v>
       </c>
-      <c r="T13">
-        <f t="shared" ref="T13:T18" si="12">O2/(H2/10)</f>
+      <c r="T14">
+        <f t="shared" ref="T14:T19" si="20">O2/(H2/10)</f>
         <v>0</v>
       </c>
-      <c r="U13">
-        <f t="shared" ref="U13:U18" si="13">P2/(H2/10)</f>
+      <c r="U14">
+        <f t="shared" ref="U14:U19" si="21">P2/(H2/10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="N14" s="3" t="s">
+    <row r="15" spans="1:21">
+      <c r="N15" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <v>2012</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="12"/>
+      <c r="T15">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="S15">
-        <v>2013</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="U15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="S16">
+        <v>2013</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="14:21">
+      <c r="S17">
         <v>2014</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="12"/>
+      <c r="T17">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="13"/>
+      <c r="U17">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="14:21">
-      <c r="N17" s="3" t="s">
+    <row r="18" spans="14:21">
+      <c r="N18" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P18" s="3"/>
+      <c r="S18">
+        <v>2015</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="14:21">
+      <c r="N19">
+        <v>50000</v>
+      </c>
+      <c r="S19">
+        <v>2016</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="14:21">
+      <c r="N21" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="S17">
-        <v>2015</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="14:21">
-      <c r="N18">
-        <v>159619</v>
-      </c>
-      <c r="P18">
-        <f>H7+P12+((H7/10)*Q15)</f>
-        <v>2652798</v>
-      </c>
-      <c r="S18">
-        <v>2016</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="14:21">
-      <c r="N20" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="14:21">
-      <c r="P21">
-        <f>((I7+B7+P12-((H7/10)*P15))/P18)*10</f>
-        <v>11.516904038679161</v>
-      </c>
-    </row>
-    <row r="23" spans="14:21">
-      <c r="N23" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="14:21">
-      <c r="N24">
-        <f>N21/(I7+B7+N12-N15+N21+N18)*100</f>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f>N27/(I7+B7+N12+P12-N15+N21+N27)*100</f>
-        <v>40.088154610699092</v>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="25" spans="14:21">
+      <c r="N25" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="14:21">
-      <c r="N26" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="14:21">
-      <c r="N27">
-        <v>3215252</v>
-      </c>
-      <c r="P27">
-        <f>(N27+N30)/(I7+B7+N12+P12-N15+N21+N27+N30)*100</f>
-        <v>40.088154610699092</v>
-      </c>
-    </row>
-    <row r="29" spans="14:21">
-      <c r="N29" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="31" spans="14:21">
-      <c r="N31" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="14:21">
-      <c r="N32">
+      <c r="N26">
         <v>6250000</v>
       </c>
-      <c r="P32">
+      <c r="P26">
         <v>8000000</v>
       </c>
     </row>
@@ -16817,10 +17150,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16833,22 +17166,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C1" t="s">
         <v>326</v>
       </c>
       <c r="D1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H1" t="s">
         <v>323</v>
@@ -16859,7 +17192,7 @@
         <v>40878</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D2">
         <v>666000</v>
@@ -16881,7 +17214,7 @@
         <v>40878</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D3">
         <v>1271798</v>
@@ -16903,7 +17236,7 @@
         <v>40909</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D4">
         <v>57500</v>
@@ -16920,7 +17253,7 @@
         <v>57500</v>
       </c>
       <c r="I4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -16928,7 +17261,7 @@
         <v>40909</v>
       </c>
       <c r="B5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D5">
         <v>57500</v>
@@ -16945,7 +17278,7 @@
         <v>57500</v>
       </c>
       <c r="I5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -16953,7 +17286,7 @@
         <v>41275</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D6">
         <v>60000</v>
@@ -16970,7 +17303,7 @@
         <v>60000</v>
       </c>
       <c r="I6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -16978,7 +17311,7 @@
         <v>41275</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D7">
         <v>60000</v>
@@ -16995,7 +17328,7 @@
         <v>60000</v>
       </c>
       <c r="I7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -17003,7 +17336,7 @@
         <v>41640</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D8">
         <v>60000</v>
@@ -17020,7 +17353,7 @@
         <v>60000</v>
       </c>
       <c r="I8" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -17028,7 +17361,7 @@
         <v>41640</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D9">
         <v>60000</v>
@@ -17045,7 +17378,7 @@
         <v>60000</v>
       </c>
       <c r="I9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -17053,7 +17386,7 @@
         <v>42005</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D10">
         <v>60000</v>
@@ -17070,7 +17403,7 @@
         <v>60000</v>
       </c>
       <c r="I10" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -17078,7 +17411,7 @@
         <v>42005</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D11">
         <v>60000</v>
@@ -17095,7 +17428,7 @@
         <v>60000</v>
       </c>
       <c r="I11" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -17103,7 +17436,7 @@
         <v>42370</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D12">
         <v>60000</v>
@@ -17120,7 +17453,7 @@
         <v>60000</v>
       </c>
       <c r="I12" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -17128,7 +17461,7 @@
         <v>42370</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D13">
         <v>60000</v>
@@ -17145,7 +17478,57 @@
         <v>60000</v>
       </c>
       <c r="I13" t="s">
-        <v>372</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14">
+        <v>60000</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F15" si="8">D14/E14</f>
+        <v>6000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G15" si="9">10*F14</f>
+        <v>60000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15">
+        <v>60000</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>6000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>60000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
